--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432383FE-4A0B-47B6-965B-720B59243B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4EA672-70A0-4DAD-A8CD-62E26372D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="965">
   <si>
     <t>Topic</t>
   </si>
@@ -3570,6 +3570,15 @@
 case 1: we see a number, just push it to the stack  case 2: we see #, check if the top of stack is also #
  if so, pop #, pop the number in a while loop, until top of stack is not #   if not, push it to stack
 in the end, check if stack size is 1, and stack top is #</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-largest-value-in-each-tree-row/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Find Largest Value in Each Tree Row</t>
+  </si>
+  <si>
+    <t>Same as Level Order Traversal but here instead of storing list of nodes at each level we just need to store max value and store it in result list</t>
   </si>
 </sst>
 </file>
@@ -8094,11 +8103,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8395,278 +8404,289 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="58">
+    <row r="27" spans="1:3" ht="43.5">
       <c r="A27" s="52" t="s">
+        <v>963</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>962</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="58">
+      <c r="A28" s="52" t="s">
         <v>852</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B28" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C28" s="52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72.5">
-      <c r="A28" s="54" t="s">
+    <row r="29" spans="1:3" ht="72.5">
+      <c r="A29" s="54" t="s">
         <v>855</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B29" s="54" t="s">
         <v>854</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C29" s="54" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="72.5">
-      <c r="A29" s="52" t="s">
+    <row r="30" spans="1:3" ht="72.5">
+      <c r="A30" s="52" t="s">
         <v>857</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B30" s="52" t="s">
         <v>856</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C30" s="52" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="58">
-      <c r="A30" s="52" t="s">
-        <v>860</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>858</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="58">
       <c r="A31" s="52" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="58">
       <c r="A32" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>861</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="58">
+      <c r="A33" s="52" t="s">
         <v>863</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B33" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C33" s="52" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="58">
-      <c r="A33" s="51" t="s">
+    <row r="34" spans="1:3" ht="58">
+      <c r="A34" s="51" t="s">
         <v>869</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B34" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C34" s="51" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="87">
-      <c r="A34" s="52" t="s">
+    <row r="35" spans="1:3" ht="87">
+      <c r="A35" s="52" t="s">
         <v>872</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B35" s="52" t="s">
         <v>873</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C35" s="52" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.5">
-      <c r="A35" s="52" t="s">
+    <row r="36" spans="1:3" ht="43.5">
+      <c r="A36" s="52" t="s">
         <v>891</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>890</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C36" s="52" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="58">
-      <c r="A36" s="52" t="s">
+    <row r="37" spans="1:3" ht="58">
+      <c r="A37" s="52" t="s">
         <v>894</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B37" s="52" t="s">
         <v>893</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C37" s="52" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="72.5">
-      <c r="A37" s="52" t="s">
+    <row r="38" spans="1:3" ht="72.5">
+      <c r="A38" s="52" t="s">
         <v>896</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B38" s="52" t="s">
         <v>897</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C38" s="52" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="52" t="s">
+    <row r="39" spans="1:3" ht="58">
+      <c r="A39" s="52" t="s">
         <v>901</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B39" s="52" t="s">
         <v>900</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C39" s="52" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="58">
-      <c r="A39" s="54" t="s">
+    <row r="40" spans="1:3" ht="58">
+      <c r="A40" s="54" t="s">
         <v>908</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B40" s="54" t="s">
         <v>909</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C40" s="54" t="s">
         <v>910</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="58">
-      <c r="A40" s="52" t="s">
-        <v>959</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>960</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="58">
       <c r="A41" s="52" t="s">
+        <v>959</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="58">
+      <c r="A42" s="52" t="s">
         <v>903</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>902</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C42" s="52" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="87">
-      <c r="A42" s="52" t="s">
+    <row r="43" spans="1:3" ht="87">
+      <c r="A43" s="52" t="s">
         <v>915</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B43" s="52" t="s">
         <v>914</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C43" s="52" t="s">
         <v>916</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="58">
-      <c r="A43" s="52" t="s">
-        <v>918</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>917</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="58">
       <c r="A44" s="52" t="s">
+        <v>918</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="58">
+      <c r="A45" s="52" t="s">
         <v>930</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B45" s="52" t="s">
         <v>929</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C45" s="52" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="87">
-      <c r="A45" s="52" t="s">
+    <row r="46" spans="1:3" ht="87">
+      <c r="A46" s="52" t="s">
         <v>933</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B46" s="52" t="s">
         <v>932</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C46" s="52" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="43.5">
-      <c r="A46" s="52" t="s">
-        <v>936</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>935</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="43.5">
       <c r="A47" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>935</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="43.5">
+      <c r="A48" s="52" t="s">
         <v>939</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B48" s="52" t="s">
         <v>938</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C48" s="52" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="29">
-      <c r="A48" s="52" t="s">
+    <row r="49" spans="1:3" ht="29">
+      <c r="A49" s="52" t="s">
         <v>950</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B49" s="56" t="s">
         <v>952</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C49" s="52" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="43.5">
-      <c r="A49" s="52" t="s">
-        <v>942</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>941</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="43.5">
       <c r="A50" s="52" t="s">
+        <v>942</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>941</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.5">
+      <c r="A51" s="52" t="s">
         <v>944</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B51" s="52" t="s">
         <v>945</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C51" s="52" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="101.5">
-      <c r="A51" s="52" t="s">
+    <row r="52" spans="1:3" ht="101.5">
+      <c r="A52" s="52" t="s">
         <v>948</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B52" s="52" t="s">
         <v>947</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C52" s="52" t="s">
         <v>949</v>
       </c>
     </row>
@@ -8683,45 +8703,46 @@
     <hyperlink ref="B22" r:id="rId9" xr:uid="{B7469615-5E4C-4680-A0FF-8C9DEA7D543E}"/>
     <hyperlink ref="B24" r:id="rId10" xr:uid="{81E656D6-8586-4633-9E7F-A65C15AF8072}"/>
     <hyperlink ref="B26" r:id="rId11" xr:uid="{E2863F46-927E-44ED-B73F-6C081BE393E2}"/>
-    <hyperlink ref="B27" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
-    <hyperlink ref="B28" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
-    <hyperlink ref="B29" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
-    <hyperlink ref="B30" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
-    <hyperlink ref="B31" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
-    <hyperlink ref="B32" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
-    <hyperlink ref="B33" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
-    <hyperlink ref="B34" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
+    <hyperlink ref="B28" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
+    <hyperlink ref="B29" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
+    <hyperlink ref="B30" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
+    <hyperlink ref="B31" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
+    <hyperlink ref="B32" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
+    <hyperlink ref="B33" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
+    <hyperlink ref="B34" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
+    <hyperlink ref="B35" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
     <hyperlink ref="B18" r:id="rId20" xr:uid="{703CB13D-8331-41D4-A9EF-F9FCE41E59E9}"/>
     <hyperlink ref="B19" r:id="rId21" xr:uid="{0CDEE7E5-3BE8-416F-A05B-E8FA9352E817}"/>
     <hyperlink ref="B25" r:id="rId22" xr:uid="{B5EFE330-A6B4-40D5-AA82-AA0CA4319188}"/>
     <hyperlink ref="B17" r:id="rId23" xr:uid="{6294FEEA-470B-4092-94D8-38FFB99982FA}"/>
     <hyperlink ref="B11" r:id="rId24" xr:uid="{3AA700D6-832B-459C-B04A-2262C5B9B313}"/>
     <hyperlink ref="B23" r:id="rId25" xr:uid="{CC705B65-45D7-42FF-8C39-BD719A069C24}"/>
-    <hyperlink ref="B35" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
-    <hyperlink ref="B36" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
-    <hyperlink ref="B37" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
-    <hyperlink ref="B38" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
-    <hyperlink ref="B41" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
+    <hyperlink ref="B36" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
+    <hyperlink ref="B37" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
+    <hyperlink ref="B38" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
+    <hyperlink ref="B39" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
+    <hyperlink ref="B42" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
     <hyperlink ref="B12" r:id="rId31" xr:uid="{4CDF29DE-F7A2-42A5-84A4-0BF96EF0A475}"/>
-    <hyperlink ref="B39" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
+    <hyperlink ref="B40" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
     <hyperlink ref="B13" r:id="rId33" xr:uid="{15C42B5C-7717-4253-B3C0-B188C8D99D9A}"/>
-    <hyperlink ref="B42" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
-    <hyperlink ref="B43" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
+    <hyperlink ref="B43" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
+    <hyperlink ref="B44" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
     <hyperlink ref="B14" r:id="rId36" xr:uid="{EC9EEFF8-9634-4DB8-B989-A97FCCF2CB1D}"/>
     <hyperlink ref="B15" r:id="rId37" xr:uid="{C6F54F02-E00C-4D59-9345-DD461A35194A}"/>
     <hyperlink ref="B16" r:id="rId38" xr:uid="{35E83BBE-42AB-47EB-9F18-9E14CF76940D}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
-    <hyperlink ref="B45" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
-    <hyperlink ref="B46" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
-    <hyperlink ref="B47" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
-    <hyperlink ref="B50" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
-    <hyperlink ref="B51" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
-    <hyperlink ref="B48" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
+    <hyperlink ref="B49" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
     <hyperlink ref="B9" r:id="rId47" xr:uid="{7C7B8320-69C2-45C0-A0A7-8F9D5B2A9C24}"/>
-    <hyperlink ref="B40" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
+    <hyperlink ref="B41" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
+    <hyperlink ref="B27" r:id="rId49" xr:uid="{76C5B337-D2A1-483E-A9C2-E1899E545301}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4EA672-70A0-4DAD-A8CD-62E26372D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA8CD5-DB0E-4807-A46F-1D25606B836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1001">
   <si>
     <t>Topic</t>
   </si>
@@ -3579,6 +3579,123 @@
   </si>
   <si>
     <t>Same as Level Order Traversal but here instead of storing list of nodes at each level we just need to store max value and store it in result list</t>
+  </si>
+  <si>
+    <t>Add One Row to Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-one-row-to-tree/</t>
+  </si>
+  <si>
+    <t>apply DFS here if depth == 1 then we need create new node and attach root node to it. If depth == 2 then we need to create level and attach to its root left and right node and also new node level left and right should be connected to previous root left and right.
+if depth &gt; 2 then we need to traverse recursively(refer code)</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/average-of-levels-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Apply level order traversal and at each level calculate sum and store its avg in result list and return it</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-ary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>N-ary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Apply level order traversal and here instead of left and right we have multiple childeren so take childeren one by one to proceed next level</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-n-ary-tree/</t>
+  </si>
+  <si>
+    <t>Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>Apply DFS but here instead of left and right multiple childeren are there so apply loop and take out max from it and return 1 + max as root count needs to be added</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes/</t>
+  </si>
+  <si>
+    <t>Smallest Subtree with all the Deepest Nodes</t>
+  </si>
+  <si>
+    <t>as we observe we will get deepest subtree only if current node has left subtree height = right subtree height 
+if not then if left height &gt; right height then deepest will be in left side else right side(check recursively) (refer code)</t>
+  </si>
+  <si>
+    <t>observation -&gt; Given preorder : 1 2 4 5 3 6;     postorder: 4 5 2 6 3 1.We see it as preorder : 1 (2 4 5) (3 6); postorder: (4 5 2) (6 3) 1 
+hence store index of postorder in map and everytime we know that start element is root node and rest is combo of left + right
+to get left from that combo we can use next value from preoder and get index from postorder and solve recursively.(refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/leaf-similar-trees/</t>
+  </si>
+  <si>
+    <t>Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get tree and store leaf node in string. At the end we get both string from both tree and check if its equal or not </t>
+  </si>
+  <si>
+    <t>Flip Equivalent Binary Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flip-equivalent-binary-trees/</t>
+  </si>
+  <si>
+    <t>Here we need to check if both tree or same or not but one extra condition that flip is acceptable hence check if root are matching then check if check both left and right if its same then return true else flip is allowed hence check left of one tree and right of second tree as well as right of one tree and left of second tree if this is true then return true else return false</t>
+  </si>
+  <si>
+    <t>complete tree means if we reached the last node in tree then after that every node should be null
+if we received any null node then we reached to end and after that every node should be null then its complete tree else its not
+hence use level order traversal and check if we alreayd reached to end if yes and then we encounter any node then false elde true (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-completeness-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Check Completeness of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/univalued-binary-tree/</t>
+  </si>
+  <si>
+    <t>Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>Check if every node has same value or not using DFS if get any different value then return false else true</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cousins-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>condition -&gt; depth should be same and parent should be different then return true else false
+Create two global pair variables and call helper function twice for x and then y. if we get that value in tree then update its level and parent using pair. And at last check above condition.(refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers/</t>
+  </si>
+  <si>
+    <t>Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>Apply DFS and get each node value and use below formula to convert binary node value into int value
+sum = 2 * sum + root.val;
+if root null then return 0 else check in left and right side and calculate sum</t>
   </si>
 </sst>
 </file>
@@ -3868,7 +3985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4036,6 +4153,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8103,11 +8223,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8184,510 +8304,642 @@
         <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>828</v>
+        <v>975</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>974</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>829</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.5">
       <c r="A8" s="51" t="s">
+        <v>827</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5">
+      <c r="A9" s="51" t="s">
         <v>831</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B9" s="51" t="s">
         <v>830</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C9" s="51" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5">
-      <c r="A9" s="54" t="s">
+    <row r="10" spans="1:3" ht="43.5">
+      <c r="A10" s="54" t="s">
         <v>954</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B10" s="54" t="s">
         <v>953</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C10" s="54" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="51" t="s">
+    <row r="11" spans="1:3" ht="43.5">
+      <c r="A11" s="51" t="s">
         <v>957</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B11" s="51" t="s">
         <v>956</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C11" s="51" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29">
-      <c r="A11" s="51" t="s">
+    <row r="12" spans="1:3" ht="29">
+      <c r="A12" s="51" t="s">
         <v>884</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B12" s="55" t="s">
         <v>885</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C12" s="51" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.5">
-      <c r="A12" s="51" t="s">
+    <row r="13" spans="1:3" ht="43.5">
+      <c r="A13" s="51" t="s">
         <v>906</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B13" s="51" t="s">
         <v>905</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C13" s="51" t="s">
         <v>907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29">
-      <c r="A13" s="52" t="s">
-        <v>912</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>911</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29">
       <c r="A14" s="52" t="s">
+        <v>912</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>911</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29">
+      <c r="A15" s="52" t="s">
         <v>921</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B15" s="56" t="s">
         <v>920</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C15" s="52" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="58">
-      <c r="A15" s="52" t="s">
+    <row r="16" spans="1:3" ht="58">
+      <c r="A16" s="52" t="s">
         <v>923</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B16" s="56" t="s">
         <v>924</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C16" s="52" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29">
-      <c r="A16" s="52" t="s">
+    <row r="17" spans="1:3" ht="29">
+      <c r="A17" s="52" t="s">
         <v>927</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B17" s="56" t="s">
         <v>926</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C17" s="52" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="58">
-      <c r="A17" s="51" t="s">
+    <row r="18" spans="1:3" ht="58">
+      <c r="A18" s="51" t="s">
         <v>834</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B18" s="51" t="s">
         <v>833</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C18" s="51" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5">
-      <c r="A18" s="52" t="s">
+    <row r="19" spans="1:3" ht="43.5">
+      <c r="A19" s="52" t="s">
         <v>875</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B19" s="52" t="s">
         <v>876</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C19" s="52" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="72.5">
-      <c r="A19" s="52" t="s">
+    <row r="20" spans="1:3" ht="72.5">
+      <c r="A20" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B20" s="52" t="s">
         <v>878</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C20" s="52" t="s">
         <v>880</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="29">
-      <c r="A20" s="51" t="s">
-        <v>837</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
       <c r="A21" s="51" t="s">
+        <v>837</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>836</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29">
+      <c r="A22" s="51" t="s">
         <v>839</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B22" s="51" t="s">
         <v>840</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C22" s="51" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.5">
-      <c r="A22" s="51" t="s">
+    <row r="23" spans="1:3" ht="43.5">
+      <c r="A23" s="51" t="s">
         <v>842</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B23" s="51" t="s">
         <v>843</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C23" s="51" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29">
-      <c r="A23" s="51" t="s">
+    <row r="24" spans="1:3" ht="29">
+      <c r="A24" s="51" t="s">
         <v>888</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B24" s="51" t="s">
         <v>887</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C24" s="51" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="58">
-      <c r="A24" s="52" t="s">
+    <row r="25" spans="1:3" ht="58">
+      <c r="A25" s="52" t="s">
         <v>846</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B25" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C25" s="52" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.5">
-      <c r="A25" s="52" t="s">
+    <row r="26" spans="1:3" ht="43.5">
+      <c r="A26" s="52" t="s">
         <v>881</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B26" s="52" t="s">
         <v>882</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C26" s="52" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="58">
-      <c r="A26" s="52" t="s">
+    <row r="27" spans="1:3" ht="58">
+      <c r="A27" s="52" t="s">
         <v>849</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B27" s="52" t="s">
         <v>848</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C27" s="52" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.5">
-      <c r="A27" s="52" t="s">
+    <row r="28" spans="1:3" ht="43.5">
+      <c r="A28" s="52" t="s">
         <v>963</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B28" s="56" t="s">
         <v>962</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C28" s="52" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="58">
-      <c r="A28" s="52" t="s">
-        <v>852</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>851</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="72.5">
-      <c r="A29" s="54" t="s">
-        <v>855</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>854</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="72.5">
+    <row r="29" spans="1:3" s="51" customFormat="1" ht="43.5">
+      <c r="A29" s="51" t="s">
+        <v>968</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>969</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="51" customFormat="1" ht="43.5">
       <c r="A30" s="52" t="s">
-        <v>857</v>
+        <v>972</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>856</v>
+        <v>971</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>865</v>
+        <v>973</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="58">
       <c r="A31" s="52" t="s">
+        <v>852</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>851</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="72.5">
+      <c r="A32" s="54" t="s">
+        <v>855</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>854</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72.5">
+      <c r="A33" s="52" t="s">
+        <v>857</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>856</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="58">
+      <c r="A34" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B34" s="52" t="s">
         <v>858</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C34" s="52" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="58">
-      <c r="A32" s="52" t="s">
+    <row r="35" spans="1:3" ht="58">
+      <c r="A35" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B35" s="52" t="s">
         <v>861</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C35" s="52" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="58">
-      <c r="A33" s="52" t="s">
+    <row r="36" spans="1:3" ht="58">
+      <c r="A36" s="52" t="s">
         <v>863</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C36" s="52" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="51" t="s">
+    <row r="37" spans="1:3" ht="58">
+      <c r="A37" s="51" t="s">
         <v>869</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B37" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C37" s="51" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="87">
-      <c r="A35" s="52" t="s">
+    <row r="38" spans="1:3" ht="87">
+      <c r="A38" s="52" t="s">
         <v>872</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B38" s="52" t="s">
         <v>873</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C38" s="52" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="43.5">
-      <c r="A36" s="52" t="s">
+    <row r="39" spans="1:3" ht="43.5">
+      <c r="A39" s="52" t="s">
         <v>891</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B39" s="52" t="s">
         <v>890</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C39" s="52" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="58">
-      <c r="A37" s="52" t="s">
+    <row r="40" spans="1:3" ht="58">
+      <c r="A40" s="52" t="s">
         <v>894</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>893</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C40" s="52" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="72.5">
-      <c r="A38" s="52" t="s">
+    <row r="41" spans="1:3" ht="72.5">
+      <c r="A41" s="52" t="s">
         <v>896</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>897</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C41" s="52" t="s">
         <v>898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="58">
-      <c r="A39" s="52" t="s">
-        <v>901</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>900</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="58">
-      <c r="A40" s="54" t="s">
-        <v>908</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>909</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="58">
-      <c r="A41" s="52" t="s">
-        <v>959</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>960</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="58">
       <c r="A42" s="52" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="87">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="58">
       <c r="A43" s="52" t="s">
-        <v>915</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>914</v>
+        <v>982</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>916</v>
+        <v>980</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="58">
-      <c r="A44" s="52" t="s">
-        <v>918</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>917</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>919</v>
+      <c r="A44" s="54" t="s">
+        <v>908</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>909</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="58">
       <c r="A45" s="52" t="s">
+        <v>959</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="58">
+      <c r="A46" s="52" t="s">
+        <v>903</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="87">
+      <c r="A47" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>914</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="58">
+      <c r="A48" s="52" t="s">
+        <v>918</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="58">
+      <c r="A49" s="52" t="s">
         <v>930</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B49" s="52" t="s">
         <v>929</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C49" s="52" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="87">
-      <c r="A46" s="52" t="s">
+    <row r="50" spans="1:3" ht="87">
+      <c r="A50" s="52" t="s">
         <v>933</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B50" s="52" t="s">
         <v>932</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C50" s="52" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="43.5">
-      <c r="A47" s="52" t="s">
-        <v>936</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>935</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="43.5">
-      <c r="A48" s="52" t="s">
-        <v>939</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>938</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="29">
-      <c r="A49" s="52" t="s">
-        <v>950</v>
-      </c>
-      <c r="B49" s="56" t="s">
-        <v>952</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="43.5">
-      <c r="A50" s="52" t="s">
-        <v>942</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>941</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="43.5">
       <c r="A51" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>935</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.5">
+      <c r="A52" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>938</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29">
+      <c r="A53" s="52" t="s">
+        <v>950</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>952</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.5">
+      <c r="A54" s="52" t="s">
+        <v>942</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>941</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="43.5">
+      <c r="A55" s="52" t="s">
         <v>944</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B55" s="52" t="s">
         <v>945</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C55" s="52" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="101.5">
-      <c r="A52" s="52" t="s">
+    <row r="56" spans="1:3" ht="101.5">
+      <c r="A56" s="52" t="s">
         <v>948</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B56" s="52" t="s">
         <v>947</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C56" s="52" t="s">
         <v>949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="57" customFormat="1" ht="58">
+      <c r="A57" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>966</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="43.5">
+      <c r="A58" s="52" t="s">
+        <v>978</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>977</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="29">
+      <c r="A59" s="51" t="s">
+        <v>984</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>983</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="43.5">
+      <c r="A60" s="52" t="s">
+        <v>986</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>987</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="58">
+      <c r="A61" s="52" t="s">
+        <v>991</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>990</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29">
+      <c r="A62" s="51" t="s">
+        <v>993</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>992</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.5">
+      <c r="A63" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>995</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.5">
+      <c r="A64" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>998</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -8697,52 +8949,64 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B42699A9-C466-4EF6-9DA9-C686803DC8E7}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{7EC8AA11-CD64-4CEE-9BCA-3AB259B4F431}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{71F484CA-DA99-403B-9CF1-20A7B38900ED}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{48F01D29-B06F-4756-B3AF-3207F99C80BD}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{D2FEB0E4-0B50-421B-908C-E25154DE9D16}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{F842F629-BA05-4D62-8983-BA282C7AF33E}"/>
-    <hyperlink ref="B22" r:id="rId9" xr:uid="{B7469615-5E4C-4680-A0FF-8C9DEA7D543E}"/>
-    <hyperlink ref="B24" r:id="rId10" xr:uid="{81E656D6-8586-4633-9E7F-A65C15AF8072}"/>
-    <hyperlink ref="B26" r:id="rId11" xr:uid="{E2863F46-927E-44ED-B73F-6C081BE393E2}"/>
-    <hyperlink ref="B28" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
-    <hyperlink ref="B29" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
-    <hyperlink ref="B30" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
-    <hyperlink ref="B31" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
-    <hyperlink ref="B32" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
-    <hyperlink ref="B33" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
-    <hyperlink ref="B34" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
-    <hyperlink ref="B35" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{703CB13D-8331-41D4-A9EF-F9FCE41E59E9}"/>
-    <hyperlink ref="B19" r:id="rId21" xr:uid="{0CDEE7E5-3BE8-416F-A05B-E8FA9352E817}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{B5EFE330-A6B4-40D5-AA82-AA0CA4319188}"/>
-    <hyperlink ref="B17" r:id="rId23" xr:uid="{6294FEEA-470B-4092-94D8-38FFB99982FA}"/>
-    <hyperlink ref="B11" r:id="rId24" xr:uid="{3AA700D6-832B-459C-B04A-2262C5B9B313}"/>
-    <hyperlink ref="B23" r:id="rId25" xr:uid="{CC705B65-45D7-42FF-8C39-BD719A069C24}"/>
-    <hyperlink ref="B36" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
-    <hyperlink ref="B37" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
-    <hyperlink ref="B38" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
-    <hyperlink ref="B39" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
-    <hyperlink ref="B42" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
-    <hyperlink ref="B12" r:id="rId31" xr:uid="{4CDF29DE-F7A2-42A5-84A4-0BF96EF0A475}"/>
-    <hyperlink ref="B40" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
-    <hyperlink ref="B13" r:id="rId33" xr:uid="{15C42B5C-7717-4253-B3C0-B188C8D99D9A}"/>
-    <hyperlink ref="B43" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
-    <hyperlink ref="B44" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
-    <hyperlink ref="B14" r:id="rId36" xr:uid="{EC9EEFF8-9634-4DB8-B989-A97FCCF2CB1D}"/>
-    <hyperlink ref="B15" r:id="rId37" xr:uid="{C6F54F02-E00C-4D59-9345-DD461A35194A}"/>
-    <hyperlink ref="B16" r:id="rId38" xr:uid="{35E83BBE-42AB-47EB-9F18-9E14CF76940D}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
-    <hyperlink ref="B49" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
-    <hyperlink ref="B9" r:id="rId47" xr:uid="{7C7B8320-69C2-45C0-A0A7-8F9D5B2A9C24}"/>
-    <hyperlink ref="B41" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
-    <hyperlink ref="B27" r:id="rId49" xr:uid="{76C5B337-D2A1-483E-A9C2-E1899E545301}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{48F01D29-B06F-4756-B3AF-3207F99C80BD}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{D2FEB0E4-0B50-421B-908C-E25154DE9D16}"/>
+    <hyperlink ref="B21" r:id="rId8" xr:uid="{F842F629-BA05-4D62-8983-BA282C7AF33E}"/>
+    <hyperlink ref="B23" r:id="rId9" xr:uid="{B7469615-5E4C-4680-A0FF-8C9DEA7D543E}"/>
+    <hyperlink ref="B25" r:id="rId10" xr:uid="{81E656D6-8586-4633-9E7F-A65C15AF8072}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{E2863F46-927E-44ED-B73F-6C081BE393E2}"/>
+    <hyperlink ref="B31" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
+    <hyperlink ref="B32" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
+    <hyperlink ref="B33" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
+    <hyperlink ref="B34" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
+    <hyperlink ref="B35" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
+    <hyperlink ref="B36" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
+    <hyperlink ref="B37" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
+    <hyperlink ref="B38" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{703CB13D-8331-41D4-A9EF-F9FCE41E59E9}"/>
+    <hyperlink ref="B20" r:id="rId21" xr:uid="{0CDEE7E5-3BE8-416F-A05B-E8FA9352E817}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{B5EFE330-A6B4-40D5-AA82-AA0CA4319188}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{6294FEEA-470B-4092-94D8-38FFB99982FA}"/>
+    <hyperlink ref="B12" r:id="rId24" xr:uid="{3AA700D6-832B-459C-B04A-2262C5B9B313}"/>
+    <hyperlink ref="B24" r:id="rId25" xr:uid="{CC705B65-45D7-42FF-8C39-BD719A069C24}"/>
+    <hyperlink ref="B39" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
+    <hyperlink ref="B40" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
+    <hyperlink ref="B41" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
+    <hyperlink ref="B42" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
+    <hyperlink ref="B13" r:id="rId31" xr:uid="{4CDF29DE-F7A2-42A5-84A4-0BF96EF0A475}"/>
+    <hyperlink ref="B44" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
+    <hyperlink ref="B14" r:id="rId33" xr:uid="{15C42B5C-7717-4253-B3C0-B188C8D99D9A}"/>
+    <hyperlink ref="B47" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
+    <hyperlink ref="B48" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
+    <hyperlink ref="B15" r:id="rId36" xr:uid="{EC9EEFF8-9634-4DB8-B989-A97FCCF2CB1D}"/>
+    <hyperlink ref="B16" r:id="rId37" xr:uid="{C6F54F02-E00C-4D59-9345-DD461A35194A}"/>
+    <hyperlink ref="B17" r:id="rId38" xr:uid="{35E83BBE-42AB-47EB-9F18-9E14CF76940D}"/>
+    <hyperlink ref="B49" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
+    <hyperlink ref="B50" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
+    <hyperlink ref="B51" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
+    <hyperlink ref="B52" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
+    <hyperlink ref="B54" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
+    <hyperlink ref="B56" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
+    <hyperlink ref="B10" r:id="rId47" xr:uid="{7C7B8320-69C2-45C0-A0A7-8F9D5B2A9C24}"/>
+    <hyperlink ref="B45" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
+    <hyperlink ref="B28" r:id="rId49" xr:uid="{76C5B337-D2A1-483E-A9C2-E1899E545301}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
+    <hyperlink ref="B29" r:id="rId51" xr:uid="{E8DE5051-0B7E-4601-9690-FDA131A96C6D}"/>
+    <hyperlink ref="B30" r:id="rId52" xr:uid="{701FBF49-43F4-4B64-901F-71835F2BE4E5}"/>
+    <hyperlink ref="B7" r:id="rId53" xr:uid="{977DCDA6-4170-46C4-851B-F2F20496811E}"/>
+    <hyperlink ref="B58" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
+    <hyperlink ref="B43" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
+    <hyperlink ref="B59" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
+    <hyperlink ref="B60" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
+    <hyperlink ref="B61" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
+    <hyperlink ref="B62" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
+    <hyperlink ref="B63" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
+    <hyperlink ref="B64" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA8CD5-DB0E-4807-A46F-1D25606B836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBEF36B-3742-494F-8DE2-0929CF363449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1007">
   <si>
     <t>Topic</t>
   </si>
@@ -3696,6 +3696,25 @@
     <t>Apply DFS and get each node value and use below formula to convert binary node value into int value
 sum = 2 * sum + root.val;
 if root null then return 0 else check in left and right side and calculate sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-a-tree-from-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Recover a Tree From Preorder Traversal</t>
+  </si>
+  <si>
+    <t>input string : "1-401--349---90--88" here at number of '-' representing level of that node.
+Hence first get count of '-' if it matches with level then we need to take out number from it and build root node and then need to create its left and right child recursively. if doesnt matches then return null. (refer code)(dry run)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Apply level order traversal and at each level calculate sum and check if its maxSum if yes then store its level and return maxLevel at the end</t>
   </si>
 </sst>
 </file>
@@ -8223,11 +8242,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8559,387 +8578,409 @@
     </row>
     <row r="30" spans="1:3" s="51" customFormat="1" ht="43.5">
       <c r="A30" s="52" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="51" customFormat="1" ht="43.5">
+      <c r="A31" s="52" t="s">
         <v>972</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B31" s="52" t="s">
         <v>971</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C31" s="52" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="58">
-      <c r="A31" s="52" t="s">
+    <row r="32" spans="1:3" ht="58">
+      <c r="A32" s="52" t="s">
         <v>852</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B32" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C32" s="52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="72.5">
-      <c r="A32" s="54" t="s">
+    <row r="33" spans="1:3" ht="72.5">
+      <c r="A33" s="54" t="s">
         <v>855</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B33" s="54" t="s">
         <v>854</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C33" s="54" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="72.5">
-      <c r="A33" s="52" t="s">
+    <row r="34" spans="1:3" ht="72.5">
+      <c r="A34" s="52" t="s">
         <v>857</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B34" s="52" t="s">
         <v>856</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C34" s="52" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="52" t="s">
-        <v>860</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>858</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="58">
       <c r="A35" s="52" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="58">
       <c r="A36" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>861</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="58">
+      <c r="A37" s="52" t="s">
         <v>863</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B37" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C37" s="52" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="58">
-      <c r="A37" s="51" t="s">
+    <row r="38" spans="1:3" ht="58">
+      <c r="A38" s="51" t="s">
         <v>869</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B38" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C38" s="51" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="87">
-      <c r="A38" s="52" t="s">
+    <row r="39" spans="1:3" ht="87">
+      <c r="A39" s="52" t="s">
         <v>872</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B39" s="52" t="s">
         <v>873</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C39" s="52" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="43.5">
-      <c r="A39" s="52" t="s">
+    <row r="40" spans="1:3" ht="43.5">
+      <c r="A40" s="52" t="s">
         <v>891</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>890</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C40" s="52" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="58">
-      <c r="A40" s="52" t="s">
+    <row r="41" spans="1:3" ht="58">
+      <c r="A41" s="52" t="s">
         <v>894</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>893</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C41" s="52" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72.5">
-      <c r="A41" s="52" t="s">
+    <row r="42" spans="1:3" ht="72.5">
+      <c r="A42" s="52" t="s">
         <v>896</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>897</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C42" s="52" t="s">
         <v>898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="58">
-      <c r="A42" s="52" t="s">
-        <v>901</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>900</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="58">
       <c r="A43" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>900</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="58">
+      <c r="A44" s="52" t="s">
         <v>982</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B44" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C44" s="52" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58">
-      <c r="A44" s="54" t="s">
+    <row r="45" spans="1:3" ht="58">
+      <c r="A45" s="54" t="s">
         <v>908</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B45" s="54" t="s">
         <v>909</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C45" s="54" t="s">
         <v>910</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="58">
-      <c r="A45" s="52" t="s">
-        <v>959</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>960</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="58">
       <c r="A46" s="52" t="s">
+        <v>959</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="58">
+      <c r="A47" s="52" t="s">
         <v>903</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B47" s="52" t="s">
         <v>902</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C47" s="52" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="87">
-      <c r="A47" s="52" t="s">
+    <row r="48" spans="1:3" ht="87">
+      <c r="A48" s="52" t="s">
         <v>915</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B48" s="52" t="s">
         <v>914</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C48" s="52" t="s">
         <v>916</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="58">
-      <c r="A48" s="52" t="s">
-        <v>918</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>917</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="58">
       <c r="A49" s="52" t="s">
+        <v>918</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="58">
+      <c r="A50" s="52" t="s">
         <v>930</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B50" s="52" t="s">
         <v>929</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C50" s="52" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="87">
-      <c r="A50" s="52" t="s">
+    <row r="51" spans="1:3" ht="87">
+      <c r="A51" s="52" t="s">
         <v>933</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B51" s="52" t="s">
         <v>932</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C51" s="52" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.5">
-      <c r="A51" s="52" t="s">
-        <v>936</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>935</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.5">
       <c r="A52" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>935</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.5">
+      <c r="A53" s="52" t="s">
         <v>939</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B53" s="52" t="s">
         <v>938</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C53" s="52" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="29">
-      <c r="A53" s="52" t="s">
+    <row r="54" spans="1:3" ht="29">
+      <c r="A54" s="52" t="s">
         <v>950</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B54" s="56" t="s">
         <v>952</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C54" s="52" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="43.5">
-      <c r="A54" s="52" t="s">
-        <v>942</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>941</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.5">
       <c r="A55" s="52" t="s">
+        <v>942</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>941</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="43.5">
+      <c r="A56" s="52" t="s">
         <v>944</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B56" s="52" t="s">
         <v>945</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C56" s="52" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="101.5">
-      <c r="A56" s="52" t="s">
+    <row r="57" spans="1:3" ht="101.5">
+      <c r="A57" s="52" t="s">
         <v>948</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B57" s="52" t="s">
         <v>947</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C57" s="52" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="57" customFormat="1" ht="58">
-      <c r="A57" s="52" t="s">
+    <row r="58" spans="1:3" s="57" customFormat="1" ht="58">
+      <c r="A58" s="52" t="s">
         <v>965</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B58" s="52" t="s">
         <v>966</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C58" s="52" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="43.5">
-      <c r="A58" s="52" t="s">
+    <row r="59" spans="1:3" ht="43.5">
+      <c r="A59" s="52" t="s">
         <v>978</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B59" s="52" t="s">
         <v>977</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C59" s="52" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="29">
-      <c r="A59" s="51" t="s">
+    <row r="60" spans="1:3" ht="29">
+      <c r="A60" s="51" t="s">
         <v>984</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B60" s="51" t="s">
         <v>983</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C60" s="51" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="43.5">
-      <c r="A60" s="52" t="s">
+    <row r="61" spans="1:3" ht="43.5">
+      <c r="A61" s="52" t="s">
         <v>986</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B61" s="52" t="s">
         <v>987</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C61" s="52" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="58">
-      <c r="A61" s="52" t="s">
+    <row r="62" spans="1:3" ht="58">
+      <c r="A62" s="52" t="s">
         <v>991</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B62" s="52" t="s">
         <v>990</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C62" s="52" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="29">
-      <c r="A62" s="51" t="s">
+    <row r="63" spans="1:3" ht="29">
+      <c r="A63" s="51" t="s">
         <v>993</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B63" s="51" t="s">
         <v>992</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C63" s="51" t="s">
         <v>994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="43.5">
-      <c r="A63" s="51" t="s">
-        <v>996</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>995</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.5">
       <c r="A64" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>995</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.5">
+      <c r="A65" s="51" t="s">
         <v>999</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B65" s="51" t="s">
         <v>998</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C65" s="51" t="s">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.5">
+      <c r="A66" s="54" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -8955,58 +8996,59 @@
     <hyperlink ref="B23" r:id="rId9" xr:uid="{B7469615-5E4C-4680-A0FF-8C9DEA7D543E}"/>
     <hyperlink ref="B25" r:id="rId10" xr:uid="{81E656D6-8586-4633-9E7F-A65C15AF8072}"/>
     <hyperlink ref="B27" r:id="rId11" xr:uid="{E2863F46-927E-44ED-B73F-6C081BE393E2}"/>
-    <hyperlink ref="B31" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
-    <hyperlink ref="B32" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
-    <hyperlink ref="B33" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
-    <hyperlink ref="B34" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
-    <hyperlink ref="B35" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
-    <hyperlink ref="B36" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
-    <hyperlink ref="B37" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
-    <hyperlink ref="B38" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
+    <hyperlink ref="B32" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
+    <hyperlink ref="B33" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
+    <hyperlink ref="B34" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
+    <hyperlink ref="B35" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
+    <hyperlink ref="B36" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
+    <hyperlink ref="B37" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
+    <hyperlink ref="B38" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
+    <hyperlink ref="B39" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
     <hyperlink ref="B19" r:id="rId20" xr:uid="{703CB13D-8331-41D4-A9EF-F9FCE41E59E9}"/>
     <hyperlink ref="B20" r:id="rId21" xr:uid="{0CDEE7E5-3BE8-416F-A05B-E8FA9352E817}"/>
     <hyperlink ref="B26" r:id="rId22" xr:uid="{B5EFE330-A6B4-40D5-AA82-AA0CA4319188}"/>
     <hyperlink ref="B18" r:id="rId23" xr:uid="{6294FEEA-470B-4092-94D8-38FFB99982FA}"/>
     <hyperlink ref="B12" r:id="rId24" xr:uid="{3AA700D6-832B-459C-B04A-2262C5B9B313}"/>
     <hyperlink ref="B24" r:id="rId25" xr:uid="{CC705B65-45D7-42FF-8C39-BD719A069C24}"/>
-    <hyperlink ref="B39" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
-    <hyperlink ref="B40" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
-    <hyperlink ref="B41" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
-    <hyperlink ref="B42" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
+    <hyperlink ref="B40" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
+    <hyperlink ref="B41" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
+    <hyperlink ref="B42" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
+    <hyperlink ref="B43" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
+    <hyperlink ref="B47" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
     <hyperlink ref="B13" r:id="rId31" xr:uid="{4CDF29DE-F7A2-42A5-84A4-0BF96EF0A475}"/>
-    <hyperlink ref="B44" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
+    <hyperlink ref="B45" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
     <hyperlink ref="B14" r:id="rId33" xr:uid="{15C42B5C-7717-4253-B3C0-B188C8D99D9A}"/>
-    <hyperlink ref="B47" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
-    <hyperlink ref="B48" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
+    <hyperlink ref="B48" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
+    <hyperlink ref="B49" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
     <hyperlink ref="B15" r:id="rId36" xr:uid="{EC9EEFF8-9634-4DB8-B989-A97FCCF2CB1D}"/>
     <hyperlink ref="B16" r:id="rId37" xr:uid="{C6F54F02-E00C-4D59-9345-DD461A35194A}"/>
     <hyperlink ref="B17" r:id="rId38" xr:uid="{35E83BBE-42AB-47EB-9F18-9E14CF76940D}"/>
-    <hyperlink ref="B49" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
-    <hyperlink ref="B50" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
-    <hyperlink ref="B51" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
-    <hyperlink ref="B52" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
-    <hyperlink ref="B54" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
-    <hyperlink ref="B55" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
+    <hyperlink ref="B50" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
+    <hyperlink ref="B51" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
+    <hyperlink ref="B52" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
+    <hyperlink ref="B53" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
+    <hyperlink ref="B55" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
+    <hyperlink ref="B56" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
+    <hyperlink ref="B57" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
+    <hyperlink ref="B54" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
     <hyperlink ref="B10" r:id="rId47" xr:uid="{7C7B8320-69C2-45C0-A0A7-8F9D5B2A9C24}"/>
-    <hyperlink ref="B45" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
+    <hyperlink ref="B46" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
     <hyperlink ref="B28" r:id="rId49" xr:uid="{76C5B337-D2A1-483E-A9C2-E1899E545301}"/>
-    <hyperlink ref="B57" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
     <hyperlink ref="B29" r:id="rId51" xr:uid="{E8DE5051-0B7E-4601-9690-FDA131A96C6D}"/>
-    <hyperlink ref="B30" r:id="rId52" xr:uid="{701FBF49-43F4-4B64-901F-71835F2BE4E5}"/>
+    <hyperlink ref="B31" r:id="rId52" xr:uid="{701FBF49-43F4-4B64-901F-71835F2BE4E5}"/>
     <hyperlink ref="B7" r:id="rId53" xr:uid="{977DCDA6-4170-46C4-851B-F2F20496811E}"/>
-    <hyperlink ref="B58" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
-    <hyperlink ref="B43" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
-    <hyperlink ref="B59" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
-    <hyperlink ref="B60" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
-    <hyperlink ref="B61" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
-    <hyperlink ref="B62" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
-    <hyperlink ref="B63" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
-    <hyperlink ref="B64" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
+    <hyperlink ref="B59" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
+    <hyperlink ref="B44" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
+    <hyperlink ref="B60" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
+    <hyperlink ref="B61" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
+    <hyperlink ref="B62" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
+    <hyperlink ref="B63" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
+    <hyperlink ref="B64" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
+    <hyperlink ref="B65" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{3E463A75-D9FE-4632-B903-8E98CD3C3879}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBEF36B-3742-494F-8DE2-0929CF363449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443A3D9-1174-4F37-835A-706D356E544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1025">
   <si>
     <t>Topic</t>
   </si>
@@ -3080,10 +3080,6 @@
     <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
   </si>
   <si>
-    <t>1. Recursive -&gt; follow for indorder -&gt; Left | Node | Right
-2. Iterative -&gt; create stack to store nodes in DFS order and pop out nodes and store in ans array and check for right only if we reached to null node(refer code)</t>
-  </si>
-  <si>
     <t>Binary Tree Preorder Traversal</t>
   </si>
   <si>
@@ -3094,11 +3090,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-postorder-traversal/</t>
-  </si>
-  <si>
-    <t>1. Recursive -&gt; follow for preorder -&gt; Node | left | Right
-2. Iterative -&gt; create stack to store nodes. Add root node in stack and keep iterating till stack becomes empty
-everytime popout node and store in list then store its right and left nodes in stack and keep doing this(check order -&gt; right then left while storing in stack)</t>
   </si>
   <si>
     <t>1. Recursive -&gt; follow for preorder -&gt; left | right | root
@@ -3715,6 +3706,82 @@
   </si>
   <si>
     <t>Apply level order traversal and at each level calculate sum and check if its maxSum if yes then store its level and return maxLevel at the end</t>
+  </si>
+  <si>
+    <t>1. Recursive -&gt; follow for indorder -&gt; Left | Node | Right
+2. Iterative -&gt; create stack to store nodes in DFS order and pop out nodes and store in ans array and check for right only if we reached to null node(refer code)
+3. Morris traversal : 
+1st case: if left is null, print current node and go right
+2nd case: before going left, make right most node on left subtree connected to current node, then go left
+3rd case: if thread is already pointed to current node, then remove the thread(Refer code)</t>
+  </si>
+  <si>
+    <t>1. Recursive -&gt; follow for preorder -&gt; Node | left | Right
+2. Iterative -&gt; create stack to store nodes. Add root node in stack and keep iterating till stack becomes empty
+everytime popout node and store in list then store its right and left nodes in stack and keep doing this(check order -&gt; right then left while storing in stack)
+3. Morris traversal : 
+1st case: if left is null, print current node and go right
+2nd case: before going left, make right most node on left subtree connected to current node, then go left
+3rd case: if thread is already pointed to current node, then remove the thread(Refer code)</t>
+  </si>
+  <si>
+    <t>Delete Nodes And Return Forest</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-nodes-and-return-forest/</t>
+  </si>
+  <si>
+    <t>Here we need to delete nodes which are mentioned in list and return all disjoint subtree.
+Here we deleting node from bottom to up hence go its leftmost and rightmost node and check if it needs to be deleted or not if yes then add its left and right in result if not null.(refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths/</t>
+  </si>
+  <si>
+    <t>Insufficient Nodes in Root to Leaf Paths</t>
+  </si>
+  <si>
+    <t>Here from root to leaf node sum should be greater or equal to limit if not then remove that leaf node
+if root null return null else if root is itself leaft node then check if it is &gt; limit if yes then retrun root else null
+else check for its left and righ part and check if both are same then its leading to null then return null else return root</t>
+  </si>
+  <si>
+    <t>Minimum time taken to BURN the Binary Tree from a Node</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/burning-tree/1?track=amazon-trees</t>
+  </si>
+  <si>
+    <t>Here we need to find mimimum time to burn node from traget node
+step 1: find targetNode and build parentMap for each node
+step 2: apply level order traversal and check if targetnode parent,left,right is not null and also not visited then it will take time to burn == 1 sec . so add all in queue and solve iteratively and update time by 1 if atleast one node is burn among all three(refer code)</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Apply BST condition -&gt; if same value return else check if root value &gt; val then move to left tree else right tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implementing-ceil-in-bst/1</t>
+  </si>
+  <si>
+    <t>Ceil in BST</t>
+  </si>
+  <si>
+    <t>Apply BST condition -&gt; if we get same value as key then return immediately. Else check if we get smaller value then move to right part of tree. Else store root value in ceil and check in left tree for more close value if any</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/floor-from-bst_920457?source=youtube&amp;campaign=Striver_Tree_Videos&amp;utm_source=youtube&amp;utm_medium=affiliate&amp;utm_campaign=Striver_Tree_Videos</t>
+  </si>
+  <si>
+    <t>Floor in BST</t>
+  </si>
+  <si>
+    <t>Apply BST condition -&gt; if we get same value as key then return immediately. Else check if we get greater value then move to left part of tree. Else store root value in floor and check in right tree for more close value if any</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3904,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3897,6 +3964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4004,7 +4077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4175,6 +4248,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8242,11 +8318,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8268,7 +8344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5">
+    <row r="2" spans="1:3" ht="101.5">
       <c r="A2" s="51" t="s">
         <v>812</v>
       </c>
@@ -8276,711 +8352,778 @@
         <v>813</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="116">
+      <c r="A3" s="51" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="58">
-      <c r="A3" s="51" t="s">
+      <c r="B3" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>816</v>
-      </c>
       <c r="C3" s="51" t="s">
-        <v>819</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5">
       <c r="A4" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>817</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="C4" s="51" t="s">
         <v>818</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5">
       <c r="A5" s="51" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>821</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5">
       <c r="A6" s="51" t="s">
+        <v>822</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>824</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>825</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29">
       <c r="A7" s="51" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>972</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>974</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.5">
       <c r="A8" s="51" t="s">
+        <v>825</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>827</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5">
       <c r="A9" s="51" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B9" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>830</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5">
       <c r="A10" s="54" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B10" s="54" t="s">
+        <v>951</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>953</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.5">
       <c r="A11" s="51" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B11" s="51" t="s">
+        <v>954</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>956</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29">
       <c r="A12" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>884</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>885</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5">
       <c r="A13" s="51" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B13" s="51" t="s">
+        <v>903</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>905</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29">
       <c r="A14" s="52" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>909</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>911</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29">
       <c r="A15" s="52" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B15" s="56" t="s">
+        <v>918</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>920</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="58">
       <c r="A16" s="52" t="s">
+        <v>921</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>922</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>923</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>924</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" s="52" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B17" s="56" t="s">
+        <v>924</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>926</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58">
       <c r="A18" s="51" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B18" s="51" t="s">
+        <v>831</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>833</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.5">
       <c r="A19" s="52" t="s">
+        <v>873</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>874</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>875</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>876</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72.5">
       <c r="A20" s="52" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B20" s="52" t="s">
+        <v>876</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>878</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
       <c r="A21" s="51" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B21" s="51" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>836</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29">
       <c r="A22" s="51" t="s">
+        <v>837</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>838</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>839</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>840</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.5">
       <c r="A23" s="51" t="s">
+        <v>840</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>841</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>842</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>843</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29">
       <c r="A24" s="51" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B24" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>887</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="58">
       <c r="A25" s="52" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B25" s="52" t="s">
+        <v>843</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>845</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.5">
       <c r="A26" s="52" t="s">
+        <v>879</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>880</v>
+      </c>
+      <c r="C26" s="52" t="s">
         <v>881</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>882</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58">
       <c r="A27" s="52" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B27" s="52" t="s">
+        <v>846</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>848</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.5">
       <c r="A28" s="52" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B28" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="C28" s="52" t="s">
         <v>962</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="51" customFormat="1" ht="43.5">
       <c r="A29" s="51" t="s">
+        <v>966</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>967</v>
+      </c>
+      <c r="C29" s="51" t="s">
         <v>968</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>969</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="51" customFormat="1" ht="43.5">
       <c r="A30" s="52" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B30" s="52" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>1004</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="51" customFormat="1" ht="43.5">
       <c r="A31" s="52" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B31" s="52" t="s">
+        <v>969</v>
+      </c>
+      <c r="C31" s="52" t="s">
         <v>971</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="58">
       <c r="A32" s="52" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B32" s="52" t="s">
+        <v>849</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>851</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72.5">
       <c r="A33" s="54" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="72.5">
       <c r="A34" s="52" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="58">
       <c r="A35" s="52" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="58">
       <c r="A36" s="52" t="s">
+        <v>857</v>
+      </c>
+      <c r="B36" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>861</v>
-      </c>
       <c r="C36" s="52" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="58">
       <c r="A37" s="52" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
       <c r="A38" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>869</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>870</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="87">
       <c r="A39" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="C39" s="52" t="s">
         <v>872</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>873</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.5">
       <c r="A40" s="52" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B40" s="52" t="s">
+        <v>888</v>
+      </c>
+      <c r="C40" s="52" t="s">
         <v>890</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="58">
       <c r="A41" s="52" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B41" s="52" t="s">
+        <v>891</v>
+      </c>
+      <c r="C41" s="52" t="s">
         <v>893</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="72.5">
       <c r="A42" s="52" t="s">
+        <v>894</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>895</v>
+      </c>
+      <c r="C42" s="52" t="s">
         <v>896</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>897</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="58">
       <c r="A43" s="52" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="58">
       <c r="A44" s="52" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="58">
       <c r="A45" s="54" t="s">
+        <v>906</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>908</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>909</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="58">
       <c r="A46" s="52" t="s">
+        <v>957</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>958</v>
+      </c>
+      <c r="C46" s="52" t="s">
         <v>959</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>960</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="58">
       <c r="A47" s="52" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B47" s="52" t="s">
+        <v>900</v>
+      </c>
+      <c r="C47" s="52" t="s">
         <v>902</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="87">
       <c r="A48" s="52" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B48" s="52" t="s">
+        <v>912</v>
+      </c>
+      <c r="C48" s="52" t="s">
         <v>914</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="58">
       <c r="A49" s="52" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B49" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="C49" s="52" t="s">
         <v>917</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="58">
       <c r="A50" s="52" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B50" s="52" t="s">
+        <v>927</v>
+      </c>
+      <c r="C50" s="52" t="s">
         <v>929</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="87">
       <c r="A51" s="52" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B51" s="52" t="s">
+        <v>930</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>932</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.5">
       <c r="A52" s="52" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B52" s="52" t="s">
+        <v>933</v>
+      </c>
+      <c r="C52" s="52" t="s">
         <v>935</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="43.5">
       <c r="A53" s="52" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B53" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>938</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="29">
       <c r="A54" s="52" t="s">
+        <v>948</v>
+      </c>
+      <c r="B54" s="56" t="s">
         <v>950</v>
       </c>
-      <c r="B54" s="56" t="s">
-        <v>952</v>
-      </c>
       <c r="C54" s="52" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.5">
       <c r="A55" s="52" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B55" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="C55" s="52" t="s">
         <v>941</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="43.5">
       <c r="A56" s="52" t="s">
+        <v>942</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>943</v>
+      </c>
+      <c r="C56" s="52" t="s">
         <v>944</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>945</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="101.5">
       <c r="A57" s="52" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B57" s="52" t="s">
+        <v>945</v>
+      </c>
+      <c r="C57" s="52" t="s">
         <v>947</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="57" customFormat="1" ht="58">
       <c r="A58" s="52" t="s">
+        <v>963</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>964</v>
+      </c>
+      <c r="C58" s="52" t="s">
         <v>965</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>966</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="43.5">
       <c r="A59" s="52" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B59" s="52" t="s">
+        <v>975</v>
+      </c>
+      <c r="C59" s="52" t="s">
         <v>977</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="29">
       <c r="A60" s="51" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B60" s="51" t="s">
+        <v>981</v>
+      </c>
+      <c r="C60" s="51" t="s">
         <v>983</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.5">
       <c r="A61" s="52" t="s">
+        <v>984</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="C61" s="52" t="s">
         <v>986</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>987</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="58">
       <c r="A62" s="52" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="29">
       <c r="A63" s="51" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B63" s="51" t="s">
+        <v>990</v>
+      </c>
+      <c r="C63" s="51" t="s">
         <v>992</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.5">
       <c r="A64" s="51" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B64" s="51" t="s">
+        <v>993</v>
+      </c>
+      <c r="C64" s="51" t="s">
         <v>995</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.5">
       <c r="A65" s="51" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B65" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="C65" s="51" t="s">
         <v>998</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="43.5">
       <c r="A66" s="54" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B66" s="54" t="s">
+        <v>999</v>
+      </c>
+      <c r="C66" s="54" t="s">
         <v>1001</v>
       </c>
-      <c r="C66" s="54" t="s">
-        <v>1003</v>
+    </row>
+    <row r="67" spans="1:3" ht="43.5">
+      <c r="A67" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.5">
+      <c r="A68" s="52" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="72.5">
+      <c r="A69" s="54" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="58" customFormat="1"/>
+    <row r="71" spans="1:3" ht="29">
+      <c r="A71" s="51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.5">
+      <c r="A72" s="52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="53.5" customHeight="1">
+      <c r="A73" s="52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -9047,8 +9190,14 @@
     <hyperlink ref="B64" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
     <hyperlink ref="B65" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
     <hyperlink ref="B66" r:id="rId62" xr:uid="{3E463A75-D9FE-4632-B903-8E98CD3C3879}"/>
+    <hyperlink ref="B67" r:id="rId63" xr:uid="{9693B0D0-37B2-41EA-9889-27BD8B867720}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{C42B949D-FEEC-44F5-A1AE-DAF5DA2B1CF2}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{8E4E89F4-3053-4E16-B89C-0614C93435E5}"/>
+    <hyperlink ref="B71" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
+    <hyperlink ref="B72" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
+    <hyperlink ref="B73" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443A3D9-1174-4F37-835A-706D356E544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA924D2-E5B9-4E56-8F67-E356655431B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1031">
   <si>
     <t>Topic</t>
   </si>
@@ -3782,6 +3782,31 @@
   </si>
   <si>
     <t>Apply BST condition -&gt; if we get same value as key then return immediately. Else check if we get greater value then move to left part of tree. Else store root value in floor and check in right tree for more close value if any</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-into-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>if root null then create new node with given value and return it.
+Else check if val &gt; then move to right part and keep going until we get null if we get null create new node with given value and break
+same if val &lt; then move to left part and keep going until we get null and do same</t>
+  </si>
+  <si>
+    <t>Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-bst/</t>
+  </si>
+  <si>
+    <t>step 1 : find keynode and return it to helper function which will handle delete operation.
+Step2 : helper function -&gt; once we get keyNode check if its has left null then retrun right or if right null then retrun left
+if both are there then store both tree in variables(leftTree and rightTree) and now use any one method below
+method 1 : find rightmost node in leftTree and attach its right to rightTree and return leftTree
+method 2 : find leftmost node in rightTree and attach its left to leftTree and return rightTree
+ (refer code and dry run)</t>
   </si>
 </sst>
 </file>
@@ -8318,11 +8343,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9124,6 +9149,28 @@
       </c>
       <c r="C73" s="52" t="s">
         <v>1024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="58">
+      <c r="A74" s="52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="87">
+      <c r="A75" s="52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -9196,8 +9243,10 @@
     <hyperlink ref="B71" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
     <hyperlink ref="B72" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
     <hyperlink ref="B73" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
+    <hyperlink ref="B74" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
+    <hyperlink ref="B75" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA924D2-E5B9-4E56-8F67-E356655431B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D333E-5DBC-4F05-A493-B8B3D415E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1040">
   <si>
     <t>Topic</t>
   </si>
@@ -3807,6 +3807,36 @@
 method 1 : find rightmost node in leftTree and attach its right to rightTree and return leftTree
 method 2 : find leftmost node in rightTree and attach its left to leftTree and return rightTree
  (refer code and dry run)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>As we know inorder of BST will give us sorted nodes list. so apply morris traversal and keep counting how many nodes passed if count == k then we found node hence return node.val. Whenever we add node in list instead of that just update count by 1 and it it =k then return that node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>here we are passing limit to every node and every node should be in that range -&gt; minVal &lt; node value &lt; maxVal
+if root null then retrun true or if root value is not in range then false else check in left and right side and change limit value</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>in BST for LCA if both nodes are present different location that is one in left and one in right at current node then that node is LCA
+if both node values are less than current node value then go to left or if values more than current node value then go to right
+else that node is LCA return it</t>
   </si>
 </sst>
 </file>
@@ -8343,11 +8373,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9171,6 +9201,39 @@
       </c>
       <c r="C75" s="52" t="s">
         <v>1030</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="43.5">
+      <c r="A76" s="52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="29">
+      <c r="A77" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="43.5">
+      <c r="A78" s="52" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -9245,8 +9308,11 @@
     <hyperlink ref="B73" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
     <hyperlink ref="B74" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
     <hyperlink ref="B75" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
+    <hyperlink ref="B76" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
+    <hyperlink ref="B77" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
+    <hyperlink ref="B78" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D333E-5DBC-4F05-A493-B8B3D415E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803C3BD-4DA9-40F2-BE01-38AE95D73247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="1049">
   <si>
     <t>Topic</t>
   </si>
@@ -3837,6 +3837,35 @@
     <t>in BST for LCA if both nodes are present different location that is one in left and one in right at current node then that node is LCA
 if both node values are less than current node value then go to left or if values more than current node value then go to right
 else that node is LCA return it</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Same as Validate Binary Search Tree. Apply bound to each element in preorder list and if not fitting in that range then return null else create node and generate its left and right recursively and also change limit value accordingly</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/inorder-successor-in-bst/1</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>Same as Ceil in BST. pply BST condition -&gt; icheck if root value &lt;= val then move to right tree else store successor and to find next closer successor move to left tree
+**Same way we can find  Predecessor in BST which is Floor in BST. Just reverse if else conditon</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-of-bst/</t>
+  </si>
+  <si>
+    <t>Range Sum of BST</t>
+  </si>
+  <si>
+    <t>if root is null then return 0 else check If root value is greater than high then we can eliminate right tree and go for left.
+If root is smaller than low then we can eliminate left tree and go for right. Else add root value + sum of left + sum of right</t>
   </si>
 </sst>
 </file>
@@ -8373,11 +8402,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9234,6 +9263,39 @@
       </c>
       <c r="C78" s="52" t="s">
         <v>1039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="43.5">
+      <c r="A79" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B79" s="52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.5">
+      <c r="A80" s="52" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="29">
+      <c r="A81" s="51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -9311,8 +9373,11 @@
     <hyperlink ref="B76" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
     <hyperlink ref="B77" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
     <hyperlink ref="B78" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
+    <hyperlink ref="B79" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
+    <hyperlink ref="B80" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
+    <hyperlink ref="B81" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803C3BD-4DA9-40F2-BE01-38AE95D73247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8D1D9-B25C-41F2-A29B-C4EFA2956745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="1058">
   <si>
     <t>Topic</t>
   </si>
@@ -3866,6 +3866,38 @@
   <si>
     <t>if root is null then return 0 else check If root value is greater than high then we can eliminate right tree and go for left.
 If root is smaller than low then we can eliminate left tree and go for right. Else add root value + sum of left + sum of right</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search-tree-iterator/</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>here we need to implement two function next and hasNext. Brute force way is get inorder list and do it but SC -&gt; O(N)
+so to optimize this we can store only height of tree like we can store only left side of tree and can determine next and hasNext  
+which will take SC -&gt; O(H)  (Refer Code)
+NOTE : same way we can find before by reversing next funtion. instead of storing left we can store right side. and while poping out if it has left then we can push in stack</t>
+  </si>
+  <si>
+    <t>Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-iv-input-is-a-bst/</t>
+  </si>
+  <si>
+    <t>This is extension of BST iterator problem -&gt; build class for it which has -&gt; hasNextorBefore() and nextORbefore -&gt; to handle both cases. Maintain reverse variable to differentiate reverse or non-reverse 
+then create two object one for left and one for right and apply same logic as Two sum problem. (Refer Code)</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>create low and high variable. If low &gt; high no element return null. If low == high only one element create node and return it.
+Else find mid index and create node with mid index value and generate its left and right recuersively and return root</t>
   </si>
 </sst>
 </file>
@@ -8402,11 +8434,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9210,92 +9242,125 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="58">
-      <c r="A74" s="52" t="s">
+    <row r="74" spans="1:3" ht="53.5" customHeight="1">
+      <c r="A74" s="51" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="58">
+      <c r="A75" s="52" t="s">
         <v>1026</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B75" s="52" t="s">
         <v>1025</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C75" s="52" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="87">
-      <c r="A75" s="52" t="s">
+    <row r="76" spans="1:3" ht="87">
+      <c r="A76" s="52" t="s">
         <v>1028</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B76" s="52" t="s">
         <v>1029</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C76" s="52" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="43.5">
-      <c r="A76" s="52" t="s">
+    <row r="77" spans="1:3" ht="43.5">
+      <c r="A77" s="52" t="s">
         <v>1032</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B77" s="52" t="s">
         <v>1031</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C77" s="52" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="29">
-      <c r="A77" s="52" t="s">
+    <row r="78" spans="1:3" ht="29">
+      <c r="A78" s="52" t="s">
         <v>1035</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B78" s="52" t="s">
         <v>1034</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C78" s="52" t="s">
         <v>1036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="43.5">
-      <c r="A78" s="52" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.5">
       <c r="A79" s="52" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="43.5">
       <c r="A80" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="43.5">
+      <c r="A81" s="52" t="s">
         <v>1044</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B81" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C81" s="52" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="29">
-      <c r="A81" s="51" t="s">
+    <row r="82" spans="1:3" ht="29">
+      <c r="A82" s="51" t="s">
         <v>1047</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B82" s="51" t="s">
         <v>1046</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C82" s="51" t="s">
         <v>1048</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="72.5">
+      <c r="A83" s="52" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="43.5">
+      <c r="A84" s="51" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -9368,16 +9433,19 @@
     <hyperlink ref="B71" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
     <hyperlink ref="B72" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
     <hyperlink ref="B73" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
-    <hyperlink ref="B74" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
-    <hyperlink ref="B75" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
-    <hyperlink ref="B76" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
-    <hyperlink ref="B77" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
-    <hyperlink ref="B78" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
-    <hyperlink ref="B79" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
-    <hyperlink ref="B80" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
-    <hyperlink ref="B81" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
+    <hyperlink ref="B75" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
+    <hyperlink ref="B76" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
+    <hyperlink ref="B77" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
+    <hyperlink ref="B78" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
+    <hyperlink ref="B79" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
+    <hyperlink ref="B80" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
+    <hyperlink ref="B81" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
+    <hyperlink ref="B82" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
+    <hyperlink ref="B83" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
+    <hyperlink ref="B84" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
+    <hyperlink ref="B74" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8D1D9-B25C-41F2-A29B-C4EFA2956745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C087A9A-82F4-4AD7-A4EE-8C09C503BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1070">
   <si>
     <t>Topic</t>
   </si>
@@ -3898,6 +3898,50 @@
   <si>
     <t>create low and high variable. If low &gt; high no element return null. If low == high only one element create node and return it.
 Else find mid index and create node with mid index value and generate its left and right recuersively and return root</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Brute Force -&gt; build inorder list and now again start inorder and check if current value in inorder list is matching with current root.
+If yes then no violetion but if not then update value in root node with inorder list
+Optimal Sol -&gt; Perform inorder and maintain prev if prev value is greater than root value then there is violetion.
+if incorrect nodes are adjecent then will get only one violetion so swap first and middle node
+if incorrect nodes are not adjecent then will get two violetion so swap first and second node</t>
+  </si>
+  <si>
+    <t>Largest BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/largest-bst/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-bst-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Maximum Sum BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>Brute Force -&gt; We can pass every node in Validate BST problem and it its BST then we can pass that node in function which will calculate size(any traversal) TC -&gt; O(N^2) SC -&gt; O(N)
+Optimal Sol -&gt; Make Pair which stores -&gt; size, minVal, MaxVal. If root is null then its BST then pass size - 0, minVal -&gt; max value, maxVal - max and apply post order traversal
+if left.maxVal &lt; root value and root value &gt; right.minVal then its BST. then return pair according to that
+else if its not BST then return pair(max(left size, right size), Integer.MIN_VALUE, Integer.MAX_VALUE)  so it can be never true BST for its next parent tree. at the end from root pair just extract size and return it (Dry run)</t>
+  </si>
+  <si>
+    <t>Same as Largest BST in BT but here instead of size we need to return maxSum. Create global variable maxSum which holds max sum of BST. We will apply post order traversal if we found BST then store its sum in msxSum if its maximum else not
+if not BST then return sum as 0 in pair (Dry run)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-order-search-tree/</t>
+  </si>
+  <si>
+    <t>Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>Apply inorder traversal and build result list and then iterate over every node in list and assigen its left to null and right to next upcoming node</t>
   </si>
 </sst>
 </file>
@@ -8434,11 +8478,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9361,6 +9405,50 @@
       </c>
       <c r="C84" s="51" t="s">
         <v>1054</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="87">
+      <c r="A85" s="52" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="101.5">
+      <c r="A86" s="52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B86" s="52" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="43.5">
+      <c r="A87" s="54" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="29">
+      <c r="A88" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -9444,8 +9532,12 @@
     <hyperlink ref="B83" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
     <hyperlink ref="B84" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
     <hyperlink ref="B74" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
+    <hyperlink ref="B85" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
+    <hyperlink ref="B86" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
+    <hyperlink ref="B87" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
+    <hyperlink ref="B88" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C087A9A-82F4-4AD7-A4EE-8C09C503BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E3B27-BCA3-4637-B08F-3AFCB0676D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1083">
   <si>
     <t>Topic</t>
   </si>
@@ -3942,6 +3942,46 @@
   </si>
   <si>
     <t>Apply inorder traversal and build result list and then iterate over every node in list and assigen its left to null and right to next upcoming node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Since this is a BST, the inorder traversal of its nodes results in a sorted list of values. Thus, the minimum absolute difference must occur in any adjacently traversed nodes. We use the global variable "prev" to keep track of each node's inorder predecessor.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-distance-between-bst-nodes/</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>Its exact same problem as above.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/</t>
+  </si>
+  <si>
+    <t>Binary Search Tree to Greater Sum Tree</t>
+  </si>
+  <si>
+    <t>Its BST so to get sum of all nodes which are greater than current nodes means in BST we need to sum of nodes which are on right side of current node. Create global variable which holds sum of all nodes greater than current node 
+Hence start from right and once we get rightmost node then add its value in sum and assign sum to righmost.val so it will get updated. then move to left side and do it recuersively.(Refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-bst-to-greater-tree/</t>
+  </si>
+  <si>
+    <t>Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balance-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Balance a Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -4237,7 +4277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4411,6 +4451,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8478,11 +8521,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9449,6 +9492,55 @@
       </c>
       <c r="C88" s="51" t="s">
         <v>1069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="43.5">
+      <c r="A89" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="43.5">
+      <c r="A90" s="51" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="58">
+      <c r="A91" s="52" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="29">
+      <c r="A92" s="50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B92" s="59" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="29">
+      <c r="A93" s="50" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -9536,8 +9628,13 @@
     <hyperlink ref="B86" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
     <hyperlink ref="B87" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
     <hyperlink ref="B88" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
+    <hyperlink ref="B89" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
+    <hyperlink ref="B90" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
+    <hyperlink ref="B91" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
+    <hyperlink ref="B92" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
+    <hyperlink ref="B93" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E3B27-BCA3-4637-B08F-3AFCB0676D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61AC6F-F6B0-4856-997B-DF355764E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1097">
   <si>
     <t>Topic</t>
   </si>
@@ -3982,6 +3982,56 @@
   </si>
   <si>
     <t>Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Same as above problem</t>
+  </si>
+  <si>
+    <t>step 1: convert BST to sorted list using inorder
+step 2: convert sorted list into BST</t>
+  </si>
+  <si>
+    <t>All Elements in Two Binary Search Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-elements-in-two-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>Method 1 : build two sorted list from both BST and compare their values and store smaller value in final list using merge technique.
+Method 2 : We can create two stack for both BST and store iterator BST nodes means will store height path of both stack in their respective stack and comapre peek value and then which ever is smaller pop out and store in final list and and go forits right node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Convert Sorted List to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Here instead of array or list we have given LL so first calculate its size and apply same condition as merge method
+but here because of its LL we cant access node directly based on index value we have to go from left to right in one direction only.
+That as its BST means LL order will be left-&gt;root-&gt;right for BST so keep one pointer to LL and first build left and then root and update pointer then build right and attach both left and right to root and return root at the end.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-bst/</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize BST</t>
+  </si>
+  <si>
+    <t>Step 1: serialize BST into string usinh preorder traversal
+Step 2 : Deserialize string into BST -&gt; as we know in preoder 1st value in values is root and then all values less than root value are going to be left part of root and rest values are going to be right part of root. so build root node using start value and then using index build its left and right part recursively</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trim-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Here we need to trim node if there values not fit in range of (low, high). If root is null then return null
+if root value is less then low condition then its left never going to be part of result hence move to right
+if root value is greater than high condition then its right never going to be part of result hence move to left
+if root value is under condition then build its left and right recursively and return root at the end</t>
   </si>
 </sst>
 </file>
@@ -4277,7 +4327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4451,9 +4501,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8521,11 +8568,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9528,19 +9575,69 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="29">
-      <c r="A92" s="50" t="s">
+      <c r="A92" s="52" t="s">
         <v>1080</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="52" t="s">
         <v>1079</v>
       </c>
+      <c r="C92" s="52" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="29">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="52" t="s">
         <v>1082</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="52" t="s">
         <v>1081</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="49.5" customHeight="1">
+      <c r="A94" s="52" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B94" s="52" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="58">
+      <c r="A95" s="52" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="58">
+      <c r="A96" s="52" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="58">
+      <c r="A97" s="52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -9633,8 +9730,12 @@
     <hyperlink ref="B91" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
     <hyperlink ref="B92" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
     <hyperlink ref="B93" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
+    <hyperlink ref="B94" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
+    <hyperlink ref="B95" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
+    <hyperlink ref="B96" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
+    <hyperlink ref="B97" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId89"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61AC6F-F6B0-4856-997B-DF355764E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618D3F7-D7B7-484B-9610-CF381D0C699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1103">
   <si>
     <t>Topic</t>
   </si>
@@ -4032,6 +4032,28 @@
 if root value is less then low condition then its left never going to be part of result hence move to right
 if root value is greater than high condition then its right never going to be part of result hence move to left
 if root value is under condition then build its left and right recursively and return root at the end</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees-ii/</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>DP + Tree -&gt;
+Make every node start from 1 to n and calculate how many trees we can generate from left side and right side 
+example : ith -&gt; 2 node then left side 1 node, rigth side 2 nodes (3,4)
+Solve recursively and user dp array to store values for future use(refer code)</t>
+  </si>
+  <si>
+    <t>Here also conceot is same like above make every node as root and build left and right and attach to its root. And add root in list and return list. Find left and recursively list of trees and run two for loop for it and make current index node as root and attach its lefttree and righttree from list and add in list (refer code)
+video link : https://youtu.be/mhCJgZWJlSI</t>
   </si>
 </sst>
 </file>
@@ -8568,11 +8590,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9638,6 +9660,28 @@
       </c>
       <c r="C97" s="52" t="s">
         <v>1096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="58">
+      <c r="A98" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B98" s="52" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C98" s="52" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="58">
+      <c r="A99" s="52" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B99" s="52" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -9734,8 +9778,10 @@
     <hyperlink ref="B95" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
     <hyperlink ref="B96" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
     <hyperlink ref="B97" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
+    <hyperlink ref="B98" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
+    <hyperlink ref="B99" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618D3F7-D7B7-484B-9610-CF381D0C699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD44CD-0454-4726-AABB-E4F805BB95B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arrays-75" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
     <sheet name="Strings-28" sheetId="3" r:id="rId2"/>
     <sheet name="Recursion &amp; Backtracking-37" sheetId="2" r:id="rId3"/>
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1109">
   <si>
     <t>Topic</t>
   </si>
@@ -4054,6 +4054,25 @@
   <si>
     <t>Here also conceot is same like above make every node as root and build left and right and attach to its root. And add root in list and return list. Find left and recursively list of trees and run two for loop for it and make current index node as root and attach its lefttree and righttree from list and add in list (refer code)
 video link : https://youtu.be/mhCJgZWJlSI</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/</t>
+  </si>
+  <si>
+    <t>Here its asking for largest kth element so we need to use PQ with min heap.
+Build PQ with size of k and fill with elements of array and then take new value and check if top element is less than current value then pop out and add this current value and return top value in PQ</t>
+  </si>
+  <si>
+    <t>All Possible Full Binary Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-possible-full-binary-trees/</t>
+  </si>
+  <si>
+    <t>Same as above problem but here we need to build full BT either 0 node or 2 node. So if n == even then no possible full BT. Also keep map to store at what n what types trees can be made to avoid TC to calculate same trees again and again. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -4737,8 +4756,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C51" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C52" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -5036,11 +5055,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -5590,314 +5609,326 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:3" s="36" customFormat="1" ht="43.5">
+      <c r="A50" s="36" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A51" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B51" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A51" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="16" customFormat="1" ht="58">
       <c r="A52" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="16" customFormat="1" ht="43.5">
+    <row r="53" spans="1:3" s="16" customFormat="1" ht="58">
       <c r="A53" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A54" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B54" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A54" s="16" t="s">
+    <row r="55" spans="1:3" s="16" customFormat="1" ht="58">
+      <c r="A55" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B55" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="87">
-      <c r="A55" s="16" t="s">
+    <row r="56" spans="1:3" s="16" customFormat="1" ht="87">
+      <c r="A56" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A56" s="16" t="s">
+    <row r="57" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A57" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B57" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:3" s="16" customFormat="1" ht="29">
+      <c r="A58" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A58" s="16" t="s">
+    <row r="59" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A59" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A59" s="53" t="s">
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="58">
+      <c r="A60" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:3" s="16" customFormat="1" ht="29">
+      <c r="A61" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:3" s="16" customFormat="1" ht="58">
+      <c r="A62" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="72.5">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:3" s="16" customFormat="1" ht="72.5">
+      <c r="A63" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A64" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:3" s="16" customFormat="1" ht="58">
+      <c r="A65" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="16" customFormat="1" ht="101.5">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:3" s="16" customFormat="1" ht="101.5">
+      <c r="A66" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A67" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:3" s="16" customFormat="1" ht="43.5">
+      <c r="A68" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B68" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A68" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="34" customFormat="1" ht="58">
       <c r="A69" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A70" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B70" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C70" s="34" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="34" customFormat="1" ht="87">
-      <c r="A70" s="34" t="s">
+    <row r="71" spans="1:3" s="34" customFormat="1" ht="87">
+      <c r="A71" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B71" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C71" s="34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A71" s="34" t="s">
+    <row r="72" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A72" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B72" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C72" s="34" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A72" s="34" t="s">
+    <row r="73" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A73" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B73" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C73" s="34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A73" s="34" t="s">
+    <row r="74" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A74" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B74" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C74" s="34" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="34" customFormat="1" ht="72.5">
-      <c r="A74" s="34" t="s">
+    <row r="75" spans="1:3" s="34" customFormat="1" ht="72.5">
+      <c r="A75" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B75" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C75" s="34" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A75" s="34" t="s">
+    <row r="76" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A76" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B76" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C76" s="34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A76" s="34" t="s">
+    <row r="77" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A77" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B77" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C77" s="34" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B67" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B68" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B50" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8590,10 +8621,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -9682,6 +9713,17 @@
       </c>
       <c r="C99" s="52" t="s">
         <v>1102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="29">
+      <c r="A100" s="52" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -9780,8 +9822,9 @@
     <hyperlink ref="B97" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
     <hyperlink ref="B98" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
     <hyperlink ref="B99" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
+    <hyperlink ref="B100" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
+  <pageSetup orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD44CD-0454-4726-AABB-E4F805BB95B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602691D6-9282-420E-BD92-867A86E38B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1121">
   <si>
     <t>Topic</t>
   </si>
@@ -4073,6 +4073,42 @@
   </si>
   <si>
     <t>Same as above problem but here we need to build full BT either 0 node or 2 node. So if n == even then no possible full BT. Also keep map to store at what n what types trees can be made to avoid TC to calculate same trees again and again. (refer code)</t>
+  </si>
+  <si>
+    <t>Flip Binary Tree To Match Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Delete Leaves With a Given Value</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-leaves-with-a-given-value/</t>
+  </si>
+  <si>
+    <t>if root not matching with current value then immedietly return false which results = [-1] if matching then if its left child value matching with next if not then reverse DFS (root, right, left) and check if matching then check through normal DFS (root, left, right) in preorder. at last based on true or false return list. if we are flipping i.e. doing reverse DFs then add parent node in list</t>
+  </si>
+  <si>
+    <t>Just go till leaf node using DFS and heck if both left and right is null and as well as root value is matching with target then return null in that case else return root itself. Apply same logic to every node fromm bottom to up</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of Deepest Leaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves/</t>
+  </si>
+  <si>
+    <t>Same exact as above problem</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/even-odd-tree/</t>
+  </si>
+  <si>
+    <t>Even Odd Tree</t>
+  </si>
+  <si>
+    <t>Apply level order traversal and check even odd condition at every level if fails then return false or if everything corret then return true</t>
   </si>
 </sst>
 </file>
@@ -8621,11 +8657,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8977,753 +9013,797 @@
         <v>971</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="58">
+    <row r="32" spans="1:3" s="51" customFormat="1" ht="29">
       <c r="A32" s="52" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="58">
+      <c r="A33" s="52" t="s">
         <v>850</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B33" s="52" t="s">
         <v>849</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C33" s="52" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="72.5">
-      <c r="A33" s="54" t="s">
+    <row r="34" spans="1:3" ht="72.5">
+      <c r="A34" s="54" t="s">
         <v>853</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B34" s="54" t="s">
         <v>852</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C34" s="54" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="72.5">
-      <c r="A34" s="52" t="s">
+    <row r="35" spans="1:3" ht="72.5">
+      <c r="A35" s="52" t="s">
         <v>855</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B35" s="52" t="s">
         <v>854</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C35" s="52" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="58">
-      <c r="A35" s="52" t="s">
-        <v>858</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>856</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="58">
       <c r="A36" s="52" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="58">
       <c r="A37" s="52" t="s">
+        <v>857</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="58">
+      <c r="A38" s="52" t="s">
         <v>861</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B38" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C38" s="52" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="51" t="s">
+    <row r="39" spans="1:3" ht="58">
+      <c r="A39" s="51" t="s">
         <v>867</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B39" s="51" t="s">
         <v>868</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C39" s="51" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="87">
-      <c r="A39" s="52" t="s">
+    <row r="40" spans="1:3" ht="87">
+      <c r="A40" s="52" t="s">
         <v>870</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C40" s="52" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="43.5">
-      <c r="A40" s="52" t="s">
+    <row r="41" spans="1:3" ht="43.5">
+      <c r="A41" s="52" t="s">
         <v>889</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>888</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C41" s="52" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="58">
-      <c r="A41" s="52" t="s">
+    <row r="42" spans="1:3" ht="58">
+      <c r="A42" s="52" t="s">
         <v>892</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>891</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C42" s="52" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="72.5">
-      <c r="A42" s="52" t="s">
+    <row r="43" spans="1:3" ht="72.5">
+      <c r="A43" s="52" t="s">
         <v>894</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B43" s="52" t="s">
         <v>895</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C43" s="52" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="58">
-      <c r="A43" s="52" t="s">
-        <v>899</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>898</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="58">
       <c r="A44" s="52" t="s">
+        <v>899</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>898</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="58">
+      <c r="A45" s="52" t="s">
         <v>980</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B45" s="56" t="s">
         <v>979</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C45" s="52" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="58">
-      <c r="A45" s="54" t="s">
+    <row r="46" spans="1:3" ht="58">
+      <c r="A46" s="54" t="s">
         <v>906</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B46" s="54" t="s">
         <v>907</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C46" s="54" t="s">
         <v>908</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="58">
-      <c r="A46" s="52" t="s">
-        <v>957</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>958</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="58">
       <c r="A47" s="52" t="s">
+        <v>957</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>958</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="58">
+      <c r="A48" s="52" t="s">
         <v>901</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B48" s="52" t="s">
         <v>900</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C48" s="52" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="87">
-      <c r="A48" s="52" t="s">
+    <row r="49" spans="1:3" ht="87">
+      <c r="A49" s="52" t="s">
         <v>913</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B49" s="52" t="s">
         <v>912</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C49" s="52" t="s">
         <v>914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="58">
-      <c r="A49" s="52" t="s">
-        <v>916</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>915</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="58">
       <c r="A50" s="52" t="s">
+        <v>916</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="58">
+      <c r="A51" s="52" t="s">
         <v>928</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B51" s="52" t="s">
         <v>927</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C51" s="52" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="87">
-      <c r="A51" s="52" t="s">
+    <row r="52" spans="1:3" ht="87">
+      <c r="A52" s="52" t="s">
         <v>931</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B52" s="52" t="s">
         <v>930</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C52" s="52" t="s">
         <v>932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="43.5">
-      <c r="A52" s="52" t="s">
-        <v>934</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>933</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="43.5">
       <c r="A53" s="52" t="s">
+        <v>934</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>933</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.5">
+      <c r="A54" s="52" t="s">
         <v>937</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B54" s="52" t="s">
         <v>936</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C54" s="52" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="29">
-      <c r="A54" s="52" t="s">
+    <row r="55" spans="1:3" ht="29">
+      <c r="A55" s="52" t="s">
         <v>948</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B55" s="56" t="s">
         <v>950</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C55" s="52" t="s">
         <v>949</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="43.5">
-      <c r="A55" s="52" t="s">
-        <v>940</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>939</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="43.5">
       <c r="A56" s="52" t="s">
+        <v>940</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.5">
+      <c r="A57" s="52" t="s">
         <v>942</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B57" s="52" t="s">
         <v>943</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C57" s="52" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="101.5">
-      <c r="A57" s="52" t="s">
+    <row r="58" spans="1:3" ht="101.5">
+      <c r="A58" s="52" t="s">
         <v>946</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B58" s="52" t="s">
         <v>945</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C58" s="52" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="57" customFormat="1" ht="58">
-      <c r="A58" s="52" t="s">
+    <row r="59" spans="1:3" s="57" customFormat="1" ht="58">
+      <c r="A59" s="52" t="s">
         <v>963</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B59" s="52" t="s">
         <v>964</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C59" s="52" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="43.5">
-      <c r="A59" s="52" t="s">
+    <row r="60" spans="1:3" ht="43.5">
+      <c r="A60" s="52" t="s">
         <v>976</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B60" s="52" t="s">
         <v>975</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C60" s="52" t="s">
         <v>977</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="29">
-      <c r="A60" s="51" t="s">
-        <v>982</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>981</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.5">
       <c r="A61" s="52" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29">
+      <c r="A62" s="51" t="s">
+        <v>982</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>981</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.5">
+      <c r="A63" s="52" t="s">
         <v>984</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B63" s="52" t="s">
         <v>985</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C63" s="52" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="58">
-      <c r="A62" s="52" t="s">
+    <row r="64" spans="1:3" ht="58">
+      <c r="A64" s="52" t="s">
         <v>989</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C64" s="52" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="29">
-      <c r="A63" s="51" t="s">
+    <row r="65" spans="1:3" ht="29">
+      <c r="A65" s="51" t="s">
         <v>991</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B65" s="51" t="s">
         <v>990</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C65" s="51" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="43.5">
-      <c r="A64" s="51" t="s">
+    <row r="66" spans="1:3" ht="43.5">
+      <c r="A66" s="51" t="s">
         <v>994</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B66" s="51" t="s">
         <v>993</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C66" s="51" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="43.5">
-      <c r="A65" s="51" t="s">
+    <row r="67" spans="1:3" ht="43.5">
+      <c r="A67" s="51" t="s">
         <v>997</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B67" s="51" t="s">
         <v>996</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C67" s="51" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="43.5">
-      <c r="A66" s="54" t="s">
+    <row r="68" spans="1:3" ht="43.5">
+      <c r="A68" s="54" t="s">
         <v>1000</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B68" s="54" t="s">
         <v>999</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C68" s="54" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="43.5">
-      <c r="A67" s="52" t="s">
+    <row r="69" spans="1:3" ht="43.5">
+      <c r="A69" s="52" t="s">
         <v>1007</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B69" s="52" t="s">
         <v>1008</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C69" s="52" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="43.5">
-      <c r="A68" s="52" t="s">
+    <row r="70" spans="1:3" ht="43.5">
+      <c r="A70" s="52" t="s">
         <v>1011</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B70" s="52" t="s">
         <v>1010</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C70" s="52" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="72.5">
-      <c r="A69" s="54" t="s">
+    <row r="71" spans="1:3" ht="72.5">
+      <c r="A71" s="54" t="s">
         <v>1013</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B71" s="54" t="s">
         <v>1014</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C71" s="54" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="58" customFormat="1"/>
-    <row r="71" spans="1:3" ht="29">
-      <c r="A71" s="51" t="s">
+    <row r="72" spans="1:3" s="58" customFormat="1"/>
+    <row r="73" spans="1:3" ht="29">
+      <c r="A73" s="51" t="s">
         <v>1016</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B73" s="51" t="s">
         <v>1017</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C73" s="51" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.5">
-      <c r="A72" s="52" t="s">
+    <row r="74" spans="1:3" ht="43.5">
+      <c r="A74" s="52" t="s">
         <v>1020</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B74" s="52" t="s">
         <v>1019</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C74" s="52" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A73" s="52" t="s">
+    <row r="75" spans="1:3" ht="53.5" customHeight="1">
+      <c r="A75" s="52" t="s">
         <v>1023</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B75" s="52" t="s">
         <v>1022</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C75" s="52" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A74" s="51" t="s">
+    <row r="76" spans="1:3" ht="53.5" customHeight="1">
+      <c r="A76" s="51" t="s">
         <v>1055</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B76" s="51" t="s">
         <v>1056</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C76" s="51" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="58">
-      <c r="A75" s="52" t="s">
+    <row r="77" spans="1:3" ht="58">
+      <c r="A77" s="52" t="s">
         <v>1026</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B77" s="52" t="s">
         <v>1025</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C77" s="52" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="87">
-      <c r="A76" s="52" t="s">
+    <row r="78" spans="1:3" ht="87">
+      <c r="A78" s="52" t="s">
         <v>1028</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B78" s="52" t="s">
         <v>1029</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C78" s="52" t="s">
         <v>1030</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="43.5">
-      <c r="A77" s="52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="29">
-      <c r="A78" s="52" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.5">
       <c r="A79" s="52" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="43.5">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="29">
       <c r="A80" s="52" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="43.5">
       <c r="A81" s="52" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="43.5">
+      <c r="A82" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="43.5">
+      <c r="A83" s="52" t="s">
         <v>1044</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B83" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C83" s="52" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="29">
-      <c r="A82" s="51" t="s">
+    <row r="84" spans="1:3" ht="29">
+      <c r="A84" s="51" t="s">
         <v>1047</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B84" s="51" t="s">
         <v>1046</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C84" s="51" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="72.5">
-      <c r="A83" s="52" t="s">
+    <row r="85" spans="1:3" ht="72.5">
+      <c r="A85" s="52" t="s">
         <v>1050</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B85" s="52" t="s">
         <v>1049</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C85" s="52" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="43.5">
-      <c r="A84" s="51" t="s">
+    <row r="86" spans="1:3" ht="43.5">
+      <c r="A86" s="51" t="s">
         <v>1052</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B86" s="51" t="s">
         <v>1053</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C86" s="51" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="87">
-      <c r="A85" s="52" t="s">
+    <row r="87" spans="1:3" ht="87">
+      <c r="A87" s="52" t="s">
         <v>1059</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B87" s="52" t="s">
         <v>1058</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C87" s="52" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="101.5">
-      <c r="A86" s="52" t="s">
+    <row r="88" spans="1:3" ht="101.5">
+      <c r="A88" s="52" t="s">
         <v>1061</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B88" s="52" t="s">
         <v>1062</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C88" s="52" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="43.5">
-      <c r="A87" s="54" t="s">
+    <row r="89" spans="1:3" ht="43.5">
+      <c r="A89" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B89" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C89" s="54" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="29">
-      <c r="A88" s="51" t="s">
+    <row r="90" spans="1:3" ht="29">
+      <c r="A90" s="51" t="s">
         <v>1068</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B90" s="51" t="s">
         <v>1067</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C90" s="51" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="43.5">
-      <c r="A89" s="51" t="s">
+    <row r="91" spans="1:3" ht="43.5">
+      <c r="A91" s="51" t="s">
         <v>1071</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B91" s="51" t="s">
         <v>1070</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C91" s="51" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.5">
-      <c r="A90" s="51" t="s">
+    <row r="92" spans="1:3" ht="43.5">
+      <c r="A92" s="51" t="s">
         <v>1074</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B92" s="51" t="s">
         <v>1073</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C92" s="51" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="58">
-      <c r="A91" s="52" t="s">
+    <row r="93" spans="1:3" ht="58">
+      <c r="A93" s="52" t="s">
         <v>1077</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B93" s="52" t="s">
         <v>1076</v>
       </c>
-      <c r="C91" s="52" t="s">
+      <c r="C93" s="52" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="29">
-      <c r="A92" s="52" t="s">
+    <row r="94" spans="1:3" ht="29">
+      <c r="A94" s="52" t="s">
         <v>1080</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B94" s="52" t="s">
         <v>1079</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C94" s="52" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="29">
-      <c r="A93" s="52" t="s">
+    <row r="95" spans="1:3" ht="29">
+      <c r="A95" s="52" t="s">
         <v>1082</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B95" s="52" t="s">
         <v>1081</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C95" s="52" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A94" s="52" t="s">
+    <row r="96" spans="1:3" ht="49.5" customHeight="1">
+      <c r="A96" s="52" t="s">
         <v>1085</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B96" s="52" t="s">
         <v>1086</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C96" s="52" t="s">
         <v>1087</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="58">
-      <c r="A95" s="52" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B95" s="52" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="58">
-      <c r="A96" s="52" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="58">
       <c r="A97" s="52" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="58">
       <c r="A98" s="52" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="58">
       <c r="A99" s="52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B99" s="52" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="58">
+      <c r="A100" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="58">
+      <c r="A101" s="52" t="s">
         <v>1100</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B101" s="52" t="s">
         <v>1099</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C101" s="52" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="29">
-      <c r="A100" s="52" t="s">
+    <row r="102" spans="1:3" ht="29">
+      <c r="A102" s="52" t="s">
         <v>1106</v>
       </c>
-      <c r="B100" s="52" t="s">
+      <c r="B102" s="52" t="s">
         <v>1107</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C102" s="52" t="s">
         <v>1108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="43.5">
+      <c r="A103" s="52" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B103" s="52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="43.5">
+      <c r="A104" s="52" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B104" s="52" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -9739,92 +9819,95 @@
     <hyperlink ref="B23" r:id="rId9" xr:uid="{B7469615-5E4C-4680-A0FF-8C9DEA7D543E}"/>
     <hyperlink ref="B25" r:id="rId10" xr:uid="{81E656D6-8586-4633-9E7F-A65C15AF8072}"/>
     <hyperlink ref="B27" r:id="rId11" xr:uid="{E2863F46-927E-44ED-B73F-6C081BE393E2}"/>
-    <hyperlink ref="B32" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
-    <hyperlink ref="B33" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
-    <hyperlink ref="B34" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
-    <hyperlink ref="B35" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
-    <hyperlink ref="B36" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
-    <hyperlink ref="B37" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
-    <hyperlink ref="B38" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
-    <hyperlink ref="B39" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
+    <hyperlink ref="B33" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
+    <hyperlink ref="B34" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
+    <hyperlink ref="B35" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
+    <hyperlink ref="B36" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
+    <hyperlink ref="B37" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
+    <hyperlink ref="B38" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
+    <hyperlink ref="B39" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
+    <hyperlink ref="B40" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
     <hyperlink ref="B19" r:id="rId20" xr:uid="{703CB13D-8331-41D4-A9EF-F9FCE41E59E9}"/>
     <hyperlink ref="B20" r:id="rId21" xr:uid="{0CDEE7E5-3BE8-416F-A05B-E8FA9352E817}"/>
     <hyperlink ref="B26" r:id="rId22" xr:uid="{B5EFE330-A6B4-40D5-AA82-AA0CA4319188}"/>
     <hyperlink ref="B18" r:id="rId23" xr:uid="{6294FEEA-470B-4092-94D8-38FFB99982FA}"/>
     <hyperlink ref="B12" r:id="rId24" xr:uid="{3AA700D6-832B-459C-B04A-2262C5B9B313}"/>
     <hyperlink ref="B24" r:id="rId25" xr:uid="{CC705B65-45D7-42FF-8C39-BD719A069C24}"/>
-    <hyperlink ref="B40" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
-    <hyperlink ref="B41" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
-    <hyperlink ref="B42" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
-    <hyperlink ref="B43" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
-    <hyperlink ref="B47" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
+    <hyperlink ref="B43" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
+    <hyperlink ref="B44" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
+    <hyperlink ref="B48" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
     <hyperlink ref="B13" r:id="rId31" xr:uid="{4CDF29DE-F7A2-42A5-84A4-0BF96EF0A475}"/>
-    <hyperlink ref="B45" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
+    <hyperlink ref="B46" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
     <hyperlink ref="B14" r:id="rId33" xr:uid="{15C42B5C-7717-4253-B3C0-B188C8D99D9A}"/>
-    <hyperlink ref="B48" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
+    <hyperlink ref="B49" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
+    <hyperlink ref="B50" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
     <hyperlink ref="B15" r:id="rId36" xr:uid="{EC9EEFF8-9634-4DB8-B989-A97FCCF2CB1D}"/>
     <hyperlink ref="B16" r:id="rId37" xr:uid="{C6F54F02-E00C-4D59-9345-DD461A35194A}"/>
     <hyperlink ref="B17" r:id="rId38" xr:uid="{35E83BBE-42AB-47EB-9F18-9E14CF76940D}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
-    <hyperlink ref="B51" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
-    <hyperlink ref="B52" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
-    <hyperlink ref="B53" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
-    <hyperlink ref="B55" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
-    <hyperlink ref="B57" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
-    <hyperlink ref="B54" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
+    <hyperlink ref="B52" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
+    <hyperlink ref="B53" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
+    <hyperlink ref="B56" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
+    <hyperlink ref="B57" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
+    <hyperlink ref="B58" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
+    <hyperlink ref="B55" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
     <hyperlink ref="B10" r:id="rId47" xr:uid="{7C7B8320-69C2-45C0-A0A7-8F9D5B2A9C24}"/>
-    <hyperlink ref="B46" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
+    <hyperlink ref="B47" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
     <hyperlink ref="B28" r:id="rId49" xr:uid="{76C5B337-D2A1-483E-A9C2-E1899E545301}"/>
-    <hyperlink ref="B58" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
+    <hyperlink ref="B59" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
     <hyperlink ref="B29" r:id="rId51" xr:uid="{E8DE5051-0B7E-4601-9690-FDA131A96C6D}"/>
     <hyperlink ref="B31" r:id="rId52" xr:uid="{701FBF49-43F4-4B64-901F-71835F2BE4E5}"/>
     <hyperlink ref="B7" r:id="rId53" xr:uid="{977DCDA6-4170-46C4-851B-F2F20496811E}"/>
-    <hyperlink ref="B59" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
-    <hyperlink ref="B44" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
-    <hyperlink ref="B60" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
-    <hyperlink ref="B61" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
-    <hyperlink ref="B62" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
-    <hyperlink ref="B63" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
-    <hyperlink ref="B64" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{3E463A75-D9FE-4632-B903-8E98CD3C3879}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{9693B0D0-37B2-41EA-9889-27BD8B867720}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{C42B949D-FEEC-44F5-A1AE-DAF5DA2B1CF2}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{8E4E89F4-3053-4E16-B89C-0614C93435E5}"/>
-    <hyperlink ref="B71" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
-    <hyperlink ref="B72" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
-    <hyperlink ref="B73" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
-    <hyperlink ref="B75" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
-    <hyperlink ref="B76" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
-    <hyperlink ref="B77" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
-    <hyperlink ref="B78" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
-    <hyperlink ref="B79" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
-    <hyperlink ref="B80" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
-    <hyperlink ref="B81" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
-    <hyperlink ref="B82" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
-    <hyperlink ref="B83" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
-    <hyperlink ref="B84" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
-    <hyperlink ref="B74" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
-    <hyperlink ref="B85" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
-    <hyperlink ref="B86" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
-    <hyperlink ref="B87" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
-    <hyperlink ref="B88" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
-    <hyperlink ref="B89" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
-    <hyperlink ref="B90" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
-    <hyperlink ref="B91" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
-    <hyperlink ref="B92" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
-    <hyperlink ref="B93" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
-    <hyperlink ref="B94" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
-    <hyperlink ref="B95" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
-    <hyperlink ref="B96" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
-    <hyperlink ref="B97" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
-    <hyperlink ref="B98" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
-    <hyperlink ref="B99" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
-    <hyperlink ref="B100" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
+    <hyperlink ref="B60" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
+    <hyperlink ref="B45" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
+    <hyperlink ref="B62" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
+    <hyperlink ref="B63" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
+    <hyperlink ref="B64" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
+    <hyperlink ref="B65" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
+    <hyperlink ref="B66" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
+    <hyperlink ref="B67" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
+    <hyperlink ref="B68" r:id="rId62" xr:uid="{3E463A75-D9FE-4632-B903-8E98CD3C3879}"/>
+    <hyperlink ref="B69" r:id="rId63" xr:uid="{9693B0D0-37B2-41EA-9889-27BD8B867720}"/>
+    <hyperlink ref="B70" r:id="rId64" xr:uid="{C42B949D-FEEC-44F5-A1AE-DAF5DA2B1CF2}"/>
+    <hyperlink ref="B71" r:id="rId65" xr:uid="{8E4E89F4-3053-4E16-B89C-0614C93435E5}"/>
+    <hyperlink ref="B73" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
+    <hyperlink ref="B74" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
+    <hyperlink ref="B75" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
+    <hyperlink ref="B77" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
+    <hyperlink ref="B78" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
+    <hyperlink ref="B79" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
+    <hyperlink ref="B80" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
+    <hyperlink ref="B81" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
+    <hyperlink ref="B82" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
+    <hyperlink ref="B83" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
+    <hyperlink ref="B84" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
+    <hyperlink ref="B85" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
+    <hyperlink ref="B86" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
+    <hyperlink ref="B76" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
+    <hyperlink ref="B87" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
+    <hyperlink ref="B88" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
+    <hyperlink ref="B89" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
+    <hyperlink ref="B91" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
+    <hyperlink ref="B92" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
+    <hyperlink ref="B93" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
+    <hyperlink ref="B94" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
+    <hyperlink ref="B95" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
+    <hyperlink ref="B96" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
+    <hyperlink ref="B97" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
+    <hyperlink ref="B98" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
+    <hyperlink ref="B99" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
+    <hyperlink ref="B100" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
+    <hyperlink ref="B101" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
+    <hyperlink ref="B102" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
+    <hyperlink ref="B103" r:id="rId96" xr:uid="{607D6B52-18EF-4B8F-AC8D-61DA1A5C984C}"/>
+    <hyperlink ref="B104" r:id="rId97" xr:uid="{16A16CFA-F783-4271-9454-27D026257C0B}"/>
+    <hyperlink ref="B61" r:id="rId98" xr:uid="{5BD29456-2DEB-4D51-897C-734BB19DB07E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId96"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602691D6-9282-420E-BD92-867A86E38B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D5E276-1A29-4C68-B44C-A7B96CE0967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1127">
   <si>
     <t>Topic</t>
   </si>
@@ -4109,6 +4109,26 @@
   </si>
   <si>
     <t>Apply level order traversal and check even odd condition at every level if fails then return false or if everything corret then return true</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-good-nodes-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>if root is null then return 0 
+if root value is less than max then check in left and right side with max value as its maximum value currently from root to x node
+else root value is maximum value so we got one good node and now check for its left and right with root value as max</t>
+  </si>
+  <si>
+    <t>Number of Nodes in the Sub-Tree With the Same Label</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-nodes-in-the-sub-tree-with-the-same-label/</t>
+  </si>
+  <si>
+    <t>here we need to calculate count for current node char within its subtree. Build graph hasmap based on edges and also create 26 length of count array to store count of each char in labels.For every node before calculating count of current node char store its prev count value as we need to subtract it at the end because we only need count for subtree (root to leaf) so to eliminate count of parent node we have subtract it. So find count for currentnode char recursively and subtract with prev count and then store in result array.(refer code)</t>
   </si>
 </sst>
 </file>
@@ -8657,11 +8677,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9804,6 +9824,28 @@
       </c>
       <c r="C104" s="52" t="s">
         <v>1114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="43.5">
+      <c r="A105" s="52" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B105" s="52" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="72.5">
+      <c r="A106" s="52" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B106" s="52" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C106" s="52" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -9906,8 +9948,10 @@
     <hyperlink ref="B103" r:id="rId96" xr:uid="{607D6B52-18EF-4B8F-AC8D-61DA1A5C984C}"/>
     <hyperlink ref="B104" r:id="rId97" xr:uid="{16A16CFA-F783-4271-9454-27D026257C0B}"/>
     <hyperlink ref="B61" r:id="rId98" xr:uid="{5BD29456-2DEB-4D51-897C-734BB19DB07E}"/>
+    <hyperlink ref="B105" r:id="rId99" xr:uid="{084665CD-7271-4414-B000-4F192467A17E}"/>
+    <hyperlink ref="B106" r:id="rId100" xr:uid="{B2209E95-BF00-4C1B-93AA-53E5359810D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D5E276-1A29-4C68-B44C-A7B96CE0967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72CCF05-4E96-401F-9445-78C4296E135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1133">
   <si>
     <t>Topic</t>
   </si>
@@ -4129,6 +4129,27 @@
   </si>
   <si>
     <t>here we need to calculate count for current node char within its subtree. Build graph hasmap based on edges and also create 26 length of count array to store count of each char in labels.For every node before calculating count of current node char store its prev count value as we need to subtract it at the end because we only need count for subtree (root to leaf) so to eliminate count of parent node we have subtract it. So find count for currentnode char recursively and subtract with prev count and then store in result array.(refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-iii/</t>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>DP + Tree -&gt;
+In case robber is robbing the root_house, maximum money he is gonna rob == root-&gt;val + answer(root-&gt;left-&gt;left + root-&gt;left-&gt;right + root-&gt;right-&gt;left + root-&gt;right-&gt;right){as then these nodes are gonna be the grandchildren of curr_root (in case they exist)}..
+In case he is not robbing the root_house, maximum money he gonna rob == answer(root-&gt;left + root-&gt;right).
+And Final answer == max(root_included, root_excluded)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-frequent-subtree-sum/</t>
+  </si>
+  <si>
+    <t>Most Frequent Subtree Sum</t>
+  </si>
+  <si>
+    <t>We need to calculete sum of subtree for every node so start from bottom so it will reduce TC to calculate again and again from root to leaf. Hence use postorder traversal. Create frequency table &lt;Sum, Count&gt; and update it while postorder traversal and also keep maxCount to store max no of times particular sum occurs. after that create list and put only those sum who has same count as maxCount.</t>
   </si>
 </sst>
 </file>
@@ -8677,11 +8698,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9846,6 +9867,28 @@
       </c>
       <c r="C106" s="52" t="s">
         <v>1126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A107" s="52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B107" s="52" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="58">
+      <c r="A108" s="52" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -9950,8 +9993,10 @@
     <hyperlink ref="B61" r:id="rId98" xr:uid="{5BD29456-2DEB-4D51-897C-734BB19DB07E}"/>
     <hyperlink ref="B105" r:id="rId99" xr:uid="{084665CD-7271-4414-B000-4F192467A17E}"/>
     <hyperlink ref="B106" r:id="rId100" xr:uid="{B2209E95-BF00-4C1B-93AA-53E5359810D8}"/>
+    <hyperlink ref="B107" r:id="rId101" xr:uid="{F07C5CEA-EEF7-498E-9325-760790AB6125}"/>
+    <hyperlink ref="B108" r:id="rId102" xr:uid="{8A5BD43A-E4C4-435D-97D7-FD37DFF719EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72CCF05-4E96-401F-9445-78C4296E135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C6513-4626-45D3-8936-02A111B7A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1139">
   <si>
     <t>Topic</t>
   </si>
@@ -4150,6 +4150,24 @@
   </si>
   <si>
     <t>We need to calculete sum of subtree for every node so start from bottom so it will reduce TC to calculate again and again from root to leaf. Hence use postorder traversal. Create frequency table &lt;Sum, Count&gt; and update it while postorder traversal and also keep maxCount to store max no of times particular sum occurs. after that create list and put only those sum who has same count as maxCount.</t>
+  </si>
+  <si>
+    <t>Find Bottom Left Tree Value</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-bottom-left-tree-value/</t>
+  </si>
+  <si>
+    <t>At every level store first value in ans using level order travesal and return ans at the end</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-duplicate-subtrees/</t>
+  </si>
+  <si>
+    <t>Create hashmap to store string(postorder of subtree) and pair(node with their count). And perform postorder as we need to build string for every subtreee from bottom to up. After this if we get any string whose count &gt; 1 then its duplicate. Store those nodes in string and return result list.</t>
   </si>
 </sst>
 </file>
@@ -8698,11 +8716,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9065,830 +9083,852 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="58">
+    <row r="33" spans="1:3" s="51" customFormat="1" ht="29">
       <c r="A33" s="52" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="58">
+      <c r="A34" s="52" t="s">
         <v>850</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B34" s="52" t="s">
         <v>849</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C34" s="52" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="72.5">
-      <c r="A34" s="54" t="s">
+    <row r="35" spans="1:3" ht="72.5">
+      <c r="A35" s="54" t="s">
         <v>853</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B35" s="54" t="s">
         <v>852</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C35" s="54" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="72.5">
-      <c r="A35" s="52" t="s">
+    <row r="36" spans="1:3" ht="72.5">
+      <c r="A36" s="52" t="s">
         <v>855</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>854</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C36" s="52" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="58">
-      <c r="A36" s="52" t="s">
-        <v>858</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>856</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="58">
       <c r="A37" s="52" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
       <c r="A38" s="52" t="s">
+        <v>857</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="58">
+      <c r="A39" s="52" t="s">
         <v>861</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B39" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C39" s="52" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="58">
-      <c r="A39" s="51" t="s">
+    <row r="40" spans="1:3" ht="58">
+      <c r="A40" s="51" t="s">
         <v>867</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B40" s="51" t="s">
         <v>868</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C40" s="51" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="87">
-      <c r="A40" s="52" t="s">
+    <row r="41" spans="1:3" ht="87">
+      <c r="A41" s="52" t="s">
         <v>870</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C41" s="52" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="43.5">
-      <c r="A41" s="52" t="s">
+    <row r="42" spans="1:3" ht="43.5">
+      <c r="A42" s="52" t="s">
         <v>889</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>888</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C42" s="52" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="58">
-      <c r="A42" s="52" t="s">
+    <row r="43" spans="1:3" ht="58">
+      <c r="A43" s="52" t="s">
         <v>892</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B43" s="52" t="s">
         <v>891</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C43" s="52" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="72.5">
-      <c r="A43" s="52" t="s">
+    <row r="44" spans="1:3" ht="72.5">
+      <c r="A44" s="52" t="s">
         <v>894</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B44" s="52" t="s">
         <v>895</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C44" s="52" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="58">
-      <c r="A44" s="52" t="s">
-        <v>899</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>898</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="58">
       <c r="A45" s="52" t="s">
+        <v>899</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>898</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="58">
+      <c r="A46" s="52" t="s">
         <v>980</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B46" s="56" t="s">
         <v>979</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C46" s="52" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="58">
-      <c r="A46" s="54" t="s">
+    <row r="47" spans="1:3" ht="58">
+      <c r="A47" s="54" t="s">
         <v>906</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B47" s="54" t="s">
         <v>907</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C47" s="54" t="s">
         <v>908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="58">
-      <c r="A47" s="52" t="s">
-        <v>957</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>958</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="58">
       <c r="A48" s="52" t="s">
+        <v>957</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>958</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="58">
+      <c r="A49" s="52" t="s">
         <v>901</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B49" s="52" t="s">
         <v>900</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C49" s="52" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="87">
-      <c r="A49" s="52" t="s">
+    <row r="50" spans="1:3" ht="87">
+      <c r="A50" s="52" t="s">
         <v>913</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B50" s="52" t="s">
         <v>912</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C50" s="52" t="s">
         <v>914</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="58">
-      <c r="A50" s="52" t="s">
-        <v>916</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>915</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="58">
       <c r="A51" s="52" t="s">
+        <v>916</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="58">
+      <c r="A52" s="52" t="s">
         <v>928</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B52" s="52" t="s">
         <v>927</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C52" s="52" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="87">
-      <c r="A52" s="52" t="s">
+    <row r="53" spans="1:3" ht="87">
+      <c r="A53" s="52" t="s">
         <v>931</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B53" s="52" t="s">
         <v>930</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C53" s="52" t="s">
         <v>932</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.5">
-      <c r="A53" s="52" t="s">
-        <v>934</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>933</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5">
       <c r="A54" s="52" t="s">
+        <v>934</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>933</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="43.5">
+      <c r="A55" s="52" t="s">
         <v>937</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B55" s="52" t="s">
         <v>936</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C55" s="52" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="29">
-      <c r="A55" s="52" t="s">
+    <row r="56" spans="1:3" ht="29">
+      <c r="A56" s="52" t="s">
         <v>948</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B56" s="56" t="s">
         <v>950</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C56" s="52" t="s">
         <v>949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="43.5">
-      <c r="A56" s="52" t="s">
-        <v>940</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>939</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="43.5">
       <c r="A57" s="52" t="s">
+        <v>940</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="43.5">
+      <c r="A58" s="52" t="s">
         <v>942</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B58" s="52" t="s">
         <v>943</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C58" s="52" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="101.5">
-      <c r="A58" s="52" t="s">
+    <row r="59" spans="1:3" ht="101.5">
+      <c r="A59" s="52" t="s">
         <v>946</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B59" s="52" t="s">
         <v>945</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C59" s="52" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="57" customFormat="1" ht="58">
-      <c r="A59" s="52" t="s">
+    <row r="60" spans="1:3" s="57" customFormat="1" ht="58">
+      <c r="A60" s="52" t="s">
         <v>963</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B60" s="52" t="s">
         <v>964</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C60" s="52" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="43.5">
-      <c r="A60" s="52" t="s">
-        <v>976</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>975</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.5">
       <c r="A61" s="52" t="s">
+        <v>976</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>975</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.5">
+      <c r="A62" s="52" t="s">
         <v>1115</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B62" s="56" t="s">
         <v>1116</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C62" s="52" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="29">
-      <c r="A62" s="51" t="s">
+    <row r="63" spans="1:3" ht="29">
+      <c r="A63" s="51" t="s">
         <v>982</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B63" s="51" t="s">
         <v>981</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C63" s="51" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="43.5">
-      <c r="A63" s="52" t="s">
+    <row r="64" spans="1:3" ht="43.5">
+      <c r="A64" s="52" t="s">
         <v>984</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>985</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C64" s="52" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="58">
-      <c r="A64" s="52" t="s">
+    <row r="65" spans="1:3" ht="58">
+      <c r="A65" s="52" t="s">
         <v>989</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B65" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C65" s="52" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29">
-      <c r="A65" s="51" t="s">
+    <row r="66" spans="1:3" ht="29">
+      <c r="A66" s="51" t="s">
         <v>991</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B66" s="51" t="s">
         <v>990</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C66" s="51" t="s">
         <v>992</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="43.5">
-      <c r="A66" s="51" t="s">
-        <v>994</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>993</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.5">
       <c r="A67" s="51" t="s">
+        <v>994</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>993</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.5">
+      <c r="A68" s="51" t="s">
         <v>997</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B68" s="51" t="s">
         <v>996</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C68" s="51" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="43.5">
-      <c r="A68" s="54" t="s">
+    <row r="69" spans="1:3" ht="43.5">
+      <c r="A69" s="54" t="s">
         <v>1000</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B69" s="54" t="s">
         <v>999</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C69" s="54" t="s">
         <v>1001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="43.5">
-      <c r="A69" s="52" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5">
       <c r="A70" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.5">
+      <c r="A71" s="52" t="s">
         <v>1011</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B71" s="52" t="s">
         <v>1010</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C71" s="52" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="72.5">
-      <c r="A71" s="54" t="s">
+    <row r="72" spans="1:3" ht="72.5">
+      <c r="A72" s="54" t="s">
         <v>1013</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B72" s="54" t="s">
         <v>1014</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C72" s="54" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="58" customFormat="1"/>
-    <row r="73" spans="1:3" ht="29">
-      <c r="A73" s="51" t="s">
+    <row r="73" spans="1:3" s="58" customFormat="1"/>
+    <row r="74" spans="1:3" ht="29">
+      <c r="A74" s="51" t="s">
         <v>1016</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B74" s="51" t="s">
         <v>1017</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C74" s="51" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="43.5">
-      <c r="A74" s="52" t="s">
+    <row r="75" spans="1:3" ht="43.5">
+      <c r="A75" s="52" t="s">
         <v>1020</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B75" s="52" t="s">
         <v>1019</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C75" s="52" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A75" s="52" t="s">
+    <row r="76" spans="1:3" ht="53.5" customHeight="1">
+      <c r="A76" s="52" t="s">
         <v>1023</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B76" s="52" t="s">
         <v>1022</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C76" s="52" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A76" s="51" t="s">
+    <row r="77" spans="1:3" ht="53.5" customHeight="1">
+      <c r="A77" s="51" t="s">
         <v>1055</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B77" s="51" t="s">
         <v>1056</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C77" s="51" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="58">
-      <c r="A77" s="52" t="s">
+    <row r="78" spans="1:3" ht="58">
+      <c r="A78" s="52" t="s">
         <v>1026</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B78" s="52" t="s">
         <v>1025</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C78" s="52" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="87">
-      <c r="A78" s="52" t="s">
+    <row r="79" spans="1:3" ht="87">
+      <c r="A79" s="52" t="s">
         <v>1028</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B79" s="52" t="s">
         <v>1029</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C79" s="52" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="43.5">
-      <c r="A79" s="52" t="s">
+    <row r="80" spans="1:3" ht="43.5">
+      <c r="A80" s="52" t="s">
         <v>1032</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B80" s="52" t="s">
         <v>1031</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C80" s="52" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="29">
-      <c r="A80" s="52" t="s">
+    <row r="81" spans="1:3" ht="29">
+      <c r="A81" s="52" t="s">
         <v>1035</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B81" s="52" t="s">
         <v>1034</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C81" s="52" t="s">
         <v>1036</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="43.5">
-      <c r="A81" s="52" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
       <c r="A82" s="52" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="43.5">
       <c r="A83" s="52" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="43.5">
+      <c r="A84" s="52" t="s">
         <v>1044</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B84" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C84" s="52" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="29">
-      <c r="A84" s="51" t="s">
+    <row r="85" spans="1:3" ht="29">
+      <c r="A85" s="51" t="s">
         <v>1047</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B85" s="51" t="s">
         <v>1046</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C85" s="51" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="72.5">
-      <c r="A85" s="52" t="s">
+    <row r="86" spans="1:3" ht="72.5">
+      <c r="A86" s="52" t="s">
         <v>1050</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B86" s="52" t="s">
         <v>1049</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C86" s="52" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.5">
-      <c r="A86" s="51" t="s">
+    <row r="87" spans="1:3" ht="43.5">
+      <c r="A87" s="51" t="s">
         <v>1052</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B87" s="51" t="s">
         <v>1053</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C87" s="51" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="87">
-      <c r="A87" s="52" t="s">
+    <row r="88" spans="1:3" ht="87">
+      <c r="A88" s="52" t="s">
         <v>1059</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B88" s="52" t="s">
         <v>1058</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C88" s="52" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="101.5">
-      <c r="A88" s="52" t="s">
+    <row r="89" spans="1:3" ht="101.5">
+      <c r="A89" s="52" t="s">
         <v>1061</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B89" s="52" t="s">
         <v>1062</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C89" s="52" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="43.5">
-      <c r="A89" s="54" t="s">
+    <row r="90" spans="1:3" ht="43.5">
+      <c r="A90" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B90" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C90" s="54" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="29">
-      <c r="A90" s="51" t="s">
+    <row r="91" spans="1:3" ht="29">
+      <c r="A91" s="51" t="s">
         <v>1068</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B91" s="51" t="s">
         <v>1067</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C91" s="51" t="s">
         <v>1069</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="43.5">
-      <c r="A91" s="51" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B91" s="51" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.5">
       <c r="A92" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="43.5">
+      <c r="A93" s="51" t="s">
         <v>1074</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B93" s="51" t="s">
         <v>1073</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C93" s="51" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="58">
-      <c r="A93" s="52" t="s">
+    <row r="94" spans="1:3" ht="58">
+      <c r="A94" s="52" t="s">
         <v>1077</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B94" s="52" t="s">
         <v>1076</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C94" s="52" t="s">
         <v>1078</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="29">
-      <c r="A94" s="52" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B94" s="52" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C94" s="52" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="29">
       <c r="A95" s="52" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="29">
+      <c r="A96" s="52" t="s">
         <v>1082</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B96" s="52" t="s">
         <v>1081</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C96" s="52" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A96" s="52" t="s">
+    <row r="97" spans="1:3" ht="49.5" customHeight="1">
+      <c r="A97" s="52" t="s">
         <v>1085</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B97" s="52" t="s">
         <v>1086</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C97" s="52" t="s">
         <v>1087</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="58">
-      <c r="A97" s="52" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B97" s="52" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="58">
       <c r="A98" s="52" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="58">
       <c r="A99" s="52" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="58">
       <c r="A100" s="52" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="58">
       <c r="A101" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B101" s="52" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="58">
+      <c r="A102" s="52" t="s">
         <v>1100</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B102" s="52" t="s">
         <v>1099</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C102" s="52" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="29">
-      <c r="A102" s="52" t="s">
+    <row r="103" spans="1:3" ht="29">
+      <c r="A103" s="52" t="s">
         <v>1106</v>
       </c>
-      <c r="B102" s="52" t="s">
+      <c r="B103" s="52" t="s">
         <v>1107</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C103" s="52" t="s">
         <v>1108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="43.5">
-      <c r="A103" s="52" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B103" s="52" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C103" s="52" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="43.5">
       <c r="A104" s="52" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="43.5">
       <c r="A105" s="52" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B105" s="52" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="43.5">
+      <c r="A106" s="52" t="s">
         <v>1122</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B106" s="52" t="s">
         <v>1121</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C106" s="52" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="72.5">
-      <c r="A106" s="52" t="s">
+    <row r="107" spans="1:3" ht="72.5">
+      <c r="A107" s="52" t="s">
         <v>1124</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B107" s="52" t="s">
         <v>1125</v>
       </c>
-      <c r="C106" s="52" t="s">
+      <c r="C107" s="52" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A107" s="52" t="s">
+    <row r="108" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A108" s="52" t="s">
         <v>1128</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B108" s="52" t="s">
         <v>1127</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C108" s="52" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="58">
-      <c r="A108" s="52" t="s">
+    <row r="109" spans="1:3" ht="58">
+      <c r="A109" s="52" t="s">
         <v>1131</v>
       </c>
-      <c r="B108" s="52" t="s">
+      <c r="B109" s="52" t="s">
         <v>1130</v>
       </c>
-      <c r="C108" s="52" t="s">
+      <c r="C109" s="52" t="s">
         <v>1132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="43.5">
+      <c r="A110" s="52" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B110" s="52" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -9904,99 +9944,101 @@
     <hyperlink ref="B23" r:id="rId9" xr:uid="{B7469615-5E4C-4680-A0FF-8C9DEA7D543E}"/>
     <hyperlink ref="B25" r:id="rId10" xr:uid="{81E656D6-8586-4633-9E7F-A65C15AF8072}"/>
     <hyperlink ref="B27" r:id="rId11" xr:uid="{E2863F46-927E-44ED-B73F-6C081BE393E2}"/>
-    <hyperlink ref="B33" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
-    <hyperlink ref="B34" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
-    <hyperlink ref="B35" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
-    <hyperlink ref="B36" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
-    <hyperlink ref="B37" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
-    <hyperlink ref="B38" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
-    <hyperlink ref="B39" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
-    <hyperlink ref="B40" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
+    <hyperlink ref="B34" r:id="rId12" xr:uid="{DA166476-099B-4C3B-AEDE-5DED5A403D4B}"/>
+    <hyperlink ref="B35" r:id="rId13" xr:uid="{BB3A9A64-DB75-453F-9753-5DBCAF9A34A0}"/>
+    <hyperlink ref="B36" r:id="rId14" xr:uid="{A8D4AC28-C130-48F2-9C8C-979653AC42A2}"/>
+    <hyperlink ref="B37" r:id="rId15" xr:uid="{AF0E3945-C3F3-452C-B5A3-2103AA886AB8}"/>
+    <hyperlink ref="B38" r:id="rId16" xr:uid="{626A16B4-F56C-4BFB-81FE-BADB7FB0CEE1}"/>
+    <hyperlink ref="B39" r:id="rId17" xr:uid="{4C6287AA-E1F1-4BC5-ADD6-9A666298B960}"/>
+    <hyperlink ref="B40" r:id="rId18" xr:uid="{3D7164EB-E2B2-4C89-9E25-625FFAB0554A}"/>
+    <hyperlink ref="B41" r:id="rId19" xr:uid="{11C1DE0C-ADF4-4AD6-8E61-EE05C6344A6C}"/>
     <hyperlink ref="B19" r:id="rId20" xr:uid="{703CB13D-8331-41D4-A9EF-F9FCE41E59E9}"/>
     <hyperlink ref="B20" r:id="rId21" xr:uid="{0CDEE7E5-3BE8-416F-A05B-E8FA9352E817}"/>
     <hyperlink ref="B26" r:id="rId22" xr:uid="{B5EFE330-A6B4-40D5-AA82-AA0CA4319188}"/>
     <hyperlink ref="B18" r:id="rId23" xr:uid="{6294FEEA-470B-4092-94D8-38FFB99982FA}"/>
     <hyperlink ref="B12" r:id="rId24" xr:uid="{3AA700D6-832B-459C-B04A-2262C5B9B313}"/>
     <hyperlink ref="B24" r:id="rId25" xr:uid="{CC705B65-45D7-42FF-8C39-BD719A069C24}"/>
-    <hyperlink ref="B41" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
-    <hyperlink ref="B42" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
-    <hyperlink ref="B43" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
-    <hyperlink ref="B44" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
-    <hyperlink ref="B48" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{82961A99-DEA7-4C30-B018-67EE3FB350D6}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{D0797BB3-D25A-4701-AA04-C4AFA4771FE1}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{46A996CA-1C39-401E-A2A9-0FA54A9861D2}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{5AD40EDF-3F59-4344-9A28-8792FA4E0453}"/>
+    <hyperlink ref="B49" r:id="rId30" xr:uid="{688F8E15-47DF-4883-8926-B8957AB7D64E}"/>
     <hyperlink ref="B13" r:id="rId31" xr:uid="{4CDF29DE-F7A2-42A5-84A4-0BF96EF0A475}"/>
-    <hyperlink ref="B46" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
+    <hyperlink ref="B47" r:id="rId32" xr:uid="{47FC4451-DDA9-4A04-AF3A-B036EF0997AC}"/>
     <hyperlink ref="B14" r:id="rId33" xr:uid="{15C42B5C-7717-4253-B3C0-B188C8D99D9A}"/>
-    <hyperlink ref="B49" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
-    <hyperlink ref="B50" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{05ED1C55-7B62-484A-B84A-CAAE3AD105F8}"/>
+    <hyperlink ref="B51" r:id="rId35" xr:uid="{745BBA0D-ECAD-4051-9E9C-ADB7F885B53D}"/>
     <hyperlink ref="B15" r:id="rId36" xr:uid="{EC9EEFF8-9634-4DB8-B989-A97FCCF2CB1D}"/>
     <hyperlink ref="B16" r:id="rId37" xr:uid="{C6F54F02-E00C-4D59-9345-DD461A35194A}"/>
     <hyperlink ref="B17" r:id="rId38" xr:uid="{35E83BBE-42AB-47EB-9F18-9E14CF76940D}"/>
-    <hyperlink ref="B51" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
-    <hyperlink ref="B52" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
-    <hyperlink ref="B53" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
-    <hyperlink ref="B54" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
-    <hyperlink ref="B57" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
-    <hyperlink ref="B55" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
+    <hyperlink ref="B52" r:id="rId39" xr:uid="{F40520EA-8E03-44D9-BD3C-10F6B2B41EE4}"/>
+    <hyperlink ref="B53" r:id="rId40" xr:uid="{3D439CC8-76EA-471B-8DC0-6BFB2F4615A2}"/>
+    <hyperlink ref="B54" r:id="rId41" xr:uid="{3AAD1240-4E62-4260-B466-8916D834F0A3}"/>
+    <hyperlink ref="B55" r:id="rId42" xr:uid="{13745D79-51C2-4637-909A-0E3E1CA75650}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{AE8FC655-49EF-4218-AC5C-8FF86E4815E4}"/>
+    <hyperlink ref="B58" r:id="rId44" xr:uid="{D4A2BC17-5D6C-46F6-A90E-21B2285A7B1D}"/>
+    <hyperlink ref="B59" r:id="rId45" xr:uid="{2DBDC04E-FA6F-48B9-BAB9-73DDB8C2017A}"/>
+    <hyperlink ref="B56" r:id="rId46" xr:uid="{7F67151B-D90C-4F50-9A97-052139146CBF}"/>
     <hyperlink ref="B10" r:id="rId47" xr:uid="{7C7B8320-69C2-45C0-A0A7-8F9D5B2A9C24}"/>
-    <hyperlink ref="B47" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
+    <hyperlink ref="B48" r:id="rId48" xr:uid="{A84D29F4-2A20-4410-99E0-698BD862CCF8}"/>
     <hyperlink ref="B28" r:id="rId49" xr:uid="{76C5B337-D2A1-483E-A9C2-E1899E545301}"/>
-    <hyperlink ref="B59" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{F92219E6-C98F-4097-9C0B-1D5E7FE833AA}"/>
     <hyperlink ref="B29" r:id="rId51" xr:uid="{E8DE5051-0B7E-4601-9690-FDA131A96C6D}"/>
     <hyperlink ref="B31" r:id="rId52" xr:uid="{701FBF49-43F4-4B64-901F-71835F2BE4E5}"/>
     <hyperlink ref="B7" r:id="rId53" xr:uid="{977DCDA6-4170-46C4-851B-F2F20496811E}"/>
-    <hyperlink ref="B60" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
-    <hyperlink ref="B45" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
-    <hyperlink ref="B62" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
-    <hyperlink ref="B63" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
-    <hyperlink ref="B64" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
-    <hyperlink ref="B65" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
-    <hyperlink ref="B66" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
-    <hyperlink ref="B67" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
-    <hyperlink ref="B68" r:id="rId62" xr:uid="{3E463A75-D9FE-4632-B903-8E98CD3C3879}"/>
-    <hyperlink ref="B69" r:id="rId63" xr:uid="{9693B0D0-37B2-41EA-9889-27BD8B867720}"/>
-    <hyperlink ref="B70" r:id="rId64" xr:uid="{C42B949D-FEEC-44F5-A1AE-DAF5DA2B1CF2}"/>
-    <hyperlink ref="B71" r:id="rId65" xr:uid="{8E4E89F4-3053-4E16-B89C-0614C93435E5}"/>
-    <hyperlink ref="B73" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
-    <hyperlink ref="B74" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
-    <hyperlink ref="B75" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
-    <hyperlink ref="B77" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
-    <hyperlink ref="B78" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
-    <hyperlink ref="B79" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
-    <hyperlink ref="B80" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
-    <hyperlink ref="B81" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
-    <hyperlink ref="B82" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
-    <hyperlink ref="B83" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
-    <hyperlink ref="B84" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
-    <hyperlink ref="B85" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
-    <hyperlink ref="B86" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
-    <hyperlink ref="B76" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
-    <hyperlink ref="B87" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
-    <hyperlink ref="B88" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
-    <hyperlink ref="B89" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
-    <hyperlink ref="B91" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
-    <hyperlink ref="B92" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
-    <hyperlink ref="B93" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
-    <hyperlink ref="B94" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
-    <hyperlink ref="B95" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
-    <hyperlink ref="B96" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
-    <hyperlink ref="B97" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
-    <hyperlink ref="B98" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
-    <hyperlink ref="B99" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
-    <hyperlink ref="B100" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
-    <hyperlink ref="B101" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
-    <hyperlink ref="B102" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
-    <hyperlink ref="B103" r:id="rId96" xr:uid="{607D6B52-18EF-4B8F-AC8D-61DA1A5C984C}"/>
-    <hyperlink ref="B104" r:id="rId97" xr:uid="{16A16CFA-F783-4271-9454-27D026257C0B}"/>
-    <hyperlink ref="B61" r:id="rId98" xr:uid="{5BD29456-2DEB-4D51-897C-734BB19DB07E}"/>
-    <hyperlink ref="B105" r:id="rId99" xr:uid="{084665CD-7271-4414-B000-4F192467A17E}"/>
-    <hyperlink ref="B106" r:id="rId100" xr:uid="{B2209E95-BF00-4C1B-93AA-53E5359810D8}"/>
-    <hyperlink ref="B107" r:id="rId101" xr:uid="{F07C5CEA-EEF7-498E-9325-760790AB6125}"/>
-    <hyperlink ref="B108" r:id="rId102" xr:uid="{8A5BD43A-E4C4-435D-97D7-FD37DFF719EA}"/>
+    <hyperlink ref="B61" r:id="rId54" xr:uid="{A7E459F7-6D78-4AAD-8EDA-2374D04F9D5B}"/>
+    <hyperlink ref="B46" r:id="rId55" xr:uid="{CDB6EAD6-F896-4751-9B34-95039510F736}"/>
+    <hyperlink ref="B63" r:id="rId56" xr:uid="{A928FB79-499C-41E7-8DBD-FBF9D8D69343}"/>
+    <hyperlink ref="B64" r:id="rId57" xr:uid="{AD93399C-3689-4C1A-A94A-FCB307F11A28}"/>
+    <hyperlink ref="B65" r:id="rId58" xr:uid="{10434BF1-D4FB-4D4E-973D-ACD56781EBF5}"/>
+    <hyperlink ref="B66" r:id="rId59" xr:uid="{7E456E30-EDE5-47DC-A427-5E3C582CF8E3}"/>
+    <hyperlink ref="B67" r:id="rId60" xr:uid="{DDD29300-0E60-4AF7-A751-38DDA540BDBF}"/>
+    <hyperlink ref="B68" r:id="rId61" xr:uid="{331A7DC9-004B-42BA-A75B-05B72D031320}"/>
+    <hyperlink ref="B69" r:id="rId62" xr:uid="{3E463A75-D9FE-4632-B903-8E98CD3C3879}"/>
+    <hyperlink ref="B70" r:id="rId63" xr:uid="{9693B0D0-37B2-41EA-9889-27BD8B867720}"/>
+    <hyperlink ref="B71" r:id="rId64" xr:uid="{C42B949D-FEEC-44F5-A1AE-DAF5DA2B1CF2}"/>
+    <hyperlink ref="B72" r:id="rId65" xr:uid="{8E4E89F4-3053-4E16-B89C-0614C93435E5}"/>
+    <hyperlink ref="B74" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
+    <hyperlink ref="B75" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
+    <hyperlink ref="B76" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
+    <hyperlink ref="B77" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
+    <hyperlink ref="B88" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
+    <hyperlink ref="B89" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
+    <hyperlink ref="B90" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
+    <hyperlink ref="B91" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
+    <hyperlink ref="B92" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
+    <hyperlink ref="B93" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
+    <hyperlink ref="B94" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
+    <hyperlink ref="B95" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
+    <hyperlink ref="B96" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
+    <hyperlink ref="B97" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
+    <hyperlink ref="B98" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
+    <hyperlink ref="B99" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
+    <hyperlink ref="B100" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
+    <hyperlink ref="B101" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
+    <hyperlink ref="B102" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
+    <hyperlink ref="B103" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
+    <hyperlink ref="B104" r:id="rId96" xr:uid="{607D6B52-18EF-4B8F-AC8D-61DA1A5C984C}"/>
+    <hyperlink ref="B105" r:id="rId97" xr:uid="{16A16CFA-F783-4271-9454-27D026257C0B}"/>
+    <hyperlink ref="B62" r:id="rId98" xr:uid="{5BD29456-2DEB-4D51-897C-734BB19DB07E}"/>
+    <hyperlink ref="B106" r:id="rId99" xr:uid="{084665CD-7271-4414-B000-4F192467A17E}"/>
+    <hyperlink ref="B107" r:id="rId100" xr:uid="{B2209E95-BF00-4C1B-93AA-53E5359810D8}"/>
+    <hyperlink ref="B108" r:id="rId101" xr:uid="{F07C5CEA-EEF7-498E-9325-760790AB6125}"/>
+    <hyperlink ref="B109" r:id="rId102" xr:uid="{8A5BD43A-E4C4-435D-97D7-FD37DFF719EA}"/>
+    <hyperlink ref="B33" r:id="rId103" xr:uid="{441F169D-0CCC-409E-8B9B-6284914F345C}"/>
+    <hyperlink ref="B110" r:id="rId104" xr:uid="{655548E8-6E41-4B3D-8C71-2859EB270E99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId103"/>
+  <pageSetup orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C6513-4626-45D3-8936-02A111B7A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D1070E-617B-499A-946E-FB8723EA9BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1145">
   <si>
     <t>Topic</t>
   </si>
@@ -4168,6 +4168,24 @@
   </si>
   <si>
     <t>Create hashmap to store string(postorder of subtree) and pair(node with their count). And perform postorder as we need to build string for every subtreee from bottom to up. After this if we get any string whose count &gt; 1 then its duplicate. Store those nodes in string and return result list.</t>
+  </si>
+  <si>
+    <t>Print Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/print-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> basically at every row we need to put root value at mid of low and high of col. Find row and col value from height. Build res with empty list of list. And perform updating operation -&gt; find mid from low and high of col and root value in current row list of res at mid index. for left child update low &amp; high value of col and same for right child as well and return updated res.</t>
+  </si>
+  <si>
+    <t>Longest Univalue Path</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-univalue-path/</t>
+  </si>
+  <si>
+    <t>Here instead of finding path we can find nodes and path = node - 1. create max global variable to store no of nodes. Apply postorder and start building from bottom to up and every time update max value. And if root value is matching with prev value then return max from left and right + 1(Root node) or if not matching then return 0 (refer code)</t>
   </si>
 </sst>
 </file>
@@ -8716,11 +8734,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110:C110"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9929,6 +9947,28 @@
       </c>
       <c r="C110" s="52" t="s">
         <v>1138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="43.5">
+      <c r="A111" s="52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B111" s="52" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="43.5">
+      <c r="A112" s="52" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B112" s="52" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -10037,8 +10077,10 @@
     <hyperlink ref="B109" r:id="rId102" xr:uid="{8A5BD43A-E4C4-435D-97D7-FD37DFF719EA}"/>
     <hyperlink ref="B33" r:id="rId103" xr:uid="{441F169D-0CCC-409E-8B9B-6284914F345C}"/>
     <hyperlink ref="B110" r:id="rId104" xr:uid="{655548E8-6E41-4B3D-8C71-2859EB270E99}"/>
+    <hyperlink ref="B111" r:id="rId105" xr:uid="{5F5DA0EE-B481-4B34-BD6F-CDAFAB9C2EC8}"/>
+    <hyperlink ref="B112" r:id="rId106" xr:uid="{1909526D-E98E-4543-987E-6CBCEC02A9CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D1070E-617B-499A-946E-FB8723EA9BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDEDE6-39DA-4FC1-A6D5-4A3B33A000A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1151">
   <si>
     <t>Topic</t>
   </si>
@@ -4186,6 +4186,25 @@
   </si>
   <si>
     <t>Here instead of finding path we can find nodes and path = node - 1. create max global variable to store no of nodes. Apply postorder and start building from bottom to up and every time update max value. And if root value is matching with prev value then return max from left and right + 1(Root node) or if not matching then return 0 (refer code)</t>
+  </si>
+  <si>
+    <t>Binary Tree Pruning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-pruning/</t>
+  </si>
+  <si>
+    <t>Here we need to delete the node if its left and right is null and its node value is 0. to perfrom delete opration we need to go from bottom to up. Hence apply postorder traversal and if delete condition satisfy then return null else return root</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cycle-length-queries-in-a-tree/</t>
+  </si>
+  <si>
+    <t>Cycle Length Queries in a Tree</t>
+  </si>
+  <si>
+    <t>Here for every query numbers(a,b) we need to find LCA and count totalpath between them and add it in result array.
+now here we need to find LCA of num1 and num2 as we know here node values are arranged in such way that parent = child / 2 so we will keep dividing both node until they become same so thats LCA. while dividing check which num is greather and divide that so we moving upword in any case so inc count of totolPath by 1.now we got totolPath and add 1 in it as we need to add edge between num1 and num2 so that edge we need to count and store in result</t>
   </si>
 </sst>
 </file>
@@ -8734,11 +8753,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9969,6 +9988,28 @@
       </c>
       <c r="C112" s="52" t="s">
         <v>1144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="29">
+      <c r="A113" s="52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B113" s="52" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="72.5">
+      <c r="A114" s="54" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C114" s="54" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
@@ -10079,8 +10120,9 @@
     <hyperlink ref="B110" r:id="rId104" xr:uid="{655548E8-6E41-4B3D-8C71-2859EB270E99}"/>
     <hyperlink ref="B111" r:id="rId105" xr:uid="{5F5DA0EE-B481-4B34-BD6F-CDAFAB9C2EC8}"/>
     <hyperlink ref="B112" r:id="rId106" xr:uid="{1909526D-E98E-4543-987E-6CBCEC02A9CA}"/>
+    <hyperlink ref="B113" r:id="rId107" xr:uid="{09B6091E-7554-4382-8C38-585EB0FE9617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId107"/>
+  <pageSetup orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDEDE6-39DA-4FC1-A6D5-4A3B33A000A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA5690-03B3-409B-88EC-66CC0D08320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,30 @@
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
     <sheet name="Linked List -31" sheetId="5" r:id="rId5"/>
     <sheet name="Trees" sheetId="6" r:id="rId6"/>
+    <sheet name="Graphs" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DP-102'!$A$1:$C$21</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1160">
   <si>
     <t>Topic</t>
   </si>
@@ -4205,6 +4219,34 @@
   <si>
     <t>Here for every query numbers(a,b) we need to find LCA and count totalpath between them and add it in result array.
 now here we need to find LCA of num1 and num2 as we know here node values are arranged in such way that parent = child / 2 so we will keep dividing both node until they become same so thats LCA. while dividing check which num is greather and divide that so we moving upword in any case so inc count of totolPath by 1.now we got totolPath and add 1 in it as we need to add edge between num1 and num2 so that edge we need to count and store in result</t>
+  </si>
+  <si>
+    <t>DFS of Graph</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/depth-first-traversal-for-a-graph/1</t>
+  </si>
+  <si>
+    <t>Create visited array to make sure every node should visit once. If graph starting from 0 then make n size of array if 1 then make n+1 size of array. Now start from 0th node and make it as visited and add in list. And then do same its for neighbours recursively. if they not already vsisted.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1</t>
+  </si>
+  <si>
+    <t>BFS of graph</t>
+  </si>
+  <si>
+    <t>Create visited array to make sure every node should visit once. If graph starting from 0 then make n size of array if 1 then make n+1 size of array. Create queue to store nodes as BFS manner. And initially add start node in queue and mark it as visited. then run loop till queue becoms emepty and at every iteration poll node from queue. add to result. and store its neighbour in queue if not visited.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-center-of-star-graph/</t>
+  </si>
+  <si>
+    <t>Find Center of Star Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A center node must appear in every edge. so we only need to check starting two edges
+if edge1's fist node(u) is present in edge2 then its star node else edge1's second node(v) is star node</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4675,6 +4717,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8348,8 +8396,8 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8755,9 +8803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10125,4 +10173,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId108"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.7265625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="107.1796875" style="59" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5">
+      <c r="A2" s="60" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="58">
+      <c r="A3" s="60" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29">
+      <c r="A4" s="60" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{385A827C-8105-4D75-AE6C-BAA8239FC3F3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{54AD8295-1C58-4B86-8867-74F84ECDE2F3}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA5690-03B3-409B-88EC-66CC0D08320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDA490-8018-4926-B407-85CD410AB9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Recursion &amp; Backtracking-37" sheetId="2" r:id="rId3"/>
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
     <sheet name="Linked List -31" sheetId="5" r:id="rId5"/>
-    <sheet name="Trees" sheetId="6" r:id="rId6"/>
+    <sheet name="Trees-112" sheetId="6" r:id="rId6"/>
     <sheet name="Graphs" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1166">
   <si>
     <t>Topic</t>
   </si>
@@ -4247,6 +4247,24 @@
   <si>
     <t xml:space="preserve"> A center node must appear in every edge. so we only need to check starting two edges
 if edge1's fist node(u) is present in edge2 then its star node else edge1's second node(v) is star node</t>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-provinces/1</t>
+  </si>
+  <si>
+    <t>Make adjlist and create visited array. for every DFS start node will be not-visited. so we can inc count by 1 as we found one component and DFS will mark all nodes which are connected to start node.if next time if we get any not visited node then it must of start of another component hence inc count by 1. So whenever we apply DFS on start node then it indicates that its new component of graph.</t>
+  </si>
+  <si>
+    <t>Find the number of islands</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1</t>
+  </si>
+  <si>
+    <t>Same as previous we need to find start node of component by grid[i][j] == 1 and then mark it is visited and explore all other adjacent(8 directions) and inc count by 1 as we found one element. And return count</t>
   </si>
 </sst>
 </file>
@@ -4369,7 +4387,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4429,12 +4447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4542,7 +4554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4715,13 +4727,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5238,8 +5253,8 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8397,7 +8412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8801,11 +8816,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9608,455 +9623,454 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="58" customFormat="1"/>
-    <row r="74" spans="1:3" ht="29">
-      <c r="A74" s="51" t="s">
+    <row r="73" spans="1:3" ht="29">
+      <c r="A73" s="51" t="s">
         <v>1016</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B73" s="51" t="s">
         <v>1017</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C73" s="51" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.5">
+    <row r="74" spans="1:3" ht="43.5">
+      <c r="A74" s="52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="53.5" customHeight="1">
       <c r="A75" s="52" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A76" s="52" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C76" s="52" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A77" s="51" t="s">
+      <c r="A76" s="51" t="s">
         <v>1055</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B76" s="51" t="s">
         <v>1056</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C76" s="51" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="58">
+    <row r="77" spans="1:3" ht="58">
+      <c r="A77" s="52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="87">
       <c r="A78" s="52" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="87">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="43.5">
       <c r="A79" s="52" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="43.5">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="29">
       <c r="A80" s="52" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="29">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="43.5">
       <c r="A81" s="52" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
       <c r="A82" s="52" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="43.5">
       <c r="A83" s="52" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="43.5">
-      <c r="A84" s="52" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C84" s="52" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="29">
-      <c r="A85" s="51" t="s">
+    <row r="84" spans="1:3" ht="29">
+      <c r="A84" s="51" t="s">
         <v>1047</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B84" s="51" t="s">
         <v>1046</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C84" s="51" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="72.5">
-      <c r="A86" s="52" t="s">
+    <row r="85" spans="1:3" ht="72.5">
+      <c r="A85" s="52" t="s">
         <v>1050</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B85" s="52" t="s">
         <v>1049</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C85" s="52" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="43.5">
-      <c r="A87" s="51" t="s">
+    <row r="86" spans="1:3" ht="43.5">
+      <c r="A86" s="51" t="s">
         <v>1052</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B86" s="51" t="s">
         <v>1053</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C86" s="51" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="87">
+    <row r="87" spans="1:3" ht="87">
+      <c r="A87" s="52" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="101.5">
       <c r="A88" s="52" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="101.5">
-      <c r="A89" s="52" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B89" s="52" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C89" s="52" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.5">
-      <c r="A90" s="54" t="s">
+    <row r="89" spans="1:3" ht="43.5">
+      <c r="A89" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B89" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C89" s="54" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="29">
+    <row r="90" spans="1:3" ht="29">
+      <c r="A90" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="43.5">
       <c r="A91" s="51" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.5">
       <c r="A92" s="51" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="43.5">
-      <c r="A93" s="51" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B93" s="51" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C93" s="51" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="58">
+    <row r="93" spans="1:3" ht="58">
+      <c r="A93" s="52" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="29">
       <c r="A94" s="52" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="29">
       <c r="A95" s="52" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="29">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="49.5" customHeight="1">
       <c r="A96" s="52" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="49.5" customHeight="1">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="58">
       <c r="A97" s="52" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="58">
       <c r="A98" s="52" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="58">
       <c r="A99" s="52" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="58">
       <c r="A100" s="52" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="58">
       <c r="A101" s="52" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="58">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="29">
       <c r="A102" s="52" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="29">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="43.5">
       <c r="A103" s="52" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="43.5">
       <c r="A104" s="52" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="43.5">
       <c r="A105" s="52" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="43.5">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="72.5">
       <c r="A106" s="52" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B106" s="52" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="72.5">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="58.5" customHeight="1">
       <c r="A107" s="52" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="58.5" customHeight="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="58">
       <c r="A108" s="52" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B108" s="52" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="58">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="43.5">
       <c r="A109" s="52" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="43.5">
       <c r="A110" s="52" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B110" s="52" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="43.5">
       <c r="A111" s="52" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="43.5">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="29">
       <c r="A112" s="52" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="29">
-      <c r="A113" s="52" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B113" s="52" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C113" s="52" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="72.5">
-      <c r="A114" s="54" t="s">
+    <row r="113" spans="1:3" ht="72.5">
+      <c r="A113" s="54" t="s">
         <v>1149</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B113" s="54" t="s">
         <v>1148</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C113" s="54" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -10127,48 +10141,48 @@
     <hyperlink ref="B70" r:id="rId63" xr:uid="{9693B0D0-37B2-41EA-9889-27BD8B867720}"/>
     <hyperlink ref="B71" r:id="rId64" xr:uid="{C42B949D-FEEC-44F5-A1AE-DAF5DA2B1CF2}"/>
     <hyperlink ref="B72" r:id="rId65" xr:uid="{8E4E89F4-3053-4E16-B89C-0614C93435E5}"/>
-    <hyperlink ref="B74" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
-    <hyperlink ref="B75" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
-    <hyperlink ref="B76" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
-    <hyperlink ref="B79" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
-    <hyperlink ref="B81" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
-    <hyperlink ref="B82" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
-    <hyperlink ref="B83" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
-    <hyperlink ref="B85" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
-    <hyperlink ref="B86" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
-    <hyperlink ref="B87" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
-    <hyperlink ref="B77" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
-    <hyperlink ref="B88" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
-    <hyperlink ref="B89" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
-    <hyperlink ref="B90" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
-    <hyperlink ref="B91" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
-    <hyperlink ref="B92" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
-    <hyperlink ref="B93" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
-    <hyperlink ref="B94" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
-    <hyperlink ref="B95" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
-    <hyperlink ref="B96" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
-    <hyperlink ref="B97" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
-    <hyperlink ref="B100" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
-    <hyperlink ref="B101" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
-    <hyperlink ref="B102" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
-    <hyperlink ref="B103" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
-    <hyperlink ref="B104" r:id="rId96" xr:uid="{607D6B52-18EF-4B8F-AC8D-61DA1A5C984C}"/>
-    <hyperlink ref="B105" r:id="rId97" xr:uid="{16A16CFA-F783-4271-9454-27D026257C0B}"/>
+    <hyperlink ref="B73" r:id="rId66" xr:uid="{697B68AA-2E8E-4D23-9345-DC107905B4D2}"/>
+    <hyperlink ref="B74" r:id="rId67" xr:uid="{E8A88D2E-E0E4-4074-8AEF-21D11B93F5A5}"/>
+    <hyperlink ref="B75" r:id="rId68" xr:uid="{403F5B16-4E9E-40F4-B35A-86A8DE073CDC}"/>
+    <hyperlink ref="B77" r:id="rId69" xr:uid="{D6355CC8-8F0A-40FB-89BD-C28AD543D163}"/>
+    <hyperlink ref="B78" r:id="rId70" xr:uid="{83AD630D-3596-42FC-A027-A726871AC33B}"/>
+    <hyperlink ref="B79" r:id="rId71" xr:uid="{6A7E9500-2E6F-49B5-9DFA-693DB78E4F44}"/>
+    <hyperlink ref="B80" r:id="rId72" xr:uid="{8FE1E6B5-9F4E-44AB-9C47-B67B803CCD1F}"/>
+    <hyperlink ref="B81" r:id="rId73" xr:uid="{18301572-2606-4F2A-80FC-C17749799C49}"/>
+    <hyperlink ref="B82" r:id="rId74" xr:uid="{56D62F63-8887-47F4-9E21-88DC7F6CE2E4}"/>
+    <hyperlink ref="B83" r:id="rId75" xr:uid="{04BFE0F8-019A-449B-8820-BC25E2830919}"/>
+    <hyperlink ref="B84" r:id="rId76" xr:uid="{B8375B1C-8C31-4783-AB9C-99A3F64D20B4}"/>
+    <hyperlink ref="B85" r:id="rId77" xr:uid="{24D66E5A-6D9E-43C9-8B5E-627A0F125E45}"/>
+    <hyperlink ref="B86" r:id="rId78" xr:uid="{293A66B9-F120-45DC-963E-CEE55A2835D9}"/>
+    <hyperlink ref="B76" r:id="rId79" xr:uid="{543060E2-A853-4363-816F-EAA3D692B281}"/>
+    <hyperlink ref="B87" r:id="rId80" xr:uid="{AFABFA8F-780F-46FF-AE33-CF0EEA55B01F}"/>
+    <hyperlink ref="B88" r:id="rId81" xr:uid="{49751F58-5638-4156-BD38-137374CA3B0D}"/>
+    <hyperlink ref="B89" r:id="rId82" xr:uid="{BF380FCF-8871-4632-B9CA-869D91AB0B51}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{5F4CD60F-256A-462E-882A-3E01FFC8F6A2}"/>
+    <hyperlink ref="B91" r:id="rId84" xr:uid="{D6F0F6A1-A474-4099-B91F-F5DF82E77D9C}"/>
+    <hyperlink ref="B92" r:id="rId85" xr:uid="{0E07D110-5A88-4DF8-A9B0-DAFE575A033B}"/>
+    <hyperlink ref="B93" r:id="rId86" xr:uid="{E6699439-6320-4D18-90E8-36B79644ED39}"/>
+    <hyperlink ref="B94" r:id="rId87" xr:uid="{D4E3C2C5-3587-41EF-AF1A-8E0A62B02BF5}"/>
+    <hyperlink ref="B95" r:id="rId88" xr:uid="{2184E44A-CA99-4D8A-A4CD-7B03CCC239AB}"/>
+    <hyperlink ref="B96" r:id="rId89" xr:uid="{DA5A471D-BE2C-427F-9BA2-4ACBFAAFDBDB}"/>
+    <hyperlink ref="B97" r:id="rId90" xr:uid="{4AE68AC8-86A3-45AC-8C6F-1AF6110E0A4F}"/>
+    <hyperlink ref="B98" r:id="rId91" xr:uid="{05BB686E-BB0B-41F7-8924-00EE9160C1E7}"/>
+    <hyperlink ref="B99" r:id="rId92" xr:uid="{695D2463-7609-443E-A782-7F7212FD1060}"/>
+    <hyperlink ref="B100" r:id="rId93" xr:uid="{DFF2F5CB-7D32-4310-A054-5C02E0DD4762}"/>
+    <hyperlink ref="B101" r:id="rId94" xr:uid="{2F184A53-1B33-4961-9EFC-F73C896A8B8F}"/>
+    <hyperlink ref="B102" r:id="rId95" xr:uid="{936D6AC8-059C-4D31-9A5E-9DEC359B445C}"/>
+    <hyperlink ref="B103" r:id="rId96" xr:uid="{607D6B52-18EF-4B8F-AC8D-61DA1A5C984C}"/>
+    <hyperlink ref="B104" r:id="rId97" xr:uid="{16A16CFA-F783-4271-9454-27D026257C0B}"/>
     <hyperlink ref="B62" r:id="rId98" xr:uid="{5BD29456-2DEB-4D51-897C-734BB19DB07E}"/>
-    <hyperlink ref="B106" r:id="rId99" xr:uid="{084665CD-7271-4414-B000-4F192467A17E}"/>
-    <hyperlink ref="B107" r:id="rId100" xr:uid="{B2209E95-BF00-4C1B-93AA-53E5359810D8}"/>
-    <hyperlink ref="B108" r:id="rId101" xr:uid="{F07C5CEA-EEF7-498E-9325-760790AB6125}"/>
-    <hyperlink ref="B109" r:id="rId102" xr:uid="{8A5BD43A-E4C4-435D-97D7-FD37DFF719EA}"/>
+    <hyperlink ref="B105" r:id="rId99" xr:uid="{084665CD-7271-4414-B000-4F192467A17E}"/>
+    <hyperlink ref="B106" r:id="rId100" xr:uid="{B2209E95-BF00-4C1B-93AA-53E5359810D8}"/>
+    <hyperlink ref="B107" r:id="rId101" xr:uid="{F07C5CEA-EEF7-498E-9325-760790AB6125}"/>
+    <hyperlink ref="B108" r:id="rId102" xr:uid="{8A5BD43A-E4C4-435D-97D7-FD37DFF719EA}"/>
     <hyperlink ref="B33" r:id="rId103" xr:uid="{441F169D-0CCC-409E-8B9B-6284914F345C}"/>
-    <hyperlink ref="B110" r:id="rId104" xr:uid="{655548E8-6E41-4B3D-8C71-2859EB270E99}"/>
-    <hyperlink ref="B111" r:id="rId105" xr:uid="{5F5DA0EE-B481-4B34-BD6F-CDAFAB9C2EC8}"/>
-    <hyperlink ref="B112" r:id="rId106" xr:uid="{1909526D-E98E-4543-987E-6CBCEC02A9CA}"/>
-    <hyperlink ref="B113" r:id="rId107" xr:uid="{09B6091E-7554-4382-8C38-585EB0FE9617}"/>
+    <hyperlink ref="B109" r:id="rId104" xr:uid="{655548E8-6E41-4B3D-8C71-2859EB270E99}"/>
+    <hyperlink ref="B110" r:id="rId105" xr:uid="{5F5DA0EE-B481-4B34-BD6F-CDAFAB9C2EC8}"/>
+    <hyperlink ref="B111" r:id="rId106" xr:uid="{1909526D-E98E-4543-987E-6CBCEC02A9CA}"/>
+    <hyperlink ref="B112" r:id="rId107" xr:uid="{09B6091E-7554-4382-8C38-585EB0FE9617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId108"/>
@@ -10177,19 +10191,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="107.1796875" style="59" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="59"/>
+    <col min="1" max="1" width="28.7265625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="107.1796875" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10204,36 +10218,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>1151</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>1152</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="58">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>1155</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>1154</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>1158</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>1157</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="58">
+      <c r="A5" s="60" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5">
+      <c r="A6" s="60" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -10241,8 +10277,10 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{385A827C-8105-4D75-AE6C-BAA8239FC3F3}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{54AD8295-1C58-4B86-8867-74F84ECDE2F3}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{95B7A562-E9C3-4813-8C0D-C0985D1919F1}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{2DB87DEC-7184-41DB-AEFF-5A4B18EF7B7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDA490-8018-4926-B407-85CD410AB9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749E7E4-3023-42E3-B3BB-A5F0BE4559D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1172">
   <si>
     <t>Topic</t>
   </si>
@@ -4265,6 +4265,25 @@
   </si>
   <si>
     <t>Same as previous we need to find start node of component by grid[i][j] == 1 and then mark it is visited and explore all other adjacent(8 directions) and inc count by 1 as we found one element. And return count</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotting-oranges/</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Here we need to make all fresh oranges to rotten and need to return max time as its simaltaneously we need to use BFS fot this.create pair which stores row,col,time. Initially store pair of those where grid is 2. and keep traversing BFS and every time pop out pair from queue and and apply BFS with creating pair with time+1 and make all oranges to rotten and while poping out store maxTime from each pair. at the end if we able to make all fresh oranges to rotten then return maxTime else -1. (refer code)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>Detect cycle in an undirected graph</t>
+  </si>
+  <si>
+    <t>Apply BFS and check if that node is not visited then fine apply same -&gt; mark it visited and add In queue.
+But if visited then check that current node is coming from that neighbour node or not. if its coming from them thats why it is visited. if not then some other node visited that so its cycle hence return true</t>
   </si>
 </sst>
 </file>
@@ -5253,7 +5272,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -6568,8 +6587,8 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10191,11 +10210,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10206,7 +10225,7 @@
     <col min="4" max="16384" width="8.7265625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5">
+    <row r="2" spans="1:4" ht="43.5">
       <c r="A2" s="59" t="s">
         <v>1151</v>
       </c>
@@ -10228,7 +10247,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58">
+    <row r="3" spans="1:4" ht="58">
       <c r="A3" s="59" t="s">
         <v>1155</v>
       </c>
@@ -10239,7 +10258,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:4" ht="29">
       <c r="A4" s="59" t="s">
         <v>1158</v>
       </c>
@@ -10250,7 +10269,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="58">
+    <row r="5" spans="1:4" ht="58">
       <c r="A5" s="60" t="s">
         <v>1160</v>
       </c>
@@ -10261,7 +10280,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5">
+    <row r="6" spans="1:4" ht="43.5">
       <c r="A6" s="60" t="s">
         <v>1163</v>
       </c>
@@ -10270,6 +10289,40 @@
       </c>
       <c r="C6" s="60" t="s">
         <v>1165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="49.5">
+      <c r="A7" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="72.5">
+      <c r="A8" s="60" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5">
+      <c r="A9" s="60" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -10279,8 +10332,10 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{95B7A562-E9C3-4813-8C0D-C0985D1919F1}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{2DB87DEC-7184-41DB-AEFF-5A4B18EF7B7F}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749E7E4-3023-42E3-B3BB-A5F0BE4559D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843310D0-5F94-4F36-8EBD-123EE9CAD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1178">
   <si>
     <t>Topic</t>
   </si>
@@ -4284,6 +4284,24 @@
   <si>
     <t>Apply BFS and check if that node is not visited then fine apply same -&gt; mark it visited and add In queue.
 But if visited then check that current node is coming from that neighbour node or not. if its coming from them thats why it is visited. if not then some other node visited that so its cycle hence return true</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/01-matrix/</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 0</t>
+  </si>
+  <si>
+    <t>Same as above problem here instead of time we need to calculate step and need to store it for every cell in dist matrix.(refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Same as above problem if O is at boundary then its DFS neighbours will never be surrounded by 'X' so apply DFS to its four directions and mark them as '#'. After DFS replace all remaining with X and # with O to its old value</t>
   </si>
 </sst>
 </file>
@@ -4573,7 +4591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4756,6 +4774,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10210,11 +10237,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10291,37 +10318,59 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="49.5">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:4" s="64" customFormat="1" ht="29">
+      <c r="A7" s="62" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="49.5">
+      <c r="A8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="72.5">
-      <c r="A8" s="60" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="72.5">
+      <c r="A9" s="60" t="s">
         <v>1167</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B9" s="60" t="s">
         <v>1166</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C9" s="60" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5">
-      <c r="A9" s="60" t="s">
+    <row r="10" spans="1:4" ht="29">
+      <c r="A10" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5">
+      <c r="A11" s="60" t="s">
         <v>1170</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B11" s="60" t="s">
         <v>1169</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C11" s="60" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -10332,10 +10381,12 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{95B7A562-E9C3-4813-8C0D-C0985D1919F1}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{2DB87DEC-7184-41DB-AEFF-5A4B18EF7B7F}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843310D0-5F94-4F36-8EBD-123EE9CAD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0443D0-3D2A-4E18-AB55-092D23DBB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1184">
   <si>
     <t>Topic</t>
   </si>
@@ -4273,9 +4273,6 @@
     <t>Rotting Oranges</t>
   </si>
   <si>
-    <t>Here we need to make all fresh oranges to rotten and need to return max time as its simaltaneously we need to use BFS fot this.create pair which stores row,col,time. Initially store pair of those where grid is 2. and keep traversing BFS and every time pop out pair from queue and and apply BFS with creating pair with time+1 and make all oranges to rotten and while poping out store maxTime from each pair. at the end if we able to make all fresh oranges to rotten then return maxTime else -1. (refer code)</t>
-  </si>
-  <si>
     <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1</t>
   </si>
   <si>
@@ -4302,6 +4299,28 @@
   </si>
   <si>
     <t>Same as above problem if O is at boundary then its DFS neighbours will never be surrounded by 'X' so apply DFS to its four directions and mark them as '#'. After DFS replace all remaining with X and # with O to its old value</t>
+  </si>
+  <si>
+    <t>Here we need to make all fresh oranges to rotten and need to return max time as its simaltaneously we need to use BFS for this create pair which stores row,col,time. Initially store pair of those where grid is 2. and keep traversing BFS and every time pop out pair from queue and and apply BFS with creating pair with time+1 and make all oranges to rotten and while poping out store maxTime from each pair. at the end if we able to make all fresh oranges to rotten then return maxTime else -1. (refer code)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-distinct-islands/1</t>
+  </si>
+  <si>
+    <t>Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>Number of Enclaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-enclaves/</t>
+  </si>
+  <si>
+    <t>Its same as above problem but here we need to check for distinct island and need to return count of it. To identify its unique we need to store shape(co-ordinates) of in set.if we store drectly row and col then all co-ordinate will be different but now if we subtract them with start co-ordinate from where we started DFS.then it will be diff between them and if shapes match then diff will also get matched so store their diff.
+So whenever we get 1 in cell then apply DFS and store shape in set and return set size in the end.</t>
+  </si>
+  <si>
+    <t>In this problem we need to find island which can go out of bound with help of its neigbours or itself. And need to return no of cells which having 1 where they cant go out of bound. So apply same as Surrounded Regions. Check if any cell with 1 at boundary so that cell and its all neighbour can go out of bound so mark them as visited with help of DFS. after all this take count of no of cells having 1.</t>
   </si>
 </sst>
 </file>
@@ -4488,7 +4507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4586,12 +4605,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4776,13 +4821,19 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10237,11 +10288,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10262,6 +10313,7 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" ht="43.5">
       <c r="A2" s="59" t="s">
@@ -10273,6 +10325,7 @@
       <c r="C2" s="59" t="s">
         <v>1153</v>
       </c>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" ht="58">
       <c r="A3" s="59" t="s">
@@ -10284,6 +10337,7 @@
       <c r="C3" s="59" t="s">
         <v>1156</v>
       </c>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:4" ht="29">
       <c r="A4" s="59" t="s">
@@ -10295,6 +10349,7 @@
       <c r="C4" s="59" t="s">
         <v>1159</v>
       </c>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:4" ht="58">
       <c r="A5" s="60" t="s">
@@ -10306,6 +10361,7 @@
       <c r="C5" s="60" t="s">
         <v>1162</v>
       </c>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="43.5">
       <c r="A6" s="60" t="s">
@@ -10317,62 +10373,88 @@
       <c r="C6" s="60" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="64" customFormat="1" ht="29">
-      <c r="A7" s="62" t="s">
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:4" s="62" customFormat="1" ht="72.5">
+      <c r="A7" s="60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="62" customFormat="1" ht="29">
+      <c r="A8" s="60" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>1176</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C7" s="62" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="58">
+      <c r="A9" s="60" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="49.5">
+      <c r="A10" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="64"/>
+    </row>
+    <row r="11" spans="1:4" ht="72.5">
+      <c r="A11" s="60" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="49.5">
-      <c r="A8" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="72.5">
-      <c r="A9" s="60" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="D11" s="63"/>
+    </row>
+    <row r="12" spans="1:4" ht="29">
+      <c r="A12" s="60" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:4" ht="43.5">
+      <c r="A13" s="60" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="29">
-      <c r="A10" s="60" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5">
-      <c r="A11" s="60" t="s">
+      <c r="C13" s="60" t="s">
         <v>1170</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>1171</v>
-      </c>
+      <c r="D13" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10381,12 +10463,14 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{95B7A562-E9C3-4813-8C0D-C0985D1919F1}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{2DB87DEC-7184-41DB-AEFF-5A4B18EF7B7F}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{6B1BF46C-8F25-4B9C-BA5F-ED890CB4E7A6}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{02C22830-F3DD-4252-BE5F-1CF10195AE9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0443D0-3D2A-4E18-AB55-092D23DBB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7ADEE-8C29-4202-A048-EED47F8E08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1193">
   <si>
     <t>Topic</t>
   </si>
@@ -4321,6 +4321,36 @@
   </si>
   <si>
     <t>In this problem we need to find island which can go out of bound with help of its neigbours or itself. And need to return no of cells which having 1 where they cant go out of bound. So apply same as Surrounded Regions. Check if any cell with 1 at boundary so that cell and its all neighbour can go out of bound so mark them as visited with help of DFS. after all this take count of no of cells having 1.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-graph-bipartite/</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>Note : (directed) and (undirected graph with even cycle length) is always bipartite graph else not.
+Apply DFS or BFS and check while coloring any node if its not visited then we can color opposite of adj node but if already colored the we need to check if adj color is not same as current node color. if same return false as its not bipartite graph else check for next.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-a-directed-graph/1</t>
+  </si>
+  <si>
+    <t>Detect cycle in a directed graph</t>
+  </si>
+  <si>
+    <t>Here for directed graph we need to keep pathvisited array to keep track of visited node within path. If node is not visited then fine we can mark them as visited and pathvisited but if node is visited and pathvisited as well then there is cycle hence return true. else check for next and before go to future path mark pathvisited node as 0 (backtracking)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
+  </si>
+  <si>
+    <t>Find Eventual Safe States</t>
+  </si>
+  <si>
+    <t>Here we need to find safe nodes which are connected (through path) to terminal node(not outgoing path). 
+Note : nodes are safe node if they are not part of cycle or their path not going to cycle
+So we can apply same above solution and keep track of checked array to ensure whether node is safe or not and at the end return nodes which are safe.</t>
   </si>
 </sst>
 </file>
@@ -10288,11 +10318,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10456,6 +10486,39 @@
       </c>
       <c r="D13" s="63"/>
     </row>
+    <row r="14" spans="1:4" ht="58">
+      <c r="A14" s="60" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.5">
+      <c r="A15" s="60" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="58">
+      <c r="A16" s="60" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>1192</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{385A827C-8105-4D75-AE6C-BAA8239FC3F3}"/>
@@ -10469,8 +10532,11 @@
     <hyperlink ref="B8" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
     <hyperlink ref="B7" r:id="rId10" xr:uid="{6B1BF46C-8F25-4B9C-BA5F-ED890CB4E7A6}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{02C22830-F3DD-4252-BE5F-1CF10195AE9B}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7ADEE-8C29-4202-A048-EED47F8E08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BEA40-1365-451B-980E-8B8589CD98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1202">
   <si>
     <t>Topic</t>
   </si>
@@ -4339,9 +4339,6 @@
     <t>Detect cycle in a directed graph</t>
   </si>
   <si>
-    <t>Here for directed graph we need to keep pathvisited array to keep track of visited node within path. If node is not visited then fine we can mark them as visited and pathvisited but if node is visited and pathvisited as well then there is cycle hence return true. else check for next and before go to future path mark pathvisited node as 0 (backtracking)</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
   </si>
   <si>
@@ -4351,6 +4348,128 @@
     <t>Here we need to find safe nodes which are connected (through path) to terminal node(not outgoing path). 
 Note : nodes are safe node if they are not part of cycle or their path not going to cycle
 So we can apply same above solution and keep track of checked array to ensure whether node is safe or not and at the end return nodes which are safe.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/topological-sort/1</t>
+  </si>
+  <si>
+    <t>Topological sort</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Topo sort -&gt; store all nodes in sequence such that if there is edge between u -&gt; v then u comes before v. topo sort only applicable for DAG(Directed Acyclic Graph)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Same as DFS just store node once in stack if DFS is applied on that node. So at the end while poping out from stack this node will come out first as u and then its neighbours as v.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Topo logical sort using BFS -&gt; Kahn's Algo
+Step 1: Create inDegree(number of incoming edges) array for every node 
+Step 2: add node which having 0 indegree value
+Step 3: run while loop till queue becomes empty and as soon as we pop out element from queue add into topo array
+Step 4: and check its neighbours and reduce inDegree count of it by 1 and check if it becomes 0 then add in queue.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DFS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Here for directed graph we need to keep pathvisited array to keep track of visited node within path. If node is not visited then fine we can mark them as visited and pathvisited but if node is visited and pathvisited as well then there is cycle hence return true. else check for next and before go to future path mark pathvisited node as 0 (backtracking).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : As we know topoligcal sort only applicable when graph is CAG if not then in topo array all nodes will not cover.hence if count == no of nodes then there is no cycle else there is cycle. Apply topo sort and solve</t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Same as previous problem we can convert this prerequisites to adj list and apply topological sort. If all nodes passed then there is no cycle hence that task can be done so return true else there is cycle so task can't be done so return false.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Same as above convert problem into topo sort. Create adj list then topo array and check if n == count then return topo array else return empty array.</t>
   </si>
 </sst>
 </file>
@@ -10318,11 +10437,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10497,7 +10616,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5">
+    <row r="15" spans="1:4" ht="72.5">
       <c r="A15" s="60" t="s">
         <v>1188</v>
       </c>
@@ -10505,18 +10624,51 @@
         <v>1187</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="58">
       <c r="A16" s="60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>1191</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C16" s="60" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="130.5">
+      <c r="A17" s="60" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>1192</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29">
+      <c r="A18" s="60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29">
+      <c r="A19" s="60" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -10535,8 +10687,11 @@
     <hyperlink ref="B14" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{53011AD8-BFEC-4D20-B278-9A1731DA8820}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{FAE3B966-0DB7-46F8-A8B7-7AC504437138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BEA40-1365-451B-980E-8B8589CD98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DD2955-4DFB-49CB-8104-AA2CF7654329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1211">
   <si>
     <t>Topic</t>
   </si>
@@ -4343,11 +4343,6 @@
   </si>
   <si>
     <t>Find Eventual Safe States</t>
-  </si>
-  <si>
-    <t>Here we need to find safe nodes which are connected (through path) to terminal node(not outgoing path). 
-Note : nodes are safe node if they are not part of cycle or their path not going to cycle
-So we can apply same above solution and keep track of checked array to ensure whether node is safe or not and at the end return nodes which are safe.</t>
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/topological-sort/1</t>
@@ -4460,9 +4455,6 @@
     <t>Course Schedule</t>
   </si>
   <si>
-    <t>Same as previous problem we can convert this prerequisites to adj list and apply topological sort. If all nodes passed then there is no cycle hence that task can be done so return true else there is cycle so task can't be done so return false.</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/course-schedule-ii/</t>
   </si>
   <si>
@@ -4470,6 +4462,89 @@
   </si>
   <si>
     <t>Same as above convert problem into topo sort. Create adj list then topo array and check if n == count then return topo array else return empty array.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here we need to find safe nodes which are connected (through path) to terminal node(not outgoing path). 
+Note : nodes are safe node if they are not part of cycle or their path not going to cycle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : So we can apply same above solution and keep track of checked array to ensure whether node is safe or not and at the end return nodes which are safe.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : we can use topo sort for this as well. create reverse of adj list so that insteand of going safe node to terminal we can go terminal node to safe node as we know terminal node is always going to be safe node. now apply same topo sort. whoever nodes having inDegree value 0 is safe nodes. add in result and return it.</t>
+    </r>
+  </si>
+  <si>
+    <t>Same as topo sort problem we can convert this prerequisites to adj list and apply topological sort. If all nodes passed then there is no cycle hence that task can be done so return true else there is cycle so task can't be done so return false.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/alien-dictionary/1</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Convert alien dict string chars into adj list and apply topo sort using BFS or DFS. After that we will get result list which contains nodes(int) in topo sort order. Now convert int into char and attach to string and at the end return string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/shortest-path-in-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>Shortest path in Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>here we need to find shorted distance from source node to every other node.
+Step 1 : build adj list with weight and apply topo sort to get nodes in topo sort manner
+Step 2 : take out node one by one and check adjs nodes. If source node distance + weight to reach target node &lt; distance of target node then update the value as we need minimum. at the end if source node reachable to target node then update distance with -1. Refer code. 
+https://www.youtube.com/watch?v=ZUFQfFaU-8U&amp;list=PLgUwDviBIf0oE3gA41TKO2H5bHpPd7fzn&amp;index=27</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/shortest-path-in-undirected-graph-having-unit-distance/1</t>
+  </si>
+  <si>
+    <t>Shortest path in Undirected Graph having unit distance</t>
+  </si>
+  <si>
+    <t>As we know toposort only works for DAG hence we can use simple BFS. Create adj list and distance array. Add source node in queue and apply BFS till queue becomes empty. In that check if node distance + 1 &lt; neighbour distance if yes the update dist value of neighbour and add it in queue.</t>
   </si>
 </sst>
 </file>
@@ -4785,7 +4860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4983,6 +5058,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9065,8 +9143,8 @@
   <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10437,11 +10515,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10605,15 +10683,15 @@
       </c>
       <c r="D13" s="63"/>
     </row>
-    <row r="14" spans="1:4" ht="58">
+    <row r="14" spans="1:4" ht="130.5">
       <c r="A14" s="60" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="72.5">
@@ -10624,10 +10702,10 @@
         <v>1187</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="58">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="101.5">
       <c r="A16" s="60" t="s">
         <v>1190</v>
       </c>
@@ -10635,40 +10713,73 @@
         <v>1189</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="130.5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="58">
       <c r="A17" s="60" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29">
       <c r="A18" s="60" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29">
       <c r="A19" s="60" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B19" s="60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C19" s="60" t="s">
         <v>1199</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>1201</v>
+    </row>
+    <row r="20" spans="1:3" ht="29">
+      <c r="A20" s="67" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="87">
+      <c r="A21" s="60" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="58">
+      <c r="A22" s="60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -10684,14 +10795,17 @@
     <hyperlink ref="B8" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
     <hyperlink ref="B7" r:id="rId10" xr:uid="{6B1BF46C-8F25-4B9C-BA5F-ED890CB4E7A6}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{02C22830-F3DD-4252-BE5F-1CF10195AE9B}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{53011AD8-BFEC-4D20-B278-9A1731DA8820}"/>
     <hyperlink ref="B19" r:id="rId17" xr:uid="{FAE3B966-0DB7-46F8-A8B7-7AC504437138}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DD2955-4DFB-49CB-8104-AA2CF7654329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC987F4-03DA-4518-AFA2-E2744783277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1223">
   <si>
     <t>Topic</t>
   </si>
@@ -4545,6 +4545,49 @@
   </si>
   <si>
     <t>As we know toposort only works for DAG hence we can use simple BFS. Create adj list and distance array. Add source node in queue and apply BFS till queue becomes empty. In that check if node distance + 1 &lt; neighbour distance if yes the update dist value of neighbour and add it in queue.</t>
+  </si>
+  <si>
+    <t>Dijkstra Algorithm</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implementing-dijkstra-set-1-adjacency-matrix/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note : Djkstra algo only works with positive distance. Dry run this example -&gt; u = 1, v=2, wt = -2
+Same as shortest path problem using distance array which stores shorted distance from src node to every ith node.
+Here we use PQ over queue to avoid unneccessary path and store in pair(node,distance). instead of using of checking like -&gt; dist[u] + wt &lt; dist[v] we check with distance which we got from queue along with u. distance + adjDist &lt; dist[adjNode] -&gt; same as dist[u] + wt &lt; dist[v]. </t>
+  </si>
+  <si>
+    <t>Shortest Path in Weighted undirected graph</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/shortest-path-in-weighted-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>Same as above just use parent array to keep track of node from which node there are coming from. If we update anything in queue we need to update parent as well as we storing shortest path so parent will help us to keep track of it.(refer code)</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder/</t>
+  </si>
+  <si>
+    <t>create set to find word in O(1) time. Now we have choice that at every index we can replace char with a to z letter and need to check if that new word is present in queue if present then we need to add in queue with step + 1. will keep dong this untill queue becomes empty. if we get newword which is equal to target word then return step for it. as this going to be first word which is equal to target then its minimum ans. Note : once we found that neword is present in set then remove it as to avoid continues loop in future</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder-ii/</t>
+  </si>
+  <si>
+    <t>Brute force(interview ans):
+ In this method instead of storing word will store list of words in queue as we need to return all words during conversion.
+Same as previous we can start with startword and keep adding words in list and storing that list in queue if that new word in set.
+Note : here we need to complete level then need to delete used words from set as here we need to return multiple ans as list.
+Optimized(CP): 
+Solve same as word ladder problem but here also keep map to store word with its level.once we built map instead of converting start word to target word we can convert target word to newword using backtracking in map.get target word and generate new word and check if that word is present in map ans its steps should be less than 1 that means its in path conversion. do same until we get startword and keep adding in result. and return result at the end</t>
   </si>
 </sst>
 </file>
@@ -10515,7 +10558,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
@@ -10780,6 +10823,50 @@
       </c>
       <c r="C22" s="60" t="s">
         <v>1210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="72.5">
+      <c r="A23" s="67" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="145">
+      <c r="A24" s="67" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72.5">
+      <c r="A25" s="60" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.5">
+      <c r="A26" s="60" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>1216</v>
       </c>
     </row>
   </sheetData>
@@ -10804,8 +10891,12 @@
     <hyperlink ref="B20" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
     <hyperlink ref="B21" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
     <hyperlink ref="B22" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC987F4-03DA-4518-AFA2-E2744783277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D77E2-2860-4A6D-BDFB-68B9110F07FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1235">
   <si>
     <t>Topic</t>
   </si>
@@ -4588,6 +4588,42 @@
 Note : here we need to complete level then need to delete used words from set as here we need to return multiple ans as list.
 Optimized(CP): 
 Solve same as word ladder problem but here also keep map to store word with its level.once we built map instead of converting start word to target word we can convert target word to newword using backtracking in map.get target word and generate new word and check if that word is present in map ans its steps should be less than 1 that means its in path conversion. do same until we get startword and keep adding in result. and return result at the end</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>Shortest Path in Binary Matrix</t>
+  </si>
+  <si>
+    <t>Apply simple BFS to the grid and whichever path encounters dest cell first that distance will be minimum as its unit grid future path will be either same distance or more than that</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-minimum-effort/</t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort</t>
+  </si>
+  <si>
+    <t>here we need to find path which having max effort and return min out of it. So we can apply Dijkstra algo . Here instead of checking dist[u] + wt &lt; dist[v] we need to calculate abs dis and check if dist array containg greater than it if yes update and add in queue.(dry run)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-maximum-probability/</t>
+  </si>
+  <si>
+    <t>Path with Maximum Probability</t>
+  </si>
+  <si>
+    <t>Same as previous prob here instead of storin min we need to store max so use PQ with max heap.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cheapest-flights-within-k-stops/</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Same as Dijkstra problem here we need to store by considering stops. And do not return if we reach dest cell within queue as suppose we can reach dest node with 2 path which are within stops so we need to return minimum dist among them so dist will store that for us.</t>
   </si>
 </sst>
 </file>
@@ -10558,11 +10594,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10825,48 +10861,92 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="72.5">
-      <c r="A23" s="67" t="s">
+    <row r="23" spans="1:3" ht="29">
+      <c r="A23" s="60" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="72.5">
+      <c r="A24" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B24" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C24" s="67" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="145">
-      <c r="A24" s="67" t="s">
+    <row r="25" spans="1:3" ht="145">
+      <c r="A25" s="67" t="s">
         <v>1220</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B25" s="67" t="s">
         <v>1221</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C25" s="67" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="72.5">
-      <c r="A25" s="60" t="s">
+    <row r="26" spans="1:3" ht="72.5">
+      <c r="A26" s="60" t="s">
         <v>1211</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B26" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C26" s="60" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.5">
-      <c r="A26" s="60" t="s">
+    <row r="27" spans="1:3" ht="43.5">
+      <c r="A27" s="60" t="s">
         <v>1214</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B27" s="60" t="s">
         <v>1215</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C27" s="60" t="s">
         <v>1216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.5">
+      <c r="A28" s="60" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29">
+      <c r="A29" s="60" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.5">
+      <c r="A30" s="60" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -10891,12 +10971,16 @@
     <hyperlink ref="B20" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
     <hyperlink ref="B21" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
     <hyperlink ref="B22" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
-    <hyperlink ref="B24" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
+    <hyperlink ref="B23" r:id="rId25" xr:uid="{C28E0CF5-2979-4068-934A-808ADF59EC40}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{9021F40A-E2BF-439F-9D98-A3CBBA9CD7DB}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D77E2-2860-4A6D-BDFB-68B9110F07FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9894673-7D02-4B1A-99DD-3926B32C6D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1241">
   <si>
     <t>Topic</t>
   </si>
@@ -4624,6 +4624,27 @@
   </si>
   <si>
     <t>Same as Dijkstra problem here we need to store by considering stops. And do not return if we reach dest cell within queue as suppose we can reach dest node with 2 path which are within stops so we need to return minimum dist among them so dist will store that for us.</t>
+  </si>
+  <si>
+    <t>Number of Ways to Arrive at Destination</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-arrive-at-destination/</t>
+  </si>
+  <si>
+    <t>Bellman-Ford Algorithm</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/distance-from-the-source-bellman-ford-algorithm/1</t>
+  </si>
+  <si>
+    <t>Bellman-Ford Algorithm -&gt; it uses to find shortest path from src to any node.
+same as Dijkstra algo but here we can also play with neg wt which is not possible in dijkstra.here we are doing same as Dijkstra, we have to perform relaxation if dist[u] + wt &lt; dist[v] but here instead of getting nodes from queue or PQ we need to run loop for n-1 times
+why n-1 times ? we have n nodes so except start node we need to find dist for other node. and if in worst case suppose there is path as 1 -&gt; 2 -&gt; 3 -&gt; 4 and adj list given in reverse order like (3, 4, -1), (2, 3, 2), (1, 2, -2) =&gt; (u, v, wt). so here at first loop will get dist of 2 then next loop will get dist of 3 and in next loop will get dist 4 so in 3 loop we got dist of all 4 nodes. hence for n node we required n-1 loops.
+bellman ford algo also used to detect neg cycle -&gt; if even after n-1 iteration dist[v] is getting updated by dist[u] + wt then there is neg cycle</t>
+  </si>
+  <si>
+    <t>Same as Dijkstra problem but here we need to store ways array as well. if dist[u] + wt &lt; dist[v] then its first time we encounting way which has minimum cost so update as usual dist and pq but this time update ways as well. put same no of ways of u to v as its first time. so whatever ways come to u will same ways come to v. if dist[u] + wt == dist[v] then we already encountered ways which has minimum cost. so just add up ways to ways[v] -&gt; ways[v] = ways[v] + ways[u]. refer code</t>
   </si>
 </sst>
 </file>
@@ -10594,10 +10615,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -10947,6 +10968,28 @@
       </c>
       <c r="C30" s="60" t="s">
         <v>1234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="58">
+      <c r="A31" s="60" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="145">
+      <c r="A32" s="60" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -10979,8 +11022,10 @@
     <hyperlink ref="B28" r:id="rId26" xr:uid="{9021F40A-E2BF-439F-9D98-A3CBBA9CD7DB}"/>
     <hyperlink ref="B29" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9894673-7D02-4B1A-99DD-3926B32C6D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640905E-9751-426A-831E-85353B6F04B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1247">
   <si>
     <t>Topic</t>
   </si>
@@ -4638,13 +4638,35 @@
     <t>https://practice.geeksforgeeks.org/problems/distance-from-the-source-bellman-ford-algorithm/1</t>
   </si>
   <si>
-    <t>Bellman-Ford Algorithm -&gt; it uses to find shortest path from src to any node.
+    <t>Same as Dijkstra problem but here we need to store ways array as well. if dist[u] + wt &lt; dist[v] then its first time we encounting way which has minimum cost so update as usual dist and pq but this time update ways as well. put same no of ways of u to v as its first time. so whatever ways come to u will same ways come to v. if dist[u] + wt == dist[v] then we already encountered ways which has minimum cost. so just add up ways to ways[v] -&gt; ways[v] = ways[v] + ways[u]. refer code</t>
+  </si>
+  <si>
+    <t>Bellman-Ford Algorithm -&gt; it uses to find shortest path from src to any node. it wonly works with DG if its UG then convert it into DG
 same as Dijkstra algo but here we can also play with neg wt which is not possible in dijkstra.here we are doing same as Dijkstra, we have to perform relaxation if dist[u] + wt &lt; dist[v] but here instead of getting nodes from queue or PQ we need to run loop for n-1 times
 why n-1 times ? we have n nodes so except start node we need to find dist for other node. and if in worst case suppose there is path as 1 -&gt; 2 -&gt; 3 -&gt; 4 and adj list given in reverse order like (3, 4, -1), (2, 3, 2), (1, 2, -2) =&gt; (u, v, wt). so here at first loop will get dist of 2 then next loop will get dist of 3 and in next loop will get dist 4 so in 3 loop we got dist of all 4 nodes. hence for n node we required n-1 loops.
 bellman ford algo also used to detect neg cycle -&gt; if even after n-1 iteration dist[v] is getting updated by dist[u] + wt then there is neg cycle</t>
   </si>
   <si>
-    <t>Same as Dijkstra problem but here we need to store ways array as well. if dist[u] + wt &lt; dist[v] then its first time we encounting way which has minimum cost so update as usual dist and pq but this time update ways as well. put same no of ways of u to v as its first time. so whatever ways come to u will same ways come to v. if dist[u] + wt == dist[v] then we already encountered ways which has minimum cost. so just add up ways to ways[v] -&gt; ways[v] = ways[v] + ways[u]. refer code</t>
+    <t>Floyd Warshall -&gt; Dijkstra and bellman ford algos are for single shortest path but to find shortest path from every node to every node i.e. multi source we can use flyod warshall algo.FW can be use to work with negative weights and also it helps to find negative cycle
+ supose there is edge between i to j and we are currently counting shortest for k then we need to find path via k so i to j will be i to k + k to j
+same as DJ and BF algo we need to store min value in dist array -&gt; matrix[i][j] = Math.min(matrix[i][j], matrix[i][k] + matrix[k][j]). so we need to apply as k for every node so TC -&gt; O(n^3)
+to detect neg cycle we need to observe one thing that we know from i to i dist will always be 0. after applying FW then if i to i distance gets changed to neg then there is neg cycle</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall2042/1</t>
+  </si>
+  <si>
+    <t>Floyd Warshall</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/</t>
+  </si>
+  <si>
+    <t>Find the City With the Smallest Number of Neighbors at a Threshold Distance</t>
+  </si>
+  <si>
+    <t>Dijkstra -&gt; apply DG to every node and get minimum city number
+Flyod warshall -&gt; create matrix as per FW and apply FW to it. And then will get minimum diatance from every node to every oher node. So after this for every node count how many cities are reachable under threshold value and retun city number</t>
   </si>
 </sst>
 </file>
@@ -10615,11 +10637,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10978,10 +11000,10 @@
         <v>1236</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="145">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="159.5">
       <c r="A32" s="60" t="s">
         <v>1237</v>
       </c>
@@ -10989,7 +11011,29 @@
         <v>1238</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>1239</v>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="130.5">
+      <c r="A33" s="60" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="58">
+      <c r="A34" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -11024,8 +11068,10 @@
     <hyperlink ref="B30" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
     <hyperlink ref="B31" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
     <hyperlink ref="B32" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640905E-9751-426A-831E-85353B6F04B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9253B-A136-467B-B725-A45251DAD477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1253">
   <si>
     <t>Topic</t>
   </si>
@@ -4667,6 +4667,26 @@
   <si>
     <t>Dijkstra -&gt; apply DG to every node and get minimum city number
 Flyod warshall -&gt; create matrix as per FW and apply FW to it. And then will get minimum diatance from every node to every oher node. So after this for every node count how many cities are reachable under threshold value and retun city number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Same as Dijkstra Algo, here we need to build dist array from k to every node. now we have minimum distance from k to every node so whatever maximum number from dist array will determin that at least that number of time required to node k to reach every node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination/</t>
+  </si>
+  <si>
+    <t>Shortest Path in a Grid with Obstacles Elimination</t>
+  </si>
+  <si>
+    <t>Here we need to find minimum steps required to traverse from src to dest node with eliminating at most k obstacle.
+Apply BFS -&gt; create 3D visited array for cell[m][n] with balanced k obstacle. Add in queue with pair -&gt; row, col, balanced obs
+and level wise check and travse in 4 direction of pop out pair and ince steps after completion of each level (refer code)</t>
   </si>
 </sst>
 </file>
@@ -10637,11 +10657,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:C34"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10757,282 +10777,304 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="49.5">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:4" s="67" customFormat="1" ht="43.5">
+      <c r="A10" s="67" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="49.5">
+      <c r="A11" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B11" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C11" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="64"/>
-    </row>
-    <row r="11" spans="1:4" ht="72.5">
-      <c r="A11" s="60" t="s">
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4" ht="72.5">
+      <c r="A12" s="60" t="s">
         <v>1167</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B12" s="60" t="s">
         <v>1166</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C12" s="60" t="s">
         <v>1177</v>
       </c>
-      <c r="D11" s="63"/>
-    </row>
-    <row r="12" spans="1:4" ht="29">
-      <c r="A12" s="60" t="s">
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:4" ht="29">
+      <c r="A13" s="60" t="s">
         <v>1172</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B13" s="61" t="s">
         <v>1171</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C13" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="D12" s="63"/>
-    </row>
-    <row r="13" spans="1:4" ht="43.5">
-      <c r="A13" s="60" t="s">
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="1:4" ht="43.5">
+      <c r="A14" s="60" t="s">
         <v>1169</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B14" s="60" t="s">
         <v>1168</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C14" s="60" t="s">
         <v>1170</v>
       </c>
-      <c r="D13" s="63"/>
-    </row>
-    <row r="14" spans="1:4" ht="130.5">
-      <c r="A14" s="60" t="s">
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="1:4" ht="130.5">
+      <c r="A15" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B15" s="60" t="s">
         <v>1191</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C15" s="60" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72.5">
-      <c r="A15" s="60" t="s">
+    <row r="16" spans="1:4" ht="72.5">
+      <c r="A16" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B16" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C16" s="60" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="101.5">
-      <c r="A16" s="60" t="s">
+    <row r="17" spans="1:3" ht="101.5">
+      <c r="A17" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B17" s="60" t="s">
         <v>1189</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C17" s="60" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="58">
-      <c r="A17" s="60" t="s">
+    <row r="18" spans="1:3" ht="58">
+      <c r="A18" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B18" s="60" t="s">
         <v>1184</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C18" s="60" t="s">
         <v>1186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29">
-      <c r="A18" s="60" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29">
       <c r="A19" s="60" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29">
+      <c r="A20" s="60" t="s">
         <v>1198</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B20" s="60" t="s">
         <v>1197</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C20" s="60" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="29">
-      <c r="A20" s="67" t="s">
+    <row r="21" spans="1:3" ht="29">
+      <c r="A21" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B21" s="67" t="s">
         <v>1202</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C21" s="67" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="87">
-      <c r="A21" s="60" t="s">
+    <row r="22" spans="1:3" ht="87">
+      <c r="A22" s="60" t="s">
         <v>1206</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B22" s="60" t="s">
         <v>1205</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C22" s="60" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="58">
-      <c r="A22" s="60" t="s">
+    <row r="23" spans="1:3" ht="58">
+      <c r="A23" s="60" t="s">
         <v>1209</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B23" s="60" t="s">
         <v>1208</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C23" s="60" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29">
-      <c r="A23" s="60" t="s">
+    <row r="24" spans="1:3" ht="29">
+      <c r="A24" s="60" t="s">
         <v>1224</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B24" s="60" t="s">
         <v>1223</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C24" s="60" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="72.5">
-      <c r="A24" s="67" t="s">
+    <row r="25" spans="1:3" ht="72.5">
+      <c r="A25" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B25" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C25" s="67" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="145">
-      <c r="A25" s="67" t="s">
+    <row r="26" spans="1:3" ht="145">
+      <c r="A26" s="67" t="s">
         <v>1220</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B26" s="67" t="s">
         <v>1221</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C26" s="67" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5">
-      <c r="A26" s="60" t="s">
+    <row r="27" spans="1:3" ht="72.5">
+      <c r="A27" s="60" t="s">
         <v>1211</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B27" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C27" s="60" t="s">
         <v>1213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.5">
-      <c r="A27" s="60" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.5">
       <c r="A28" s="60" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.5">
+      <c r="A29" s="60" t="s">
         <v>1227</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B29" s="60" t="s">
         <v>1226</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C29" s="60" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29">
-      <c r="A29" s="60" t="s">
+    <row r="30" spans="1:3" ht="29">
+      <c r="A30" s="60" t="s">
         <v>1230</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B30" s="60" t="s">
         <v>1229</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C30" s="60" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.5">
-      <c r="A30" s="60" t="s">
+    <row r="31" spans="1:3" ht="43.5">
+      <c r="A31" s="60" t="s">
         <v>1233</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B31" s="60" t="s">
         <v>1232</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C31" s="60" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="58">
-      <c r="A31" s="60" t="s">
+    <row r="32" spans="1:3" ht="43.5">
+      <c r="A32" s="60" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="58">
+      <c r="A33" s="60" t="s">
         <v>1235</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B33" s="60" t="s">
         <v>1236</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C33" s="60" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="159.5">
-      <c r="A32" s="60" t="s">
+    <row r="34" spans="1:3" ht="159.5">
+      <c r="A34" s="60" t="s">
         <v>1237</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B34" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C34" s="60" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="130.5">
-      <c r="A33" s="60" t="s">
+    <row r="35" spans="1:3" ht="130.5">
+      <c r="A35" s="60" t="s">
         <v>1243</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B35" s="60" t="s">
         <v>1242</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C35" s="60" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="60" t="s">
+    <row r="36" spans="1:3" ht="58">
+      <c r="A36" s="60" t="s">
         <v>1245</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B36" s="60" t="s">
         <v>1244</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C36" s="60" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -11043,35 +11085,37 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{95B7A562-E9C3-4813-8C0D-C0985D1919F1}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{2DB87DEC-7184-41DB-AEFF-5A4B18EF7B7F}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
     <hyperlink ref="B7" r:id="rId10" xr:uid="{6B1BF46C-8F25-4B9C-BA5F-ED890CB4E7A6}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{02C22830-F3DD-4252-BE5F-1CF10195AE9B}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{53011AD8-BFEC-4D20-B278-9A1731DA8820}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{FAE3B966-0DB7-46F8-A8B7-7AC504437138}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
-    <hyperlink ref="B23" r:id="rId25" xr:uid="{C28E0CF5-2979-4068-934A-808ADF59EC40}"/>
-    <hyperlink ref="B28" r:id="rId26" xr:uid="{9021F40A-E2BF-439F-9D98-A3CBBA9CD7DB}"/>
-    <hyperlink ref="B29" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
-    <hyperlink ref="B30" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
-    <hyperlink ref="B31" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
-    <hyperlink ref="B32" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
-    <hyperlink ref="B33" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{53011AD8-BFEC-4D20-B278-9A1731DA8820}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{FAE3B966-0DB7-46F8-A8B7-7AC504437138}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
+    <hyperlink ref="B24" r:id="rId25" xr:uid="{C28E0CF5-2979-4068-934A-808ADF59EC40}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{9021F40A-E2BF-439F-9D98-A3CBBA9CD7DB}"/>
+    <hyperlink ref="B30" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
+    <hyperlink ref="B31" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
+    <hyperlink ref="B32" r:id="rId33" xr:uid="{EF2C4A72-B1A4-4220-8084-72F2AA86BA55}"/>
+    <hyperlink ref="B10" r:id="rId34" xr:uid="{7C7EE2D2-2000-4E94-BD54-1DF37F67A926}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9253B-A136-467B-B725-A45251DAD477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29980312-FBD1-4228-BDD0-8D446D209FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1261">
   <si>
     <t>Topic</t>
   </si>
@@ -4687,6 +4687,49 @@
     <t>Here we need to find minimum steps required to traverse from src to dest node with eliminating at most k obstacle.
 Apply BFS -&gt; create 3D visited array for cell[m][n] with balanced k obstacle. Add in queue with pair -&gt; row, col, balanced obs
 and level wise check and travse in 4 direction of pop out pair and ince steps after completion of each level (refer code)</t>
+  </si>
+  <si>
+    <t>Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/minimum-spanning-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-time-to-visit-a-cell-in-a-grid/</t>
+  </si>
+  <si>
+    <t>Minimum Time to Visit a Cell In a Grid</t>
+  </si>
+  <si>
+    <t>1.Apply Dijkstra -&gt; If grid[0][1] &gt; 1 and grid[1][0] &gt; 1 we can not move anywhere from cell grid[0][0] hence answer is -1
+2.Use priority queue to find next cell with minimum required time to move to it
+3. If time for a neighbor (target) cell is &gt; 1 + time for current cell. We can not directly move to target cell. We will have to "ping pong" between previous cell and current cell. When playing ping pong between previous and current cell there can be two cases.
+    Let's say time for target cell is 4 and current time is 2, difference = 2 (even).
+    Move to prev cell, time = 3
+    Move to curr cell, time = 4
+    Move to target cell, time = 5.
+    Hence we reach target cell with time: target cell time + 1 when difference between target cell time and curr cell time is even.
+    Let's say time for target cell is 5 and current time is 2, difference = 3 (odd).
+    Move to prev cell, time = 3
+    Move to curr cell, time = 4
+    Move to target cell, time = 5.
+    Hence we reach target cell with time: target cell time when difference between target cell time and curr cell time is odd.</t>
+  </si>
+  <si>
+    <t>Minimum Spanning Tree -&gt; tree with n node and it should have n-1 edge with minimum total cost
+Using Prim's Algo -&gt; 
+create visited array and PQ to store tuple(wt, node, parent) so we can get smallest wt at top. Pop out every tuple from PQ and add their wt in sum.Also check mark that node visited here and check if its neighbours is visited or not if not then add in queue.
+Kruskal's algo + DSU-&gt;
+create edge -&gt; (u, v, wt) and store all edges in list and sort list based on edge in ascending order
+ now take edge one by one and check if both u and v elongs to same component or not using DSU(here we are building tree based on edge)if same then ignore else update wt in sum to get minimum sum from MSP and also update size in DSU
+why sort ? so we can store minimum wt at start to connect u and v</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-provinces/</t>
+  </si>
+  <si>
+    <t>DSU -&gt; 
+At the start we know every node is single component and DSU is use for dynamic graph and check if node a is connected to node b. so intially we can set num of provinces as no of node. And we will traverse through edges if we found any edge between node we will reduce count as they are grouped together.</t>
   </si>
 </sst>
 </file>
@@ -10657,11 +10700,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11045,37 +11088,70 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="159.5">
+    <row r="34" spans="1:3" ht="202" customHeight="1">
       <c r="A34" s="60" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="159.5">
+      <c r="A35" s="60" t="s">
         <v>1237</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B35" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C35" s="60" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="130.5">
-      <c r="A35" s="60" t="s">
+    <row r="36" spans="1:3" ht="130.5">
+      <c r="A36" s="60" t="s">
         <v>1243</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B36" s="60" t="s">
         <v>1242</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C36" s="60" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="58">
-      <c r="A36" s="60" t="s">
+    <row r="37" spans="1:3" ht="58">
+      <c r="A37" s="60" t="s">
         <v>1245</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B37" s="60" t="s">
         <v>1244</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C37" s="60" t="s">
         <v>1246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="145">
+      <c r="A38" s="60" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="58">
+      <c r="A39" s="60" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -11109,13 +11185,16 @@
     <hyperlink ref="B30" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
     <hyperlink ref="B31" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
     <hyperlink ref="B33" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
     <hyperlink ref="B32" r:id="rId33" xr:uid="{EF2C4A72-B1A4-4220-8084-72F2AA86BA55}"/>
     <hyperlink ref="B10" r:id="rId34" xr:uid="{7C7EE2D2-2000-4E94-BD54-1DF37F67A926}"/>
+    <hyperlink ref="B38" r:id="rId35" xr:uid="{D2090A90-2773-4FED-B444-B20280F58CE7}"/>
+    <hyperlink ref="B34" r:id="rId36" xr:uid="{2DBEC4EC-52D1-4308-A621-8B387A39B5F3}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{29C8F3E2-418A-4743-9BCB-B4D4B59A5D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29980312-FBD1-4228-BDD0-8D446D209FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC772B7-6859-46B9-AE82-317DB0C87E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1267">
   <si>
     <t>Topic</t>
   </si>
@@ -4730,6 +4730,31 @@
   <si>
     <t>DSU -&gt; 
 At the start we know every node is single component and DSU is use for dynamic graph and check if node a is connected to node b. so intially we can set num of provinces as no of node. And we will traverse through edges if we found any edge between node we will reduce count as they are grouped together.</t>
+  </si>
+  <si>
+    <t>Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/accounts-merge/</t>
+  </si>
+  <si>
+    <t>Accounts Merge</t>
+  </si>
+  <si>
+    <t>DSU -&gt; 
+In this problem consider name as node value suppose for john - node1 based on their index
+ part 1 : map all mail to node(index) if same mail already mapped with other node then both are belongs to same component hence make changes in DSU to get this done. 
+part 2 : Now we have all mails mapped to node. take mail and node one by one and check ultimate parent of node. so if in part 1 when we encountered same mail mapped to different node will get cover here. suppose j@mail belongs to 1 and 3 node then when we get 3 node with mail j@mail. will get ultimate parent as 1 for node 3. so after this we will have same set of array like accounts with mergeed mail.
+part 3 : now we just have to add names add the start and sort mail and add in ans list</t>
+  </si>
+  <si>
+    <t>DSU -&gt; 
+two things we need find - 1. how many extra edges which can be removed 2. how many edge required to connect component
+1. how many extra edges which can be removed -&gt; while dynamically adding edges in graph with use of DSU we can check if u and v having same parent means they are already connected so this current edge is extra edge so this is how we can calculate extra edge
+2. how many edge required to connect component -&gt; first think how many compoents are there. we can get this using parent list and those nodes itself parent they are root of their graph/tree so we can get count of component. Now suppose to connect 4 component we will need 3 edges. so same way if we have nComponent then required edges will be nComponent - 1</t>
   </si>
 </sst>
 </file>
@@ -10700,11 +10725,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:C39"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11152,6 +11177,28 @@
       </c>
       <c r="C39" s="60" t="s">
         <v>1260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="104.5" customHeight="1">
+      <c r="A40" s="60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="130.5">
+      <c r="A41" s="60" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>
@@ -11193,8 +11240,10 @@
     <hyperlink ref="B38" r:id="rId35" xr:uid="{D2090A90-2773-4FED-B444-B20280F58CE7}"/>
     <hyperlink ref="B34" r:id="rId36" xr:uid="{2DBEC4EC-52D1-4308-A621-8B387A39B5F3}"/>
     <hyperlink ref="B39" r:id="rId37" xr:uid="{29C8F3E2-418A-4743-9BCB-B4D4B59A5D78}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{B14AB69D-937E-408E-950F-FB20AE0DC379}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{D9F5E7AE-D743-47CA-8DF8-5AAFA1D85F54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC772B7-6859-46B9-AE82-317DB0C87E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326C693E-7F0D-4DAD-9D0D-DE8CEAA27578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1273">
   <si>
     <t>Topic</t>
   </si>
@@ -4755,6 +4755,28 @@
 two things we need find - 1. how many extra edges which can be removed 2. how many edge required to connect component
 1. how many extra edges which can be removed -&gt; while dynamically adding edges in graph with use of DSU we can check if u and v having same parent means they are already connected so this current edge is extra edge so this is how we can calculate extra edge
 2. how many edge required to connect component -&gt; first think how many compoents are there. we can get this using parent list and those nodes itself parent they are root of their graph/tree so we can get count of component. Now suppose to connect 4 component we will need 3 edges. so same way if we have nComponent then required edges will be nComponent - 1</t>
+  </si>
+  <si>
+    <t>Number Of Islands - II</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-islands/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/making-a-large-island/</t>
+  </si>
+  <si>
+    <t>Making A Large Island</t>
+  </si>
+  <si>
+    <t>DSU -&gt;
+Problem states that we have m*n grid where all cells are 0 and we have operators which is online query. Support operator -&gt; [1,1] so at grid[1][1] we have to mark as 1 and need check how many island can be formed. So for every operator we have to do same process and need to return list of island cound as per operator. so traverse every cell and check if that is already visited or not if yes then store current count and leave it. if not visited then mark it as visited and also inc count by 1 as is itself a island. and now we need to check in 4 directions that if its connected to any island using DSU(check if neighbour and current parent belong to diff ultimate parent). if yes then dec count by 1 as per connected island in 4 direction and store in result and return it
+(refer code)</t>
+  </si>
+  <si>
+    <t>step 1 -&gt; check all cell which having value 1 and then check for its neighbours in 4 directions and connect them with help of DSU
+step 2 -&gt; Now as per question we can change any 0 to 1 at most onse and need to calculate size of max islan. so check in grid if cell is 0 then check for its neighbours and get the size of its neighbours from DSU if that cell is island means 1 and store in max variable and at the end return max 
+(refer code)</t>
   </si>
 </sst>
 </file>
@@ -10725,11 +10747,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11199,6 +11221,28 @@
       </c>
       <c r="C41" s="60" t="s">
         <v>1265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="120.5" customHeight="1">
+      <c r="A42" s="60" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="87">
+      <c r="A43" s="67" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -11242,8 +11286,10 @@
     <hyperlink ref="B39" r:id="rId37" xr:uid="{29C8F3E2-418A-4743-9BCB-B4D4B59A5D78}"/>
     <hyperlink ref="B40" r:id="rId38" xr:uid="{B14AB69D-937E-408E-950F-FB20AE0DC379}"/>
     <hyperlink ref="B41" r:id="rId39" xr:uid="{D9F5E7AE-D743-47CA-8DF8-5AAFA1D85F54}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{DE828822-C98B-4189-902F-8F8BA888E1BF}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{6D714ABF-2575-40FB-AC55-A96B19C18F5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326C693E-7F0D-4DAD-9D0D-DE8CEAA27578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27470090-B970-458B-9EE3-50F489D8F45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1276">
   <si>
     <t>Topic</t>
   </si>
@@ -4777,6 +4777,17 @@
     <t>step 1 -&gt; check all cell which having value 1 and then check for its neighbours in 4 directions and connect them with help of DSU
 step 2 -&gt; Now as per question we can change any 0 to 1 at most onse and need to calculate size of max islan. so check in grid if cell is 0 then check for its neighbours and get the size of its neighbours from DSU if that cell is island means 1 and store in max variable and at the end return max 
 (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-stones-removed-with-same-row-or-column/</t>
+  </si>
+  <si>
+    <t>Most Stones Removed with Same Row or Column</t>
+  </si>
+  <si>
+    <t>DSU -&gt;
+creating DSU to connect componet dynamically.maxRow + maxCol + 2 ? why maxRow + maxCol as we new need to consder whole cell at 0 th row as one node.so row + col we need to consider instead of row*col for all cell nodes. and why 2 ? to avoid 0th and 1th based index.
+ now we know that suppose 4 nodes are connected then we can remove 3 nodes as for last node we there will be no node in row or col. okay so suppose there are 6 stones and we have 2 components.so fist component contains 4 nodes then 3 can be removed and second component contains 2 nodes then 1 can be removed. so tital 4 can be removed and that will be our ans. So we can say that if no of stones - no of componets will also give ans.creating getComponetCount() method in dsu so we can get componet. the node which is parent itself can be treated as node but also alone its not sufficient as we know to remove any stone we need atleast 2 nodes in compoent. so we have to consider the node which is parent itself as well size is greater than 2 then that is compoent (refer code) (Link : https://youtu.be/OwMNX8SPavM)</t>
   </si>
 </sst>
 </file>
@@ -10747,11 +10758,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11243,6 +11254,17 @@
       </c>
       <c r="C43" s="67" t="s">
         <v>1272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="159.5">
+      <c r="A44" s="60" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -11288,8 +11310,9 @@
     <hyperlink ref="B41" r:id="rId39" xr:uid="{D9F5E7AE-D743-47CA-8DF8-5AAFA1D85F54}"/>
     <hyperlink ref="B42" r:id="rId40" xr:uid="{DE828822-C98B-4189-902F-8F8BA888E1BF}"/>
     <hyperlink ref="B43" r:id="rId41" xr:uid="{6D714ABF-2575-40FB-AC55-A96B19C18F5D}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{59BC662C-789E-4C60-892A-4D506923294C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27470090-B970-458B-9EE3-50F489D8F45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570109B-D687-4D21-BAAE-F2ED13F3B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1282">
   <si>
     <t>Topic</t>
   </si>
@@ -4788,6 +4788,28 @@
     <t>DSU -&gt;
 creating DSU to connect componet dynamically.maxRow + maxCol + 2 ? why maxRow + maxCol as we new need to consder whole cell at 0 th row as one node.so row + col we need to consider instead of row*col for all cell nodes. and why 2 ? to avoid 0th and 1th based index.
  now we know that suppose 4 nodes are connected then we can remove 3 nodes as for last node we there will be no node in row or col. okay so suppose there are 6 stones and we have 2 components.so fist component contains 4 nodes then 3 can be removed and second component contains 2 nodes then 1 can be removed. so tital 4 can be removed and that will be our ans. So we can say that if no of stones - no of componets will also give ans.creating getComponetCount() method in dsu so we can get componet. the node which is parent itself can be treated as node but also alone its not sufficient as we know to remove any stone we need atleast 2 nodes in compoent. so we have to consider the node which is parent itself as well size is greater than 2 then that is compoent (refer code) (Link : https://youtu.be/OwMNX8SPavM)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1</t>
+  </si>
+  <si>
+    <t>Strongly Connected Components -&gt; suppose the there is node 1 and 2 which can be reach via both i.e 1 to 2 and 2 to 1 so this SCC.SCC only works with Directed graph. A single node can be consider as SCC if its not reachable via any node in graph.we can use Kosaraju's Alg to count no of SCC or print SCC
+ Step 1 : sort the node according to finishing time i.e start from 0 node and apply DFS once we reached at terminal point which leaf point in tree we can store in stack
+step 2 : reverse the graph(reverse all edges)
+step 3 : Now using stack we can pop out nodes and apply same DFS on component and count comonents as no of times we call DFS for start node
+why we reversing graph here? so suppose we call DFS on given graph then we might end up with visiting all nodes so we need some edge that tells us this break edge where two SCC can be split.so we know that in SCC even if reverse edge then it doesnt gonna affect on nodes for example suppose we have SCC of node 1 and 2 so we have 2 edges 1-&gt; 2 and 2 -&gt; 1 so even if we reverse it will stay same but for rest we can get break edgees which are single SCC so we can indetify no of SCC</t>
+  </si>
+  <si>
+    <t>Strongly Connected Components (Kosaraju's Algo)</t>
+  </si>
+  <si>
+    <t>Minimum Number of Days to Disconnect Island</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-days-to-disconnect-island/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So, the basic idea is that for every cell that is land you are switching it to water and counting the number of islands after that and switching it back. If any cell accomplishes that goal - then return 1. Otherwise you need to switch at least two cells to accomplish that. Initially code checks if there are already more than one island i.e., no work to do, return 0.</t>
   </si>
 </sst>
 </file>
@@ -10758,11 +10780,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10845,426 +10867,448 @@
       </c>
       <c r="D6" s="63"/>
     </row>
-    <row r="7" spans="1:4" s="62" customFormat="1" ht="72.5">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:4" s="62" customFormat="1" ht="43.5">
+      <c r="A7" s="67" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="62" customFormat="1" ht="72.5">
+      <c r="A8" s="60" t="s">
         <v>1179</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B8" s="61" t="s">
         <v>1178</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C8" s="60" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="62" customFormat="1" ht="29">
-      <c r="A8" s="60" t="s">
+    <row r="9" spans="1:4" s="62" customFormat="1" ht="29">
+      <c r="A9" s="60" t="s">
         <v>1175</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B9" s="61" t="s">
         <v>1174</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C9" s="60" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="58">
-      <c r="A9" s="60" t="s">
+    <row r="10" spans="1:4" ht="58">
+      <c r="A10" s="60" t="s">
         <v>1180</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B10" s="60" t="s">
         <v>1181</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C10" s="60" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="67" customFormat="1" ht="43.5">
-      <c r="A10" s="67" t="s">
+    <row r="11" spans="1:4" s="67" customFormat="1" ht="43.5">
+      <c r="A11" s="67" t="s">
         <v>1251</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B11" s="67" t="s">
         <v>1250</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C11" s="67" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="49.5">
-      <c r="A11" s="65" t="s">
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="49.5">
+      <c r="A12" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B12" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C12" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="64"/>
-    </row>
-    <row r="12" spans="1:4" ht="72.5">
-      <c r="A12" s="60" t="s">
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:4" ht="72.5">
+      <c r="A13" s="60" t="s">
         <v>1167</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B13" s="60" t="s">
         <v>1166</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C13" s="60" t="s">
         <v>1177</v>
       </c>
-      <c r="D12" s="63"/>
-    </row>
-    <row r="13" spans="1:4" ht="29">
-      <c r="A13" s="60" t="s">
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="1:4" ht="29">
+      <c r="A14" s="60" t="s">
         <v>1172</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B14" s="61" t="s">
         <v>1171</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C14" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="D13" s="63"/>
-    </row>
-    <row r="14" spans="1:4" ht="43.5">
-      <c r="A14" s="60" t="s">
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="1:4" ht="43.5">
+      <c r="A15" s="60" t="s">
         <v>1169</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B15" s="60" t="s">
         <v>1168</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C15" s="60" t="s">
         <v>1170</v>
       </c>
-      <c r="D14" s="63"/>
-    </row>
-    <row r="15" spans="1:4" ht="130.5">
-      <c r="A15" s="60" t="s">
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="1:4" ht="130.5">
+      <c r="A16" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B16" s="60" t="s">
         <v>1191</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C16" s="60" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72.5">
-      <c r="A16" s="60" t="s">
+    <row r="17" spans="1:3" ht="72.5">
+      <c r="A17" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B17" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C17" s="60" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="101.5">
-      <c r="A17" s="60" t="s">
+    <row r="18" spans="1:3" ht="101.5">
+      <c r="A18" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B18" s="60" t="s">
         <v>1189</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C18" s="60" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="58">
-      <c r="A18" s="60" t="s">
+    <row r="19" spans="1:3" ht="58">
+      <c r="A19" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B19" s="60" t="s">
         <v>1184</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C19" s="60" t="s">
         <v>1186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29">
-      <c r="A19" s="60" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29">
       <c r="A20" s="60" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29">
+      <c r="A21" s="60" t="s">
         <v>1198</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B21" s="60" t="s">
         <v>1197</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C21" s="60" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29">
-      <c r="A21" s="67" t="s">
+    <row r="22" spans="1:3" ht="29">
+      <c r="A22" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B22" s="67" t="s">
         <v>1202</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C22" s="67" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="87">
-      <c r="A22" s="60" t="s">
+    <row r="23" spans="1:3" ht="87">
+      <c r="A23" s="60" t="s">
         <v>1206</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B23" s="60" t="s">
         <v>1205</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C23" s="60" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="58">
-      <c r="A23" s="60" t="s">
+    <row r="24" spans="1:3" ht="58">
+      <c r="A24" s="60" t="s">
         <v>1209</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B24" s="60" t="s">
         <v>1208</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C24" s="60" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29">
-      <c r="A24" s="60" t="s">
+    <row r="25" spans="1:3" ht="29">
+      <c r="A25" s="60" t="s">
         <v>1224</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B25" s="60" t="s">
         <v>1223</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C25" s="60" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="72.5">
-      <c r="A25" s="67" t="s">
+    <row r="26" spans="1:3" ht="72.5">
+      <c r="A26" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B26" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C26" s="67" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="145">
-      <c r="A26" s="67" t="s">
+    <row r="27" spans="1:3" ht="145">
+      <c r="A27" s="67" t="s">
         <v>1220</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B27" s="67" t="s">
         <v>1221</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C27" s="67" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72.5">
-      <c r="A27" s="60" t="s">
+    <row r="28" spans="1:3" ht="72.5">
+      <c r="A28" s="60" t="s">
         <v>1211</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B28" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C28" s="60" t="s">
         <v>1213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.5">
-      <c r="A28" s="60" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.5">
       <c r="A29" s="60" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.5">
+      <c r="A30" s="60" t="s">
         <v>1227</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B30" s="60" t="s">
         <v>1226</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C30" s="60" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="29">
-      <c r="A30" s="60" t="s">
+    <row r="31" spans="1:3" ht="29">
+      <c r="A31" s="60" t="s">
         <v>1230</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B31" s="60" t="s">
         <v>1229</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C31" s="60" t="s">
         <v>1231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.5">
-      <c r="A31" s="60" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5">
       <c r="A32" s="60" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.5">
+      <c r="A33" s="60" t="s">
         <v>1248</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B33" s="60" t="s">
         <v>1247</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C33" s="60" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="58">
-      <c r="A33" s="60" t="s">
+    <row r="34" spans="1:3" ht="58">
+      <c r="A34" s="60" t="s">
         <v>1235</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B34" s="60" t="s">
         <v>1236</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C34" s="60" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="202" customHeight="1">
-      <c r="A34" s="60" t="s">
+    <row r="35" spans="1:3" ht="202" customHeight="1">
+      <c r="A35" s="60" t="s">
         <v>1256</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B35" s="61" t="s">
         <v>1255</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C35" s="60" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="159.5">
-      <c r="A35" s="60" t="s">
+    <row r="36" spans="1:3" ht="159.5">
+      <c r="A36" s="60" t="s">
         <v>1237</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B36" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C36" s="60" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="130.5">
-      <c r="A36" s="60" t="s">
+    <row r="37" spans="1:3" ht="130.5">
+      <c r="A37" s="60" t="s">
         <v>1243</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B37" s="60" t="s">
         <v>1242</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C37" s="60" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="58">
-      <c r="A37" s="60" t="s">
+    <row r="38" spans="1:3" ht="58">
+      <c r="A38" s="60" t="s">
         <v>1245</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B38" s="60" t="s">
         <v>1244</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C38" s="60" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="145">
-      <c r="A38" s="60" t="s">
+    <row r="39" spans="1:3" ht="145">
+      <c r="A39" s="60" t="s">
         <v>1253</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B39" s="60" t="s">
         <v>1254</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C39" s="60" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="58">
-      <c r="A39" s="60" t="s">
+    <row r="40" spans="1:3" ht="58">
+      <c r="A40" s="60" t="s">
         <v>1160</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B40" s="60" t="s">
         <v>1259</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C40" s="60" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="104.5" customHeight="1">
-      <c r="A40" s="60" t="s">
+    <row r="41" spans="1:3" ht="104.5" customHeight="1">
+      <c r="A41" s="60" t="s">
         <v>1261</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B41" s="60" t="s">
         <v>1262</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C41" s="60" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="130.5">
-      <c r="A41" s="60" t="s">
+    <row r="42" spans="1:3" ht="130.5">
+      <c r="A42" s="60" t="s">
         <v>1264</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B42" s="60" t="s">
         <v>1263</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C42" s="60" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="120.5" customHeight="1">
-      <c r="A42" s="60" t="s">
+    <row r="43" spans="1:3" ht="120.5" customHeight="1">
+      <c r="A43" s="60" t="s">
         <v>1267</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B43" s="60" t="s">
         <v>1268</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C43" s="60" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="87">
-      <c r="A43" s="67" t="s">
+    <row r="44" spans="1:3" ht="87">
+      <c r="A44" s="67" t="s">
         <v>1270</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B44" s="67" t="s">
         <v>1269</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C44" s="67" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="159.5">
-      <c r="A44" s="60" t="s">
+    <row r="45" spans="1:3" ht="159.5">
+      <c r="A45" s="60" t="s">
         <v>1274</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B45" s="60" t="s">
         <v>1273</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C45" s="60" t="s">
         <v>1275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="174">
+      <c r="A46" s="60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -11274,45 +11318,47 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{9515C428-9104-4FE7-B0A8-CE2306B1C75E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{95B7A562-E9C3-4813-8C0D-C0985D1919F1}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{2DB87DEC-7184-41DB-AEFF-5A4B18EF7B7F}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{6B1BF46C-8F25-4B9C-BA5F-ED890CB4E7A6}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{02C22830-F3DD-4252-BE5F-1CF10195AE9B}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{53011AD8-BFEC-4D20-B278-9A1731DA8820}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{FAE3B966-0DB7-46F8-A8B7-7AC504437138}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
-    <hyperlink ref="B28" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
-    <hyperlink ref="B25" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
-    <hyperlink ref="B24" r:id="rId25" xr:uid="{C28E0CF5-2979-4068-934A-808ADF59EC40}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{9021F40A-E2BF-439F-9D98-A3CBBA9CD7DB}"/>
-    <hyperlink ref="B30" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
-    <hyperlink ref="B31" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
-    <hyperlink ref="B32" r:id="rId33" xr:uid="{EF2C4A72-B1A4-4220-8084-72F2AA86BA55}"/>
-    <hyperlink ref="B10" r:id="rId34" xr:uid="{7C7EE2D2-2000-4E94-BD54-1DF37F67A926}"/>
-    <hyperlink ref="B38" r:id="rId35" xr:uid="{D2090A90-2773-4FED-B444-B20280F58CE7}"/>
-    <hyperlink ref="B34" r:id="rId36" xr:uid="{2DBEC4EC-52D1-4308-A621-8B387A39B5F3}"/>
-    <hyperlink ref="B39" r:id="rId37" xr:uid="{29C8F3E2-418A-4743-9BCB-B4D4B59A5D78}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{B14AB69D-937E-408E-950F-FB20AE0DC379}"/>
-    <hyperlink ref="B41" r:id="rId39" xr:uid="{D9F5E7AE-D743-47CA-8DF8-5AAFA1D85F54}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{DE828822-C98B-4189-902F-8F8BA888E1BF}"/>
-    <hyperlink ref="B43" r:id="rId41" xr:uid="{6D714ABF-2575-40FB-AC55-A96B19C18F5D}"/>
-    <hyperlink ref="B44" r:id="rId42" xr:uid="{59BC662C-789E-4C60-892A-4D506923294C}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{011C8031-64C3-420D-B065-FFC6B27E4A3A}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{464EDD4F-303F-40C5-8F87-5D1009A70CEA}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{DCA9D84B-DA30-47FE-9A25-BB53DFCAE366}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{B32355C7-EAD2-4AE4-9499-039C635111EA}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{6B1BF46C-8F25-4B9C-BA5F-ED890CB4E7A6}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{02C22830-F3DD-4252-BE5F-1CF10195AE9B}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{A5C0AB9D-C3FE-4DE2-B65E-E709C3C5C781}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{5BA41F70-B91E-41D3-B281-19EB7861357E}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{C3B04E31-9DEB-4837-BA63-0CE403CAA769}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{DF61713E-E78D-4E0C-8903-A251E5499C59}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{53011AD8-BFEC-4D20-B278-9A1731DA8820}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{FAE3B966-0DB7-46F8-A8B7-7AC504437138}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{277AFBFD-923A-4269-829F-0B3C582E5CAE}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{B49B492D-993E-42C6-AFCE-DD13DC2FA962}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{D0F6466E-D16A-47E0-B12C-B533D4E16900}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{E79B0B7F-6ECF-4E81-9776-5CAB26D3F559}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{82C47B65-C02E-4777-AB6A-0BCB09859B4E}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{A13ACF52-B241-4292-83A1-5613C8CA1E1F}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{F35287C8-4F88-45AF-98F8-2F6A1A59B7F4}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{C28E0CF5-2979-4068-934A-808ADF59EC40}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{9021F40A-E2BF-439F-9D98-A3CBBA9CD7DB}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{8F9BFF70-3059-4F94-A832-C556E0CD9D08}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{72A6171C-7878-4237-B0BB-D3877CD69544}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{78A12CBE-4F25-4E3A-96E0-28B6A767D71D}"/>
+    <hyperlink ref="B36" r:id="rId30" xr:uid="{2A58EAC8-8176-4399-BFAA-BF703C33BA6E}"/>
+    <hyperlink ref="B37" r:id="rId31" xr:uid="{4F14A151-8553-433B-8388-DDDA97B92F1E}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{D77FE501-60E2-4753-A139-30A53DC20097}"/>
+    <hyperlink ref="B33" r:id="rId33" xr:uid="{EF2C4A72-B1A4-4220-8084-72F2AA86BA55}"/>
+    <hyperlink ref="B11" r:id="rId34" xr:uid="{7C7EE2D2-2000-4E94-BD54-1DF37F67A926}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{D2090A90-2773-4FED-B444-B20280F58CE7}"/>
+    <hyperlink ref="B35" r:id="rId36" xr:uid="{2DBEC4EC-52D1-4308-A621-8B387A39B5F3}"/>
+    <hyperlink ref="B40" r:id="rId37" xr:uid="{29C8F3E2-418A-4743-9BCB-B4D4B59A5D78}"/>
+    <hyperlink ref="B41" r:id="rId38" xr:uid="{B14AB69D-937E-408E-950F-FB20AE0DC379}"/>
+    <hyperlink ref="B42" r:id="rId39" xr:uid="{D9F5E7AE-D743-47CA-8DF8-5AAFA1D85F54}"/>
+    <hyperlink ref="B43" r:id="rId40" xr:uid="{DE828822-C98B-4189-902F-8F8BA888E1BF}"/>
+    <hyperlink ref="B44" r:id="rId41" xr:uid="{6D714ABF-2575-40FB-AC55-A96B19C18F5D}"/>
+    <hyperlink ref="B45" r:id="rId42" xr:uid="{59BC662C-789E-4C60-892A-4D506923294C}"/>
+    <hyperlink ref="B46" r:id="rId43" xr:uid="{E8E1B8D6-12C4-4C51-8BB0-64D24A3F78D3}"/>
+    <hyperlink ref="B7" r:id="rId44" xr:uid="{0E9F26E4-E5C6-49D0-A052-010114DDA1DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570109B-D687-4D21-BAAE-F2ED13F3B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB07ABD-6BD9-4C72-8462-B45F8531F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1291">
   <si>
     <t>Topic</t>
   </si>
@@ -4810,6 +4810,56 @@
   </si>
   <si>
     <t xml:space="preserve"> So, the basic idea is that for every cell that is land you are switching it to water and counting the number of islands after that and switching it back. If any cell accomplishes that goal - then return 1. Otherwise you need to switch at least two cells to accomplish that. Initially code checks if there are already more than one island i.e., no work to do, return 0.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/critical-connections-in-a-network/</t>
+  </si>
+  <si>
+    <t>Inside DFS, we will first mark the node visited and then store the time of insertion and the lowest time of insertion properly. The timer may be initialized to 0 or 1.
+Now, it’s time to visit the adjacent nodes. 
+If the adjacent node is the parent itself, we will just continue to the next node.
+If the adjacent node is not visited, we will call DFS for the adjacent node with the current node as the parent.
+After the DFS gets completed, we will compare the lowest time of insertion of the current node and the adjacent node and take the minimum one.
+Now, we will check if the lowest time of insertion of the adjacent node is greater than the time of insertion of the current node.
+If it is, then we will store the adjacent node and the current node in our answer array as they are representing the bridge.
+If the adjacent node is already visited, we will just compare the lowest time of insertion of the current node and the adjacent node and take the minimum one.
+Finally, our answer array will store all the bridges.</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network
+(Bridges in graph)</t>
+  </si>
+  <si>
+    <t>Articulation Point in Graph</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/articulation-point-1/1</t>
+  </si>
+  <si>
+    <t>Inside DFS, we will first mark the node visited and then store the time of insertion and the lowest time of insertion properly. We will declare a child variable to implement the logic for starting node.
+Now, it’s time to visit the adjacent nodes. 
+If the adjacent node is the parent itself, we will just continue to the next node.
+If the adjacent node is not visited, we will call DFS for the adjacent node with the current node as the parent.
+After the DFS gets completed, we will compare the lowest time of insertion of the current node and the adjacent node and take the minimum.
+Now, we will check if the lowest time of insertion of the adjacent node is greater or equal to the time of insertion of the current node and also ensure that the current node is not the starting node(checking parent not equal -1).
+If the condition matches, then we will mark the current node in our hash array as one of our answers as it is one of the articulation points of the graph.
+Then we will increment the child variable by 1.
+If the adjacent node is visited, we will just compare the lowest time of insertion of the current node and the time of insertion of the adjacent node and take the minimum.
+Finally, we will check if the child value is greater than 1 and if the current node is the starting node. If it is then we will keep the starting node marked in our hash array as the starting node is also an articulation point in this case.
+Finally, our answer array will store all the bridges.
+Read article - https://takeuforward.org/data-structure/articulation-point-in-graph-g-56/</t>
+  </si>
+  <si>
+    <t>Create an array Trusted of size N+1 to represent the total number of peoples in a town and initialize it with 0 .
+After initialization, whenever a person trust someone else than himself, the trusted value of that person should be decreased since that person is not satisfying the two conditions that were mentioned in the question.
+Also if a certain x person is trusted by others from town, than this x person value should be increased and those who trusted that x person there values should be decreased.
+At last traverse through every person of town and while traversing If a person is found with N-1 trusts than this person should be the judge and return the index of that person</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-town-judge/</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
   </si>
 </sst>
 </file>
@@ -10780,11 +10830,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11309,6 +11359,39 @@
       </c>
       <c r="C46" s="60" t="s">
         <v>1277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="179.5" customHeight="1">
+      <c r="A47" s="60" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="261">
+      <c r="A48" s="67" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="101.5">
+      <c r="A50" s="59" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -11357,8 +11440,11 @@
     <hyperlink ref="B45" r:id="rId42" xr:uid="{59BC662C-789E-4C60-892A-4D506923294C}"/>
     <hyperlink ref="B46" r:id="rId43" xr:uid="{E8E1B8D6-12C4-4C51-8BB0-64D24A3F78D3}"/>
     <hyperlink ref="B7" r:id="rId44" xr:uid="{0E9F26E4-E5C6-49D0-A052-010114DDA1DE}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{5A170544-BB7A-44D5-AFD8-6AF7F8BFA84C}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{D75866CA-197F-4D23-ADC8-D140A9918585}"/>
+    <hyperlink ref="B50" r:id="rId47" xr:uid="{41D5EB34-E06B-49DA-BE3C-E0C3066F4A28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB07ABD-6BD9-4C72-8462-B45F8531F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC4F49-8D60-4FF3-BDC4-F8C474243D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1294">
   <si>
     <t>Topic</t>
   </si>
@@ -4860,6 +4860,15 @@
   </si>
   <si>
     <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-if-path-exists-in-graph/</t>
+  </si>
+  <si>
+    <t>Find if Path Exists in Graph</t>
+  </si>
+  <si>
+    <t>Apply DFS or BFS or DSU to check if if source and destination are same path or not.</t>
   </si>
 </sst>
 </file>
@@ -10830,11 +10839,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11392,6 +11401,17 @@
       </c>
       <c r="C50" s="59" t="s">
         <v>1288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29">
+      <c r="A51" s="59" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -11443,8 +11463,9 @@
     <hyperlink ref="B47" r:id="rId45" xr:uid="{5A170544-BB7A-44D5-AFD8-6AF7F8BFA84C}"/>
     <hyperlink ref="B48" r:id="rId46" xr:uid="{D75866CA-197F-4D23-ADC8-D140A9918585}"/>
     <hyperlink ref="B50" r:id="rId47" xr:uid="{41D5EB34-E06B-49DA-BE3C-E0C3066F4A28}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{52BB2730-AE1A-445F-BE6D-E337AD6C6706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC4F49-8D60-4FF3-BDC4-F8C474243D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F664FF-5A1E-4C9F-8792-08ECED392E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1300">
   <si>
     <t>Topic</t>
   </si>
@@ -4869,6 +4869,28 @@
   </si>
   <si>
     <t>Apply DFS or BFS or DSU to check if if source and destination are same path or not.</t>
+  </si>
+  <si>
+    <t>All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-paths-from-source-to-target/</t>
+  </si>
+  <si>
+    <t>Apply DFS and store each node in path during traversal and if we reached to dest node then store that path in result. Use backtracking to remove node from path after completion of DFS to that node for future paths.</t>
+  </si>
+  <si>
+    <t>Minimum Number of Vertices to Reach All Nodes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-vertices-to-reach-all-nodes/</t>
+  </si>
+  <si>
+    <t>in-degree:
+    number of edges going into a node
+    If there is no edges coming into a node its a start node and has to be part of the solution set
+out-degree:
+    number of edges coming out of a node</t>
   </si>
 </sst>
 </file>
@@ -10839,11 +10861,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11412,6 +11434,28 @@
       </c>
       <c r="C51" s="59" t="s">
         <v>1293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29">
+      <c r="A52" s="60" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="72.5">
+      <c r="A53" s="60" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -11464,8 +11508,10 @@
     <hyperlink ref="B48" r:id="rId46" xr:uid="{D75866CA-197F-4D23-ADC8-D140A9918585}"/>
     <hyperlink ref="B50" r:id="rId47" xr:uid="{41D5EB34-E06B-49DA-BE3C-E0C3066F4A28}"/>
     <hyperlink ref="B51" r:id="rId48" xr:uid="{52BB2730-AE1A-445F-BE6D-E337AD6C6706}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{305AEB2E-1678-4565-9E6F-F90CF3852BEB}"/>
+    <hyperlink ref="B53" r:id="rId50" xr:uid="{22F791BA-85C7-4E34-B8C9-34ADF022497B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F664FF-5A1E-4C9F-8792-08ECED392E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B844DB-9D32-4093-9138-057123526F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1303">
   <si>
     <t>Topic</t>
   </si>
@@ -4891,6 +4891,15 @@
     If there is no edges coming into a node its a start node and has to be part of the solution set
 out-degree:
     number of edges coming out of a node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/keys-and-rooms/</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>Here we can consider room as node and keys as their neighbours so we can start from room 0 i,e node 0 and traverse it neighbours recusrively using DFS. Also keep visited array to avoid visiting node again. After all DFS call check if all rooms i.e nodes are visited or not.Same way we can use BFS for this problem</t>
   </si>
 </sst>
 </file>
@@ -10861,11 +10870,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11456,6 +11465,17 @@
       </c>
       <c r="C53" s="60" t="s">
         <v>1299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.5">
+      <c r="A54" s="60" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -11510,8 +11530,9 @@
     <hyperlink ref="B51" r:id="rId48" xr:uid="{52BB2730-AE1A-445F-BE6D-E337AD6C6706}"/>
     <hyperlink ref="B52" r:id="rId49" xr:uid="{305AEB2E-1678-4565-9E6F-F90CF3852BEB}"/>
     <hyperlink ref="B53" r:id="rId50" xr:uid="{22F791BA-85C7-4E34-B8C9-34ADF022497B}"/>
+    <hyperlink ref="B54" r:id="rId51" xr:uid="{C48B53CF-332E-43CE-825A-F930860F8249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B844DB-9D32-4093-9138-057123526F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EA196-49F4-4A75-AE87-AE6DAA670449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1312">
   <si>
     <t>Topic</t>
   </si>
@@ -4899,7 +4899,40 @@
     <t>Keys and Rooms</t>
   </si>
   <si>
-    <t>Here we can consider room as node and keys as their neighbours so we can start from room 0 i,e node 0 and traverse it neighbours recusrively using DFS. Also keep visited array to avoid visiting node again. After all DFS call check if all rooms i.e nodes are visited or not.Same way we can use BFS for this problem</t>
+    <t>https://leetcode.com/problems/minimum-fuel-cost-to-report-to-the-capital/</t>
+  </si>
+  <si>
+    <t>Minimum Fuel Cost to Report to the Capital</t>
+  </si>
+  <si>
+    <t>DFS -&gt; Here we can consider room as node and keys as their neighbours so we can start from room 0 i,e node 0 and traverse it neighbours recusrively using DFS. Also keep visited array to avoid visiting node again. After all DFS call check if all rooms i.e nodes are visited or not.Same way we can use BFS for this problem</t>
+  </si>
+  <si>
+    <t>DFS -&gt; Idea : consider only 2 city i.e from city a to city b. now we have total 4 pepople to travel and we have seats per car is 2 so from a to b we only going to spend 1 litere fuel so as per no of cars fuel will get updated. and no of cars its depend on no of people and seats. so hence fuel = no of people / no of seats. so for path a to b we can calculate fuel so for the same for every path we calculat with help of no of people and seats</t>
+  </si>
+  <si>
+    <t>Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-to-connect-all-points/</t>
+  </si>
+  <si>
+    <t>MST -&gt;
+we have to connect all points with minimum cost so we can consider this as MST. So we have two algo -&gt; prim and kruskal
+Here we have impletemented using Kruskal algo. Consider single point array as node and apply same logic as MST.(refer code)</t>
+  </si>
+  <si>
+    <t>A valid tree is an undirected graph which has exactly N-1 edges to connect N vertices in the tree.
+Since the given tree has a redundant edge, so there is N edges in the given input.
+Number of vertices N = len(edges).
+We can use DSU to iterate over every edge
+Then we iterate edge [u, v] in edges, if u and v is already connected in the UnionFind then we return that redundant edge.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/redundant-connection/</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
   </si>
 </sst>
 </file>
@@ -10870,11 +10903,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11475,7 +11508,40 @@
         <v>1300</v>
       </c>
       <c r="C54" s="60" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="58">
+      <c r="A55" s="60" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B55" s="60" t="s">
         <v>1302</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="44" customHeight="1">
+      <c r="A56" s="60" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="72.5">
+      <c r="A57" s="60" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -11531,8 +11597,11 @@
     <hyperlink ref="B52" r:id="rId49" xr:uid="{305AEB2E-1678-4565-9E6F-F90CF3852BEB}"/>
     <hyperlink ref="B53" r:id="rId50" xr:uid="{22F791BA-85C7-4E34-B8C9-34ADF022497B}"/>
     <hyperlink ref="B54" r:id="rId51" xr:uid="{C48B53CF-332E-43CE-825A-F930860F8249}"/>
+    <hyperlink ref="B55" r:id="rId52" xr:uid="{E52D5DBA-6FFB-4F81-A44C-9435DCDC61C7}"/>
+    <hyperlink ref="B56" r:id="rId53" xr:uid="{D342F925-C2BD-445B-B7E1-59E3964F2C7B}"/>
+    <hyperlink ref="B57" r:id="rId54" xr:uid="{60E9A446-866E-4439-8B77-8EA89B386274}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EA196-49F4-4A75-AE87-AE6DAA670449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDEF046-4087-412D-9494-E5B659D3437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1315">
   <si>
     <t>Topic</t>
   </si>
@@ -4933,6 +4933,20 @@
   </si>
   <si>
     <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Reorder Routes to Make All Paths Lead to the City Zero</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
+  </si>
+  <si>
+    <t>So here we can first actually build the graph and I uses a List&lt;List&lt;integer&gt;&gt; for it.
+Here if we are having parent-&gt;child, then we take the sign as +ve and if vice versa we consider it as negative.
+For traditional dfs, we need to keep track of the visited node thus we declare a boolean array for it.
+Now do the dfs from node 0.
+So the dfs function actually looks for the parent-&gt;child relation node and this has to be reversed. So count of parent-&gt;child relation is tracked here and the count is returned.
+So we looks for the neighbours of the current node and traverse throught it. Then we check whether we already visited it, if no then update the count + do the dfs with the current child + add 1 if the child &gt; 0, ie from parent -&gt; child  or 0 ie then it  will be child -&gt; parent.Finally return the count.</t>
   </si>
 </sst>
 </file>
@@ -10903,11 +10917,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11537,11 +11551,22 @@
       <c r="A57" s="60" t="s">
         <v>1311</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="61" t="s">
         <v>1310</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>1309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="130.5">
+      <c r="A58" s="60" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -11600,8 +11625,9 @@
     <hyperlink ref="B55" r:id="rId52" xr:uid="{E52D5DBA-6FFB-4F81-A44C-9435DCDC61C7}"/>
     <hyperlink ref="B56" r:id="rId53" xr:uid="{D342F925-C2BD-445B-B7E1-59E3964F2C7B}"/>
     <hyperlink ref="B57" r:id="rId54" xr:uid="{60E9A446-866E-4439-8B77-8EA89B386274}"/>
+    <hyperlink ref="B58" r:id="rId55" xr:uid="{A5A9D20C-CBB9-4102-BAC1-C19918F4BD8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDEF046-4087-412D-9494-E5B659D3437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F47A2C7-B6B5-4A60-AE3D-305314A5BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1318">
   <si>
     <t>Topic</t>
   </si>
@@ -4947,6 +4947,16 @@
 Now do the dfs from node 0.
 So the dfs function actually looks for the parent-&gt;child relation node and this has to be reversed. So count of parent-&gt;child relation is tracked here and the count is returned.
 So we looks for the neighbours of the current node and traverse throught it. Then we check whether we already visited it, if no then update the count + do the dfs with the current child + add 1 if the child &gt; 0, ie from parent -&gt; child  or 0 ie then it  will be child -&gt; parent.Finally return the count.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regions-cut-by-slashes/</t>
+  </si>
+  <si>
+    <t>Regions Cut By Slashes</t>
+  </si>
+  <si>
+    <t>DSU -&gt;
+consider grid as dot matrix. If grid has nxn then dot matrix will be n+1 x n*1. Now we can connect each dot to eachother based on grid using DSU and check if that two dots already connected means their parents are same then we got new region so update count by 1. (refer code) and video - https://www.youtube.com/watch?v=Wafu5vOxPRE</t>
   </si>
 </sst>
 </file>
@@ -10917,10 +10927,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -11567,6 +11577,17 @@
       </c>
       <c r="C58" s="60" t="s">
         <v>1314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="58">
+      <c r="A59" s="60" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>1317</v>
       </c>
     </row>
   </sheetData>
@@ -11626,8 +11647,9 @@
     <hyperlink ref="B56" r:id="rId53" xr:uid="{D342F925-C2BD-445B-B7E1-59E3964F2C7B}"/>
     <hyperlink ref="B57" r:id="rId54" xr:uid="{60E9A446-866E-4439-8B77-8EA89B386274}"/>
     <hyperlink ref="B58" r:id="rId55" xr:uid="{A5A9D20C-CBB9-4102-BAC1-C19918F4BD8C}"/>
+    <hyperlink ref="B59" r:id="rId56" xr:uid="{BE4461AC-B8DE-424B-AA0E-D24F6B37BA8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F47A2C7-B6B5-4A60-AE3D-305314A5BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA45CDBB-4255-4F4B-9F97-D0B22888C6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1321">
   <si>
     <t>Topic</t>
   </si>
@@ -4957,6 +4957,17 @@
   <si>
     <t>DSU -&gt;
 consider grid as dot matrix. If grid has nxn then dot matrix will be n+1 x n*1. Now we can connect each dot to eachother based on grid using DSU and check if that two dots already connected means their parents are same then we got new region so update count by 1. (refer code) and video - https://www.youtube.com/watch?v=Wafu5vOxPRE</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-total-importance-of-roads/</t>
+  </si>
+  <si>
+    <t>For the maximum result, we assign the highest value to a city with the largest degree (number of roads).
+We compute the degree of each node, and then sort them. Finally, we assing increasing values starting from the smallest degree
+(refer example in code)</t>
+  </si>
+  <si>
+    <t>Maximum Total Importance of Roads</t>
   </si>
 </sst>
 </file>
@@ -10927,11 +10938,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11588,6 +11599,17 @@
       </c>
       <c r="C59" s="60" t="s">
         <v>1317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A60" s="60" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -11648,8 +11670,9 @@
     <hyperlink ref="B57" r:id="rId54" xr:uid="{60E9A446-866E-4439-8B77-8EA89B386274}"/>
     <hyperlink ref="B58" r:id="rId55" xr:uid="{A5A9D20C-CBB9-4102-BAC1-C19918F4BD8C}"/>
     <hyperlink ref="B59" r:id="rId56" xr:uid="{BE4461AC-B8DE-424B-AA0E-D24F6B37BA8A}"/>
+    <hyperlink ref="B60" r:id="rId57" xr:uid="{150BF447-5C9F-462C-88D8-BA9F14415349}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA45CDBB-4255-4F4B-9F97-D0B22888C6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4CFAA8-D7ED-4FBE-A8A9-5F85ABC878B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1327">
   <si>
     <t>Topic</t>
   </si>
@@ -4968,6 +4968,28 @@
   </si>
   <si>
     <t>Maximum Total Importance of Roads</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-division/</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Consider if a to b cost is 2.0 then b to a is 1/2.0. so first build graph(a -&gt; b = values[i] and b -&gt; a  = 1.0 / values[i];) based on this idea with help of values. 
+Then apply DFS to each query in queries. If src is not present in map means src string not there hence return -1.0 also check if dest is present in src map then retrun its weight. else check with its neighbours throught itrations. if any neighbour returns -1.0 then skip calculation return -1.0 it means string is not present. else multiply result with its current src string and return result. 
+(refer code)</t>
+  </si>
+  <si>
+    <t>Maximal Network Rank</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-network-rank/</t>
+  </si>
+  <si>
+    <t>Use a boolean[][] to mark if connected directly.
+Keep in mind if there is a line directly connects i and j, you will count roads[i, j] twice, so you have to remove 1;
+Just use brutal force to check all pairs of i, j, where i != j, and find the max;</t>
   </si>
 </sst>
 </file>
@@ -10938,11 +10960,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11610,6 +11632,28 @@
       </c>
       <c r="C60" s="60" t="s">
         <v>1319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="88.5" customHeight="1">
+      <c r="A61" s="60" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.5">
+      <c r="A62" s="60" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -11671,8 +11715,10 @@
     <hyperlink ref="B58" r:id="rId55" xr:uid="{A5A9D20C-CBB9-4102-BAC1-C19918F4BD8C}"/>
     <hyperlink ref="B59" r:id="rId56" xr:uid="{BE4461AC-B8DE-424B-AA0E-D24F6B37BA8A}"/>
     <hyperlink ref="B60" r:id="rId57" xr:uid="{150BF447-5C9F-462C-88D8-BA9F14415349}"/>
+    <hyperlink ref="B61" r:id="rId58" xr:uid="{0DF97411-FAEC-4DE5-B33D-C82999B9D55F}"/>
+    <hyperlink ref="B62" r:id="rId59" xr:uid="{071D0C20-DB3E-4325-882B-115177A34F2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4CFAA8-D7ED-4FBE-A8A9-5F85ABC878B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A1E98-7A2A-4579-A549-F6777D3837F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1330">
   <si>
     <t>Topic</t>
   </si>
@@ -4990,6 +4990,16 @@
     <t>Use a boolean[][] to mark if connected directly.
 Keep in mind if there is a line directly connects i and j, you will count roads[i, j] twice, so you have to remove 1;
 Just use brutal force to check all pairs of i, j, where i != j, and find the max;</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-with-alternating-colors/</t>
+  </si>
+  <si>
+    <t>Shortest Path with Alternating Colors</t>
+  </si>
+  <si>
+    <t>Apply BFS
+Consider it as normal BFS problem where we need to find shortest dist from source to destination node. Here we can use Dijkstra algo but length is going to inc by 1 so if we visit any node first time it will be shortest only. Now here is tricky part we have to consider alternate color edge which can be achieve using sep adj list for both and if prev edge color is red then check in blue and vice versa. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -10960,11 +10970,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:C62"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11654,6 +11664,17 @@
       </c>
       <c r="C62" s="60" t="s">
         <v>1326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="72.5">
+      <c r="A63" s="60" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -11717,8 +11738,9 @@
     <hyperlink ref="B60" r:id="rId57" xr:uid="{150BF447-5C9F-462C-88D8-BA9F14415349}"/>
     <hyperlink ref="B61" r:id="rId58" xr:uid="{0DF97411-FAEC-4DE5-B33D-C82999B9D55F}"/>
     <hyperlink ref="B62" r:id="rId59" xr:uid="{071D0C20-DB3E-4325-882B-115177A34F2E}"/>
+    <hyperlink ref="B63" r:id="rId60" xr:uid="{9C2C205D-04C4-439E-BA5A-46BAAEFE7648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A1E98-7A2A-4579-A549-F6777D3837F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9F3E6-8132-4F25-A685-8F22F28464EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="1333">
   <si>
     <t>Topic</t>
   </si>
@@ -5000,6 +5000,19 @@
   <si>
     <t>Apply BFS
 Consider it as normal BFS problem where we need to find shortest dist from source to destination node. Here we can use Dijkstra algo but length is going to inc by 1 so if we visit any node first time it will be shortest only. Now here is tricky part we have to consider alternate color edge which can be achieve using sep adj list for both and if prev edge color is red then check in blue and vice versa. (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/loud-and-rich/</t>
+  </si>
+  <si>
+    <t>Loud and Rich</t>
+  </si>
+  <si>
+    <t>Apply DFS -&gt;
+Create adj list from richer array in revser order so at from root to leaf is consider as root is less richer than leaf node.
+Create result array and intially add -1 for every node. And apply DFS for every node. 
+Now check if result[node] == -1 then only apply DFS as its first we are calculating it else return result[node]
+if yes then check for its neighbours(leaf nodes) and get last node in DFS path which is richest among all and check if its quite value is less than quiet value of result[node] if yes update it as we need to store minimum quite person.(refer code and problem)</t>
   </si>
 </sst>
 </file>
@@ -10970,18 +10983,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28.7265625" style="58" customWidth="1"/>
     <col min="2" max="2" width="30.90625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="107.1796875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="108" style="58" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="58"/>
   </cols>
   <sheetData>
@@ -11675,6 +11688,17 @@
       </c>
       <c r="C63" s="60" t="s">
         <v>1329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="101.5">
+      <c r="A64" s="60" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -11739,8 +11763,9 @@
     <hyperlink ref="B61" r:id="rId58" xr:uid="{0DF97411-FAEC-4DE5-B33D-C82999B9D55F}"/>
     <hyperlink ref="B62" r:id="rId59" xr:uid="{071D0C20-DB3E-4325-882B-115177A34F2E}"/>
     <hyperlink ref="B63" r:id="rId60" xr:uid="{9C2C205D-04C4-439E-BA5A-46BAAEFE7648}"/>
+    <hyperlink ref="B64" r:id="rId61" xr:uid="{A392A06B-22C4-40BC-A242-A45C282D3404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9F3E6-8132-4F25-A685-8F22F28464EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928112B-19B4-4D55-92EF-774CE7A9AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1336">
   <si>
     <t>Topic</t>
   </si>
@@ -5013,6 +5013,16 @@
 Create result array and intially add -1 for every node. And apply DFS for every node. 
 Now check if result[node] == -1 then only apply DFS as its first we are calculating it else return result[node]
 if yes then check for its neighbours(leaf nodes) and get last node in DFS path which is richest among all and check if its quite value is less than quiet value of result[node] if yes update it as we need to store minimum quite person.(refer code and problem)</t>
+  </si>
+  <si>
+    <t>Successful Pairs of Spells and Potions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/successful-pairs-of-spells-and-potions/</t>
+  </si>
+  <si>
+    <t>First sort the postion and apply BS for every spell in spells array to avoid unneccessary checks.
+While doing BS we can check if thier product is higher than success then whatever spells right after mid index is going to be part of success product so moving high to left side OR else their product is less than success then whatever spells left side of mind index is not going to part of success product hence to skip those we can move low to right side. At the end of BS..low pointer will stand at index from next index we can consider every potions to be part of count hence -&gt;result[i] = potions.length - low;</t>
   </si>
 </sst>
 </file>
@@ -6042,11 +6052,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6805,102 +6815,113 @@
         <v>616</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A69" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>387</v>
+    <row r="69" spans="1:3" s="16" customFormat="1" ht="87">
+      <c r="A69" s="18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="34" customFormat="1" ht="58">
       <c r="A70" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A71" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B71" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C71" s="34" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="34" customFormat="1" ht="87">
-      <c r="A71" s="34" t="s">
+    <row r="72" spans="1:3" s="34" customFormat="1" ht="87">
+      <c r="A72" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B72" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C72" s="34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A72" s="34" t="s">
+    <row r="73" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A73" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B73" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C73" s="34" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A73" s="34" t="s">
+    <row r="74" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A74" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B74" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C74" s="34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A74" s="34" t="s">
+    <row r="75" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A75" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B75" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C75" s="34" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="34" customFormat="1" ht="72.5">
-      <c r="A75" s="34" t="s">
+    <row r="76" spans="1:3" s="34" customFormat="1" ht="72.5">
+      <c r="A76" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B76" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C76" s="34" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A76" s="34" t="s">
+    <row r="77" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A77" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B77" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C77" s="34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A77" s="34" t="s">
+    <row r="78" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A78" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B78" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C78" s="34" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6911,11 +6932,12 @@
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
     <hyperlink ref="B68" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
     <hyperlink ref="B50" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B69" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10985,7 +11007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64:C64"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928112B-19B4-4D55-92EF-774CE7A9AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8311C1-D9FC-46C9-BEEE-4D0832FB50F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1339">
   <si>
     <t>Topic</t>
   </si>
@@ -5023,6 +5023,15 @@
   <si>
     <t>First sort the postion and apply BS for every spell in spells array to avoid unneccessary checks.
 While doing BS we can check if thier product is higher than success then whatever spells right after mid index is going to be part of success product so moving high to left side OR else their product is less than success then whatever spells left side of mind index is not going to part of success product hence to skip those we can move low to right side. At the end of BS..low pointer will stand at index from next index we can consider every potions to be part of count hence -&gt;result[i] = potions.length - low;</t>
+  </si>
+  <si>
+    <t>Boats to Save People</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/boats-to-save-people/</t>
+  </si>
+  <si>
+    <t>Sort the array and boat only carries two person at max then apply two pointer. If both person weight sum is less than limit carry both and inc counter by 1 else carry jth person and inc pointer by 1.</t>
   </si>
 </sst>
 </file>
@@ -6052,11 +6061,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6140,7 +6149,7 @@
       <c r="B7" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="44" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6826,102 +6835,113 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A70" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>387</v>
+    <row r="70" spans="1:3" s="16" customFormat="1" ht="29">
+      <c r="A70" s="18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="34" customFormat="1" ht="58">
       <c r="A71" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A72" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B72" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C72" s="34" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="34" customFormat="1" ht="87">
-      <c r="A72" s="34" t="s">
+    <row r="73" spans="1:3" s="34" customFormat="1" ht="87">
+      <c r="A73" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B73" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C73" s="34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A73" s="34" t="s">
+    <row r="74" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A74" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B74" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C74" s="34" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A74" s="34" t="s">
+    <row r="75" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A75" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B75" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C75" s="34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A75" s="34" t="s">
+    <row r="76" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A76" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B76" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C76" s="34" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" ht="72.5">
-      <c r="A76" s="34" t="s">
+    <row r="77" spans="1:3" s="34" customFormat="1" ht="72.5">
+      <c r="A77" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B77" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C77" s="34" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A77" s="34" t="s">
+    <row r="78" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A78" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B78" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C78" s="34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A78" s="34" t="s">
+    <row r="79" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A79" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B79" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C79" s="34" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6933,11 +6953,12 @@
     <hyperlink ref="B68" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
     <hyperlink ref="B50" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
     <hyperlink ref="B69" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B70" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8311C1-D9FC-46C9-BEEE-4D0832FB50F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08B850-1FB2-4F7F-9BF0-562C223B0100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1342">
   <si>
     <t>Topic</t>
   </si>
@@ -5032,6 +5032,19 @@
   </si>
   <si>
     <t>Sort the array and boat only carries two person at max then apply two pointer. If both person weight sum is less than limit carry both and inc counter by 1 else carry jth person and inc pointer by 1.</t>
+  </si>
+  <si>
+    <t>Optimal Partition of String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/optimal-partition-of-string/</t>
+  </si>
+  <si>
+    <t>// Brute force -&gt;
+Use set. If char is already there then we found one substring so inc count by 1 and clear set and add char in it. else add char in set
+// Optimal sol -&gt;
+use frequency array of every char and also store start of substring. If current char is already part of substring means its equal or greater than startSubstring then its repeating hence inc count by 1 and update startSubstring to i as we start new string .
+And at every time update lastseen of char.</t>
   </si>
 </sst>
 </file>
@@ -6063,7 +6076,7 @@
   </sheetPr>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
@@ -6968,11 +6981,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7151,14 +7164,14 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="52.5">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="33">
+      <c r="A13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="4"/>
@@ -7166,7 +7179,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="87">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -7347,51 +7360,63 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="87">
+      <c r="A27" s="18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A28" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="43.5">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="43.5">
+      <c r="A30" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>631</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7886,7 +7911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08B850-1FB2-4F7F-9BF0-562C223B0100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E468D-6CC3-4B71-9C4B-3207BF8513E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1345">
   <si>
     <t>Topic</t>
   </si>
@@ -5045,6 +5045,16 @@
 // Optimal sol -&gt;
 use frequency array of every char and also store start of substring. If current char is already part of substring means its equal or greater than startSubstring then its repeating hence inc count by 1 and update startSubstring to i as we start new string .
 And at every time update lastseen of char.</t>
+  </si>
+  <si>
+    <t>We calculate the prefix sum arrray and their average.The average is the lower bound of the result,and it's reachable lower bound by the process in intuition,so this average is the result.
+To get avg of subarray we can do -&gt; Math.ceil(sum / (i+1)) as array is 0 based index. but it will cause loss of conversion so we can convert it to integer division by just adding i that is index number to sum so formula -&gt;(sum + i) / (i + 1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimize-maximum-of-array/</t>
+  </si>
+  <si>
+    <t>Minimize Maximum of Array</t>
   </si>
 </sst>
 </file>
@@ -6074,11 +6084,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6100,14 +6110,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="35" customFormat="1" ht="49.5">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:3" s="35" customFormat="1" ht="43.5">
+      <c r="A2" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6214,7 +6224,7 @@
       <c r="A12" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -6225,7 +6235,7 @@
       <c r="A13" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>231</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -6236,7 +6246,7 @@
       <c r="A14" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>234</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -6247,7 +6257,7 @@
       <c r="A15" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>237</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -6258,7 +6268,7 @@
       <c r="A16" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>240</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -6269,7 +6279,7 @@
       <c r="A17" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="36" t="s">
@@ -6280,7 +6290,7 @@
       <c r="A18" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>246</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6859,102 +6869,113 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A71" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>387</v>
+    <row r="71" spans="1:3" s="16" customFormat="1" ht="72.5">
+      <c r="A71" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="34" customFormat="1" ht="58">
       <c r="A72" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A73" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B73" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C73" s="34" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="34" customFormat="1" ht="87">
-      <c r="A73" s="34" t="s">
+    <row r="74" spans="1:3" s="34" customFormat="1" ht="87">
+      <c r="A74" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B74" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C74" s="34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A74" s="34" t="s">
+    <row r="75" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A75" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B75" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C75" s="34" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A75" s="34" t="s">
+    <row r="76" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A76" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B76" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C76" s="34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A76" s="34" t="s">
+    <row r="77" spans="1:3" s="34" customFormat="1" ht="101.5">
+      <c r="A77" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B77" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C77" s="34" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="34" customFormat="1" ht="72.5">
-      <c r="A77" s="34" t="s">
+    <row r="78" spans="1:3" s="34" customFormat="1" ht="72.5">
+      <c r="A78" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B78" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C78" s="34" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A78" s="34" t="s">
+    <row r="79" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A79" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B79" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C79" s="34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A79" s="34" t="s">
+    <row r="80" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A80" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B80" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C80" s="34" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6967,11 +6988,18 @@
     <hyperlink ref="B50" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
     <hyperlink ref="B69" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
     <hyperlink ref="B70" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
+    <hyperlink ref="B71" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6983,8 +7011,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E468D-6CC3-4B71-9C4B-3207BF8513E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2479F38-8406-4F9B-8048-81DAE7497205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1348">
   <si>
     <t>Topic</t>
   </si>
@@ -5055,6 +5055,15 @@
   </si>
   <si>
     <t>Minimize Maximum of Array</t>
+  </si>
+  <si>
+    <t>Number of Closed Islands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-closed-islands/</t>
+  </si>
+  <si>
+    <t>This problem is similar like no of island. In that we count no of DFS call. Here we need to check if cell is island and that island is closed by water then we can inc our result count. So that island is not closed only if its any cell at boundary then this cant be closed island. else we can inc result count. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -6086,8 +6095,8 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -11079,11 +11088,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:C64"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11795,6 +11804,17 @@
       </c>
       <c r="C64" s="60" t="s">
         <v>1332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.5">
+      <c r="A65" s="60" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -11860,8 +11880,9 @@
     <hyperlink ref="B62" r:id="rId59" xr:uid="{071D0C20-DB3E-4325-882B-115177A34F2E}"/>
     <hyperlink ref="B63" r:id="rId60" xr:uid="{9C2C205D-04C4-439E-BA5A-46BAAEFE7648}"/>
     <hyperlink ref="B64" r:id="rId61" xr:uid="{A392A06B-22C4-40BC-A242-A45C282D3404}"/>
+    <hyperlink ref="B65" r:id="rId62" xr:uid="{2BFA9842-A668-4E39-8C02-ACE043F4D0A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2479F38-8406-4F9B-8048-81DAE7497205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F901B89-F8B6-49D4-9CC8-F28AA7C39241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arrays-76" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
     <sheet name="Strings-28" sheetId="3" r:id="rId2"/>
     <sheet name="Recursion &amp; Backtracking-37" sheetId="2" r:id="rId3"/>
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
@@ -6095,9 +6095,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -11090,8 +11090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F901B89-F8B6-49D4-9CC8-F28AA7C39241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720946EB-2382-4427-921C-06F29FE6E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1351">
   <si>
     <t>Topic</t>
   </si>
@@ -5064,6 +5064,15 @@
   </si>
   <si>
     <t>This problem is similar like no of island. In that we count no of DFS call. Here we need to check if cell is island and that island is closed by water then we can inc our result count. So that island is not closed only if its any cell at boundary then this cant be closed island. else we can inc result count. (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Just Apply DFS or BFS and keep visited array to keep track of node and create copy of node if its not created already and then do same for their neighbours.</t>
   </si>
 </sst>
 </file>
@@ -6095,7 +6104,7 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
@@ -11088,11 +11097,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11815,6 +11824,17 @@
       </c>
       <c r="C65" s="60" t="s">
         <v>1347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="29">
+      <c r="A66" s="60" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -11881,8 +11901,9 @@
     <hyperlink ref="B63" r:id="rId60" xr:uid="{9C2C205D-04C4-439E-BA5A-46BAAEFE7648}"/>
     <hyperlink ref="B64" r:id="rId61" xr:uid="{A392A06B-22C4-40BC-A242-A45C282D3404}"/>
     <hyperlink ref="B65" r:id="rId62" xr:uid="{2BFA9842-A668-4E39-8C02-ACE043F4D0A8}"/>
+    <hyperlink ref="B66" r:id="rId63" xr:uid="{76A0236D-B295-4F35-94A7-79A2F4FC77E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720946EB-2382-4427-921C-06F29FE6E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B2042-8087-43B2-B9EA-032C74CF0718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1354">
   <si>
     <t>Topic</t>
   </si>
@@ -5073,6 +5073,17 @@
   </si>
   <si>
     <t>Just Apply DFS or BFS and keep visited array to keep track of node and create copy of node if its not created already and then do same for their neighbours.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-color-value-in-a-directed-graph/</t>
+  </si>
+  <si>
+    <t>Largest Color Value in a Directed Graph</t>
+  </si>
+  <si>
+    <t>BFS+Toplogical sort -&gt;
+Here what we doing is first consider this as tree where we passing all color information from root to leaf(parent to child node). Here root node is nothing but node which having indegree value 0.So we will start apply BFS to those node and calculate most frequent color value at that node and store it in maxColorValue. Now node is ready pass this information to its child. while passing node we have to take maximum color count between parent and child node. Once edge case is if color of child is same as color which we are passing then we have to add +1 in it as every child has it own color.once we finish that check if indegree of child is 0 if it is then this child is taken color information from all its parent so we can add it in queue else check next node. Keep repeating this untill queue becomes empty and return maxColorValue at the end which store most frequent color at every node.
+video link -&gt; https://youtu.be/pSBFqxRVQC0</t>
   </si>
 </sst>
 </file>
@@ -5254,7 +5265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5546,9 +5557,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5589,6 +5597,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6104,9 +6115,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6767,7 +6778,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="67" t="s">
         <v>361</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -9484,13 +9495,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="58">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>758</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>760</v>
       </c>
     </row>
@@ -9660,13 +9671,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="29">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="53" t="s">
         <v>806</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="53" t="s">
         <v>807</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="53" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9807,7 +9818,7 @@
       <c r="A7" s="51" t="s">
         <v>973</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>972</v>
       </c>
       <c r="C7" s="51" t="s">
@@ -9837,13 +9848,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>952</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>951</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>953</v>
       </c>
     </row>
@@ -9862,7 +9873,7 @@
       <c r="A12" s="51" t="s">
         <v>882</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>883</v>
       </c>
       <c r="C12" s="51" t="s">
@@ -9895,7 +9906,7 @@
       <c r="A15" s="52" t="s">
         <v>919</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>918</v>
       </c>
       <c r="C15" s="52" t="s">
@@ -9906,7 +9917,7 @@
       <c r="A16" s="52" t="s">
         <v>921</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>922</v>
       </c>
       <c r="C16" s="52" t="s">
@@ -9917,7 +9928,7 @@
       <c r="A17" s="52" t="s">
         <v>925</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>924</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -10038,7 +10049,7 @@
       <c r="A28" s="52" t="s">
         <v>961</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="55" t="s">
         <v>960</v>
       </c>
       <c r="C28" s="52" t="s">
@@ -10049,7 +10060,7 @@
       <c r="A29" s="51" t="s">
         <v>966</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="54" t="s">
         <v>967</v>
       </c>
       <c r="C29" s="51" t="s">
@@ -10112,13 +10123,13 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="72.5">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="53" t="s">
         <v>853</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="53" t="s">
         <v>852</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="53" t="s">
         <v>862</v>
       </c>
     </row>
@@ -10236,7 +10247,7 @@
       <c r="A46" s="52" t="s">
         <v>980</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="55" t="s">
         <v>979</v>
       </c>
       <c r="C46" s="52" t="s">
@@ -10244,13 +10255,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="58">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="53" t="s">
         <v>906</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>907</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="53" t="s">
         <v>908</v>
       </c>
     </row>
@@ -10258,7 +10269,7 @@
       <c r="A48" s="52" t="s">
         <v>957</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>958</v>
       </c>
       <c r="C48" s="52" t="s">
@@ -10346,7 +10357,7 @@
       <c r="A56" s="52" t="s">
         <v>948</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="55" t="s">
         <v>950</v>
       </c>
       <c r="C56" s="52" t="s">
@@ -10386,7 +10397,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="57" customFormat="1" ht="58">
+    <row r="60" spans="1:3" s="56" customFormat="1" ht="58">
       <c r="A60" s="52" t="s">
         <v>963</v>
       </c>
@@ -10412,7 +10423,7 @@
       <c r="A62" s="52" t="s">
         <v>1115</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="55" t="s">
         <v>1116</v>
       </c>
       <c r="C62" s="52" t="s">
@@ -10486,13 +10497,13 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.5">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="53" t="s">
         <v>1000</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="53" t="s">
         <v>999</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="53" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -10519,13 +10530,13 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="72.5">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="53" t="s">
         <v>1013</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="53" t="s">
         <v>1014</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="53" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -10706,13 +10717,13 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="43.5">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="53" t="s">
         <v>1064</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B89" s="53" t="s">
         <v>1063</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="53" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -10970,13 +10981,13 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="72.5">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="53" t="s">
         <v>1149</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="53" t="s">
         <v>1148</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="53" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -11097,19 +11108,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="108" style="58" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="58"/>
+    <col min="1" max="1" width="28.7265625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="108" style="57" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11122,719 +11133,730 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="43.5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>1151</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>1152</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>1153</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="58">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>1154</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>1156</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="29">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>1158</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>1157</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>1159</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4" ht="58">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>1160</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>1161</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>1162</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="43.5">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>1164</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>1165</v>
       </c>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:4" s="62" customFormat="1" ht="43.5">
-      <c r="A7" s="67" t="s">
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:4" s="61" customFormat="1" ht="43.5">
+      <c r="A7" s="66" t="s">
         <v>1279</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>1280</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="62" customFormat="1" ht="72.5">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:4" s="61" customFormat="1" ht="72.5">
+      <c r="A8" s="59" t="s">
         <v>1179</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>1178</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="62" customFormat="1" ht="29">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:4" s="61" customFormat="1" ht="29">
+      <c r="A9" s="59" t="s">
         <v>1175</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>1174</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="58">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="67" customFormat="1" ht="43.5">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:4" s="66" customFormat="1" ht="43.5">
+      <c r="A11" s="66" t="s">
         <v>1251</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>1250</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="49.5">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="63"/>
     </row>
     <row r="13" spans="1:4" ht="72.5">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>1167</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>1166</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="59" t="s">
         <v>1177</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:4" ht="29">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>1172</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>1171</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="59" t="s">
         <v>1173</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:4" ht="43.5">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>1168</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="59" t="s">
         <v>1170</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="130.5">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>1192</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>1191</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="101.5">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>1190</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>1184</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>1196</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>1195</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>1198</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="59" t="s">
         <v>1197</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>1203</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="66" t="s">
         <v>1202</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="66" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="87">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>1206</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>1205</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>1209</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>1208</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="59" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>1224</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>1223</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="59" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>1217</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="66" t="s">
         <v>1218</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="66" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="145">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="66" t="s">
         <v>1220</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="66" t="s">
         <v>1221</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="66" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72.5">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>1211</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="59" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.5">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>1214</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="59" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.5">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="59" t="s">
         <v>1226</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="59" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="59" t="s">
         <v>1230</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="59" t="s">
         <v>1229</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="59" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="59" t="s">
         <v>1233</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="59" t="s">
         <v>1232</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="59" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.5">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="59" t="s">
         <v>1248</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>1247</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="59" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="59" t="s">
         <v>1235</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="59" t="s">
         <v>1236</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="59" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="202" customHeight="1">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>1256</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>1255</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="59" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="159.5">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="59" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="130.5">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="59" t="s">
         <v>1243</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>1242</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="59" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="59" t="s">
         <v>1245</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="59" t="s">
         <v>1244</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="59" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="145">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="59" t="s">
         <v>1253</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="59" t="s">
         <v>1254</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="59" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="58">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="59" t="s">
         <v>1160</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="59" t="s">
         <v>1259</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="59" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="104.5" customHeight="1">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="59" t="s">
         <v>1261</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>1262</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="59" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="130.5">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="59" t="s">
         <v>1263</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="59" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="120.5" customHeight="1">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="59" t="s">
         <v>1267</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="59" t="s">
         <v>1268</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="59" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="87">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="66" t="s">
         <v>1270</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="66" t="s">
         <v>1269</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="66" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="159.5">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="59" t="s">
         <v>1274</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="59" t="s">
         <v>1273</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="174">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="59" t="s">
         <v>1278</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="59" t="s">
         <v>1276</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="59" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="179.5" customHeight="1">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="59" t="s">
         <v>1284</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="59" t="s">
         <v>1282</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="59" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="261">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="66" t="s">
         <v>1285</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="66" t="s">
         <v>1286</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="101.5">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="58" t="s">
         <v>1290</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="58" t="s">
         <v>1289</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="29">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="58" t="s">
         <v>1292</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="58" t="s">
         <v>1291</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="29">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="59" t="s">
         <v>1295</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="59" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="72.5">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="59" t="s">
         <v>1297</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="59" t="s">
         <v>1298</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="59" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="59" t="s">
         <v>1301</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="59" t="s">
         <v>1300</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="59" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="58">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="59" t="s">
         <v>1303</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="59" t="s">
         <v>1302</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="59" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="44" customHeight="1">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="59" t="s">
         <v>1306</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="59" t="s">
         <v>1307</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="59" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="72.5">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="59" t="s">
         <v>1311</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="60" t="s">
         <v>1310</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="59" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="130.5">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="59" t="s">
         <v>1312</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="59" t="s">
         <v>1313</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="59" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="58">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="59" t="s">
         <v>1316</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="59" t="s">
         <v>1315</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="59" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="59" t="s">
         <v>1320</v>
       </c>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="59" t="s">
         <v>1318</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="59" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="88.5" customHeight="1">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="59" t="s">
         <v>1322</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="59" t="s">
         <v>1321</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="59" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="43.5">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="59" t="s">
         <v>1324</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="59" t="s">
         <v>1325</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="59" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72.5">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="59" t="s">
         <v>1328</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="59" t="s">
         <v>1327</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="59" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="101.5">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="59" t="s">
         <v>1331</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="59" t="s">
         <v>1330</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="59" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.5">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="59" t="s">
         <v>1345</v>
       </c>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="59" t="s">
         <v>1346</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="59" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="29">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="59" t="s">
         <v>1349</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="59" t="s">
         <v>1348</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="59" t="s">
         <v>1350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="133" customHeight="1">
+      <c r="A67" s="59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>1353</v>
       </c>
     </row>
   </sheetData>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B2042-8087-43B2-B9EA-032C74CF0718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213FAA22-E23D-4733-BAB2-FA8B8A868C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
-    <sheet name="Strings-28" sheetId="3" r:id="rId2"/>
+    <sheet name="Strings-30" sheetId="3" r:id="rId2"/>
     <sheet name="Recursion &amp; Backtracking-37" sheetId="2" r:id="rId3"/>
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
     <sheet name="Linked List -31" sheetId="5" r:id="rId5"/>
     <sheet name="Trees-112" sheetId="6" r:id="rId6"/>
-    <sheet name="Graphs" sheetId="7" r:id="rId7"/>
+    <sheet name="Graphs-64" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DP-102'!$A$1:$C$21</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1357">
   <si>
     <t>Topic</t>
   </si>
@@ -5084,6 +5084,15 @@
     <t>BFS+Toplogical sort -&gt;
 Here what we doing is first consider this as tree where we passing all color information from root to leaf(parent to child node). Here root node is nothing but node which having indegree value 0.So we will start apply BFS to those node and calculate most frequent color value at that node and store it in maxColorValue. Now node is ready pass this information to its child. while passing node we have to take maximum color count between parent and child node. Once edge case is if color of child is same as color which we are passing then we have to add +1 in it as every child has it own color.once we finish that check if indegree of child is 0 if it is then this child is taken color information from all its parent so we can add it in queue else check next node. Keep repeating this untill queue becomes empty and return maxColorValue at the end which store most frequent color at every node.
 video link -&gt; https://youtu.be/pSBFqxRVQC0</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/removing-stars-from-a-string/</t>
+  </si>
+  <si>
+    <t>Removing Stars From a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create string builder to perform remove and add functionalities . Iterate over every char in string and check if current char is * then remove last element in string else add it. And at the end return string </t>
   </si>
 </sst>
 </file>
@@ -6115,9 +6124,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7038,11 +7047,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:C27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7428,52 +7437,64 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="43.5">
+      <c r="A28" s="18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A29" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B29" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A29" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="43.5">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="43.5">
+      <c r="A31" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>631</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B27" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7486,7 +7507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7968,7 +7989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9329,7 +9350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9737,7 +9758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11110,9 +11131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213FAA22-E23D-4733-BAB2-FA8B8A868C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C944064-12CC-493B-9B08-AC30086ED729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1360">
   <si>
     <t>Topic</t>
   </si>
@@ -5093,6 +5093,20 @@
   </si>
   <si>
     <t xml:space="preserve">Create string builder to perform remove and add functionalities . Iterate over every char in string and check if current char is * then remove last element in string else add it. And at the end return string </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/simplify-path/</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Here we have to perform basic unix command opertion on file/folder
+ So, basically what are we doing:-Pushing and Popping directory names based on rules And what are the rules :-
+/.. come out from the directory
+/nameOfDirectory going into directory
+first split string based on '/' so we can push element in stack. Then iterate over splitted string array. if you encounter '..' then pop out element of if you encounter any letter then push in stack.
+while returning we have to go in the form of reverse order. Because Stack use LIFO order and the highest one will comes out. But we need the lowest once first. So, we need to append in the carefull manner. so if stack contains -&gt; c|b|a then we should return -&gt; /a/b/c</t>
   </si>
 </sst>
 </file>
@@ -7047,11 +7061,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7448,53 +7462,65 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="116">
+      <c r="A29" s="18" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A30" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A30" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="43.5">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="43.5">
+      <c r="A32" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>631</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B27" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B28" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -11131,7 +11157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C944064-12CC-493B-9B08-AC30086ED729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885DFE7-F309-4B6B-90B2-D56257C2E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1363">
   <si>
     <t>Topic</t>
   </si>
@@ -5107,6 +5107,15 @@
 /nameOfDirectory going into directory
 first split string based on '/' so we can push element in stack. Then iterate over splitted string array. if you encounter '..' then pop out element of if you encounter any letter then push in stack.
 while returning we have to go in the form of reverse order. Because Stack use LIFO order and the highest one will comes out. But we need the lowest once first. So, we need to append in the carefull manner. so if stack contains -&gt; c|b|a then we should return -&gt; /a/b/c</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-stack-sequences/</t>
+  </si>
+  <si>
+    <t>Validate Stack Sequences</t>
+  </si>
+  <si>
+    <t>In this problem we have given pushed and popped number and we need to check if after adding and removing numbers from stack If stack becomes empty or not i.e. we can perform the operation or not. So start pushing number in stack and check if current pop number is same as pushed number if yes then pop that element and do this till condition matches. at the end check if stack is empty or not and return ans based on that (refer code)</t>
   </si>
 </sst>
 </file>
@@ -7061,18 +7070,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="121.81640625" style="2" customWidth="1"/>
     <col min="4" max="6" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7473,54 +7482,66 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="58">
+      <c r="A30" s="18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A31" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A31" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="43.5">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="43.5">
+      <c r="A33" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>631</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B27" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B28" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B29" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
+    <hyperlink ref="B30" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -8014,8 +8035,8 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885DFE7-F309-4B6B-90B2-D56257C2E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE5734-AD14-463A-A6CB-F4EF2617EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1366">
   <si>
     <t>Topic</t>
   </si>
@@ -5116,6 +5116,18 @@
   </si>
   <si>
     <t>In this problem we have given pushed and popped number and we need to check if after adding and removing numbers from stack If stack becomes empty or not i.e. we can perform the operation or not. So start pushing number in stack and check if current pop number is same as pushed number if yes then pop that element and do this till condition matches. at the end check if stack is empty or not and return ans based on that (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-value-of-k-coins-from-piles/</t>
+  </si>
+  <si>
+    <t>Maximum Value of K Coins From Piles</t>
+  </si>
+  <si>
+    <t>So basically we have to move from 0 to n-1 piles and at every step we have two choices 
+    1. skip current pile and move to next pile that is i+1
+    2. in this step we can take 1 coin or 2 coin or 3 coin .... upto k coins from current pile so we will iterate through for loop for this. store coin sum whenever we pick from current pile and move to next pile
+ at the end return max out of both choice. at every coin picking time take max (Refer Code)</t>
   </si>
 </sst>
 </file>
@@ -5431,14 +5443,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5559,9 +5565,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5598,9 +5601,6 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5613,7 +5613,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6154,889 +6154,889 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.36328125" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="13"/>
+    <col min="1" max="1" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.36328125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="35" customFormat="1" ht="43.5">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.5">
+      <c r="A2" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A3" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A4" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="36" customFormat="1" ht="43.5">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A5" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A6" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A7" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A9" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A10" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A11" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="36" customFormat="1" ht="58">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A12" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A13" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A14" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="36" customFormat="1" ht="87">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:3" s="34" customFormat="1" ht="87">
+      <c r="A15" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="36" customFormat="1" ht="43.5">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A16" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="36" customFormat="1" ht="43.5">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A17" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="36" customFormat="1" ht="43.5">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A18" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A19" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="36" customFormat="1" ht="43.5">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A20" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A21" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A22" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A23" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A24" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="36" customFormat="1" ht="29">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A25" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A26" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A27" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A28" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A29" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A30" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A31" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A32" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A33" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A34" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A35" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A36" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A37" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A38" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="16" customFormat="1" ht="72.5">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A39" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A40" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A41" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="16" customFormat="1" ht="101.5">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A42" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A43" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A44" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A45" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A46" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A47" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A48" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A49" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="36" customFormat="1" ht="43.5">
-      <c r="A50" s="36" t="s">
+    <row r="50" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A50" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A51" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A52" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A53" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A54" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A55" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="87">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A56" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A57" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A58" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A59" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A60" s="67" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A60" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A61" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A62" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="72.5">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A63" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A64" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="16" customFormat="1" ht="58">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A65" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="101.5">
-      <c r="A66" s="16" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A66" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A67" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="16" customFormat="1" ht="43.5">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A68" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="16" customFormat="1" ht="87">
-      <c r="A69" s="18" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A69" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="16" customFormat="1" ht="29">
-      <c r="A70" s="18" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A70" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="72.5">
-      <c r="A71" s="18" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A71" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A72" s="34" t="s">
+    <row r="72" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A72" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="32" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A73" s="34" t="s">
+    <row r="73" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A73" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="32" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="34" customFormat="1" ht="87">
-      <c r="A74" s="34" t="s">
+    <row r="74" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A74" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="32" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A75" s="34" t="s">
+    <row r="75" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A75" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A76" s="34" t="s">
+    <row r="76" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A76" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="32" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="34" customFormat="1" ht="101.5">
-      <c r="A77" s="34" t="s">
+    <row r="77" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A77" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="32" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="34" customFormat="1" ht="72.5">
-      <c r="A78" s="34" t="s">
+    <row r="78" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A78" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="32" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A79" s="34" t="s">
+    <row r="79" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A79" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="34" customFormat="1" ht="58">
-      <c r="A80" s="34" t="s">
+    <row r="80" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A80" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="32" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7072,463 +7072,382 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="121.81640625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.81640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A4" s="39" t="s">
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="72.5">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="33">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="87">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="130.5">
-      <c r="A17" s="18" t="s">
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="159.5">
+      <c r="A17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A18" s="18" t="s">
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A19" s="18" t="s">
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A20" s="18" t="s">
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A21" s="18" t="s">
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A22" s="18" t="s">
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A23" s="18" t="s">
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="101.5">
-      <c r="A24" s="18" t="s">
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="116">
+      <c r="A24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A25" s="18" t="s">
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="72.5">
+      <c r="A25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A26" s="18" t="s">
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="87">
-      <c r="A27" s="18" t="s">
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="87">
+      <c r="A27" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>1340</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="43.5">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A28" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="116">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="116">
+      <c r="A29" s="16" t="s">
         <v>1358</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="44" t="s">
         <v>1357</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="58">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A30" s="16" t="s">
         <v>1361</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="44" t="s">
         <v>1360</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A31" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A32" s="20" t="s">
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A32" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="43.5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>631</v>
       </c>
     </row>
@@ -7559,467 +7478,466 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="150.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="150.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="16.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="43.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="115.5">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="58">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="115.5">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="99">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="66">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="115.5">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="99">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8032,1259 +7950,1270 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="112.6328125" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="11"/>
+    <col min="1" max="1" width="27.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="112.6328125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="13" customFormat="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" s="11" customFormat="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="45" customFormat="1" ht="29">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:21" s="42" customFormat="1" ht="29">
+      <c r="A2" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" s="45" customFormat="1" ht="29">
-      <c r="A3" s="44" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:21" s="42" customFormat="1" ht="29">
+      <c r="A3" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-    </row>
-    <row r="4" spans="1:21" s="45" customFormat="1" ht="29">
-      <c r="A4" s="44" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" s="42" customFormat="1" ht="29">
+      <c r="A4" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-    </row>
-    <row r="5" spans="1:21" s="45" customFormat="1" ht="43.5">
-      <c r="A5" s="44" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+    </row>
+    <row r="5" spans="1:21" s="42" customFormat="1" ht="43.5">
+      <c r="A5" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
     </row>
     <row r="6" spans="1:21" ht="72.5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="101.5">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="13" customFormat="1" ht="116">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:21" s="11" customFormat="1" ht="116">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
     </row>
     <row r="9" spans="1:21" ht="43.5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="87">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="58">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="116">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="29">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="29">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="29">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="87">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="43.5">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="43.5">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="58">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="87">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="42" customFormat="1" ht="101.5">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:21" s="40" customFormat="1" ht="101.5">
+      <c r="A21" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="101.5">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="58">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="58">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="43.5">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="72.5">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="87">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="58">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="41" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="101.5">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>477</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="39" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="43.5">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="58">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="39" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="58">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="130.5">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.5">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="43" customFormat="1" ht="58">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:3" ht="58">
+      <c r="A35" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="43" customFormat="1" ht="90.5" customHeight="1">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:3" ht="90.5" customHeight="1">
+      <c r="A36" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="44" t="s">
         <v>698</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="43.5">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="44" t="s">
         <v>558</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" customHeight="1">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="58">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="29">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="87">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.5">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="58">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.5">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="43.5">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="87">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="39" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="43.5">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="72.5">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="58">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="39" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.5">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="58">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="39" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="58">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="39" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="87">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="39" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="101.5">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="39" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="43.5">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="87">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="43.5">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.5">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="58">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48" customHeight="1">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="43.5">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="58">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.5">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="43.5">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.5">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="43.5">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.5">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="16" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="58">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="29">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="44" t="s">
         <v>686</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="87">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="16" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="58">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="39" t="s">
         <v>603</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="39" t="s">
         <v>602</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="39" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="58">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="39" t="s">
         <v>606</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="39" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="101.5">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="43.5">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="39" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="43.5">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="58">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="39" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="43.5">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="39" t="s">
         <v>626</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="39" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="43.5">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="39" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="39" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="43.5">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="39" t="s">
         <v>642</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="39" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="87">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.5">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="44" t="s">
         <v>689</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="16" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="43.5">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="39" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="72.5">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="16" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="87">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="B88" s="47" t="s">
+      <c r="B88" s="44" t="s">
         <v>705</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="16" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="43.5">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="16" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="43.5">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="16" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="43.5">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="16" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.5">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="39" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="43.5">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="16" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="72.5">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="16" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="87">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="16" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="43.5">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="16" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="43.5">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="16" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="29">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="39" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="58">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="16" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="51" customHeight="1">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="16" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="72.5">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="16" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="116">
-      <c r="A102" s="41" t="s">
+      <c r="A102" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="39" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="145">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="39" t="s">
         <v>718</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="72.5">
+      <c r="A104" s="39" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B104" s="39" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -9384,10 +9313,11 @@
     <hyperlink ref="B101" r:id="rId93" xr:uid="{382F5ED4-CE33-4408-B171-59576254F419}"/>
     <hyperlink ref="B102" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
     <hyperlink ref="B103" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
+    <hyperlink ref="B104" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId96"/>
-  <drawing r:id="rId97"/>
+  <pageSetup orientation="portrait" r:id="rId97"/>
+  <drawing r:id="rId98"/>
 </worksheet>
 </file>
 
@@ -9402,361 +9332,361 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="114.54296875" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="50"/>
+    <col min="1" max="1" width="25.90625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="114.54296875" style="47" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>720</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>719</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="48" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.5">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="58">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>729</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="49" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>731</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="58">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.5">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>737</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="58">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>741</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>740</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="49" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="58">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>743</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="48" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72.5">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="48" t="s">
         <v>750</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="48" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="58">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="49" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.5">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>755</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="58">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>759</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="87">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>761</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="49" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="48" t="s">
         <v>764</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="48" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>768</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.5">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="48" t="s">
         <v>770</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>771</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="48" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>773</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="49" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>801</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>800</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="49" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>776</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="49" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="72.5">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="49" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.5">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="49" t="s">
         <v>785</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="49" t="s">
         <v>786</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="49" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.5">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="49" t="s">
         <v>789</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="49" t="s">
         <v>788</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="49" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.5">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="49" t="s">
         <v>783</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="49" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="49" t="s">
         <v>792</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="49" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="58">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>798</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="49" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.5">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="49" t="s">
         <v>794</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="49" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="58">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="49" t="s">
         <v>804</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="49" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>806</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="50" t="s">
         <v>807</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="50" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="58">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="49" t="s">
         <v>810</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="49" t="s">
         <v>809</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="49" t="s">
         <v>811</v>
       </c>
     </row>
@@ -9810,1252 +9740,1252 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="110.26953125" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="50"/>
+    <col min="1" max="1" width="29.26953125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="110.26953125" style="47" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="101.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="48" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="116">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>814</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>817</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>820</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>823</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>973</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="51" t="s">
         <v>972</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.5">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>825</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>829</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>828</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="48" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>952</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="50" t="s">
         <v>951</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.5">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="48" t="s">
         <v>955</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>954</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="48" t="s">
         <v>882</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="51" t="s">
         <v>883</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="48" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>904</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>903</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="48" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>910</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>909</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>918</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="49" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="58">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>921</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>922</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="49" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="49" t="s">
         <v>925</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>924</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="49" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="48" t="s">
         <v>832</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>831</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.5">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="49" t="s">
         <v>873</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>874</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="49" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72.5">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>877</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>876</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="49" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="48" t="s">
         <v>835</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>834</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="48" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48" t="s">
         <v>837</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="48" t="s">
         <v>838</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="48" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.5">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>840</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>841</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="48" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="48" t="s">
         <v>886</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="48" t="s">
         <v>885</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="48" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="58">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="49" t="s">
         <v>844</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="49" t="s">
         <v>843</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="49" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.5">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>879</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="49" t="s">
         <v>880</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="49" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>847</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="49" t="s">
         <v>846</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="49" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.5">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="52" t="s">
         <v>960</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="49" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="51" customFormat="1" ht="43.5">
-      <c r="A29" s="51" t="s">
+    <row r="29" spans="1:3" s="48" customFormat="1" ht="43.5">
+      <c r="A29" s="48" t="s">
         <v>966</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="51" t="s">
         <v>967</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="48" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="51" customFormat="1" ht="43.5">
-      <c r="A30" s="52" t="s">
+    <row r="30" spans="1:3" s="48" customFormat="1" ht="43.5">
+      <c r="A30" s="49" t="s">
         <v>1003</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="49" t="s">
         <v>1002</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="49" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="51" customFormat="1" ht="43.5">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:3" s="48" customFormat="1" ht="43.5">
+      <c r="A31" s="49" t="s">
         <v>970</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="49" t="s">
         <v>969</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="49" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="51" customFormat="1" ht="29">
-      <c r="A32" s="52" t="s">
+    <row r="32" spans="1:3" s="48" customFormat="1" ht="29">
+      <c r="A32" s="49" t="s">
         <v>1119</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="49" t="s">
         <v>1118</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="49" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="51" customFormat="1" ht="29">
-      <c r="A33" s="52" t="s">
+    <row r="33" spans="1:3" s="48" customFormat="1" ht="29">
+      <c r="A33" s="49" t="s">
         <v>1133</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="49" t="s">
         <v>1134</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="49" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="49" t="s">
         <v>849</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="49" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="72.5">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="50" t="s">
         <v>852</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="72.5">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>855</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="49" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="58">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="49" t="s">
         <v>858</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="49" t="s">
         <v>856</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="49" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>857</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="49" t="s">
         <v>859</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="49" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="58">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>861</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>860</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="49" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="58">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="48" t="s">
         <v>867</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="48" t="s">
         <v>868</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="48" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="87">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="49" t="s">
         <v>871</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="49" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.5">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="49" t="s">
         <v>889</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="49" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="58">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="49" t="s">
         <v>892</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="49" t="s">
         <v>891</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="49" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="72.5">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="49" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="58">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="49" t="s">
         <v>899</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="49" t="s">
         <v>898</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="49" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="58">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="49" t="s">
         <v>980</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="52" t="s">
         <v>979</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="49" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="58">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="50" t="s">
         <v>906</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="50" t="s">
         <v>907</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="50" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="58">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="52" t="s">
         <v>958</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="49" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="58">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="49" t="s">
         <v>901</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="49" t="s">
         <v>900</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="49" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="87">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="49" t="s">
         <v>913</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>912</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="49" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="58">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="49" t="s">
         <v>916</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="49" t="s">
         <v>915</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="49" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="58">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="49" t="s">
         <v>928</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="49" t="s">
         <v>927</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="49" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="87">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="49" t="s">
         <v>931</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="49" t="s">
         <v>930</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="49" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="49" t="s">
         <v>934</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="49" t="s">
         <v>933</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="49" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.5">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="49" t="s">
         <v>937</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="49" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="29">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="49" t="s">
         <v>948</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="52" t="s">
         <v>950</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="49" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="43.5">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="49" t="s">
         <v>939</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="49" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="43.5">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="49" t="s">
         <v>942</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="49" t="s">
         <v>943</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="49" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="101.5">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="49" t="s">
         <v>946</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="49" t="s">
         <v>945</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="49" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="56" customFormat="1" ht="58">
-      <c r="A60" s="52" t="s">
+    <row r="60" spans="1:3" ht="58">
+      <c r="A60" s="49" t="s">
         <v>963</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="49" t="s">
         <v>964</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="49" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.5">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="49" t="s">
         <v>976</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="49" t="s">
         <v>975</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="49" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="43.5">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="49" t="s">
         <v>1115</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="52" t="s">
         <v>1116</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="49" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="29">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="48" t="s">
         <v>981</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="48" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.5">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="49" t="s">
         <v>984</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>985</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="49" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="58">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="49" t="s">
         <v>989</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="49" t="s">
         <v>988</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="49" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="29">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="48" t="s">
         <v>991</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="48" t="s">
         <v>990</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="48" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.5">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="48" t="s">
         <v>994</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="48" t="s">
         <v>993</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="48" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="43.5">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="48" t="s">
         <v>997</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="48" t="s">
         <v>996</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="48" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.5">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="50" t="s">
         <v>1000</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="50" t="s">
         <v>999</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="50" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="49" t="s">
         <v>1007</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="49" t="s">
         <v>1008</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="49" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="43.5">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="49" t="s">
         <v>1011</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>1010</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="49" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72.5">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="50" t="s">
         <v>1013</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="50" t="s">
         <v>1014</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="50" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="29">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="48" t="s">
         <v>1016</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="48" t="s">
         <v>1017</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="48" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="43.5">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="49" t="s">
         <v>1020</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="49" t="s">
         <v>1019</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="49" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="49" t="s">
         <v>1023</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="49" t="s">
         <v>1022</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="49" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="53.5" customHeight="1">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="48" t="s">
         <v>1055</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="48" t="s">
         <v>1056</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="48" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="58">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="49" t="s">
         <v>1026</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="49" t="s">
         <v>1025</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="49" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="87">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="49" t="s">
         <v>1028</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="49" t="s">
         <v>1029</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="49" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.5">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="49" t="s">
         <v>1032</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="49" t="s">
         <v>1031</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="49" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="29">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="49" t="s">
         <v>1035</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="49" t="s">
         <v>1034</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="49" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="43.5">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="49" t="s">
         <v>1037</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="49" t="s">
         <v>1038</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="49" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="49" t="s">
         <v>1041</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="49" t="s">
         <v>1040</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="49" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="43.5">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="49" t="s">
         <v>1043</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="49" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="29">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="48" t="s">
         <v>1047</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="48" t="s">
         <v>1046</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="48" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="72.5">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="49" t="s">
         <v>1050</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="49" t="s">
         <v>1049</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="49" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="43.5">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="48" t="s">
         <v>1052</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="48" t="s">
         <v>1053</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="48" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="87">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="49" t="s">
         <v>1059</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="49" t="s">
         <v>1058</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="49" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="101.5">
-      <c r="A88" s="52" t="s">
+      <c r="A88" s="49" t="s">
         <v>1061</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="49" t="s">
         <v>1062</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="49" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="43.5">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="50" t="s">
         <v>1064</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="50" t="s">
         <v>1063</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="50" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="29">
-      <c r="A90" s="51" t="s">
+      <c r="A90" s="48" t="s">
         <v>1068</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="48" t="s">
         <v>1067</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="48" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="43.5">
-      <c r="A91" s="51" t="s">
+      <c r="A91" s="48" t="s">
         <v>1071</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="48" t="s">
         <v>1070</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="48" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.5">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="48" t="s">
         <v>1074</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="48" t="s">
         <v>1073</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="48" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="58">
-      <c r="A93" s="52" t="s">
+      <c r="A93" s="49" t="s">
         <v>1077</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="49" t="s">
         <v>1076</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="49" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="29">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="49" t="s">
         <v>1080</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="49" t="s">
         <v>1079</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="49" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="29">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="49" t="s">
         <v>1082</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="49" t="s">
         <v>1081</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="49" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A96" s="52" t="s">
+      <c r="A96" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="49" t="s">
         <v>1086</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="49" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="58">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="49" t="s">
         <v>1089</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="49" t="s">
         <v>1088</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="49" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="58">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="49" t="s">
         <v>1092</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="49" t="s">
         <v>1091</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="49" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="58">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="49" t="s">
         <v>1095</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="49" t="s">
         <v>1094</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="49" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="58">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="49" t="s">
         <v>1098</v>
       </c>
-      <c r="B100" s="52" t="s">
+      <c r="B100" s="49" t="s">
         <v>1097</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="49" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="58">
-      <c r="A101" s="52" t="s">
+      <c r="A101" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="49" t="s">
         <v>1099</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="49" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="29">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="49" t="s">
         <v>1106</v>
       </c>
-      <c r="B102" s="52" t="s">
+      <c r="B102" s="49" t="s">
         <v>1107</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="49" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="43.5">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="49" t="s">
         <v>1109</v>
       </c>
-      <c r="B103" s="52" t="s">
+      <c r="B103" s="49" t="s">
         <v>1110</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="49" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="43.5">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="49" t="s">
         <v>1111</v>
       </c>
-      <c r="B104" s="52" t="s">
+      <c r="B104" s="49" t="s">
         <v>1112</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="49" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="43.5">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="49" t="s">
         <v>1122</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="49" t="s">
         <v>1121</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="49" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="72.5">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="49" t="s">
         <v>1124</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="49" t="s">
         <v>1125</v>
       </c>
-      <c r="C106" s="52" t="s">
+      <c r="C106" s="49" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="49" t="s">
         <v>1128</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="49" t="s">
         <v>1127</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="49" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="58">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="49" t="s">
         <v>1131</v>
       </c>
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="49" t="s">
         <v>1130</v>
       </c>
-      <c r="C108" s="52" t="s">
+      <c r="C108" s="49" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="43.5">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="49" t="s">
         <v>1136</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="49" t="s">
         <v>1137</v>
       </c>
-      <c r="C109" s="52" t="s">
+      <c r="C109" s="49" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="43.5">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="49" t="s">
         <v>1139</v>
       </c>
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="49" t="s">
         <v>1140</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="49" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="43.5">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="49" t="s">
         <v>1142</v>
       </c>
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="49" t="s">
         <v>1143</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="49" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="29">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="49" t="s">
         <v>1145</v>
       </c>
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="49" t="s">
         <v>1146</v>
       </c>
-      <c r="C112" s="52" t="s">
+      <c r="C112" s="49" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="72.5">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="50" t="s">
         <v>1149</v>
       </c>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="50" t="s">
         <v>1148</v>
       </c>
-      <c r="C113" s="53" t="s">
+      <c r="C113" s="50" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -11185,745 +11115,745 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="108" style="57" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="57"/>
+    <col min="1" max="1" width="28.7265625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="108" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" ht="43.5">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>1151</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="54" t="s">
         <v>1152</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="54" t="s">
         <v>1153</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" ht="58">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="54" t="s">
         <v>1155</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>1154</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="54" t="s">
         <v>1156</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" ht="29">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="54" t="s">
         <v>1158</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="54" t="s">
         <v>1157</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>1159</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" ht="58">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>1160</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="55" t="s">
         <v>1161</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="55" t="s">
         <v>1162</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" ht="43.5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>1163</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="56" t="s">
         <v>1164</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="55" t="s">
         <v>1165</v>
       </c>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:4" s="61" customFormat="1" ht="43.5">
-      <c r="A7" s="66" t="s">
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:4" s="57" customFormat="1" ht="43.5">
+      <c r="A7" s="62" t="s">
         <v>1279</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="62" t="s">
         <v>1280</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="62" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="61" customFormat="1" ht="72.5">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:4" s="57" customFormat="1" ht="72.5">
+      <c r="A8" s="55" t="s">
         <v>1179</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="56" t="s">
         <v>1178</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="61" customFormat="1" ht="29">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:4" s="57" customFormat="1" ht="29">
+      <c r="A9" s="55" t="s">
         <v>1175</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="56" t="s">
         <v>1174</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="55" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="58">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="55" t="s">
         <v>1180</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="55" t="s">
         <v>1181</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="55" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="66" customFormat="1" ht="43.5">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:4" s="62" customFormat="1" ht="43.5">
+      <c r="A11" s="62" t="s">
         <v>1251</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="62" t="s">
         <v>1250</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="62" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="49.5">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="49.5">
+      <c r="A12" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:4" ht="72.5">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="55" t="s">
         <v>1167</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="55" t="s">
         <v>1166</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="55" t="s">
         <v>1177</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" ht="29">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>1172</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>1171</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="55" t="s">
         <v>1173</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" ht="43.5">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="55" t="s">
         <v>1169</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="55" t="s">
         <v>1168</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="55" t="s">
         <v>1170</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" ht="130.5">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="55" t="s">
         <v>1192</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="55" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="55" t="s">
         <v>1188</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="55" t="s">
         <v>1187</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="55" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="101.5">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="55" t="s">
         <v>1190</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="55" t="s">
         <v>1189</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="55" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="55" t="s">
         <v>1185</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="55" t="s">
         <v>1184</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="55" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="55" t="s">
         <v>1196</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="55" t="s">
         <v>1195</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="55" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>1198</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="55" t="s">
         <v>1197</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="55" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="62" t="s">
         <v>1203</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>1202</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="62" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="87">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="55" t="s">
         <v>1206</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="55" t="s">
         <v>1205</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="55" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="55" t="s">
         <v>1209</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="55" t="s">
         <v>1208</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="55" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="55" t="s">
         <v>1224</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="55" t="s">
         <v>1223</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="55" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="62" t="s">
         <v>1217</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="62" t="s">
         <v>1218</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="62" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="145">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="62" t="s">
         <v>1220</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="62" t="s">
         <v>1221</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="62" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72.5">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="55" t="s">
         <v>1211</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="55" t="s">
         <v>1212</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="55" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.5">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="55" t="s">
         <v>1214</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="55" t="s">
         <v>1215</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="55" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.5">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="55" t="s">
         <v>1227</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="55" t="s">
         <v>1226</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="55" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="55" t="s">
         <v>1230</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="55" t="s">
         <v>1229</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="55" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="55" t="s">
         <v>1233</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="55" t="s">
         <v>1232</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="55" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.5">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="55" t="s">
         <v>1248</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="55" t="s">
         <v>1247</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="55" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="55" t="s">
         <v>1235</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>1236</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="55" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="202" customHeight="1">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="55" t="s">
         <v>1256</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>1255</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="55" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="159.5">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="55" t="s">
         <v>1237</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="55" t="s">
         <v>1238</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="55" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="130.5">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="55" t="s">
         <v>1243</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="55" t="s">
         <v>1242</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="55" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="55" t="s">
         <v>1245</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="55" t="s">
         <v>1244</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="55" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="145">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="55" t="s">
         <v>1253</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="55" t="s">
         <v>1254</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="55" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="58">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="55" t="s">
         <v>1160</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="55" t="s">
         <v>1259</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="55" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="104.5" customHeight="1">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="55" t="s">
         <v>1261</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="55" t="s">
         <v>1262</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="55" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="130.5">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="55" t="s">
         <v>1264</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="55" t="s">
         <v>1263</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="55" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="120.5" customHeight="1">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="55" t="s">
         <v>1267</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="55" t="s">
         <v>1268</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="55" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="87">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="62" t="s">
         <v>1270</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="62" t="s">
         <v>1269</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="62" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="159.5">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="55" t="s">
         <v>1274</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="55" t="s">
         <v>1273</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="55" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="174">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="55" t="s">
         <v>1278</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="55" t="s">
         <v>1276</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="55" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="179.5" customHeight="1">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="55" t="s">
         <v>1284</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="55" t="s">
         <v>1282</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="55" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="261">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="62" t="s">
         <v>1285</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="62" t="s">
         <v>1286</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="62" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="101.5">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="54" t="s">
         <v>1290</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="54" t="s">
         <v>1289</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="54" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="29">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="54" t="s">
         <v>1292</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="54" t="s">
         <v>1291</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="54" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="29">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="55" t="s">
         <v>1294</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="55" t="s">
         <v>1295</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="55" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="72.5">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="55" t="s">
         <v>1297</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="55" t="s">
         <v>1298</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="55" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="55" t="s">
         <v>1301</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="55" t="s">
         <v>1300</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="55" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="58">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="55" t="s">
         <v>1303</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="55" t="s">
         <v>1302</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="55" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="44" customHeight="1">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="55" t="s">
         <v>1306</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="55" t="s">
         <v>1307</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="55" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="72.5">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="55" t="s">
         <v>1311</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="56" t="s">
         <v>1310</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="55" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="130.5">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="55" t="s">
         <v>1312</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="55" t="s">
         <v>1313</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="55" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="58">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="55" t="s">
         <v>1316</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="55" t="s">
         <v>1315</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="55" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="55" t="s">
         <v>1320</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="55" t="s">
         <v>1318</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="55" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="88.5" customHeight="1">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="55" t="s">
         <v>1322</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="55" t="s">
         <v>1321</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="55" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="43.5">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="55" t="s">
         <v>1324</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="55" t="s">
         <v>1325</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="55" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72.5">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="55" t="s">
         <v>1328</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="55" t="s">
         <v>1327</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="55" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="101.5">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="55" t="s">
         <v>1331</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="55" t="s">
         <v>1330</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="55" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.5">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="55" t="s">
         <v>1345</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="55" t="s">
         <v>1346</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="55" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="29">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="55" t="s">
         <v>1349</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="55" t="s">
         <v>1348</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="55" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="133" customHeight="1">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="55" t="s">
         <v>1352</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="55" t="s">
         <v>1351</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="55" t="s">
         <v>1353</v>
       </c>
     </row>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE5734-AD14-463A-A6CB-F4EF2617EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4EDD3-CFE3-49B9-8999-F6A08E866E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1372">
   <si>
     <t>Topic</t>
   </si>
@@ -5128,6 +5128,27 @@
     1. skip current pile and move to next pile that is i+1
     2. in this step we can take 1 coin or 2 coin or 3 coin .... upto k coins from current pile so we will iterate through for loop for this. store coin sum whenever we pick from current pile and move to next pile
  at the end return max out of both choice. at every coin picking time take max (Refer Code)</t>
+  </si>
+  <si>
+    <t>Number of Ways to Form a Target String Given a Dictionary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-form-a-target-string-given-a-dictionary/</t>
+  </si>
+  <si>
+    <t>Problem Statement - we have to form target string from given words. so if we pick words[0][k] then we cant pick any char at words[1][k] or words[2][k]....words[j][k] and also if we pick words[j][k] then we cant pick words[j][0] to words[j][k] so in short we have to pick from left to right we cant go back. 
+so at every step we have two choice 1. skip current index of word for every word in words and move for next 2. if target(i) == words[j][k] then pick that element and move to next
+To reduce TC we can pre calculate the frequency of each char at particular index for example char 'a' occurs how many times at index 0 in every word in words array. So instead of apply recusrive call evertime where target(i) == words[j][k] we can apply simply count * helper() at only once (Refer Code)</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cousins-in-binary-tree-ii/</t>
+  </si>
+  <si>
+    <t>simplified -&gt; if we want sum of cousins for current node then simply we can do subtraction of current level sum - sum of children of current node's parent 
+Run BFS and calculate current level sum using level wise technique also keep track of node and its child using map. so at every node we can exclude its sibling sum from lastlevelchildsum so we can get sum of its cousins and store it in node value. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -6148,8 +6169,8 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7074,7 +7095,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7473,7 +7494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7950,11 +7971,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U104"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9214,6 +9235,17 @@
       </c>
       <c r="C104" s="39" t="s">
         <v>1365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="116">
+      <c r="A105" s="39" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -9314,10 +9346,11 @@
     <hyperlink ref="B102" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
     <hyperlink ref="B103" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
     <hyperlink ref="B104" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
+    <hyperlink ref="B105" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId97"/>
-  <drawing r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId98"/>
+  <drawing r:id="rId99"/>
 </worksheet>
 </file>
 
@@ -9731,11 +9764,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10987,6 +11020,17 @@
       </c>
       <c r="C113" s="50" t="s">
         <v>1150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="57.5" customHeight="1">
+      <c r="A114" s="50" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>1371</v>
       </c>
     </row>
   </sheetData>
@@ -11098,9 +11142,10 @@
     <hyperlink ref="B110" r:id="rId105" xr:uid="{5F5DA0EE-B481-4B34-BD6F-CDAFAB9C2EC8}"/>
     <hyperlink ref="B111" r:id="rId106" xr:uid="{1909526D-E98E-4543-987E-6CBCEC02A9CA}"/>
     <hyperlink ref="B112" r:id="rId107" xr:uid="{09B6091E-7554-4382-8C38-585EB0FE9617}"/>
+    <hyperlink ref="B114" r:id="rId108" xr:uid="{82F73429-61AC-4E67-BD5E-043552A614E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId108"/>
+  <pageSetup orientation="portrait" r:id="rId109"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4EDD3-CFE3-49B9-8999-F6A08E866E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46002A-8F63-4EE8-AF3D-41C3218B426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Graphs-64" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DP-102'!$A$1:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DP-102'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1375">
   <si>
     <t>Topic</t>
   </si>
@@ -5149,6 +5149,18 @@
   <si>
     <t>simplified -&gt; if we want sum of cousins for current node then simply we can do subtraction of current level sum - sum of children of current node's parent 
 Run BFS and calculate current level sum using level wise technique also keep track of node and its child using map. so at every node we can exclude its sibling sum from lastlevelchildsum so we can get sum of its cousins and store it in node value. (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Recursion + memoization 
+if I == s.length then return true or j == t.length then return false.// base case
+if both char is same then check for next char in both string
+else check next char in t string as we have to find s subsequence in t.</t>
   </si>
 </sst>
 </file>
@@ -5767,13 +5779,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4675848</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>107951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6833023</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>1009650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5817,13 +5829,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4679950</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6750050</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>897051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7971,11 +7983,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U105"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8240,1011 +8252,1022 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="87">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:21" ht="58">
+      <c r="A16" s="41" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="87">
+      <c r="A17" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B17" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="43.5">
-      <c r="A17" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="43.5">
       <c r="A18" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="43.5">
+      <c r="A19" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B19" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="58">
-      <c r="A19" s="16" t="s">
+    <row r="20" spans="1:21" ht="58">
+      <c r="A20" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B20" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="87">
-      <c r="A20" s="39" t="s">
+    <row r="21" spans="1:21" ht="87">
+      <c r="A21" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B21" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C21" s="39" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="40" customFormat="1" ht="101.5">
-      <c r="A21" s="39" t="s">
+    <row r="22" spans="1:21" s="40" customFormat="1" ht="101.5">
+      <c r="A22" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B22" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C22" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" ht="101.5">
-      <c r="A22" s="16" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="101.5">
+      <c r="A23" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="58">
-      <c r="A23" s="41" t="s">
+    <row r="24" spans="1:21" ht="58">
+      <c r="A24" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B24" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C24" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="58">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:21" ht="58">
+      <c r="A25" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="43.5">
-      <c r="A25" s="16" t="s">
+    <row r="26" spans="1:21" ht="43.5">
+      <c r="A26" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="72.5">
-      <c r="A26" s="41" t="s">
+    <row r="27" spans="1:21" ht="72.5">
+      <c r="A27" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B27" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C27" s="41" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="87">
-      <c r="A27" s="39" t="s">
+    <row r="28" spans="1:21" ht="87">
+      <c r="A28" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B28" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C28" s="39" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="58">
-      <c r="A28" s="41" t="s">
+    <row r="29" spans="1:21" ht="58">
+      <c r="A29" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B29" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C29" s="41" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="101.5">
-      <c r="A29" s="39" t="s">
+    <row r="30" spans="1:21" ht="101.5">
+      <c r="A30" s="39" t="s">
         <v>477</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B30" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C30" s="39" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="43.5">
-      <c r="A30" s="39" t="s">
+    <row r="31" spans="1:21" ht="43.5">
+      <c r="A31" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B31" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C31" s="39" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="58">
-      <c r="A31" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="58">
       <c r="A32" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="58">
+      <c r="A33" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B33" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C33" s="39" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="130.5">
-      <c r="A33" s="39" t="s">
+    <row r="34" spans="1:3" ht="130.5">
+      <c r="A34" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B34" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C34" s="39" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="43.5">
-      <c r="A34" s="16" t="s">
+    <row r="35" spans="1:3" ht="43.5">
+      <c r="A35" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="58">
-      <c r="A35" s="16" t="s">
+    <row r="36" spans="1:3" ht="58">
+      <c r="A36" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="90.5" customHeight="1">
-      <c r="A36" s="16" t="s">
+    <row r="37" spans="1:3" ht="90.5" customHeight="1">
+      <c r="A37" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B37" s="44" t="s">
         <v>698</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="43.5">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:3" ht="43.5">
+      <c r="A38" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="58">
-      <c r="A38" s="16" t="s">
+    <row r="39" spans="1:3" ht="58">
+      <c r="A39" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B39" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" customHeight="1">
       <c r="A40" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B41" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="58">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:3" ht="58">
+      <c r="A42" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29">
-      <c r="A42" s="16" t="s">
+    <row r="43" spans="1:3" ht="29">
+      <c r="A43" s="16" t="s">
         <v>510</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="87">
-      <c r="A43" s="16" t="s">
-        <v>516</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>511</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="87">
+      <c r="A44" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="43.5">
-      <c r="A44" s="16" t="s">
+    <row r="45" spans="1:3" ht="43.5">
+      <c r="A45" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B45" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="58">
-      <c r="A45" s="16" t="s">
+    <row r="46" spans="1:3" ht="58">
+      <c r="A46" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B46" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>661</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="43.5">
-      <c r="A46" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="43.5">
       <c r="A47" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="43.5">
+      <c r="A48" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B48" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="87">
-      <c r="A48" s="39" t="s">
+    <row r="49" spans="1:3" ht="87">
+      <c r="A49" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B49" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C49" s="39" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.5">
-      <c r="A49" s="16" t="s">
+    <row r="50" spans="1:3" ht="43.5">
+      <c r="A50" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B50" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="72.5">
-      <c r="A50" s="16" t="s">
+    <row r="51" spans="1:3" ht="72.5">
+      <c r="A51" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B51" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="58">
-      <c r="A51" s="39" t="s">
+    <row r="52" spans="1:3" ht="58">
+      <c r="A52" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B52" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C52" s="39" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="43.5">
-      <c r="A52" s="16" t="s">
+    <row r="53" spans="1:3" ht="43.5">
+      <c r="A53" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B53" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="58">
-      <c r="A53" s="39" t="s">
-        <v>533</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="58">
       <c r="A54" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="58">
+      <c r="A55" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B55" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C55" s="39" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="87">
-      <c r="A55" s="39" t="s">
+    <row r="56" spans="1:3" ht="87">
+      <c r="A56" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B56" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C56" s="39" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="101.5">
-      <c r="A56" s="39" t="s">
+    <row r="57" spans="1:3" ht="101.5">
+      <c r="A57" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B57" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C57" s="39" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="43.5">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:3" ht="43.5">
+      <c r="A58" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="87">
-      <c r="A58" s="16" t="s">
+    <row r="59" spans="1:3" ht="87">
+      <c r="A59" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="43.5">
-      <c r="A59" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.5">
       <c r="A60" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.5">
+      <c r="A61" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="58">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:3" ht="58">
+      <c r="A62" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="48" customHeight="1">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:3" ht="48" customHeight="1">
+      <c r="A63" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="43.5">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:3" ht="43.5">
+      <c r="A64" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="58">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:3" ht="58">
+      <c r="A65" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="43.5">
-      <c r="A65" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="43.5">
       <c r="A66" s="16" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.5">
       <c r="A67" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="43.5">
       <c r="A68" s="16" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.5">
       <c r="A69" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5">
       <c r="A70" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.5">
+      <c r="A71" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="58">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" ht="58">
+      <c r="A72" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="29">
-      <c r="A72" s="16" t="s">
+    <row r="73" spans="1:3" ht="29">
+      <c r="A73" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B73" s="44" t="s">
         <v>686</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="87">
-      <c r="A73" s="16" t="s">
+    <row r="74" spans="1:3" ht="87">
+      <c r="A74" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B74" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="58">
-      <c r="A74" s="39" t="s">
-        <v>603</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="58">
       <c r="A75" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="58">
+      <c r="A76" s="39" t="s">
         <v>606</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B76" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C76" s="39" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="101.5">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" ht="101.5">
+      <c r="A77" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.5">
-      <c r="A77" s="39" t="s">
+    <row r="78" spans="1:3" ht="43.5">
+      <c r="A78" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B78" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C78" s="39" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="43.5">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:3" ht="43.5">
+      <c r="A79" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="58">
-      <c r="A79" s="39" t="s">
+    <row r="80" spans="1:3" ht="58">
+      <c r="A80" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B80" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C80" s="39" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="43.5">
-      <c r="A80" s="39" t="s">
-        <v>627</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>626</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="43.5">
       <c r="A81" s="39" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
       <c r="A82" s="39" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="43.5">
       <c r="A83" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="43.5">
+      <c r="A84" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B84" s="39" t="s">
         <v>642</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C84" s="39" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="87">
-      <c r="A84" s="16" t="s">
+    <row r="85" spans="1:3" ht="87">
+      <c r="A85" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B85" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="43.5">
-      <c r="A85" s="16" t="s">
+    <row r="86" spans="1:3" ht="43.5">
+      <c r="A86" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B86" s="44" t="s">
         <v>689</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.5">
-      <c r="A86" s="39" t="s">
+    <row r="87" spans="1:3" ht="43.5">
+      <c r="A87" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B87" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C87" s="39" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="72.5">
-      <c r="A87" s="16" t="s">
+    <row r="88" spans="1:3" ht="72.5">
+      <c r="A88" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B88" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="87">
-      <c r="A88" s="16" t="s">
+    <row r="89" spans="1:3" ht="87">
+      <c r="A89" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B89" s="44" t="s">
         <v>705</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="43.5">
-      <c r="A89" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="43.5">
       <c r="A90" s="16" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="43.5">
       <c r="A91" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.5">
+      <c r="A92" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="43.5">
-      <c r="A92" s="39" t="s">
+    <row r="93" spans="1:3" ht="43.5">
+      <c r="A93" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B93" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C93" s="39" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="43.5">
-      <c r="A93" s="16" t="s">
+    <row r="94" spans="1:3" ht="43.5">
+      <c r="A94" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B94" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="72.5">
-      <c r="A94" s="16" t="s">
+    <row r="95" spans="1:3" ht="72.5">
+      <c r="A95" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B95" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C95" s="16" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="87">
-      <c r="A95" s="16" t="s">
+    <row r="96" spans="1:3" ht="87">
+      <c r="A96" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B96" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C96" s="16" t="s">
         <v>682</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="43.5">
-      <c r="A96" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="B96" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="43.5">
       <c r="A97" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="43.5">
+      <c r="A98" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B98" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C98" s="16" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="29">
-      <c r="A98" s="39" t="s">
+    <row r="99" spans="1:3" ht="29">
+      <c r="A99" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B99" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C99" s="39" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="58">
-      <c r="A99" s="16" t="s">
+    <row r="100" spans="1:3" ht="58">
+      <c r="A100" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B100" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C100" s="16" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="51" customHeight="1">
-      <c r="A100" s="16" t="s">
+    <row r="101" spans="1:3" ht="51" customHeight="1">
+      <c r="A101" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B101" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C101" s="16" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="72.5">
-      <c r="A101" s="16" t="s">
+    <row r="102" spans="1:3" ht="72.5">
+      <c r="A102" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B102" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C102" s="16" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="116">
-      <c r="A102" s="39" t="s">
+    <row r="103" spans="1:3" ht="116">
+      <c r="A103" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B103" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C102" s="39" t="s">
+      <c r="C103" s="39" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="145">
-      <c r="A103" s="39" t="s">
+    <row r="104" spans="1:3" ht="145">
+      <c r="A104" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B104" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C104" s="39" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="72.5">
-      <c r="A104" s="39" t="s">
+    <row r="105" spans="1:3" ht="72.5">
+      <c r="A105" s="39" t="s">
         <v>1364</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B105" s="39" t="s">
         <v>1363</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C105" s="39" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="116">
-      <c r="A105" s="39" t="s">
+    <row r="106" spans="1:3" ht="116">
+      <c r="A106" s="39" t="s">
         <v>1366</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B106" s="39" t="s">
         <v>1367</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C106" s="39" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -9252,7 +9275,7 @@
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{9DE58F6B-63E5-46AB-B210-02F2D99AA087}"/>
     <hyperlink ref="B10" r:id="rId2" xr:uid="{AB584D9B-104F-4EC8-816B-0F336337D55E}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{B030EC88-F5AA-4054-AD13-0967ECCEA134}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{B030EC88-F5AA-4054-AD13-0967ECCEA134}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{176A6895-E1CA-4EC5-B96E-DC8D2A7EDD8E}"/>
     <hyperlink ref="B11" r:id="rId5" xr:uid="{06B070AF-D611-41CA-93E2-47C384E1377B}"/>
     <hyperlink ref="B12" r:id="rId6" xr:uid="{937C4578-DA25-4404-8ABC-E0E31546E841}"/>
@@ -9261,96 +9284,97 @@
     <hyperlink ref="B7" r:id="rId9" xr:uid="{D910497F-0F89-44E3-8A08-A4E8E2479FE6}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{59C8F2BB-D243-4AA7-AA6D-30BFB40F1A37}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{55DFB151-4C73-4EA0-8E59-D614C676A71A}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{949A2B31-A347-45BC-A32D-92D3FA9BA03B}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{FEA21A5C-AA56-4D5F-AD3F-3744D322FEE8}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{29881504-CE6C-4053-846B-D64574FEF7D5}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{4E77C3C9-4E1E-4BC0-98BE-E3B8736C44C6}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{1C8D53FC-59EC-43FF-B554-7E1571E6E90E}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{934558DF-7C34-4E80-9D17-6416AA741422}"/>
-    <hyperlink ref="B25" r:id="rId18" xr:uid="{4A7990A9-D430-4451-8DE0-338C7F38F7A1}"/>
-    <hyperlink ref="B26" r:id="rId19" xr:uid="{833C87FA-547A-4DB8-8B60-B207230A3A71}"/>
-    <hyperlink ref="B27" r:id="rId20" xr:uid="{95558442-6E99-45C7-89EC-3B8694762566}"/>
-    <hyperlink ref="B28" r:id="rId21" xr:uid="{02C98E70-5B14-43E9-8CBC-CAF6A5EC697E}"/>
-    <hyperlink ref="B29" r:id="rId22" xr:uid="{9553A3CE-4B4F-4A90-8BA9-CFB33AD41AB3}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{949A2B31-A347-45BC-A32D-92D3FA9BA03B}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{FEA21A5C-AA56-4D5F-AD3F-3744D322FEE8}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{29881504-CE6C-4053-846B-D64574FEF7D5}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{4E77C3C9-4E1E-4BC0-98BE-E3B8736C44C6}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{1C8D53FC-59EC-43FF-B554-7E1571E6E90E}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{934558DF-7C34-4E80-9D17-6416AA741422}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{4A7990A9-D430-4451-8DE0-338C7F38F7A1}"/>
+    <hyperlink ref="B27" r:id="rId19" xr:uid="{833C87FA-547A-4DB8-8B60-B207230A3A71}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{95558442-6E99-45C7-89EC-3B8694762566}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{02C98E70-5B14-43E9-8CBC-CAF6A5EC697E}"/>
+    <hyperlink ref="B30" r:id="rId22" xr:uid="{9553A3CE-4B4F-4A90-8BA9-CFB33AD41AB3}"/>
     <hyperlink ref="B4" r:id="rId23" xr:uid="{5B357E3F-517D-4F5F-9B8A-8157FCAA335C}"/>
-    <hyperlink ref="B30" r:id="rId24" xr:uid="{535AD3D3-EE82-40C4-BDE8-9EF4FA15CEF2}"/>
-    <hyperlink ref="B31" r:id="rId25" xr:uid="{ED69E079-0AC8-4C0C-9441-2EB0750AA258}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{535AD3D3-EE82-40C4-BDE8-9EF4FA15CEF2}"/>
+    <hyperlink ref="B32" r:id="rId25" xr:uid="{ED69E079-0AC8-4C0C-9441-2EB0750AA258}"/>
     <hyperlink ref="B5" r:id="rId26" xr:uid="{E967DF0B-3D28-47F8-9C90-5C6B84A73AA6}"/>
     <hyperlink ref="B3" r:id="rId27" xr:uid="{43A93012-F91A-49CC-A927-D5B9CA3DA225}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{22655EEC-9F52-4A0B-BF84-38852AC402B7}"/>
-    <hyperlink ref="B37" r:id="rId29" xr:uid="{9AAB05B5-7FA5-4896-BDFD-7F5F15238A02}"/>
-    <hyperlink ref="B33" r:id="rId30" xr:uid="{D74881C9-8621-49D8-8945-491AFCB09493}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{27435107-6F47-451E-8E40-69B56B0D2142}"/>
-    <hyperlink ref="B41" r:id="rId32" xr:uid="{DAA08101-3387-4049-9397-4BF0F9B0F343}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{EE07112C-AF0D-4B45-A8B6-60792B398174}"/>
-    <hyperlink ref="B43" r:id="rId34" xr:uid="{54AB0D93-A02D-4BC8-87A2-B72AA5DE2CFC}"/>
-    <hyperlink ref="B44" r:id="rId35" xr:uid="{DD057F19-813D-4E96-AD6E-2DF74CA6F562}"/>
-    <hyperlink ref="B50" r:id="rId36" xr:uid="{7E23E00F-F6D5-4DB6-9E51-9B844B6B47AF}"/>
-    <hyperlink ref="B51" r:id="rId37" xr:uid="{F5C05DDF-CB1B-4825-8F85-C765A5A48DEA}"/>
-    <hyperlink ref="B52" r:id="rId38" xr:uid="{832B991D-56D0-4FE9-980B-6860B0C2EB17}"/>
-    <hyperlink ref="B53" r:id="rId39" xr:uid="{294549F2-1220-4BD7-A80B-86090D893F29}"/>
-    <hyperlink ref="B54" r:id="rId40" xr:uid="{594323EC-680D-42DC-A356-2AB5FE830F8C}"/>
-    <hyperlink ref="B55" r:id="rId41" xr:uid="{5E4F469E-6D9F-4483-B434-7F519C74FC8E}"/>
-    <hyperlink ref="B57" r:id="rId42" xr:uid="{503B77A1-387B-4E91-92FF-51B1A50C7B36}"/>
-    <hyperlink ref="B58" r:id="rId43" xr:uid="{709BEFFB-468B-487B-8772-488FEB182F3F}"/>
-    <hyperlink ref="B60" r:id="rId44" xr:uid="{D845C915-599F-42A8-A910-3543E5B4FA40}"/>
-    <hyperlink ref="B61" r:id="rId45" xr:uid="{AD1BAD87-8951-4F46-B52F-2997CED1D061}"/>
-    <hyperlink ref="B39" r:id="rId46" xr:uid="{E122CF25-1614-4A91-9B61-69A77C14A30B}"/>
-    <hyperlink ref="B62" r:id="rId47" xr:uid="{98B51ABD-9EEF-4EA5-A735-31D8AE1EA83C}"/>
-    <hyperlink ref="B63" r:id="rId48" xr:uid="{8A7FB4D7-1EB7-4098-91A3-057EB9A1BC57}"/>
-    <hyperlink ref="B64" r:id="rId49" xr:uid="{3B76B54C-7E39-4C54-B8B8-5E90548E9F1C}"/>
-    <hyperlink ref="B65" r:id="rId50" xr:uid="{E73DD1CA-4EFB-4943-8818-EBA37B84D45C}"/>
-    <hyperlink ref="B66" r:id="rId51" xr:uid="{0F8014F5-90BB-4DA1-8342-4555664D540D}"/>
-    <hyperlink ref="B59" r:id="rId52" xr:uid="{9A330E4C-2110-43DB-BEA7-50047B7EC013}"/>
-    <hyperlink ref="B68" r:id="rId53" xr:uid="{B68479B7-6A99-488E-A0D9-2B7C98C053D8}"/>
-    <hyperlink ref="B69" r:id="rId54" xr:uid="{54454D96-F56F-49CB-869D-0203A4BAB435}"/>
-    <hyperlink ref="B84" r:id="rId55" xr:uid="{D09730E5-774C-4368-9D00-28927961AB18}"/>
-    <hyperlink ref="B34" r:id="rId56" xr:uid="{EC5FDA02-6AF6-47A7-B7D6-5AB60BE0DAE7}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{63D12070-9812-4C96-B9DA-BFA39DF0D47E}"/>
-    <hyperlink ref="B71" r:id="rId58" xr:uid="{5E21397A-6AA0-41BC-A159-A49CCD5BCEFC}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{B115798D-2065-453A-A323-5A292A34FDD0}"/>
-    <hyperlink ref="B75" r:id="rId60" xr:uid="{A0DDEBAC-8C44-407B-9636-3BB3E7D8328C}"/>
-    <hyperlink ref="B40" r:id="rId61" xr:uid="{CA9A8B51-76AA-4CB9-B710-A97478C5F37D}"/>
-    <hyperlink ref="B76" r:id="rId62" xr:uid="{AA964E06-946E-4103-8518-64B2A1955AF5}"/>
-    <hyperlink ref="B77" r:id="rId63" xr:uid="{8E96E4D7-0613-48FF-AEBE-ED63B64F62A4}"/>
-    <hyperlink ref="B78" r:id="rId64" xr:uid="{F93A3AD4-2D4F-464F-B27B-0BFA93A21961}"/>
-    <hyperlink ref="B79" r:id="rId65" xr:uid="{493A2956-E814-4931-965C-B82B10A200A0}"/>
-    <hyperlink ref="B80" r:id="rId66" xr:uid="{61B86241-499D-45EC-9C1E-449CC8808B89}"/>
-    <hyperlink ref="B81" r:id="rId67" xr:uid="{5BAD90CD-7233-4F8E-9993-552219420FCD}"/>
-    <hyperlink ref="B82" r:id="rId68" xr:uid="{1700AC1F-96E4-4805-84F8-21BCC64B92B2}"/>
-    <hyperlink ref="B86" r:id="rId69" xr:uid="{6FE36F46-2BC4-41F1-B501-D2E1E9FED23D}"/>
-    <hyperlink ref="B83" r:id="rId70" xr:uid="{AEE71D78-608A-4D50-A08C-A3071554C367}"/>
-    <hyperlink ref="B87" r:id="rId71" xr:uid="{4623B2E9-0649-449C-BDEB-B378B4CBD71A}"/>
-    <hyperlink ref="B48" r:id="rId72" xr:uid="{C1E2FD69-1F32-432F-9E5A-AF60449A884B}"/>
-    <hyperlink ref="B89" r:id="rId73" xr:uid="{D8A3ECA6-5346-4081-A8D2-43C01BF5C44B}"/>
-    <hyperlink ref="B46" r:id="rId74" xr:uid="{EA9D6DCF-87BE-432D-8B4F-1D4B52E18DD8}"/>
-    <hyperlink ref="B47" r:id="rId75" xr:uid="{2B7DC258-6FAE-45DB-B5F1-4979FD6BDE9E}"/>
-    <hyperlink ref="B45" r:id="rId76" xr:uid="{A4A8EA72-3A48-42C9-BEA9-67EAC32FFC63}"/>
-    <hyperlink ref="B90" r:id="rId77" xr:uid="{4E6E1F3D-E112-4122-80CC-F2E4F327ED34}"/>
-    <hyperlink ref="B24" r:id="rId78" xr:uid="{6CD10CB1-5465-4AC5-B055-3AED9F38FA04}"/>
-    <hyperlink ref="B91" r:id="rId79" xr:uid="{14D914B3-E999-4DD0-B300-5027EAEFECEF}"/>
-    <hyperlink ref="B92" r:id="rId80" xr:uid="{30580E08-83C1-4EAE-BF9C-F3F2F3FF1BCA}"/>
-    <hyperlink ref="B93" r:id="rId81" xr:uid="{0B750822-0232-4201-9D14-A006ECC8EFB7}"/>
-    <hyperlink ref="B94" r:id="rId82" xr:uid="{E50292C2-6D3B-4FE6-95AA-6AD9C99B7844}"/>
-    <hyperlink ref="B95" r:id="rId83" xr:uid="{C11067D5-33B4-4700-B7AF-A9DEE19C3C3B}"/>
-    <hyperlink ref="B97" r:id="rId84" xr:uid="{811DE3A9-658F-4CF8-9786-447F3D992F85}"/>
-    <hyperlink ref="B72" r:id="rId85" xr:uid="{E2CE76A3-2FCE-4A63-B91C-73BD45E71C62}"/>
-    <hyperlink ref="B85" r:id="rId86" xr:uid="{BB4401C4-803B-4E8B-A3B0-06502FFFD4A8}"/>
-    <hyperlink ref="B98" r:id="rId87" xr:uid="{9FAD0A08-1F43-41E4-98DD-3BC3C94E8E10}"/>
-    <hyperlink ref="B96" r:id="rId88" xr:uid="{D2311478-BEB7-4602-B5B2-3318C87BD2FB}"/>
-    <hyperlink ref="B36" r:id="rId89" xr:uid="{5A625436-C262-4A4E-AC02-AEB010A261B7}"/>
-    <hyperlink ref="B99" r:id="rId90" xr:uid="{3F1D6932-6BBA-4142-A467-A81DED321874}"/>
-    <hyperlink ref="B88" r:id="rId91" xr:uid="{3FF9D79F-AAD7-4CA5-B383-6B2F63B2C034}"/>
-    <hyperlink ref="B100" r:id="rId92" xr:uid="{E6CEB8E4-47C3-4F67-B0E3-463D0AB077CD}"/>
-    <hyperlink ref="B101" r:id="rId93" xr:uid="{382F5ED4-CE33-4408-B171-59576254F419}"/>
-    <hyperlink ref="B102" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
-    <hyperlink ref="B103" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
-    <hyperlink ref="B104" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
-    <hyperlink ref="B105" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{22655EEC-9F52-4A0B-BF84-38852AC402B7}"/>
+    <hyperlink ref="B38" r:id="rId29" xr:uid="{9AAB05B5-7FA5-4896-BDFD-7F5F15238A02}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{D74881C9-8621-49D8-8945-491AFCB09493}"/>
+    <hyperlink ref="B39" r:id="rId31" xr:uid="{27435107-6F47-451E-8E40-69B56B0D2142}"/>
+    <hyperlink ref="B42" r:id="rId32" xr:uid="{DAA08101-3387-4049-9397-4BF0F9B0F343}"/>
+    <hyperlink ref="B36" r:id="rId33" xr:uid="{EE07112C-AF0D-4B45-A8B6-60792B398174}"/>
+    <hyperlink ref="B44" r:id="rId34" xr:uid="{54AB0D93-A02D-4BC8-87A2-B72AA5DE2CFC}"/>
+    <hyperlink ref="B45" r:id="rId35" xr:uid="{DD057F19-813D-4E96-AD6E-2DF74CA6F562}"/>
+    <hyperlink ref="B51" r:id="rId36" xr:uid="{7E23E00F-F6D5-4DB6-9E51-9B844B6B47AF}"/>
+    <hyperlink ref="B52" r:id="rId37" xr:uid="{F5C05DDF-CB1B-4825-8F85-C765A5A48DEA}"/>
+    <hyperlink ref="B53" r:id="rId38" xr:uid="{832B991D-56D0-4FE9-980B-6860B0C2EB17}"/>
+    <hyperlink ref="B54" r:id="rId39" xr:uid="{294549F2-1220-4BD7-A80B-86090D893F29}"/>
+    <hyperlink ref="B55" r:id="rId40" xr:uid="{594323EC-680D-42DC-A356-2AB5FE830F8C}"/>
+    <hyperlink ref="B56" r:id="rId41" xr:uid="{5E4F469E-6D9F-4483-B434-7F519C74FC8E}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{503B77A1-387B-4E91-92FF-51B1A50C7B36}"/>
+    <hyperlink ref="B59" r:id="rId43" xr:uid="{709BEFFB-468B-487B-8772-488FEB182F3F}"/>
+    <hyperlink ref="B61" r:id="rId44" xr:uid="{D845C915-599F-42A8-A910-3543E5B4FA40}"/>
+    <hyperlink ref="B62" r:id="rId45" xr:uid="{AD1BAD87-8951-4F46-B52F-2997CED1D061}"/>
+    <hyperlink ref="B40" r:id="rId46" xr:uid="{E122CF25-1614-4A91-9B61-69A77C14A30B}"/>
+    <hyperlink ref="B63" r:id="rId47" xr:uid="{98B51ABD-9EEF-4EA5-A735-31D8AE1EA83C}"/>
+    <hyperlink ref="B64" r:id="rId48" xr:uid="{8A7FB4D7-1EB7-4098-91A3-057EB9A1BC57}"/>
+    <hyperlink ref="B65" r:id="rId49" xr:uid="{3B76B54C-7E39-4C54-B8B8-5E90548E9F1C}"/>
+    <hyperlink ref="B66" r:id="rId50" xr:uid="{E73DD1CA-4EFB-4943-8818-EBA37B84D45C}"/>
+    <hyperlink ref="B67" r:id="rId51" xr:uid="{0F8014F5-90BB-4DA1-8342-4555664D540D}"/>
+    <hyperlink ref="B60" r:id="rId52" xr:uid="{9A330E4C-2110-43DB-BEA7-50047B7EC013}"/>
+    <hyperlink ref="B69" r:id="rId53" xr:uid="{B68479B7-6A99-488E-A0D9-2B7C98C053D8}"/>
+    <hyperlink ref="B70" r:id="rId54" xr:uid="{54454D96-F56F-49CB-869D-0203A4BAB435}"/>
+    <hyperlink ref="B85" r:id="rId55" xr:uid="{D09730E5-774C-4368-9D00-28927961AB18}"/>
+    <hyperlink ref="B35" r:id="rId56" xr:uid="{EC5FDA02-6AF6-47A7-B7D6-5AB60BE0DAE7}"/>
+    <hyperlink ref="B71" r:id="rId57" xr:uid="{63D12070-9812-4C96-B9DA-BFA39DF0D47E}"/>
+    <hyperlink ref="B72" r:id="rId58" xr:uid="{5E21397A-6AA0-41BC-A159-A49CCD5BCEFC}"/>
+    <hyperlink ref="B74" r:id="rId59" xr:uid="{B115798D-2065-453A-A323-5A292A34FDD0}"/>
+    <hyperlink ref="B76" r:id="rId60" xr:uid="{A0DDEBAC-8C44-407B-9636-3BB3E7D8328C}"/>
+    <hyperlink ref="B41" r:id="rId61" xr:uid="{CA9A8B51-76AA-4CB9-B710-A97478C5F37D}"/>
+    <hyperlink ref="B77" r:id="rId62" xr:uid="{AA964E06-946E-4103-8518-64B2A1955AF5}"/>
+    <hyperlink ref="B78" r:id="rId63" xr:uid="{8E96E4D7-0613-48FF-AEBE-ED63B64F62A4}"/>
+    <hyperlink ref="B79" r:id="rId64" xr:uid="{F93A3AD4-2D4F-464F-B27B-0BFA93A21961}"/>
+    <hyperlink ref="B80" r:id="rId65" xr:uid="{493A2956-E814-4931-965C-B82B10A200A0}"/>
+    <hyperlink ref="B81" r:id="rId66" xr:uid="{61B86241-499D-45EC-9C1E-449CC8808B89}"/>
+    <hyperlink ref="B82" r:id="rId67" xr:uid="{5BAD90CD-7233-4F8E-9993-552219420FCD}"/>
+    <hyperlink ref="B83" r:id="rId68" xr:uid="{1700AC1F-96E4-4805-84F8-21BCC64B92B2}"/>
+    <hyperlink ref="B87" r:id="rId69" xr:uid="{6FE36F46-2BC4-41F1-B501-D2E1E9FED23D}"/>
+    <hyperlink ref="B84" r:id="rId70" xr:uid="{AEE71D78-608A-4D50-A08C-A3071554C367}"/>
+    <hyperlink ref="B88" r:id="rId71" xr:uid="{4623B2E9-0649-449C-BDEB-B378B4CBD71A}"/>
+    <hyperlink ref="B49" r:id="rId72" xr:uid="{C1E2FD69-1F32-432F-9E5A-AF60449A884B}"/>
+    <hyperlink ref="B90" r:id="rId73" xr:uid="{D8A3ECA6-5346-4081-A8D2-43C01BF5C44B}"/>
+    <hyperlink ref="B47" r:id="rId74" xr:uid="{EA9D6DCF-87BE-432D-8B4F-1D4B52E18DD8}"/>
+    <hyperlink ref="B48" r:id="rId75" xr:uid="{2B7DC258-6FAE-45DB-B5F1-4979FD6BDE9E}"/>
+    <hyperlink ref="B46" r:id="rId76" xr:uid="{A4A8EA72-3A48-42C9-BEA9-67EAC32FFC63}"/>
+    <hyperlink ref="B91" r:id="rId77" xr:uid="{4E6E1F3D-E112-4122-80CC-F2E4F327ED34}"/>
+    <hyperlink ref="B25" r:id="rId78" xr:uid="{6CD10CB1-5465-4AC5-B055-3AED9F38FA04}"/>
+    <hyperlink ref="B92" r:id="rId79" xr:uid="{14D914B3-E999-4DD0-B300-5027EAEFECEF}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{30580E08-83C1-4EAE-BF9C-F3F2F3FF1BCA}"/>
+    <hyperlink ref="B94" r:id="rId81" xr:uid="{0B750822-0232-4201-9D14-A006ECC8EFB7}"/>
+    <hyperlink ref="B95" r:id="rId82" xr:uid="{E50292C2-6D3B-4FE6-95AA-6AD9C99B7844}"/>
+    <hyperlink ref="B96" r:id="rId83" xr:uid="{C11067D5-33B4-4700-B7AF-A9DEE19C3C3B}"/>
+    <hyperlink ref="B98" r:id="rId84" xr:uid="{811DE3A9-658F-4CF8-9786-447F3D992F85}"/>
+    <hyperlink ref="B73" r:id="rId85" xr:uid="{E2CE76A3-2FCE-4A63-B91C-73BD45E71C62}"/>
+    <hyperlink ref="B86" r:id="rId86" xr:uid="{BB4401C4-803B-4E8B-A3B0-06502FFFD4A8}"/>
+    <hyperlink ref="B99" r:id="rId87" xr:uid="{9FAD0A08-1F43-41E4-98DD-3BC3C94E8E10}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{D2311478-BEB7-4602-B5B2-3318C87BD2FB}"/>
+    <hyperlink ref="B37" r:id="rId89" xr:uid="{5A625436-C262-4A4E-AC02-AEB010A261B7}"/>
+    <hyperlink ref="B100" r:id="rId90" xr:uid="{3F1D6932-6BBA-4142-A467-A81DED321874}"/>
+    <hyperlink ref="B89" r:id="rId91" xr:uid="{3FF9D79F-AAD7-4CA5-B383-6B2F63B2C034}"/>
+    <hyperlink ref="B101" r:id="rId92" xr:uid="{E6CEB8E4-47C3-4F67-B0E3-463D0AB077CD}"/>
+    <hyperlink ref="B102" r:id="rId93" xr:uid="{382F5ED4-CE33-4408-B171-59576254F419}"/>
+    <hyperlink ref="B103" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
+    <hyperlink ref="B104" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
+    <hyperlink ref="B105" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
+    <hyperlink ref="B106" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
+    <hyperlink ref="B16" r:id="rId98" xr:uid="{12AACED5-FF56-4F14-BED9-55B2EE46566D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
-  <drawing r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -9766,7 +9790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46002A-8F63-4EE8-AF3D-41C3218B426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C690F0D-4A92-408D-9C98-60633D6E5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -5476,7 +5476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5665,6 +5665,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6180,9 +6183,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6981,7 +6984,7 @@
       <c r="B72" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="64" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6992,7 +6995,7 @@
       <c r="B73" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="64" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7069,7 +7072,7 @@
       <c r="B80" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="64" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7985,7 +7988,7 @@
   </sheetPr>
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C690F0D-4A92-408D-9C98-60633D6E5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645121D-7F57-4671-8E38-9A5FD4235057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1378">
   <si>
     <t>Topic</t>
   </si>
@@ -5161,6 +5161,16 @@
 if I == s.length then return true or j == t.length then return false.// base case
 if both char is same then check for next char in both string
 else check next char in t string as we have to find s subsequence in t.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-zigzag-path-in-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Longest ZigZag Path in a Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS -&gt;
+We need to track max length of zigzag path from every node. So apply DFS and also pass direction left/right if root is coming from right then left child can continue zigzag path and right will start from 1. if root is coming from left then right child can continue zigzag path and left will start from 1. Also update maxLength at every node with max zig zag length</t>
   </si>
 </sst>
 </file>
@@ -6183,7 +6193,7 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
@@ -9791,11 +9801,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11058,6 +11068,17 @@
       </c>
       <c r="C114" s="50" t="s">
         <v>1371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="58">
+      <c r="A115" s="49" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C115" s="49" t="s">
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -11170,9 +11191,10 @@
     <hyperlink ref="B111" r:id="rId106" xr:uid="{1909526D-E98E-4543-987E-6CBCEC02A9CA}"/>
     <hyperlink ref="B112" r:id="rId107" xr:uid="{09B6091E-7554-4382-8C38-585EB0FE9617}"/>
     <hyperlink ref="B114" r:id="rId108" xr:uid="{82F73429-61AC-4E67-BD5E-043552A614E5}"/>
+    <hyperlink ref="B115" r:id="rId109" xr:uid="{9C4C5689-26B7-4B79-A926-211D88ADDBF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId109"/>
+  <pageSetup orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 
@@ -11181,8 +11203,8 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645121D-7F57-4671-8E38-9A5FD4235057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F9A3AD-0346-4733-B318-F342D9A08522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
-    <sheet name="Strings-30" sheetId="3" r:id="rId2"/>
+    <sheet name="Strings-32" sheetId="3" r:id="rId2"/>
     <sheet name="Recursion &amp; Backtracking-37" sheetId="2" r:id="rId3"/>
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
     <sheet name="Linked List -31" sheetId="5" r:id="rId5"/>
@@ -7118,9 +7118,9 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9803,8 +9803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A115" sqref="A115:C115"/>
     </sheetView>
   </sheetViews>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F9A3AD-0346-4733-B318-F342D9A08522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470F4981-0FC3-49E7-BE68-345AC47720DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1381">
   <si>
     <t>Topic</t>
   </si>
@@ -5171,6 +5171,16 @@
   <si>
     <t>DFS -&gt;
 We need to track max length of zigzag path from every node. So apply DFS and also pass direction left/right if root is coming from right then left child can continue zigzag path and right will start from 1. if root is coming from left then right child can continue zigzag path and left will start from 1. Also update maxLength at every node with max zig zag length</t>
+  </si>
+  <si>
+    <t>Profitable Schemes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/profitable-schemes/</t>
+  </si>
+  <si>
+    <t>Recursion + memo-&gt;
+At every step we have two choice either pick crime or skip crime. Take addition of both choice and return scheme. Base case -&gt; if required members is less than 0 then we cant peform crime so no scheme can be made henece return 0.if index is reached to length of group i.e. we have visit every crime and our currProfit &gt;= minprofit then we made one scheme so return 1. else return 0.(refer code)</t>
   </si>
 </sst>
 </file>
@@ -7118,8 +7128,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -7996,11 +8006,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9282,6 +9292,17 @@
       </c>
       <c r="C106" s="39" t="s">
         <v>1368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="72.5">
+      <c r="A107" s="39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -9384,10 +9405,11 @@
     <hyperlink ref="B105" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
     <hyperlink ref="B106" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
     <hyperlink ref="B16" r:id="rId98" xr:uid="{12AACED5-FF56-4F14-BED9-55B2EE46566D}"/>
+    <hyperlink ref="B107" r:id="rId99" xr:uid="{8DDAC912-A15F-43A4-9A04-985EC6CABB8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
-  <drawing r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
+  <drawing r:id="rId101"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470F4981-0FC3-49E7-BE68-345AC47720DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297074D-FED2-4AC3-ABF5-FADBF995E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1387">
   <si>
     <t>Topic</t>
   </si>
@@ -5181,6 +5181,27 @@
   <si>
     <t>Recursion + memo-&gt;
 At every step we have two choice either pick crime or skip crime. Take addition of both choice and return scheme. Base case -&gt; if required members is less than 0 then we cant peform crime so no scheme can be made henece return 0.if index is reached to length of group i.e. we have visit every crime and our currProfit &gt;= minprofit then we made one scheme so return 1. else return 0.(refer code)</t>
+  </si>
+  <si>
+    <t>Last Stone Weight</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight/</t>
+  </si>
+  <si>
+    <t>Use PQ. Put all weights in pq in descending order. After that pop out 2 largest weight and store their diff in pq if &gt; 0. do this until pq.size &gt; 1. at last either pq will be empty or 1 weight of weight will be there</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-the-array/</t>
+  </si>
+  <si>
+    <t>Restore The Array</t>
+  </si>
+  <si>
+    <t>Recursion + memo-&gt;
+Problem statement -&gt; Here we have given string. We have to find number of ways we can break string in group(all number should be included) e.g. s = "1317" -&gt; Possible arrays are [1317],[131,7],[13,17],[1,317],[13,1,7],[1,31,7],[1,3,17],[1,3,1,7]
+Also if any there is any leading zero we have to return 0 as no number should start from 0. and all grouped number should be under range of [1,k].
+So basically we can start from index 0 if we reached to s.length then we found 1 way. if current char is 0 then we cant form way so return 0. Else run for loop from index to s.length and start grouping it. form number from index to j and check if it is under [1,k] else break. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -5902,8 +5923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C52" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6201,11 +6222,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6491,632 +6512,644 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A26" s="34" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A27" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A27" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A28" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A29" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A29" s="14" t="s">
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A30" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A30" s="14" t="s">
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A31" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A32" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A32" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A33" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A34" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A35" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A36" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A36" s="14" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A37" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A38" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A38" s="14" t="s">
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A39" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A39" s="14" t="s">
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A40" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A40" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A41" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A42" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A43" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A43" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A44" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A45" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A45" s="14" t="s">
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A46" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A47" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A47" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A48" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A49" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A50" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A50" s="34" t="s">
+    <row r="51" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A51" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B51" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C51" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A52" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A52" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A53" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="43.5">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A54" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A55" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A55" s="14" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A56" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A56" s="14" t="s">
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A57" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A58" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A58" s="14" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A59" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A59" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A60" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A60" s="63" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A61" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A61" s="14" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A62" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A62" s="14" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A63" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A63" s="14" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A64" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A64" s="14" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A65" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A65" s="14" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A66" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B66" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A66" s="14" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A67" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B67" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A67" s="14" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A68" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B68" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A69" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B69" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A70" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B70" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A71" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A72" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B72" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>1342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A72" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A73" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A74" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B74" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C74" s="64" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A74" s="32" t="s">
+    <row r="75" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A75" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B75" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C75" s="32" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A75" s="32" t="s">
+    <row r="76" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A76" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B76" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C76" s="32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A76" s="32" t="s">
+    <row r="77" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A77" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B77" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C77" s="32" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A77" s="32" t="s">
+    <row r="78" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A78" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B78" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C78" s="32" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A78" s="32" t="s">
+    <row r="79" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A79" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B79" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C79" s="32" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A79" s="32" t="s">
+    <row r="80" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A80" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B80" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C80" s="32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A80" s="32" t="s">
+    <row r="81" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A81" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B81" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C81" s="64" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B68" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B50" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B69" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B70" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B69" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B51" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B70" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B71" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B71" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B72" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8006,11 +8039,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9303,6 +9336,17 @@
       </c>
       <c r="C107" s="39" t="s">
         <v>1380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="116">
+      <c r="A108" s="39" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C108" s="39" t="s">
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -9406,10 +9450,11 @@
     <hyperlink ref="B106" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
     <hyperlink ref="B16" r:id="rId98" xr:uid="{12AACED5-FF56-4F14-BED9-55B2EE46566D}"/>
     <hyperlink ref="B107" r:id="rId99" xr:uid="{8DDAC912-A15F-43A4-9A04-985EC6CABB8F}"/>
+    <hyperlink ref="B108" r:id="rId100" xr:uid="{37F8DA0E-2E66-4035-9170-DEDD9D91697A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
-  <drawing r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
+  <drawing r:id="rId102"/>
 </worksheet>
 </file>
 
@@ -9827,7 +9872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115:C115"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297074D-FED2-4AC3-ABF5-FADBF995E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7B71E2-0F39-40C3-9953-FEC8E51ED082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1390">
   <si>
     <t>Topic</t>
   </si>
@@ -5202,6 +5202,15 @@
 Problem statement -&gt; Here we have given string. We have to find number of ways we can break string in group(all number should be included) e.g. s = "1317" -&gt; Possible arrays are [1317],[131,7],[13,17],[1,317],[13,1,7],[1,31,7],[1,3,17],[1,3,1,7]
 Also if any there is any leading zero we have to return 0 as no number should start from 0. and all grouped number should be under range of [1,k].
 So basically we can start from index 0 if we reached to s.length then we found 1 way. if current char is 0 then we cant form way so return 0. Else run for loop from index to s.length and start grouping it. form number from index to j and check if it is under [1,k] else break. (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/similar-string-groups/</t>
+  </si>
+  <si>
+    <t>Similar String Groups</t>
+  </si>
+  <si>
+    <t>Same as problem -&gt; find no of components in graph. Here we don’t have adjcency list so here if both string isimilar(as per condition given in problem) then we can consider it as adj node. Similar way apply DFS and count no of groups are there (that we will get by no of DFS calls) (refer codee)</t>
   </si>
 </sst>
 </file>
@@ -7159,11 +7168,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7540,6 +7549,17 @@
         <v>631</v>
       </c>
     </row>
+    <row r="34" spans="1:3" ht="43.5">
+      <c r="A34" s="18" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>1389</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
@@ -7547,9 +7567,10 @@
     <hyperlink ref="B28" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B29" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
     <hyperlink ref="B30" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -8041,7 +8062,7 @@
   </sheetPr>
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A108" sqref="A108:C108"/>
     </sheetView>
@@ -11270,8 +11291,8 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7B71E2-0F39-40C3-9953-FEC8E51ED082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCCEA0-7CAC-4950-BF1E-EDF9FD94E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1396">
   <si>
     <t>Topic</t>
   </si>
@@ -5211,6 +5211,28 @@
   </si>
   <si>
     <t>Same as problem -&gt; find no of components in graph. Here we don’t have adjcency list so here if both string isimilar(as per condition given in problem) then we can consider it as adj node. Similar way apply DFS and count no of groups are there (that we will get by no of DFS calls) (refer codee)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-distinct-difference-array/</t>
+  </si>
+  <si>
+    <t>Find the Distinct Difference Array</t>
+  </si>
+  <si>
+    <t>prefix maintains frequency table of nums[0...i]
+suffix maintains frequency table of nums[i + 1...n - 1]
+Initially, prefix is empty, and suffix contains frequency of complete array.
+Now, for each index i, remove nums[i] from suffix and add to prefix. Calculate size(prefix) - size(suffix).
+While removing an element from suffix, frequency might become 0. To make sure this {key, value} = {x, 0} pair is not counted, remove it from the hashmap.</t>
+  </si>
+  <si>
+    <t>Frequency Tracker</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/frequency-tracker/</t>
+  </si>
+  <si>
+    <t>Its hashmap problem, we can simply use hasmap to add and delete occurance of number but while determining if it contains frequency we use O(n) to find. To avoid that we can use array of frequency which stores count of frequencies for example we have two numbers with 3 times occurance then at frequency[3] = 2 (2 numbers having 3 times occurance) so we can get that result in O(1) (refer code)</t>
   </si>
 </sst>
 </file>
@@ -5932,8 +5954,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6231,11 +6253,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:C26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6532,633 +6554,657 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:3" s="34" customFormat="1" ht="87">
+      <c r="A27" s="34" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A28" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A28" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A29" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A30" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A30" s="14" t="s">
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A31" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A32" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A32" s="14" t="s">
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A33" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A33" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A34" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A35" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A36" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A36" s="14" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A37" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A38" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A38" s="14" t="s">
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A39" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A39" s="14" t="s">
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A40" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A40" s="14" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A41" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A41" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A42" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A43" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A44" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A44" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A45" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A46" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A47" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A47" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A48" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A49" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A50" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A50" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A51" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A51" s="34" t="s">
+    <row r="52" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A52" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B52" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C52" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A52" s="14" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A53" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A53" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A54" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A55" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A56" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A56" s="14" t="s">
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A57" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A58" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A58" s="14" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A59" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A59" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A60" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A60" s="14" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A61" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A61" s="63" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A62" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A62" s="14" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A63" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A63" s="14" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A64" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A64" s="14" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A65" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A65" s="14" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A66" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B66" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A66" s="14" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A67" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B67" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A67" s="14" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A68" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B68" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A68" s="14" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A69" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B69" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A70" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B70" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A71" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B71" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A72" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A72" s="16" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A73" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B73" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A73" s="32" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A74" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A75" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B75" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C75" s="64" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A74" s="32" t="s">
+    <row r="76" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A76" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B76" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C76" s="64" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A75" s="32" t="s">
+    <row r="77" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A77" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B77" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C77" s="32" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A76" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A77" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="32" customFormat="1" ht="101.5">
       <c r="A78" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A79" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A80" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B80" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C80" s="32" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A79" s="32" t="s">
+    <row r="81" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A81" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B81" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C81" s="32" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A80" s="32" t="s">
+    <row r="82" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A82" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B82" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C82" s="32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A81" s="32" t="s">
+    <row r="83" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A83" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B83" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C83" s="64" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B53" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B69" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B51" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B70" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B71" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B70" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B52" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B71" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B72" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B72" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B73" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
+    <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
+    <hyperlink ref="B74" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7170,7 +7216,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCCEA0-7CAC-4950-BF1E-EDF9FD94E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A52F7-60EE-4317-9BEC-9DCF2231BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arrays-79" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
     <sheet name="Strings-32" sheetId="3" r:id="rId2"/>
     <sheet name="Recursion &amp; Backtracking-37" sheetId="2" r:id="rId3"/>
     <sheet name="DP-102" sheetId="4" r:id="rId4"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1399">
   <si>
     <t>Topic</t>
   </si>
@@ -5233,6 +5233,15 @@
   </si>
   <si>
     <t>Its hashmap problem, we can simply use hasmap to add and delete occurance of number but while determining if it contains frequency we use O(n) to find. To avoid that we can use array of frequency which stores count of frequencies for example we have two numbers with 3 times occurance then at frequency[3] = 2 (2 numbers having 3 times occurance) so we can get that result in O(1) (refer code)</t>
+  </si>
+  <si>
+    <t>Number of Adjacent Elements With the Same Color</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-adjacent-elements-with-the-same-color/</t>
+  </si>
+  <si>
+    <t>Here at every query pop out index and color. Then before updating color check if both are same and adjacent color != 0 then decrement adjCount by 1. after that update color at index. Then after updating color check if both are same then increment adjCount by 1. At last put adjcount value in answer array.</t>
   </si>
 </sst>
 </file>
@@ -5548,7 +5557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5736,10 +5745,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6253,11 +6265,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6863,167 +6875,167 @@
       </c>
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="16" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="16" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="16" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="16" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="16" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="16" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="16" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="16" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="16" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="16" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="16" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="16" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="16" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="16" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7031,7 +7043,7 @@
       <c r="A70" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="65" t="s">
         <v>614</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7042,7 +7054,7 @@
       <c r="A71" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="65" t="s">
         <v>1334</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -7064,7 +7076,7 @@
       <c r="A73" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="65" t="s">
         <v>1343</v>
       </c>
       <c r="C73" s="16" t="s">
@@ -7082,102 +7094,113 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A75" s="32" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A75" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A76" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B76" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C76" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A76" s="32" t="s">
+    <row r="77" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A77" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B77" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C77" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A77" s="32" t="s">
+    <row r="78" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A78" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B78" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C78" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A78" s="32" t="s">
+    <row r="79" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A79" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B79" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C79" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A79" s="32" t="s">
+    <row r="80" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A80" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B80" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C80" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A80" s="32" t="s">
+    <row r="81" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A81" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B81" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C81" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A81" s="32" t="s">
+    <row r="82" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A82" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B82" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C82" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A82" s="32" t="s">
+    <row r="83" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A83" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B83" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C83" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A83" s="32" t="s">
+    <row r="84" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A84" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B84" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C84" s="63" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7200,11 +7223,12 @@
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
     <hyperlink ref="B74" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B75" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A52F7-60EE-4317-9BEC-9DCF2231BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A2782-8AF1-41DA-90E6-E17749D37FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1453">
   <si>
     <t>Topic</t>
   </si>
@@ -5242,6 +5242,172 @@
   </si>
   <si>
     <t>Here at every query pop out index and color. Then before updating color check if both are same and adjacent color != 0 then decrement adjCount by 1. after that update color at index. Then after updating color check if both are same then increment adjCount by 1. At last put adjcount value in answer array.</t>
+  </si>
+  <si>
+    <t>Sliding Subarray Beauty</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-subarray-beauty/</t>
+  </si>
+  <si>
+    <t>Brute force: Take window with length of k and sort array and take out x smallest from array and store in result array. But it will cost TC -&gt; O(n * klogk)
+Optimal sol : as per constraints -50 &lt;= nums[i] &lt;= 50 so we can create frequency of negative number at every window. Now store frequency count of neg no in freq array for start window. now at every window just travese entire window and store its count. if count &gt;= x then its xsmallest no in current window. as we are moving from left to right. for example -50, -49, -48, ...... at last we have to remove count of first element of window and add count of next elemnt of window in frequency array.(refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-string-length-after-removing-substrings/</t>
+  </si>
+  <si>
+    <t>Minimum String Length After Removing Substrings</t>
+  </si>
+  <si>
+    <t>run while loop and keep removing until s contains "AB" or "CD". In loop if s contains "AB" then update s with before "AB" part and after "AB" part and if s contains "CD" then update s with before "CD" part and after "CD" part. At the end after loop ends return length of s string</t>
+  </si>
+  <si>
+    <t>Lexicographically Smallest Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lexicographically-smallest-palindrome/</t>
+  </si>
+  <si>
+    <t>Here we can convert string to char array and use same I and j to compare palindrome if any char is not matching then update it with min between char of I and char of j as it needs lexicographic next string and update pointer. If both are matching then leave. just update pointer and go for next. at last convert back string from char array and return it</t>
+  </si>
+  <si>
+    <t>Make Costs of Paths Equal in a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/make-costs-of-paths-equal-in-a-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can move level by level from the the leaves to root and make sure that the adjacent nodes have equal cost. First make the cost of adjacent leaves equal. Then move one level up. Make sure that the cost of the two children are equal and so on. If they are not equal just increment the node with the lower cost to make it equal to the other node.Basically we at every node we have to make childeren equal and add their difference in result to get minimum no of inc.(refer code)
+Use (2 * i + 1) instead of 2 * i for child node because 2 * i will go into infinite loop when you run dfs(0) </t>
+  </si>
+  <si>
+    <t>Determine the Winner of a Bowling Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-the-winner-of-a-bowling-game/</t>
+  </si>
+  <si>
+    <t>Here we have given scores array of two player. We have to calculate their score sum once cache is if previous goal is 10 the next score will get multiplyed by 10. so create a function to retrun sum of goals. At the end check if player 1 sum &gt; then return 1 else player 2 sum &gt; then return 2 else return 0 in draw</t>
+  </si>
+  <si>
+    <t>First Completely Painted Row or Column</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-completely-painted-row-or-column/</t>
+  </si>
+  <si>
+    <t>First create map and store all integer position in that for example -&gt; number 1 is at {0,0} position. Now create row and col array to mark painted position. Iterate over paint cell array and get the number using that number we can get that cell values rowindex and colindex. now inc rowindex and colindex in row and cols array respectively. and check if anyone is euqal to row length or col length. if yes return index of that number. (refer code)</t>
+  </si>
+  <si>
+    <t>Minimum Cost of a Path With Special Roads</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-of-a-path-with-special-roads/</t>
+  </si>
+  <si>
+    <t>Here we have to return min cost from start position to end position. If we take any step it cost us 1. there are some special roads which can take us directly to some position with some cost. So we have two choice either take jump directly from start to end position and add cost or we can take direct jump from start position to start of special road and cost of that + start of specialroad to end psotion of special road. so anyone option can lead us to min cost so use PQ like Dijkstra Algo and store visited position to avoid repetation. (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lexicographically-smallest-beautiful-string/</t>
+  </si>
+  <si>
+    <t>Lexicographically Smallest Beautiful String</t>
+  </si>
+  <si>
+    <t>First we have to find break point of string at from where we can start finding next lexicographic string. Just like for 123 its next 124 so we can start from last index and update each char by 1 (like a &gt;-&gt; b) in string and check if its under k. if not then move to its previous. suppose one char is updated and its under k then check its should create palindrome. for that check its previous (for even) and its previous to previous (for odd) should not match. then we will get break point if its true. Now we from that point we just have to add a or b or c at each char till string ends.Also make sure while updating to a,b,c its should not create palindrome so check its 2 previous element. (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-senior-citizens/</t>
+  </si>
+  <si>
+    <t>Number of Senior Citizens</t>
+  </si>
+  <si>
+    <t>create count to store no of senior citizens. We have given string and in that at 11 and 12 th index shows age of citizen. So grab that age and check if its greater  60 then update count and retur count at the end.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>Sum in a Matrix</t>
+  </si>
+  <si>
+    <t>Here at every col we have to find max value from row. So sort the array in row wise (ascending or desceding). And at every col take out max from rows and store in sum variable. At the end return sum</t>
+  </si>
+  <si>
+    <t>Find the Longest Balanced Substring of a Binary String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-longest-balanced-substring-of-a-binary-string/</t>
+  </si>
+  <si>
+    <t>create two counters for 0 and 1 to store count. At every index check ifs 0 and its previous was 1 then its new start so reset the both counter. Else if its 1 hen update 1counter else 0counter. Now suppose string is like this -&gt; 00111 and count0 -&gt; 2 and count-&gt;3 so we have to store min from both counter * 2 so 0011 string will get consider. (refer code)</t>
+  </si>
+  <si>
+    <t>Convert an Array Into a 2D Array With Conditions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-an-array-into-a-2d-array-with-conditions/</t>
+  </si>
+  <si>
+    <t>Here we know that in every inner list should contain distinct elments. So first count fequency of each numbers in nums. So higher fequency the no of list will be there. Suppose there is occurance of 1 is 3 times then we need to create 3 inner list to add 1 in every list. once we get frequency and list created just add numbers in list check if inner list comtains that number go for next list. if we add then break it and go for next number.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-heroes/</t>
+  </si>
+  <si>
+    <t>Power of Heroes</t>
+  </si>
+  <si>
+    <t>Optimal sol - refer this video -&gt; https://www.youtube.com/watch?v=e_z5_nr5KdA</t>
+  </si>
+  <si>
+    <t>Find the Losers of the Circular Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-losers-of-the-circular-game/</t>
+  </si>
+  <si>
+    <t>here we have to pass ball and there are n player sitting in circular game and very time we have to pass the ball to i(passing value to get updated after pass) * k. so % n so we get the pass number within n if number is 0 then make it n. so if any player get the ball second time then game will stop and we have to return remaining player.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-moves-in-a-grid/</t>
+  </si>
+  <si>
+    <t>Maximum Number of Moves in a Grid</t>
+  </si>
+  <si>
+    <t>Recursion + backtrack-&gt;
+So here at every cell in first column we have to travse in three given direction only if current cell value &lt; next cell. And we have to return maximum no of moves we can make from first column cells. Basically at every cell we have three option and return max out of it.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-the-number-of-complete-components/</t>
+  </si>
+  <si>
+    <t>Count the Number of Complete Components</t>
+  </si>
+  <si>
+    <t>So its same problem like find no of components in graph using DFS/BFS. But here while doing DFS we can count how many edges are there as we have adj list and its undirected then we can get edge -&gt; edge = edge + adj.get(node).size(). And no of nodes in current component we can get from visited array. once we have edge and node we can check using -&gt; edge = vertex * (vertex - 1) / 2. if its true then its complete component else its not.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/where-will-the-ball-fall/</t>
+  </si>
+  <si>
+    <t>Where Will the Ball Fall</t>
+  </si>
+  <si>
+    <t>Recursion -&gt;
+in this case we have n of ball and each ball will fall down from its start and come down based on grid value. If 1 then it will go for next right diagonal if -1 then next left diagonal. While falling down ball may get stuck in V shape which is nothing but if cell is 1 then its right neighbour should be 1 (path -&gt; \ \) so then only ball will fall down else it path will be -&gt; (\ /) and ball will stuck. at the end we have to return ball fallen col number if ball successfully reached to last row else -1</t>
+  </si>
+  <si>
+    <t>Count Substrings That Differ by One Character</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-substrings-that-differ-by-one-character/</t>
+  </si>
+  <si>
+    <t>Try every single substring from s and t then check if its differ by 1 then inc count by 1 if its greater than 1 then we can skip it. Suppose strings are s="abc" and t="bbe" so at start we check a from s and b from t so its different then update the count as diff = 1. next time we will consider ab from s and bb from t so still diff count will be 1 so we update count. so same way try every possible string from s and t and return count at the end.</t>
   </si>
 </sst>
 </file>
@@ -5751,7 +5917,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5966,8 +6132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6265,11 +6431,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6577,658 +6743,742 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A28" s="34" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A29" s="34" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A30" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A29" s="14" t="s">
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A31" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A30" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A31" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A32" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" ht="43.5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A33" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A34" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A35" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A36" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="43.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A37" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A38" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A40" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A39" s="14" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A41" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A40" s="14" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A42" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A41" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A43" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A42" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A44" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A43" s="14" t="s">
+    <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A45" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A44" s="14" t="s">
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A46" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A45" s="14" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A47" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A46" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A47" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A48" s="14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A49" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A50" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A51" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A52" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A51" s="14" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A53" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A52" s="34" t="s">
+    <row r="54" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A54" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B54" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C54" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A53" s="14" t="s">
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A55" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A54" s="14" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A56" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A55" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A56" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A57" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A58" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A59" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A58" s="16" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A60" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A59" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A60" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A61" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A62" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A63" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A62" s="64" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A64" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A63" s="16" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A65" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A64" s="16" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A66" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A65" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A67" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A66" s="16" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A68" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A67" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A69" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A68" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A70" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A69" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A71" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A70" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A72" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B72" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A71" s="16" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A73" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B73" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A72" s="16" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A74" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B74" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A73" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A75" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B75" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A74" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A76" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A75" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A77" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A76" s="63" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A78" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A79" s="16" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A80" s="16" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A81" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A82" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B76" s="63" t="s">
+      <c r="B82" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C76" s="63" t="s">
+      <c r="C82" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A77" s="63" t="s">
+    <row r="83" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A83" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="B83" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C77" s="63" t="s">
+      <c r="C83" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A78" s="63" t="s">
+    <row r="84" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A84" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B84" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C78" s="63" t="s">
+      <c r="C84" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A79" s="63" t="s">
+    <row r="85" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A85" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B85" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C85" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A80" s="63" t="s">
+    <row r="86" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A86" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B86" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C80" s="63" t="s">
+      <c r="C86" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A81" s="63" t="s">
+    <row r="87" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A87" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B81" s="63" t="s">
+      <c r="B87" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C87" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A82" s="63" t="s">
+    <row r="88" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A88" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B82" s="63" t="s">
+      <c r="B88" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C82" s="63" t="s">
+      <c r="C88" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A83" s="63" t="s">
+    <row r="89" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A89" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B83" s="63" t="s">
+      <c r="B89" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C89" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A84" s="63" t="s">
+    <row r="90" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A90" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B84" s="63" t="s">
+      <c r="B90" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C90" s="63" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="29">
+      <c r="A91" s="63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B53" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B55" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B70" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B52" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B71" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B72" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B72" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B54" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B73" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B74" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B73" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B75" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B74" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B75" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B76" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B77" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B78" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
+    <hyperlink ref="B79" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B80" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B81" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B91" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7238,22 +7488,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="121.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.36328125" style="1" customWidth="1"/>
     <col min="4" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7264,7 +7514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="43.5">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
@@ -7275,7 +7525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="29">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -7286,7 +7536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="43.5">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
@@ -7297,7 +7547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="29">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="29">
       <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
@@ -7308,7 +7558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="43.5">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
@@ -7319,7 +7569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="29">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="29">
       <c r="A7" s="37" t="s">
         <v>21</v>
       </c>
@@ -7330,7 +7580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="43.5">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A8" s="37" t="s">
         <v>24</v>
       </c>
@@ -7341,306 +7591,378 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="72.5">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A9" s="37" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A10" s="37" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A11" s="37" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A12" s="37" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="72.5">
+      <c r="A13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C13" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A10" s="37" t="s">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A11" s="37" t="s">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C15" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="29">
-      <c r="A12" s="37" t="s">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="29">
+      <c r="A16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C16" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="33">
-      <c r="A13" s="24" t="s">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="33">
+      <c r="A17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="87">
-      <c r="A14" s="24" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="87">
+      <c r="A18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A15" s="16" t="s">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A16" s="16" t="s">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="159.5">
-      <c r="A17" s="16" t="s">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="145">
+      <c r="A21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A18" s="16" t="s">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A19" s="16" t="s">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A20" s="16" t="s">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A21" s="16" t="s">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A22" s="16" t="s">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A23" s="16" t="s">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="116">
-      <c r="A24" s="16" t="s">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="116">
+      <c r="A28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="72.5">
-      <c r="A25" s="16" t="s">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A26" s="16" t="s">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="87">
-      <c r="A27" s="16" t="s">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="87">
+      <c r="A31" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B31" s="16" t="s">
         <v>1340</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A28" s="16" t="s">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A32" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="116">
-      <c r="A29" s="16" t="s">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="116">
+      <c r="A33" s="16" t="s">
         <v>1358</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B33" s="44" t="s">
         <v>1357</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A30" s="16" t="s">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A34" s="16" t="s">
         <v>1361</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B34" s="44" t="s">
         <v>1360</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A31" s="18" t="s">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A35" s="16" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A36" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A32" s="18" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A37" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.5">
-      <c r="A33" s="18" t="s">
+    <row r="38" spans="1:3" ht="43.5">
+      <c r="A38" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B38" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="43.5">
-      <c r="A34" s="18" t="s">
+    <row r="39" spans="1:3" ht="43.5">
+      <c r="A39" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>1389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A40" s="18" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
-    <hyperlink ref="B29" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B34" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
+    <hyperlink ref="B32" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
+    <hyperlink ref="B33" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
+    <hyperlink ref="B39" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -7649,18 +7971,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="150.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="114.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7711,7 +8033,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="43.5">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="49.5">
       <c r="A5" s="20" t="s">
         <v>96</v>
       </c>
@@ -7783,7 +8105,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="49.5">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="66">
       <c r="A11" s="24" t="s">
         <v>114</v>
       </c>
@@ -7867,7 +8189,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="58">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="66">
       <c r="A18" s="13" t="s">
         <v>134</v>
       </c>
@@ -7903,7 +8225,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" ht="33">
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="49.5">
       <c r="A21" s="24" t="s">
         <v>143</v>
       </c>
@@ -7927,7 +8249,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="66">
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="82.5">
       <c r="A23" s="24" t="s">
         <v>149</v>
       </c>
@@ -7939,7 +8261,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="66">
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="82.5">
       <c r="A24" s="26" t="s">
         <v>152</v>
       </c>
@@ -7951,7 +8273,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="82.5">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="99">
       <c r="A25" s="24" t="s">
         <v>155</v>
       </c>
@@ -7987,7 +8309,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="99">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="115.5">
       <c r="A28" s="24" t="s">
         <v>164</v>
       </c>
@@ -7999,7 +8321,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="66">
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="82.5">
       <c r="A29" s="15" t="s">
         <v>167</v>
       </c>
@@ -8023,7 +8345,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="82.5">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="99">
       <c r="A31" s="24" t="s">
         <v>173</v>
       </c>
@@ -8047,7 +8369,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="115.5">
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="165">
       <c r="A33" s="24" t="s">
         <v>179</v>
       </c>
@@ -8059,69 +8381,97 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="66">
+      <c r="A34" s="24" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="82.5">
+      <c r="A35" s="24" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="99">
+      <c r="A36" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C36" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="49.5">
-      <c r="A35" s="28" t="s">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="66">
+      <c r="A37" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B37" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C37" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="82.5">
-      <c r="A36" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="33">
-      <c r="A37" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="99">
       <c r="A38" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="33">
+      <c r="A39" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="99">
+      <c r="A40" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B40" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C40" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D40" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{9B81101D-10DB-415C-8F56-4A1543568A07}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{0163EB62-7E6D-4F25-BE75-5AE2B765D31F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9959,11 +10309,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BCFD3-7621-4A48-BD35-DB5E03652DFD}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11237,6 +11587,17 @@
       </c>
       <c r="C115" s="49" t="s">
         <v>1377</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="72.5">
+      <c r="A116" s="49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -11350,19 +11711,20 @@
     <hyperlink ref="B112" r:id="rId107" xr:uid="{09B6091E-7554-4382-8C38-585EB0FE9617}"/>
     <hyperlink ref="B114" r:id="rId108" xr:uid="{82F73429-61AC-4E67-BD5E-043552A614E5}"/>
     <hyperlink ref="B115" r:id="rId109" xr:uid="{9C4C5689-26B7-4B79-A926-211D88ADDBF5}"/>
+    <hyperlink ref="B116" r:id="rId110" xr:uid="{F855489F-090B-45DD-A7E8-419E49740189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId110"/>
+  <pageSetup orientation="portrait" r:id="rId111"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12107,6 +12469,28 @@
       </c>
       <c r="C67" s="55" t="s">
         <v>1353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="72.5">
+      <c r="A68" s="55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="58">
+      <c r="A69" s="55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -12174,8 +12558,10 @@
     <hyperlink ref="B64" r:id="rId61" xr:uid="{A392A06B-22C4-40BC-A242-A45C282D3404}"/>
     <hyperlink ref="B65" r:id="rId62" xr:uid="{2BFA9842-A668-4E39-8C02-ACE043F4D0A8}"/>
     <hyperlink ref="B66" r:id="rId63" xr:uid="{76A0236D-B295-4F35-94A7-79A2F4FC77E2}"/>
+    <hyperlink ref="B68" r:id="rId64" xr:uid="{B75D903D-BB89-40D6-AEB7-D88F45B35A5C}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{DFAE830E-0F3C-46A8-BEC3-B6934EC8639F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A2782-8AF1-41DA-90E6-E17749D37FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43441668-C97A-49FD-84EA-46620CACE4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1459">
   <si>
     <t>Topic</t>
   </si>
@@ -5408,6 +5408,24 @@
   </si>
   <si>
     <t>Try every single substring from s and t then check if its differ by 1 then inc count by 1 if its greater than 1 then we can skip it. Suppose strings are s="abc" and t="bbe" so at start we check a from s and b from t so its different then update the count as diff = 1. next time we will consider ab from s and bb from t so still diff count will be 1 so we update count. so same way try every possible string from s and t and return count at the end.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-ways-to-split-a-string/</t>
+  </si>
+  <si>
+    <t>Number of Good Ways to Split a String</t>
+  </si>
+  <si>
+    <t>create count to store good split. Create two hashmap left and right to store frequency of char in left and right side respectively.at start all letters will be in right side so put all letters with their frequncy in right map.now we have to split string at every index and check if left and right string contains same no of distinct letters. so add that char in left map or if already present then update its frequency. now check left and right map size if same then update count by 1. and return it at the end.</t>
+  </si>
+  <si>
+    <t>Merge Two 2D Arrays by Summing Values</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-2d-arrays-by-summing-values/</t>
+  </si>
+  <si>
+    <t>create map and put all id and values in map from nums1 and nums2. and then convert map into 2D array. And at last sort the array based on ID and return it.</t>
   </si>
 </sst>
 </file>
@@ -5530,7 +5548,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5590,6 +5608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5723,7 +5747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5918,6 +5942,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6132,8 +6162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C57" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6431,11 +6461,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:C29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6765,720 +6795,732 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A30" s="66" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A31" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A31" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A32" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A33" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A34" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A35" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A36" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A36" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A37" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A38" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A39" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A39" s="14" t="s">
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A40" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A40" s="14" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A41" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A42" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A43" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A44" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A44" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A45" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A46" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A47" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A47" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A48" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A49" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A50" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A50" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A51" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A52" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A52" s="14" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A53" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A54" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A54" s="34" t="s">
+    <row r="55" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A55" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C55" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A55" s="14" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A56" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A56" s="14" t="s">
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A57" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A58" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A58" s="16" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A59" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A59" s="16" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A60" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A61" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A62" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A63" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A64" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A64" s="64" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A65" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A66" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A67" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A67" s="16" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A68" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A69" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A70" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A71" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A71" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A72" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A73" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B73" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A73" s="16" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A74" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B74" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A75" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B75" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A75" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A76" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B76" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A77" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A77" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A78" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B78" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A79" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B79" s="44" t="s">
         <v>1400</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A79" s="16" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A80" s="16" t="s">
         <v>1414</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>1415</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A80" s="16" t="s">
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A81" s="16" t="s">
         <v>1427</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B81" s="44" t="s">
         <v>1426</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A82" s="16" t="s">
         <v>1432</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B82" s="44" t="s">
         <v>1433</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A82" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B82" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C82" s="63" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A83" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B83" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A84" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B83" s="63" t="s">
+      <c r="B84" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C84" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A84" s="63" t="s">
+    <row r="85" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A85" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B84" s="63" t="s">
+      <c r="B85" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C85" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A85" s="63" t="s">
+    <row r="86" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A86" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B85" s="63" t="s">
+      <c r="B86" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C86" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A86" s="63" t="s">
+    <row r="87" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A87" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B87" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C87" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A87" s="63" t="s">
+    <row r="88" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A88" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B88" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C88" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A88" s="63" t="s">
+    <row r="89" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A89" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B89" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C89" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A89" s="63" t="s">
+    <row r="90" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A90" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B90" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C90" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A90" s="63" t="s">
+    <row r="91" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A91" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B91" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C91" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="29">
-      <c r="A91" s="63" t="s">
+    <row r="92" spans="1:3" ht="29">
+      <c r="A92" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B56" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B72" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B54" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B73" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B74" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B73" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B55" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B74" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B75" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B75" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B76" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B76" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B77" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B78" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B77" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B78" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B79" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B79" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B80" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B81" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B91" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B80" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B81" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B82" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B92" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7488,11 +7530,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7892,77 +7934,89 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A36" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>83</v>
+      <c r="A36" s="16" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A38" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="43.5">
-      <c r="A38" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="43.5">
       <c r="A39" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="43.5">
+      <c r="A40" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B40" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="18" customFormat="1" ht="72.5">
-      <c r="A40" s="18" t="s">
+    <row r="41" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A41" s="18" t="s">
         <v>1421</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>1420</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B39" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B31" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B32" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B33" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
     <hyperlink ref="B34" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B39" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B40" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
-    <hyperlink ref="B40" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B41" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
     <hyperlink ref="B10" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
     <hyperlink ref="B35" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
+    <hyperlink ref="B36" r:id="rId13" xr:uid="{4AD65391-1B3E-479D-A49D-260922BA4BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43441668-C97A-49FD-84EA-46620CACE4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A906B12-4E7B-43F7-9D08-C1D514F474F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1465">
   <si>
     <t>Topic</t>
   </si>
@@ -5426,6 +5426,27 @@
   </si>
   <si>
     <t>create map and put all id and values in map from nums1 and nums2. and then convert map into 2D array. And at last sort the array based on ID and return it.</t>
+  </si>
+  <si>
+    <t>Recursion + memo-&gt;
+here we just have to start from any cell of first to row and need to reach any cell of last row with minimum cost. where cost is nothing but all cell value included from first row to last row + total cost of moves we take to move from cell1 to cell2.
+moveCost is constructed as nothing but suppose cell value is 5 and that cell needs to move on 1th column in next row then cost of move is moveCost[cellValue][1] which is 3 in example1.
+Now solve it as same as cost of path in grid. go and try every cells from first row and get cost of each and return min our of it. at every cell get the cost recursively.</t>
+  </si>
+  <si>
+    <t>Minimum Path Cost in a Grid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-cost-in-a-grid/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ways-to-make-a-fair-array/</t>
+  </si>
+  <si>
+    <t>Ways to Make a Fair Array</t>
+  </si>
+  <si>
+    <t>We will split the array into two parts, left and right for even and odd.Firstly we count the sum to an array right, where right[0] = A[0] + A[2] +...and right[1] = A[1] + A[3] +.. Baiscally storing even sum at 0th index and odd sum at 1th index. Now we iterates the whole array A, and try to split at each A[i].When move one element from right to left,we reduce the sum in right,check the if it's fair,then increse the sum in left for future calculations.</t>
   </si>
 </sst>
 </file>
@@ -6461,11 +6482,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7378,113 +7399,124 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A83" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B83" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C83" s="63" t="s">
-        <v>387</v>
+    <row r="83" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A83" s="16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A84" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B84" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C84" s="63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A85" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B84" s="63" t="s">
+      <c r="B85" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C85" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A85" s="63" t="s">
+    <row r="86" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A86" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B85" s="63" t="s">
+      <c r="B86" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C86" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A86" s="63" t="s">
+    <row r="87" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A87" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B87" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C87" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A87" s="63" t="s">
+    <row r="88" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A88" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B88" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C88" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A88" s="63" t="s">
+    <row r="89" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A89" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B89" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C89" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A89" s="63" t="s">
+    <row r="90" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A90" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B90" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C90" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A90" s="63" t="s">
+    <row r="91" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A91" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B91" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C91" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A91" s="63" t="s">
+    <row r="92" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A92" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="29">
-      <c r="A92" s="63" t="s">
+    <row r="93" spans="1:3" ht="29">
+      <c r="A93" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B93" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C93" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -7513,14 +7545,15 @@
     <hyperlink ref="B80" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
     <hyperlink ref="B81" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
     <hyperlink ref="B82" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B92" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B93" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
     <hyperlink ref="B30" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B83" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8534,11 +8567,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108:C108"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9778,69 +9811,80 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="116">
-      <c r="A103" s="39" t="s">
+    <row r="103" spans="1:3" ht="101.5">
+      <c r="A103" s="16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="116">
+      <c r="A104" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B104" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C104" s="39" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="145">
-      <c r="A104" s="39" t="s">
+    <row r="105" spans="1:3" ht="145">
+      <c r="A105" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B105" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C105" s="39" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="72.5">
-      <c r="A105" s="39" t="s">
+    <row r="106" spans="1:3" ht="72.5">
+      <c r="A106" s="39" t="s">
         <v>1364</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B106" s="39" t="s">
         <v>1363</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C106" s="39" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="116">
-      <c r="A106" s="39" t="s">
+    <row r="107" spans="1:3" ht="116">
+      <c r="A107" s="39" t="s">
         <v>1366</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B107" s="39" t="s">
         <v>1367</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C107" s="39" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="72.5">
-      <c r="A107" s="39" t="s">
+    <row r="108" spans="1:3" ht="72.5">
+      <c r="A108" s="39" t="s">
         <v>1378</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B108" s="39" t="s">
         <v>1379</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C108" s="39" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="116">
-      <c r="A108" s="39" t="s">
+    <row r="109" spans="1:3" ht="116">
+      <c r="A109" s="39" t="s">
         <v>1385</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B109" s="39" t="s">
         <v>1384</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C109" s="39" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -9939,17 +9983,18 @@
     <hyperlink ref="B89" r:id="rId91" xr:uid="{3FF9D79F-AAD7-4CA5-B383-6B2F63B2C034}"/>
     <hyperlink ref="B101" r:id="rId92" xr:uid="{E6CEB8E4-47C3-4F67-B0E3-463D0AB077CD}"/>
     <hyperlink ref="B102" r:id="rId93" xr:uid="{382F5ED4-CE33-4408-B171-59576254F419}"/>
-    <hyperlink ref="B103" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
-    <hyperlink ref="B104" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
-    <hyperlink ref="B105" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
-    <hyperlink ref="B106" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
+    <hyperlink ref="B104" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
+    <hyperlink ref="B105" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
+    <hyperlink ref="B106" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
+    <hyperlink ref="B107" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
     <hyperlink ref="B16" r:id="rId98" xr:uid="{12AACED5-FF56-4F14-BED9-55B2EE46566D}"/>
-    <hyperlink ref="B107" r:id="rId99" xr:uid="{8DDAC912-A15F-43A4-9A04-985EC6CABB8F}"/>
-    <hyperlink ref="B108" r:id="rId100" xr:uid="{37F8DA0E-2E66-4035-9170-DEDD9D91697A}"/>
+    <hyperlink ref="B108" r:id="rId99" xr:uid="{8DDAC912-A15F-43A4-9A04-985EC6CABB8F}"/>
+    <hyperlink ref="B109" r:id="rId100" xr:uid="{37F8DA0E-2E66-4035-9170-DEDD9D91697A}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{12A45DA8-5B76-4787-8576-6128DC7A8EC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
-  <drawing r:id="rId102"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
+  <drawing r:id="rId103"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A906B12-4E7B-43F7-9D08-C1D514F474F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20478023-CDBF-4861-9648-E0BD19E1FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1468">
   <si>
     <t>Topic</t>
   </si>
@@ -5447,6 +5447,15 @@
   </si>
   <si>
     <t>We will split the array into two parts, left and right for even and odd.Firstly we count the sum to an array right, where right[0] = A[0] + A[2] +...and right[1] = A[1] + A[3] +.. Baiscally storing even sum at 0th index and odd sum at 1th index. Now we iterates the whole array A, and try to split at each A[i].When move one element from right to left,we reduce the sum in right,check the if it's fair,then increse the sum in left for future calculations.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-hours-of-training-to-win-a-competition/</t>
+  </si>
+  <si>
+    <t>Minimum Hours of Training to Win a Competition</t>
+  </si>
+  <si>
+    <t>Here we have two variables 1. energy which will inc so we can get sum of engergy and take out diff of sumenergy - initial energy so we get required energy. Now for experince its going to inc so  No of training hours needed is the (max of the diff of opponent experience and current experience) to win over all the opponents. at the end return total = required enegery + required experience</t>
   </si>
 </sst>
 </file>
@@ -6183,8 +6192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C57" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C58" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6482,11 +6491,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6816,744 +6825,756 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A30" s="66" t="s">
+    <row r="30" spans="1:3" s="34" customFormat="1" ht="58">
+      <c r="A30" s="34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A31" s="66" t="s">
         <v>1456</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B31" s="67" t="s">
         <v>1457</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C31" s="66" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A32" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A32" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A33" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A34" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A35" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A36" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A36" s="14" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A37" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A37" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A38" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A39" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A40" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A40" s="14" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A41" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A42" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A43" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A44" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A44" s="14" t="s">
+    <row r="45" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A45" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A45" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A46" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A47" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A47" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A48" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A48" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A49" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A50" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A50" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A51" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A52" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A52" s="14" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A53" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A54" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A54" s="14" t="s">
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A55" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A55" s="34" t="s">
+    <row r="56" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A56" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C56" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A56" s="14" t="s">
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A57" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A58" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A58" s="16" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A59" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A59" s="16" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A60" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A61" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A62" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A63" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A64" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A65" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A65" s="64" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A66" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A67" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A67" s="16" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A68" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A69" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A70" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A71" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A72" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A72" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A73" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A74" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B74" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A75" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B75" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A75" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A76" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A77" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B77" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A77" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A78" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B78" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A79" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A79" s="16" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A80" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>1400</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A80" s="16" t="s">
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A81" s="16" t="s">
         <v>1414</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B81" s="44" t="s">
         <v>1415</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A82" s="16" t="s">
         <v>1427</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B82" s="44" t="s">
         <v>1426</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>1428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A82" s="16" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A83" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A84" s="16" t="s">
         <v>1463</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B84" s="44" t="s">
         <v>1462</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>1464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A84" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B84" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C84" s="63" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A85" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85" s="63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A86" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B85" s="63" t="s">
+      <c r="B86" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C86" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A86" s="63" t="s">
+    <row r="87" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A87" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B87" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C87" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A87" s="63" t="s">
+    <row r="88" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A88" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B88" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C88" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A88" s="63" t="s">
+    <row r="89" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A89" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B89" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C89" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A89" s="63" t="s">
+    <row r="90" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A90" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B90" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C90" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A90" s="63" t="s">
+    <row r="91" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A91" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B91" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C91" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A91" s="63" t="s">
+    <row r="92" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A92" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A92" s="63" t="s">
+    <row r="93" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A93" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B93" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C93" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="29">
-      <c r="A93" s="63" t="s">
+    <row r="94" spans="1:3" ht="29">
+      <c r="A94" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B94" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C93" s="63" t="s">
+      <c r="C94" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B57" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B73" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B55" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B74" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B75" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B74" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B56" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B75" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B76" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B76" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B77" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B77" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B78" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B79" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B78" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B79" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B80" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B80" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B81" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B82" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B93" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B81" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B82" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B83" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B94" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
-    <hyperlink ref="B83" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B84" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20478023-CDBF-4861-9648-E0BD19E1FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2AC520-42E2-4D0D-BDAF-7E20E76091E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1471">
   <si>
     <t>Topic</t>
   </si>
@@ -5456,6 +5456,15 @@
   </si>
   <si>
     <t>Here we have two variables 1. energy which will inc so we can get sum of engergy and take out diff of sumenergy - initial energy so we get required energy. Now for experince its going to inc so  No of training hours needed is the (max of the diff of opponent experience and current experience) to win over all the opponents. at the end return total = required enegery + required experience</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-palindromic-number/</t>
+  </si>
+  <si>
+    <t>Largest Palindromic Number</t>
+  </si>
+  <si>
+    <t>First create frequency table using array for 0 to 9 numbers. Now observe suppose this is longest palindromic string -&gt; "7449447" so we can store first half of string "744" and center number 9. second half we can get which is nothing first reverse of first string. So we need largest so start from 9 to 0 in frequency if any number's frequency is odd then that number can be at center.  Also if number is 0 and first string is still empty then skip it(no leading zeroes). else just store it in first string until it completes pair. And after this add center if present then reverse of first half and return string.</t>
   </si>
 </sst>
 </file>
@@ -6493,8 +6502,8 @@
   </sheetPr>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:C30"/>
     </sheetView>
   </sheetViews>
@@ -7584,11 +7593,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7998,79 +8007,91 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A37" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>83</v>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="72.5">
+      <c r="A37" s="16" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A38" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A39" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="43.5">
-      <c r="A39" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.5">
       <c r="A40" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.5">
+      <c r="A41" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="18" customFormat="1" ht="72.5">
-      <c r="A41" s="18" t="s">
+    <row r="42" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A42" s="18" t="s">
         <v>1421</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="18" t="s">
         <v>1420</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B31" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B32" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B33" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
     <hyperlink ref="B34" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B40" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B41" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
-    <hyperlink ref="B41" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
     <hyperlink ref="B10" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
     <hyperlink ref="B35" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
     <hyperlink ref="B36" r:id="rId13" xr:uid="{4AD65391-1B3E-479D-A49D-260922BA4BE7}"/>
+    <hyperlink ref="B37" r:id="rId14" xr:uid="{B1BE289D-D03C-4506-A3E7-E3F8958B0801}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2AC520-42E2-4D0D-BDAF-7E20E76091E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5960F6-5181-49C4-838E-5A73CF328C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1480">
   <si>
     <t>Topic</t>
   </si>
@@ -5465,6 +5465,36 @@
   </si>
   <si>
     <t>First create frequency table using array for 0 to 9 numbers. Now observe suppose this is longest palindromic string -&gt; "7449447" so we can store first half of string "744" and center number 9. second half we can get which is nothing first reverse of first string. So we need largest so start from 9 to 0 in frequency if any number's frequency is odd then that number can be at center.  Also if number is 0 and first string is still empty then skip it(no leading zeroes). else just store it in first string until it completes pair. And after this add center if present then reverse of first half and return string.</t>
+  </si>
+  <si>
+    <t>Buy Two Chocolates</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/buy-two-chocolates/</t>
+  </si>
+  <si>
+    <t>Here we have to buy 2 chocolates from given money. So sort array and then check if we are able to get any 2 chocolates. If sum goes &lt; 0 then we cant or if buy count == 2 then we are able to.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/extra-characters-in-a-string/</t>
+  </si>
+  <si>
+    <t>Extra Characters in a String</t>
+  </si>
+  <si>
+    <t>We need to check for each substring if we can produce minimum extra characters. For each substring we have remaining substring as repeating subproblem.
+leetscode -&gt; leet scode -&gt; leet s code
+leetscode -&gt; leets code -&gt; leet s code
+So at every index we have to check every possible substring. first half -&gt; s[index, i] + [i, s.length()] and after every index we have to store extra characters in min. at the end return min of all extra (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-strength-of-a-group/</t>
+  </si>
+  <si>
+    <t>Maximum Strength of a Group</t>
+  </si>
+  <si>
+    <t>Just iterate over array and store strength. If strength is positive then return it. If not then now sum is negative and we just need to remove one negative value from it so it will become positive. if we divide that then we can remove it easily so in negative large is nothing but from 0 that is -1 and -9 so max is -1 here. iterate over array and get the max negative value which is smaller abs value and remove it from strength. (refer code for edge cases)</t>
   </si>
 </sst>
 </file>
@@ -6201,8 +6231,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C58" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C59" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6500,11 +6530,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:C30"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6845,745 +6875,769 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A31" s="66" t="s">
+    <row r="31" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A31" s="41" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A32" s="66" t="s">
         <v>1456</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B32" s="67" t="s">
         <v>1457</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C32" s="66" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A32" s="16" t="s">
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A33" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A33" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A34" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A35" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A36" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A36" s="14" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A37" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A38" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A38" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A39" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A40" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A41" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A42" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A43" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A44" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A44" s="14" t="s">
+    <row r="45" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A45" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A45" s="14" t="s">
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A46" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A46" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A47" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A48" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A49" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A49" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A50" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A51" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A52" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A52" s="14" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A53" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A54" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A54" s="14" t="s">
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A55" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A55" s="14" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A56" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A56" s="34" t="s">
+    <row r="57" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A57" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C57" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A58" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A58" s="14" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A59" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A59" s="16" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A60" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A61" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A62" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A63" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A64" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A65" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A66" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A66" s="64" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A67" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A67" s="16" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A68" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A69" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A70" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A71" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A72" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A72" s="16" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A73" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A73" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A74" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A75" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B75" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A75" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A76" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B76" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A77" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A77" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A78" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B78" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A79" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A79" s="16" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A80" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B80" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A80" s="16" t="s">
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A81" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B81" s="44" t="s">
         <v>1400</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A82" s="16" t="s">
         <v>1414</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B82" s="44" t="s">
         <v>1415</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A82" s="16" t="s">
+    <row r="83" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A83" s="16" t="s">
         <v>1427</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B83" s="44" t="s">
         <v>1426</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>1428</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A83" s="16" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A84" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A85" s="16" t="s">
         <v>1463</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B85" s="44" t="s">
         <v>1462</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A85" s="63" t="s">
+    <row r="86" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A86" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A87" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B85" s="63" t="s">
+      <c r="B87" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C87" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A86" s="63" t="s">
+    <row r="88" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A88" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B88" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C88" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A87" s="63" t="s">
+    <row r="89" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A89" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B89" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C89" s="63" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A88" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B88" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C88" s="63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A89" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="B89" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C89" s="63" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="32" customFormat="1" ht="101.5">
       <c r="A90" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A91" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A92" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A91" s="63" t="s">
+    <row r="93" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A93" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B93" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C93" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A92" s="63" t="s">
+    <row r="94" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A94" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B94" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C94" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A93" s="63" t="s">
+    <row r="95" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A95" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B95" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C93" s="63" t="s">
+      <c r="C95" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="29">
-      <c r="A94" s="63" t="s">
+    <row r="96" spans="1:3" ht="29">
+      <c r="A96" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B96" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C94" s="63" t="s">
+      <c r="C96" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B58" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B74" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B56" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B75" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B76" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B75" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B57" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B76" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B77" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B77" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B78" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B78" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B79" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B80" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B79" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B80" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B81" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B81" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B82" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B83" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B94" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B82" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B83" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B84" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B96" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
-    <hyperlink ref="B84" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B85" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{1A609023-8E92-4143-A344-929BE5D3948E}"/>
+    <hyperlink ref="B86" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7595,9 +7649,9 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8609,11 +8663,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9864,69 +9918,80 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="116">
-      <c r="A104" s="39" t="s">
+    <row r="104" spans="1:3" ht="87">
+      <c r="A104" s="16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="116">
+      <c r="A105" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B105" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C105" s="39" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="145">
-      <c r="A105" s="39" t="s">
+    <row r="106" spans="1:3" ht="145">
+      <c r="A106" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B106" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C106" s="39" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="72.5">
-      <c r="A106" s="39" t="s">
+    <row r="107" spans="1:3" ht="72.5">
+      <c r="A107" s="39" t="s">
         <v>1364</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B107" s="39" t="s">
         <v>1363</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C107" s="39" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="116">
-      <c r="A107" s="39" t="s">
+    <row r="108" spans="1:3" ht="116">
+      <c r="A108" s="39" t="s">
         <v>1366</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B108" s="39" t="s">
         <v>1367</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C108" s="39" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="72.5">
-      <c r="A108" s="39" t="s">
+    <row r="109" spans="1:3" ht="72.5">
+      <c r="A109" s="39" t="s">
         <v>1378</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B109" s="39" t="s">
         <v>1379</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C109" s="39" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="116">
-      <c r="A109" s="39" t="s">
+    <row r="110" spans="1:3" ht="116">
+      <c r="A110" s="39" t="s">
         <v>1385</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B110" s="39" t="s">
         <v>1384</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="C110" s="39" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -10025,18 +10090,19 @@
     <hyperlink ref="B89" r:id="rId91" xr:uid="{3FF9D79F-AAD7-4CA5-B383-6B2F63B2C034}"/>
     <hyperlink ref="B101" r:id="rId92" xr:uid="{E6CEB8E4-47C3-4F67-B0E3-463D0AB077CD}"/>
     <hyperlink ref="B102" r:id="rId93" xr:uid="{382F5ED4-CE33-4408-B171-59576254F419}"/>
-    <hyperlink ref="B104" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
-    <hyperlink ref="B105" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
-    <hyperlink ref="B106" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
-    <hyperlink ref="B107" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{148D4FA8-9E54-4740-8C8C-107BA00C9738}"/>
+    <hyperlink ref="B106" r:id="rId95" xr:uid="{0CD613F7-795F-418D-B62F-1ED50E95D680}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{B294B240-974B-4C1A-81CC-5BB774B70EF4}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{95376C38-29E4-45BB-B5B6-E01617A4A4A8}"/>
     <hyperlink ref="B16" r:id="rId98" xr:uid="{12AACED5-FF56-4F14-BED9-55B2EE46566D}"/>
-    <hyperlink ref="B108" r:id="rId99" xr:uid="{8DDAC912-A15F-43A4-9A04-985EC6CABB8F}"/>
-    <hyperlink ref="B109" r:id="rId100" xr:uid="{37F8DA0E-2E66-4035-9170-DEDD9D91697A}"/>
+    <hyperlink ref="B109" r:id="rId99" xr:uid="{8DDAC912-A15F-43A4-9A04-985EC6CABB8F}"/>
+    <hyperlink ref="B110" r:id="rId100" xr:uid="{37F8DA0E-2E66-4035-9170-DEDD9D91697A}"/>
     <hyperlink ref="B103" r:id="rId101" xr:uid="{12A45DA8-5B76-4787-8576-6128DC7A8EC6}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{F17FF91E-ADFA-4C6D-BB85-AC413E76CF42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId102"/>
-  <drawing r:id="rId103"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
+  <drawing r:id="rId104"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5960F6-5181-49C4-838E-5A73CF328C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A07EFC-74C4-46BF-A23E-B2B8132C3B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1489">
   <si>
     <t>Topic</t>
   </si>
@@ -5495,6 +5495,37 @@
   </si>
   <si>
     <t>Just iterate over array and store strength. If strength is positive then return it. If not then now sum is negative and we just need to remove one negative value from it so it will become positive. if we divide that then we can remove it easily so in negative large is nothing but from 0 that is -1 and -9 so max is -1 here. iterate over array and get the max negative value which is smaller abs value and remove it from strength. (refer code for edge cases)</t>
+  </si>
+  <si>
+    <t>Difference of Number of Distinct Values on Diagonals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/difference-of-number-of-distinct-values-on-diagonals/</t>
+  </si>
+  <si>
+    <t>Create ans array and traverse every cell of grid. And at every cell create two sets 1.topLeft 2.bottomRight. And travese topLeft diagonal and store element. Same for bottomRight. And now based on size of topLeft and bottomRight we can get no of distinct elements in respective diagonals and store it in ans cell. at the  end return ans array.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-make-all-characters-equal/</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Make All Characters Equal</t>
+  </si>
+  <si>
+    <t>start traversing through the array.If you encounter different element i.e s[i] != s[i-1]:
+check from which side it is feasible for us to take less move to make it equal min(i,n-i) either from the front or from the back.
+Maintain a variable ans and keep on adding the min value required for us.</t>
+  </si>
+  <si>
+    <t>Maximum Strictly Increasing Cells in a Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-strictly-increasing-cells-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>Recursion + Memp -&gt;
+Iterate over every cell and check from row or col giving more visited cell where we can only visit next cell if current cell value &lt; next cell value in same row or col. And return max (Refer code) Note : This is not accepted solution.
+Optimal Sol -&gt; (refer code) (need to watch videos on yt for this)</t>
   </si>
 </sst>
 </file>
@@ -5617,7 +5648,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5683,6 +5714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5816,7 +5853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6017,6 +6054,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6530,11 +6570,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7491,113 +7531,124 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A87" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B87" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C87" s="63" t="s">
-        <v>387</v>
+    <row r="87" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A87" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A88" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A89" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B89" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C89" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A89" s="63" t="s">
+    <row r="90" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A90" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B90" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C90" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A90" s="63" t="s">
+    <row r="91" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A91" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B91" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C91" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A91" s="63" t="s">
+    <row r="92" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A92" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A92" s="63" t="s">
+    <row r="93" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A93" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B93" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C93" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A93" s="63" t="s">
+    <row r="94" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A94" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B94" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C93" s="63" t="s">
+      <c r="C94" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A94" s="63" t="s">
+    <row r="95" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A95" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B95" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C94" s="63" t="s">
+      <c r="C95" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A95" s="63" t="s">
+    <row r="96" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A96" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B96" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C96" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="29">
-      <c r="A96" s="63" t="s">
+    <row r="97" spans="1:3" ht="29">
+      <c r="A97" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B97" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C97" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -7626,18 +7677,19 @@
     <hyperlink ref="B82" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
     <hyperlink ref="B83" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
     <hyperlink ref="B84" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B96" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B97" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
     <hyperlink ref="B32" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
     <hyperlink ref="B85" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
     <hyperlink ref="B31" r:id="rId29" xr:uid="{1A609023-8E92-4143-A344-929BE5D3948E}"/>
     <hyperlink ref="B86" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
+    <hyperlink ref="B87" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7647,11 +7699,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8072,80 +8124,92 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A38" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>83</v>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A38" s="16" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A39" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="43.5">
-      <c r="A40" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.5">
       <c r="A41" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.5">
+      <c r="A42" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="18" customFormat="1" ht="72.5">
-      <c r="A42" s="18" t="s">
+    <row r="43" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A43" s="18" t="s">
         <v>1421</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B43" s="18" t="s">
         <v>1420</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B40" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B31" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B32" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B33" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
     <hyperlink ref="B34" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B41" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B42" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
-    <hyperlink ref="B42" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
     <hyperlink ref="B10" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
     <hyperlink ref="B35" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
     <hyperlink ref="B36" r:id="rId13" xr:uid="{4AD65391-1B3E-479D-A49D-260922BA4BE7}"/>
     <hyperlink ref="B37" r:id="rId14" xr:uid="{B1BE289D-D03C-4506-A3E7-E3F8958B0801}"/>
+    <hyperlink ref="B38" r:id="rId15" xr:uid="{C8127DB0-C779-477F-B4AD-D411870BAD83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -8663,11 +8727,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9993,6 +10057,17 @@
       </c>
       <c r="C110" s="39" t="s">
         <v>1386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="58">
+      <c r="A111" s="68" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B111" s="39" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>1488</v>
       </c>
     </row>
   </sheetData>
@@ -10099,10 +10174,11 @@
     <hyperlink ref="B110" r:id="rId100" xr:uid="{37F8DA0E-2E66-4035-9170-DEDD9D91697A}"/>
     <hyperlink ref="B103" r:id="rId101" xr:uid="{12A45DA8-5B76-4787-8576-6128DC7A8EC6}"/>
     <hyperlink ref="B104" r:id="rId102" xr:uid="{F17FF91E-ADFA-4C6D-BB85-AC413E76CF42}"/>
+    <hyperlink ref="B111" r:id="rId103" xr:uid="{BD5B2C49-C098-426D-844C-0C1EE18093F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId103"/>
-  <drawing r:id="rId104"/>
+  <pageSetup orientation="portrait" r:id="rId104"/>
+  <drawing r:id="rId105"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A07EFC-74C4-46BF-A23E-B2B8132C3B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB3724-9F41-403C-834B-D11A157971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1495">
   <si>
     <t>Topic</t>
   </si>
@@ -5526,6 +5526,26 @@
     <t>Recursion + Memp -&gt;
 Iterate over every cell and check from row or col giving more visited cell where we can only visit next cell if current cell value &lt; next cell value in same row or col. And return max (Refer code) Note : This is not accepted solution.
 Optimal Sol -&gt; (refer code) (need to watch videos on yt for this)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/can-make-arithmetic-progression-from-sequence/submissions/</t>
+  </si>
+  <si>
+    <t>Can Make Arithmetic Progression From Sequence</t>
+  </si>
+  <si>
+    <t>to check Arithmetic progression we need elememts in sorted order.sort the array and check if all pair giving same diff then its true else false</t>
+  </si>
+  <si>
+    <t>Semi-Ordered Permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/semi-ordered-permutation/</t>
+  </si>
+  <si>
+    <t>Find the ith index of min val 1 =&gt; we need to do i operation to move 1 to first position
+Find the ith index of the max val n =&gt; we need to do (n - i - 1) operation to take it to last position
+Take the sum of above two as the answer. Only corner case is when the ith index of 1 is larger than ith index of n - in this case we need to reduce the ans by 1 as the 1 &amp; n cna be swapped at the same time so that we count it as 1 operation in place of 2.</t>
   </si>
 </sst>
 </file>
@@ -6271,8 +6291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C59" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C61" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6570,11 +6590,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6927,769 +6947,793 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="41" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="34" customFormat="1" ht="72.5">
+      <c r="A33" s="41" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A34" s="66" t="s">
         <v>1456</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B34" s="67" t="s">
         <v>1457</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C34" s="66" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A33" s="16" t="s">
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A35" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A34" s="14" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A36" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A35" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A36" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A37" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="43.5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A38" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A39" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A40" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A41" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="43.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A42" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A43" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A45" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A44" s="14" t="s">
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A46" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A45" s="14" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A47" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A46" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A48" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A47" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A49" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A48" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A50" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A49" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A51" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A50" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A52" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A51" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A52" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A53" s="14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A54" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A55" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A56" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A57" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A58" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A57" s="34" t="s">
+    <row r="59" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A59" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B59" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C59" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A58" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A60" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A59" s="14" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A61" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A60" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A61" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A62" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A63" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A64" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A63" s="16" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A65" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A64" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A65" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A66" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A67" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A68" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A67" s="64" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A69" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A68" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A70" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A69" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A71" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A70" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A72" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A71" s="16" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A73" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A72" s="16" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A74" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B74" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A73" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A75" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B75" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A74" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A76" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A75" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A77" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B77" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A76" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A78" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B78" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A77" s="16" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A79" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A78" s="16" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A80" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A79" s="16" t="s">
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A81" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A80" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A82" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B82" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A81" s="16" t="s">
+    <row r="83" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A83" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B83" s="44" t="s">
         <v>1400</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>1401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A82" s="16" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A83" s="16" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A84" s="16" t="s">
-        <v>1432</v>
+        <v>1414</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="14" customFormat="1" ht="72.5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A85" s="16" t="s">
-        <v>1463</v>
+        <v>1427</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>1462</v>
+        <v>1426</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1464</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A86" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A87" s="16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A88" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B88" s="44" t="s">
         <v>1477</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A87" s="16" t="s">
+    <row r="89" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A89" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B89" s="44" t="s">
         <v>1481</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A88" s="63" t="s">
+    <row r="90" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A90" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B90" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C90" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A89" s="63" t="s">
+    <row r="91" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A91" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B91" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C91" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A90" s="63" t="s">
+    <row r="92" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A92" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A91" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B91" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C91" s="63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A92" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="B92" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C92" s="63" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="32" customFormat="1" ht="101.5">
       <c r="A93" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A94" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B94" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C94" s="63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A95" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B95" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C93" s="63" t="s">
+      <c r="C95" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A94" s="63" t="s">
+    <row r="96" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A96" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B96" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C94" s="63" t="s">
+      <c r="C96" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A95" s="63" t="s">
+    <row r="97" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A97" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B97" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C97" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A96" s="63" t="s">
+    <row r="98" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A98" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B98" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C98" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="29">
-      <c r="A97" s="63" t="s">
+    <row r="99" spans="1:3" ht="29">
+      <c r="A99" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B99" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C99" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B58" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B60" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B75" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B57" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B76" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B77" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B77" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B59" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B78" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B79" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B78" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B80" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B79" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B80" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B81" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B81" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B82" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B83" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B82" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B83" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B84" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B97" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B84" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B85" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B86" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B99" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
-    <hyperlink ref="B32" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
-    <hyperlink ref="B85" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B87" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
     <hyperlink ref="B31" r:id="rId29" xr:uid="{1A609023-8E92-4143-A344-929BE5D3948E}"/>
-    <hyperlink ref="B86" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
-    <hyperlink ref="B87" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
+    <hyperlink ref="B88" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
+    <hyperlink ref="B89" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
+    <hyperlink ref="B32" r:id="rId32" xr:uid="{697F886D-50A4-4395-AFAD-CF5ED0A0887A}"/>
+    <hyperlink ref="B33" r:id="rId33" xr:uid="{E4E07A02-6ACB-41E4-982E-15990C925CB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8729,7 +8773,7 @@
   </sheetPr>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB3724-9F41-403C-834B-D11A157971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEB64C-EE6C-4851-A3B8-2ED68B9D39CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1501">
   <si>
     <t>Topic</t>
   </si>
@@ -5546,6 +5546,24 @@
     <t>Find the ith index of min val 1 =&gt; we need to do i operation to move 1 to first position
 Find the ith index of the max val n =&gt; we need to do (n - i - 1) operation to take it to last position
 Take the sum of above two as the answer. Only corner case is when the ith index of 1 is larger than ith index of n - in this case we need to reduce the ans by 1 as the 1 &amp; n cna be swapped at the same time so that we count it as 1 operation in place of 2.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/</t>
+  </si>
+  <si>
+    <t>Find Smallest Letter Greater Than Target</t>
+  </si>
+  <si>
+    <t>if you see array is sorted order and need to find target element or greater target element then directly apply Binary Search to it.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix/</t>
+  </si>
+  <si>
+    <t>Count Negative Numbers in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>For every row do the binary search to find exact position of the fist negative element, after that all elements are negative. Optimization here - for every next row the right limit for the binary search can be the index of the first negative from the previous row. This is due to fact that cols are also sorted so for the same column for every negative element the element below can be only negative. Thus we can explude it from the binary search on the next step.</t>
   </si>
 </sst>
 </file>
@@ -6291,8 +6309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C61" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C63" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6590,11 +6608,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6969,771 +6987,795 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="41" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="34" customFormat="1" ht="72.5">
+      <c r="A35" s="41" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A36" s="66" t="s">
         <v>1456</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B36" s="67" t="s">
         <v>1457</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C36" s="66" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A35" s="16" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A37" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A36" s="14" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A38" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A37" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A38" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A39" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="43.5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A40" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A41" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A42" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A43" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A44" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A45" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A46" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A47" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A46" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A48" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A47" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A49" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A48" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A50" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A49" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A51" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A50" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A52" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A51" s="14" t="s">
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A53" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A52" s="14" t="s">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A54" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A53" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A54" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A55" s="14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A56" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A57" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A58" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A59" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A58" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A60" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A59" s="34" t="s">
+    <row r="61" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A61" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C61" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A60" s="14" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A62" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A61" s="14" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A63" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A62" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A63" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A64" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A65" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A66" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A65" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A67" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A66" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A67" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A68" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A69" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A70" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A69" s="64" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A71" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A70" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A72" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A71" s="16" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A73" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A72" s="16" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A74" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B74" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A73" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A75" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B75" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A74" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A76" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A75" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A77" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A76" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A78" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B78" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A77" s="16" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A79" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B79" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A78" s="16" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A80" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A79" s="16" t="s">
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A81" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A80" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A82" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B82" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A81" s="16" t="s">
+    <row r="83" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A83" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B83" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A82" s="16" t="s">
+    <row r="84" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A84" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B84" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A83" s="16" t="s">
+    <row r="85" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A85" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B85" s="44" t="s">
         <v>1400</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>1401</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A84" s="16" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A85" s="16" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A86" s="16" t="s">
-        <v>1432</v>
+        <v>1414</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="14" customFormat="1" ht="72.5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A87" s="16" t="s">
-        <v>1463</v>
+        <v>1427</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>1462</v>
+        <v>1426</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1464</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A88" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A89" s="16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A90" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B90" s="44" t="s">
         <v>1477</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A89" s="16" t="s">
+    <row r="91" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A91" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B91" s="44" t="s">
         <v>1481</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A90" s="63" t="s">
+    <row r="92" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A92" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B92" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C92" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A91" s="63" t="s">
+    <row r="93" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A93" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B93" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C93" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A92" s="63" t="s">
+    <row r="94" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A94" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B94" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C94" s="63" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A93" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B93" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C93" s="63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A94" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="B94" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C94" s="63" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="32" customFormat="1" ht="101.5">
       <c r="A95" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A96" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" s="63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A97" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B97" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C97" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A96" s="63" t="s">
+    <row r="98" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A98" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B98" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C98" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A97" s="63" t="s">
+    <row r="99" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A99" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B99" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C99" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A98" s="63" t="s">
+    <row r="100" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A100" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B100" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C100" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="29">
-      <c r="A99" s="63" t="s">
+    <row r="101" spans="1:3" ht="29">
+      <c r="A101" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B101" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C101" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B60" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B62" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B77" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B59" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B78" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B79" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B79" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B61" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B80" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B81" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B80" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B82" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B81" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B82" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B83" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B83" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B84" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B85" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B84" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B85" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B86" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B99" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B86" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B87" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B88" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B101" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
-    <hyperlink ref="B34" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
-    <hyperlink ref="B87" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B36" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B89" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
     <hyperlink ref="B31" r:id="rId29" xr:uid="{1A609023-8E92-4143-A344-929BE5D3948E}"/>
-    <hyperlink ref="B88" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
-    <hyperlink ref="B89" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
+    <hyperlink ref="B90" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
+    <hyperlink ref="B91" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
     <hyperlink ref="B32" r:id="rId32" xr:uid="{697F886D-50A4-4395-AFAD-CF5ED0A0887A}"/>
     <hyperlink ref="B33" r:id="rId33" xr:uid="{E4E07A02-6ACB-41E4-982E-15990C925CB9}"/>
+    <hyperlink ref="B34" r:id="rId34" xr:uid="{A87906E5-875B-4ADA-9E15-BFF9C8EF5967}"/>
+    <hyperlink ref="B35" r:id="rId35" xr:uid="{1A54FD12-2740-4F03-B1E0-576C55472E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEB64C-EE6C-4851-A3B8-2ED68B9D39CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC4140B-6E4D-44A0-92D4-F4B6E9BA1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1510">
   <si>
     <t>Topic</t>
   </si>
@@ -5564,6 +5564,35 @@
   </si>
   <si>
     <t>For every row do the binary search to find exact position of the fist negative element, after that all elements are negative. Optimization here - for every next row the right limit for the binary search can be the index of the first negative from the previous row. This is due to fact that cols are also sorted so for the same column for every negative element the element below can be only negative. Thus we can explude it from the binary search on the next step.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array/</t>
+  </si>
+  <si>
+    <t>Maximum Value at a Given Index in a Bounded Array</t>
+  </si>
+  <si>
+    <t>Binary Search -&gt;
+e have to place value at index which has range of 1 to maxSum so we can apply linear search to it but it will take time so we can do binary search here. we find mid and take sum of right array and left array then check if its going greater than maxSum then we have to find index value before mid so shift high else if sum is less then we need to find in right side so shift low.
+Refer this video -&gt; https://youtu.be/dd2gFD6tlrU</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-square-numbers/</t>
+  </si>
+  <si>
+    <t>Sum of Square Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we know that if c = 5 then we only have to go from 0 to 2 as sqrt(5) ~= 2. (even if consider more than 2 then suppose 3*3 = 9 false and so on ...) two edge cases -&gt; 1. 0 can be the part of it and 2. both no can be the same. Just apply two pointers -&gt; left and right and calculate sum and check if same as c then return true else greater then shift right by -1 and if smaller then shift left by 1. if loop ends then return false</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>apply same isPlaindrome technique. if both are same then keep checking inside as normally we do. if char not matching then we can either skip ith char or jth char so apply palindrome to them and check if anyone is true then its possible else not.</t>
   </si>
 </sst>
 </file>
@@ -6608,11 +6637,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7624,113 +7653,135 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A92" s="63" t="s">
+    <row r="92" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A92" s="16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A93" s="16" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A94" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B94" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C94" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A93" s="63" t="s">
+    <row r="95" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A95" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B95" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C93" s="63" t="s">
+      <c r="C95" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A94" s="63" t="s">
+    <row r="96" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A96" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B96" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C94" s="63" t="s">
+      <c r="C96" s="63" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A95" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B95" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C95" s="63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A96" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="B96" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C96" s="63" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="32" customFormat="1" ht="101.5">
       <c r="A97" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C97" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A98" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B98" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A99" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B99" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C99" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A98" s="63" t="s">
+    <row r="100" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A100" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B100" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C100" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A99" s="63" t="s">
+    <row r="101" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A101" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B101" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C101" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A100" s="63" t="s">
+    <row r="102" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A102" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B102" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C102" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="29">
-      <c r="A101" s="63" t="s">
+    <row r="103" spans="1:3" ht="29">
+      <c r="A103" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B103" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C103" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -7759,7 +7810,7 @@
     <hyperlink ref="B86" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
     <hyperlink ref="B87" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
     <hyperlink ref="B88" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B101" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B103" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
     <hyperlink ref="B36" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
     <hyperlink ref="B89" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
@@ -7771,11 +7822,13 @@
     <hyperlink ref="B33" r:id="rId33" xr:uid="{E4E07A02-6ACB-41E4-982E-15990C925CB9}"/>
     <hyperlink ref="B34" r:id="rId34" xr:uid="{A87906E5-875B-4ADA-9E15-BFF9C8EF5967}"/>
     <hyperlink ref="B35" r:id="rId35" xr:uid="{1A54FD12-2740-4F03-B1E0-576C55472E81}"/>
+    <hyperlink ref="B92" r:id="rId36" xr:uid="{CEFEA3AB-E198-4F09-B87A-8B013D7918F8}"/>
+    <hyperlink ref="B93" r:id="rId37" xr:uid="{44202A57-D2FF-44CD-B225-B257D7C8AD06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7785,11 +7838,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7877,425 +7930,437 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="43.5">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="29">
       <c r="A8" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>25</v>
+        <v>1507</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>1508</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>26</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A10" s="37" t="s">
         <v>1403</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B10" s="65" t="s">
         <v>1402</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A10" s="37" t="s">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A11" s="37" t="s">
         <v>1429</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B11" s="65" t="s">
         <v>1430</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>1431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A11" s="37" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A12" s="37" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A13" s="37" t="s">
         <v>1424</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B13" s="65" t="s">
         <v>1423</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C13" s="37" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="72.5">
-      <c r="A13" s="37" t="s">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="72.5">
+      <c r="A14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A14" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C16" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="29">
-      <c r="A16" s="37" t="s">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="29">
+      <c r="A17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C17" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="33">
-      <c r="A17" s="24" t="s">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="33">
+      <c r="A18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="87">
-      <c r="A18" s="24" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="87">
+      <c r="A19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="58">
       <c r="A20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="145">
-      <c r="A21" s="16" t="s">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="145">
+      <c r="A22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A22" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A24" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A25" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="43.5">
       <c r="A26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A27" s="16" t="s">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="116">
-      <c r="A28" s="16" t="s">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="116">
+      <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="58">
-      <c r="A29" s="16" t="s">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="58">
+      <c r="A30" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="43.5">
+      <c r="A31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="87">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="87">
+      <c r="A32" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>1340</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="43.5">
-      <c r="A32" s="16" t="s">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A33" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>1354</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="116">
-      <c r="A33" s="16" t="s">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="116">
+      <c r="A34" s="16" t="s">
         <v>1358</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B34" s="44" t="s">
         <v>1357</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>1359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A34" s="16" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A35" s="16" t="s">
-        <v>1450</v>
+        <v>1361</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>1451</v>
+        <v>1360</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1452</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A36" s="16" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A37" s="16" t="s">
         <v>1454</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B37" s="44" t="s">
         <v>1453</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="72.5">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="72.5">
+      <c r="A38" s="16" t="s">
         <v>1469</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B38" s="44" t="s">
         <v>1468</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="43.5">
-      <c r="A38" s="16" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A39" s="16" t="s">
         <v>1484</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B39" s="44" t="s">
         <v>1483</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>1485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A39" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A40" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A41" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B41" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="43.5">
-      <c r="A41" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.5">
       <c r="A42" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="43.5">
+      <c r="A43" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B43" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="18" customFormat="1" ht="72.5">
-      <c r="A43" s="18" t="s">
+    <row r="44" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A44" s="18" t="s">
         <v>1421</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="18" t="s">
         <v>1420</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
-    <hyperlink ref="B31" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
-    <hyperlink ref="B32" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
-    <hyperlink ref="B33" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
-    <hyperlink ref="B34" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B42" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
-    <hyperlink ref="B43" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
-    <hyperlink ref="B36" r:id="rId13" xr:uid="{4AD65391-1B3E-479D-A49D-260922BA4BE7}"/>
-    <hyperlink ref="B37" r:id="rId14" xr:uid="{B1BE289D-D03C-4506-A3E7-E3F8958B0801}"/>
-    <hyperlink ref="B38" r:id="rId15" xr:uid="{C8127DB0-C779-477F-B4AD-D411870BAD83}"/>
+    <hyperlink ref="B42" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
+    <hyperlink ref="B33" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
+    <hyperlink ref="B34" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
+    <hyperlink ref="B43" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
+    <hyperlink ref="B44" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
+    <hyperlink ref="B37" r:id="rId13" xr:uid="{4AD65391-1B3E-479D-A49D-260922BA4BE7}"/>
+    <hyperlink ref="B38" r:id="rId14" xr:uid="{B1BE289D-D03C-4506-A3E7-E3F8958B0801}"/>
+    <hyperlink ref="B39" r:id="rId15" xr:uid="{C8127DB0-C779-477F-B4AD-D411870BAD83}"/>
+    <hyperlink ref="B8" r:id="rId16" xr:uid="{200C1CF2-1E9E-4A11-B772-0B1414B19DCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC4140B-6E4D-44A0-92D4-F4B6E9BA1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C787C6-4C29-48E7-BF41-9D29F9B30D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1516">
   <si>
     <t>Topic</t>
   </si>
@@ -5593,6 +5593,24 @@
   </si>
   <si>
     <t>apply same isPlaindrome technique. if both are same then keep checking inside as normally we do. if char not matching then we can either skip ith char or jth char so apply palindrome to them and check if anyone is true then its possible else not.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-the-number-is-fascinating/</t>
+  </si>
+  <si>
+    <t>Check if The Number is Fascinating</t>
+  </si>
+  <si>
+    <t>check every no seperately(n, 2n, 3n) and mark there element in visited array. if any element is already visited then or its 0 then return false else return true</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-longest-semi-repetitive-substring/</t>
+  </si>
+  <si>
+    <t>Find the Longest Semi-Repetitive Substring</t>
+  </si>
+  <si>
+    <t>Keep two pointer start and end will indicate start and end index of string. Also create lastPairIndex which will indicate index of last consecutive pair. If we encount pair then update lastPairIndex. And also check if its not at -1 then we already found pair so update start. now new string will start. and  everytime store length of current string and take max out of it</t>
   </si>
 </sst>
 </file>
@@ -6338,8 +6356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C63" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C64" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6637,11 +6655,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7037,798 +7055,810 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="34" customFormat="1" ht="43.5">
+    <row r="36" spans="1:3" s="34" customFormat="1" ht="29">
       <c r="A36" s="66" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A37" s="66" t="s">
         <v>1456</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B37" s="67" t="s">
         <v>1457</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C37" s="66" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A38" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A38" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A39" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A40" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A40" s="14" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A41" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A42" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A43" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A43" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A44" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A45" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A46" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A47" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A47" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A48" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A49" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A50" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A50" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A51" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A51" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A52" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A53" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A54" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A54" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A55" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A56" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A56" s="14" t="s">
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A57" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A58" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A58" s="14" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A59" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A59" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A60" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A60" s="14" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A61" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A61" s="34" t="s">
+    <row r="62" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A62" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B62" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C62" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A62" s="14" t="s">
+    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A63" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A63" s="14" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A64" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A65" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A66" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A67" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A67" s="16" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A68" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A69" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A70" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A71" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A71" s="64" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A72" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A72" s="16" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A73" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A73" s="16" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A74" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B74" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A75" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B75" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A75" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A76" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A77" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A77" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A78" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B78" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A78" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A79" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A80" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A80" s="16" t="s">
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A81" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B81" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A82" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B82" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A82" s="16" t="s">
+    <row r="83" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A83" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B83" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A83" s="16" t="s">
+    <row r="84" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A84" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B84" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A84" s="16" t="s">
+    <row r="85" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A85" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B85" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A85" s="16" t="s">
+    <row r="86" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A86" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B86" s="44" t="s">
         <v>1400</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A86" s="16" t="s">
+    <row r="87" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A87" s="16" t="s">
         <v>1414</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B87" s="44" t="s">
         <v>1415</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A87" s="16" t="s">
+    <row r="88" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A88" s="16" t="s">
         <v>1427</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B88" s="44" t="s">
         <v>1426</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>1428</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A88" s="16" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A89" s="16" t="s">
-        <v>1463</v>
+        <v>1432</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1464</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A90" s="16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A91" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B91" s="44" t="s">
         <v>1477</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A91" s="16" t="s">
+    <row r="92" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A92" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B92" s="44" t="s">
         <v>1481</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A92" s="16" t="s">
+    <row r="93" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A93" s="16" t="s">
         <v>1502</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B93" s="44" t="s">
         <v>1501</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A93" s="16" t="s">
+    <row r="94" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A94" s="16" t="s">
         <v>1505</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B94" s="44" t="s">
         <v>1504</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>1506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A94" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B94" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C94" s="63" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A95" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A96" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B96" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C96" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A96" s="63" t="s">
+    <row r="97" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A97" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B97" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C97" s="63" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A97" s="63" t="s">
+    <row r="98" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A98" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B98" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C98" s="63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A98" s="63" t="s">
+    <row r="99" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A99" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B99" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C99" s="63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A99" s="63" t="s">
+    <row r="100" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A100" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B100" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C100" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A100" s="63" t="s">
+    <row r="101" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A101" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B101" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C101" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A101" s="63" t="s">
+    <row r="102" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A102" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B102" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C102" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A102" s="63" t="s">
+    <row r="103" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A103" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B103" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C103" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="29">
-      <c r="A103" s="63" t="s">
+    <row r="104" spans="1:3" ht="29">
+      <c r="A104" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B103" s="63" t="s">
+      <c r="B104" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C104" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B62" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B63" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B79" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B61" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B80" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B81" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B80" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B62" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B81" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B82" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B82" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B83" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B83" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B84" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B85" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B84" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B85" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B86" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B86" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B87" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B88" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B103" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B87" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B88" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B89" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B104" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
-    <hyperlink ref="B36" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
-    <hyperlink ref="B89" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B90" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
     <hyperlink ref="B31" r:id="rId29" xr:uid="{1A609023-8E92-4143-A344-929BE5D3948E}"/>
-    <hyperlink ref="B90" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
-    <hyperlink ref="B91" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
+    <hyperlink ref="B91" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
+    <hyperlink ref="B92" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
     <hyperlink ref="B32" r:id="rId32" xr:uid="{697F886D-50A4-4395-AFAD-CF5ED0A0887A}"/>
     <hyperlink ref="B33" r:id="rId33" xr:uid="{E4E07A02-6ACB-41E4-982E-15990C925CB9}"/>
     <hyperlink ref="B34" r:id="rId34" xr:uid="{A87906E5-875B-4ADA-9E15-BFF9C8EF5967}"/>
     <hyperlink ref="B35" r:id="rId35" xr:uid="{1A54FD12-2740-4F03-B1E0-576C55472E81}"/>
-    <hyperlink ref="B92" r:id="rId36" xr:uid="{CEFEA3AB-E198-4F09-B87A-8B013D7918F8}"/>
-    <hyperlink ref="B93" r:id="rId37" xr:uid="{44202A57-D2FF-44CD-B225-B257D7C8AD06}"/>
+    <hyperlink ref="B93" r:id="rId36" xr:uid="{CEFEA3AB-E198-4F09-B87A-8B013D7918F8}"/>
+    <hyperlink ref="B94" r:id="rId37" xr:uid="{44202A57-D2FF-44CD-B225-B257D7C8AD06}"/>
+    <hyperlink ref="B36" r:id="rId38" xr:uid="{3D661743-D98C-4B14-A97A-341E35534F2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7838,11 +7868,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8285,72 +8315,83 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A40" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>83</v>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="43.5">
+      <c r="A40" s="16" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A42" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="43.5">
-      <c r="A42" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.5">
       <c r="A43" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="43.5">
+      <c r="A44" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="18" customFormat="1" ht="72.5">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A45" s="18" t="s">
         <v>1421</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="18" t="s">
         <v>1420</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B43" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B32" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B33" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
     <hyperlink ref="B35" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B43" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B44" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
-    <hyperlink ref="B44" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B45" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
     <hyperlink ref="B13" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
     <hyperlink ref="B11" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
     <hyperlink ref="B36" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
@@ -8358,9 +8399,10 @@
     <hyperlink ref="B38" r:id="rId14" xr:uid="{B1BE289D-D03C-4506-A3E7-E3F8958B0801}"/>
     <hyperlink ref="B39" r:id="rId15" xr:uid="{C8127DB0-C779-477F-B4AD-D411870BAD83}"/>
     <hyperlink ref="B8" r:id="rId16" xr:uid="{200C1CF2-1E9E-4A11-B772-0B1414B19DCE}"/>
+    <hyperlink ref="B40" r:id="rId17" xr:uid="{052F59D8-D179-41B7-A93F-777F74819AC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C787C6-4C29-48E7-BF41-9D29F9B30D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491C534B-82A2-4D26-A9A9-219CD246E89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1519">
   <si>
     <t>Topic</t>
   </si>
@@ -5611,6 +5611,15 @@
   </si>
   <si>
     <t>Keep two pointer start and end will indicate start and end index of string. Also create lastPairIndex which will indicate index of last consecutive pair. If we encount pair then update lastPairIndex. And also check if its not at -1 then we already found pair so update start. now new string will start. and  everytime store length of current string and take max out of it</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lexicographically-smallest-string-after-substring-operation/</t>
+  </si>
+  <si>
+    <t>Lexicographically Smallest String After Substring Operation</t>
+  </si>
+  <si>
+    <t>to get next lexicographically smallest string we have to check if char is a then on its previous element we can perform operations or if strings starts with a then on its next elements we can perform opertions until we get another a (refer code)</t>
   </si>
 </sst>
 </file>
@@ -7868,11 +7877,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8327,71 +8336,82 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="58">
-      <c r="A41" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>83</v>
+      <c r="A41" s="16" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A42" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="58">
+      <c r="A43" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B43" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="43.5">
-      <c r="A43" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.5">
       <c r="A44" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.5">
+      <c r="A45" s="18" t="s">
         <v>1388</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="18" customFormat="1" ht="72.5">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:3" s="18" customFormat="1" ht="72.5">
+      <c r="A46" s="18" t="s">
         <v>1421</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B46" s="18" t="s">
         <v>1420</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>1422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
+    <hyperlink ref="B44" r:id="rId1" xr:uid="{E8CDEB75-3D5B-4670-B860-1F8540247372}"/>
     <hyperlink ref="B32" r:id="rId2" xr:uid="{42D71BE1-B263-4C22-9F8B-034593069D32}"/>
     <hyperlink ref="B33" r:id="rId3" xr:uid="{5719CB71-7391-43B2-8621-319AD24BE7CC}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{FB1F31B5-D456-427F-83E8-C2143635B7AB}"/>
     <hyperlink ref="B35" r:id="rId5" xr:uid="{EF57154A-4313-43D1-BEDF-C6E0E42EE634}"/>
-    <hyperlink ref="B44" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
+    <hyperlink ref="B45" r:id="rId6" xr:uid="{92B150A9-BB23-416A-8523-9F99E3546E8E}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{21A513D7-E6FE-4414-83DF-3B41E33A2AA9}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{81D9992C-D0AF-4C3B-A472-2AB9BC934394}"/>
-    <hyperlink ref="B45" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
+    <hyperlink ref="B46" r:id="rId9" xr:uid="{1086CD5E-8D9A-470B-AADC-0E6C86013E23}"/>
     <hyperlink ref="B13" r:id="rId10" xr:uid="{30FAE043-D66A-4288-AA23-E77A326C24FB}"/>
     <hyperlink ref="B11" r:id="rId11" xr:uid="{DC8651B0-CA93-40C8-B16D-35D5494C3D2B}"/>
     <hyperlink ref="B36" r:id="rId12" xr:uid="{C99CD3D7-3F4F-42D0-A0DA-9540845C1710}"/>
@@ -8400,9 +8420,10 @@
     <hyperlink ref="B39" r:id="rId15" xr:uid="{C8127DB0-C779-477F-B4AD-D411870BAD83}"/>
     <hyperlink ref="B8" r:id="rId16" xr:uid="{200C1CF2-1E9E-4A11-B772-0B1414B19DCE}"/>
     <hyperlink ref="B40" r:id="rId17" xr:uid="{052F59D8-D179-41B7-A93F-777F74819AC0}"/>
+    <hyperlink ref="B41" r:id="rId18" xr:uid="{2F9A5466-CC04-40F1-B563-B5FF07DBAE30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -12198,9 +12219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491C534B-82A2-4D26-A9A9-219CD246E89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A36510-EAD4-4C56-908F-263222008853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1525">
   <si>
     <t>Topic</t>
   </si>
@@ -5620,6 +5620,24 @@
   </si>
   <si>
     <t>to get next lexicographically smallest string we have to check if char is a then on its previous element we can perform operations or if strings starts with a then on its next elements we can perform opertions until we get another a (refer code)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/equal-row-and-column-pairs/</t>
+  </si>
+  <si>
+    <t>Equal Row and Column Pairs</t>
+  </si>
+  <si>
+    <t>So we have to check if any row is same as column so we can store row in map with its frequency. Then we can check column if that present in map then we got pair so add its frequency value in result and return result.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-time-to-make-rope-colorful/'</t>
+  </si>
+  <si>
+    <t>Minimum Time to Make Rope Colorful</t>
+  </si>
+  <si>
+    <t>So here we just have to check if two consecutive same colored balloons. If found then we need to remove any one of them with min cost. Also if we taking min value from both so next time we should be using that same value so update cost with max. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -6664,11 +6682,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7713,113 +7731,135 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A95" s="63" t="s">
+    <row r="95" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A95" s="16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A96" s="16" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A97" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B97" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C97" s="63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A96" s="63" t="s">
+    <row r="98" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A98" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B98" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C98" s="63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A97" s="63" t="s">
+    <row r="99" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A99" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B99" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C99" s="63" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A98" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B98" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C98" s="63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A99" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="B99" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C99" s="63" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="32" customFormat="1" ht="101.5">
       <c r="A100" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B100" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C100" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A101" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B101" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A102" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B102" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C102" s="63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A101" s="63" t="s">
+    <row r="103" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A103" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B103" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C103" s="63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A102" s="63" t="s">
+    <row r="104" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A104" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B104" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C104" s="63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A103" s="63" t="s">
+    <row r="105" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A105" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B103" s="63" t="s">
+      <c r="B105" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C105" s="63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="29">
-      <c r="A104" s="63" t="s">
+    <row r="106" spans="1:3" ht="29">
+      <c r="A106" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="B104" s="63" t="s">
+      <c r="B106" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="C106" s="63" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -7848,7 +7888,7 @@
     <hyperlink ref="B87" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
     <hyperlink ref="B88" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
     <hyperlink ref="B89" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B104" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B106" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
     <hyperlink ref="B37" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
     <hyperlink ref="B90" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
@@ -7863,11 +7903,13 @@
     <hyperlink ref="B93" r:id="rId36" xr:uid="{CEFEA3AB-E198-4F09-B87A-8B013D7918F8}"/>
     <hyperlink ref="B94" r:id="rId37" xr:uid="{44202A57-D2FF-44CD-B225-B257D7C8AD06}"/>
     <hyperlink ref="B36" r:id="rId38" xr:uid="{3D661743-D98C-4B14-A97A-341E35534F2B}"/>
+    <hyperlink ref="B95" r:id="rId39" xr:uid="{5B154C37-1A66-42D1-875C-74587BB3E56D}"/>
+    <hyperlink ref="B96" r:id="rId40" xr:uid="{FE17E7FC-82F4-4418-9799-B3F09D6D07EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12219,7 +12261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A36510-EAD4-4C56-908F-263222008853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85071C31-0F00-4A6E-968B-32E4C9F0DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1528">
   <si>
     <t>Topic</t>
   </si>
@@ -5638,6 +5638,16 @@
   </si>
   <si>
     <t>So here we just have to check if two consecutive same colored balloons. If found then we need to remove any one of them with min cost. Also if we taking min value from both so next time we should be using that same value so update cost with max. (refer code)</t>
+  </si>
+  <si>
+    <t>Make Array Strictly Increasing</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/make-array-strictly-increasing/</t>
+  </si>
+  <si>
+    <t>Knapsack Problem &amp; Recursion + Memp -&gt;
+At every step check if preVal is smaller than next value if yes then we have two choices either leave and go for next index or swap that index element with some smaller value in arr2. and if preVal is not smaller then also its same we have to swap so everytime we will make two choices and take min out of it. (refer code)</t>
   </si>
 </sst>
 </file>
@@ -6684,9 +6694,9 @@
   </sheetPr>
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8983,11 +8993,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -10324,6 +10334,17 @@
       </c>
       <c r="C111" s="39" t="s">
         <v>1488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="58">
+      <c r="A112" s="39" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -10431,10 +10452,11 @@
     <hyperlink ref="B103" r:id="rId101" xr:uid="{12A45DA8-5B76-4787-8576-6128DC7A8EC6}"/>
     <hyperlink ref="B104" r:id="rId102" xr:uid="{F17FF91E-ADFA-4C6D-BB85-AC413E76CF42}"/>
     <hyperlink ref="B111" r:id="rId103" xr:uid="{BD5B2C49-C098-426D-844C-0C1EE18093F9}"/>
+    <hyperlink ref="B112" r:id="rId104" xr:uid="{903F5FD3-A21C-4C5B-95B2-EBF11B1DDF8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId104"/>
-  <drawing r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId105"/>
+  <drawing r:id="rId106"/>
 </worksheet>
 </file>
 

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85071C31-0F00-4A6E-968B-32E4C9F0DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC194FC-790F-468D-903D-390A6FA940E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-83" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1531">
   <si>
     <t>Topic</t>
   </si>
@@ -5523,11 +5523,6 @@
     <t>https://leetcode.com/problems/maximum-strictly-increasing-cells-in-a-matrix/</t>
   </si>
   <si>
-    <t>Recursion + Memp -&gt;
-Iterate over every cell and check from row or col giving more visited cell where we can only visit next cell if current cell value &lt; next cell value in same row or col. And return max (Refer code) Note : This is not accepted solution.
-Optimal Sol -&gt; (refer code) (need to watch videos on yt for this)</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/can-make-arithmetic-progression-from-sequence/submissions/</t>
   </si>
   <si>
@@ -5646,8 +5641,23 @@
     <t>https://leetcode.com/problems/make-array-strictly-increasing/</t>
   </si>
   <si>
-    <t>Knapsack Problem &amp; Recursion + Memp -&gt;
+    <t>Number of Increasing Paths in a Grid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-increasing-paths-in-a-grid/</t>
+  </si>
+  <si>
+    <t>Recursion + Memo -&gt;
+Iterate over every cell and check from row or col giving more visited cell where we can only visit next cell if current cell value &lt; next cell value in same row or col. And return max (Refer code) Note : This is not accepted solution.
+Optimal Sol -&gt; (refer code) (need to watch videos on yt for this)</t>
+  </si>
+  <si>
+    <t>Knapsack Problem &amp; Recursion + Memo -&gt;
 At every step check if preVal is smaller than next value if yes then we have two choices either leave and go for next index or swap that index element with some smaller value in arr2. and if preVal is not smaller then also its same we have to swap so everytime we will make two choices and take min out of it. (refer code)</t>
+  </si>
+  <si>
+    <t>Recursion + Memo -&gt;
+Traverse through every cell and check its all 4 directions and get the value from their + add 1 as self cell and return total at the end.</t>
   </si>
 </sst>
 </file>
@@ -6157,9 +6167,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6179,6 +6186,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7050,67 +7060,67 @@
     </row>
     <row r="32" spans="1:3" s="34" customFormat="1" ht="43.5">
       <c r="A32" s="41" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>1490</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="34" customFormat="1" ht="72.5">
       <c r="A33" s="41" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>1492</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="C33" s="41" t="s">
         <v>1493</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="34" customFormat="1" ht="43.5">
       <c r="A34" s="41" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>1496</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="34" customFormat="1" ht="72.5">
       <c r="A35" s="41" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>1499</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>1500</v>
-      </c>
     </row>
     <row r="36" spans="1:3" s="34" customFormat="1" ht="29">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="65" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C36" s="65" t="s">
         <v>1511</v>
       </c>
-      <c r="B36" s="67" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>1512</v>
-      </c>
     </row>
     <row r="37" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="65" t="s">
         <v>1456</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="66" t="s">
         <v>1457</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -7489,7 +7499,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="63" t="s">
         <v>361</v>
       </c>
       <c r="B72" s="16" t="s">
@@ -7721,155 +7731,155 @@
     </row>
     <row r="93" spans="1:3" s="14" customFormat="1" ht="87">
       <c r="A93" s="16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>1502</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="14" customFormat="1" ht="58">
       <c r="A94" s="16" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C94" s="16" t="s">
         <v>1505</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A95" s="16" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C95" s="16" t="s">
         <v>1520</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A96" s="16" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>1523</v>
       </c>
-      <c r="B96" s="44" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>1524</v>
-      </c>
     </row>
     <row r="97" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A97" s="63" t="s">
+      <c r="A97" s="62" t="s">
         <v>385</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B97" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="62" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A98" s="63" t="s">
+      <c r="A98" s="62" t="s">
         <v>388</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C98" s="62" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B99" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C99" s="62" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C100" s="62" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="62" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B102" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C102" s="62" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A103" s="63" t="s">
+      <c r="A103" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="B103" s="63" t="s">
+      <c r="B103" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="62" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A104" s="63" t="s">
+      <c r="A104" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="C104" s="62" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A105" s="63" t="s">
+      <c r="A105" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="62" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="29">
-      <c r="A106" s="63" t="s">
+      <c r="A106" s="62" t="s">
         <v>1436</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="62" t="s">
         <v>1435</v>
       </c>
-      <c r="C106" s="63" t="s">
+      <c r="C106" s="62" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -8023,13 +8033,13 @@
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="29">
       <c r="A8" s="37" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>1507</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="C8" s="37" t="s">
         <v>1508</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="43.5">
@@ -8047,7 +8057,7 @@
       <c r="A10" s="37" t="s">
         <v>1403</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>1402</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -8058,7 +8068,7 @@
       <c r="A11" s="37" t="s">
         <v>1429</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>1430</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -8069,7 +8079,7 @@
       <c r="A12" s="37" t="s">
         <v>1405</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="64" t="s">
         <v>1406</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -8080,7 +8090,7 @@
       <c r="A13" s="37" t="s">
         <v>1424</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>1423</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -8378,24 +8388,24 @@
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A40" s="16" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>1514</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A41" s="16" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>1517</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="58">
@@ -8993,11 +9003,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:C112"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -10326,25 +10336,36 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="58">
-      <c r="A111" s="68" t="s">
+      <c r="A111" s="67" t="s">
         <v>1486</v>
       </c>
       <c r="B111" s="39" t="s">
         <v>1487</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>1488</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="58">
       <c r="A112" s="39" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B112" s="39" t="s">
         <v>1525</v>
       </c>
-      <c r="B112" s="39" t="s">
+      <c r="C112" s="39" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="43.5">
+      <c r="A113" s="39" t="s">
         <v>1526</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="B113" s="39" t="s">
         <v>1527</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -10453,10 +10474,11 @@
     <hyperlink ref="B104" r:id="rId102" xr:uid="{F17FF91E-ADFA-4C6D-BB85-AC413E76CF42}"/>
     <hyperlink ref="B111" r:id="rId103" xr:uid="{BD5B2C49-C098-426D-844C-0C1EE18093F9}"/>
     <hyperlink ref="B112" r:id="rId104" xr:uid="{903F5FD3-A21C-4C5B-95B2-EBF11B1DDF8F}"/>
+    <hyperlink ref="B113" r:id="rId105" xr:uid="{B192BE0A-832C-4A84-98A0-2B0459AF2E0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId105"/>
-  <drawing r:id="rId106"/>
+  <pageSetup orientation="portrait" r:id="rId106"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -12283,9 +12305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE7BFC-9183-4722-AC32-76DF8D7C9701}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12369,13 +12391,13 @@
       <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" s="57" customFormat="1" ht="43.5">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>1279</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>1280</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -12412,14 +12434,14 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="62" customFormat="1" ht="43.5">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:4" s="61" customFormat="1" ht="43.5">
+      <c r="A11" s="61" t="s">
         <v>1251</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>1250</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -12427,7 +12449,7 @@
       <c r="A12" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="68" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="60" t="s">
@@ -12538,13 +12560,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="29">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="61" t="s">
         <v>1203</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>1202</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -12582,24 +12604,24 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>1217</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>1218</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="145">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>1220</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>1221</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12780,13 +12802,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="87">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="61" t="s">
         <v>1270</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>1269</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="61" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -12824,13 +12846,13 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="261">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="61" t="s">
         <v>1285</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="61" t="s">
         <v>1286</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="61" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -13121,8 +13143,9 @@
     <hyperlink ref="B66" r:id="rId63" xr:uid="{76A0236D-B295-4F35-94A7-79A2F4FC77E2}"/>
     <hyperlink ref="B68" r:id="rId64" xr:uid="{B75D903D-BB89-40D6-AEB7-D88F45B35A5C}"/>
     <hyperlink ref="B69" r:id="rId65" xr:uid="{DFAE830E-0F3C-46A8-BEC3-B6934EC8639F}"/>
+    <hyperlink ref="B12" r:id="rId66" xr:uid="{64DF62DF-5FD1-4C51-BAE8-B315E42FDA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar.pedamkar\Downloads\DSA\DSA_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC194FC-790F-468D-903D-390A6FA940E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D12CA-449B-4A4C-B2C8-FBC19DAD1905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1534">
   <si>
     <t>Topic</t>
   </si>
@@ -4327,10 +4327,6 @@
   </si>
   <si>
     <t>Is Graph Bipartite?</t>
-  </si>
-  <si>
-    <t>Note : (directed) and (undirected graph with even cycle length) is always bipartite graph else not.
-Apply DFS or BFS and check while coloring any node if its not visited then we can color opposite of adj node but if already colored the we need to check if adj color is not same as current node color. if same return false as its not bipartite graph else check for next.</t>
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-a-directed-graph/1</t>
@@ -4404,51 +4400,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DFS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Here for directed graph we need to keep pathvisited array to keep track of visited node within path. If node is not visited then fine we can mark them as visited and pathvisited but if node is visited and pathvisited as well then there is cycle hence return true. else check for next and before go to future path mark pathvisited node as 0 (backtracking).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BFS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : As we know topoligcal sort only applicable when graph is CAG if not then in topo array all nodes will not cover.hence if count == no of nodes then there is no cycle else there is cycle. Apply topo sort and solve</t>
-    </r>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/course-schedule/</t>
   </si>
   <si>
@@ -5658,6 +5609,65 @@
   <si>
     <t>Recursion + Memo -&gt;
 Traverse through every cell and check its all 4 directions and get the value from their + add 1 as self cell and return total at the end.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-highest-altitude/</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>Everytime take prefix sum of altitude and take out max out of it in every iteration. And return max at the end.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DFS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Here for directed graph we need to keep pathvisited array to keep track of visited node within path. If node is not visited then fine we can mark them as visited and pathvisited but if node is visited and pathvisited as well then there is cycle hence return true. else check for next and before go to future path mark pathvisited node as 0 (backtracking).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : As we know topoligcal sort only applicable when graph is DAG if not then in topo array all nodes will not cover.hence if count == no of nodes then there is no cycle else there is cycle. Apply topo sort and solve</t>
+    </r>
+  </si>
+  <si>
+    <t>Note : (directed) and (undirected graph with even cycle length) is always bipartite graph else not.
+Simple bipartite means if we want to color a node using two colors then adjacent node should not have same color.
+Apply DFS or BFS and check while coloring any node if its not visited then we can color opposite of adj node but if already colored the we need to check if adj color is not same as current node color. if same return false as its not bipartite graph else check for next.</t>
   </si>
 </sst>
 </file>
@@ -6403,8 +6413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C64" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C65" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links" dataDxfId="1"/>
@@ -6702,11 +6712,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6994,942 +7004,954 @@
     </row>
     <row r="26" spans="1:3" s="34" customFormat="1" ht="29">
       <c r="A26" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>1381</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="34" customFormat="1" ht="87">
       <c r="A27" s="34" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>1390</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="34" customFormat="1" ht="43.5">
       <c r="A28" s="34" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>1411</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="34" customFormat="1" ht="58">
       <c r="A29" s="34" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>1438</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="34" customFormat="1" ht="58">
       <c r="A30" s="34" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>1465</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="34" customFormat="1" ht="29">
       <c r="A31" s="41" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>1471</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="34" customFormat="1" ht="43.5">
       <c r="A32" s="41" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B32" s="41" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>1488</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="34" customFormat="1" ht="72.5">
       <c r="A33" s="41" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>1491</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="34" customFormat="1" ht="43.5">
       <c r="A34" s="41" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B34" s="41" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>1494</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="34" customFormat="1" ht="72.5">
       <c r="A35" s="41" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B35" s="41" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>1497</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="34" customFormat="1" ht="29">
       <c r="A36" s="65" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="B36" s="66" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="34" customFormat="1" ht="29">
+      <c r="A37" s="65" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C37" s="65" t="s">
         <v>1509</v>
       </c>
-      <c r="C36" s="65" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A37" s="65" t="s">
+    </row>
+    <row r="38" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A38" s="65" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C38" s="65" t="s">
         <v>1456</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A38" s="16" t="s">
+    </row>
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A39" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A39" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A40" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A41" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A42" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A42" s="14" t="s">
+    <row r="43" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A43" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A44" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A44" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A45" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A46" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A47" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A47" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A48" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A49" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A50" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A50" s="14" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A51" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A52" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A52" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="14" customFormat="1" ht="29">
       <c r="A53" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A54" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A54" s="14" t="s">
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A55" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A55" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A56" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A57" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A58" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A58" s="14" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A59" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A59" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A60" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A60" s="14" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A61" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A61" s="14" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A62" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="34" customFormat="1" ht="43.5">
-      <c r="A62" s="34" t="s">
+    <row r="63" spans="1:3" s="34" customFormat="1" ht="43.5">
+      <c r="A63" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B63" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C63" s="34" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A63" s="14" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A64" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A64" s="14" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A65" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A66" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A67" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A67" s="16" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A68" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A69" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A70" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A70" s="16" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A71" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A72" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A72" s="63" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A73" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A73" s="16" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A74" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B74" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A75" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B75" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A75" s="16" t="s">
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A76" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A77" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A77" s="16" t="s">
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A78" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B78" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A79" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A79" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A80" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A81" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B81" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A82" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B81" s="44" t="s">
+    </row>
+    <row r="83" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A83" s="16" t="s">
         <v>1334</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="B83" s="16" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A82" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>1336</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A83" s="16" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C83" s="16" t="s">
+    </row>
+    <row r="84" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A84" s="16" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A84" s="16" t="s">
+      <c r="B84" s="44" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A85" s="16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B84" s="16" t="s">
+    </row>
+    <row r="86" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A86" s="16" t="s">
         <v>1394</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="B86" s="16" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A85" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B85" s="16" t="s">
+    </row>
+    <row r="87" spans="1:3" s="14" customFormat="1" ht="101.5">
+      <c r="A87" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="B87" s="44" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="14" customFormat="1" ht="101.5">
-      <c r="A86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B86" s="44" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A87" s="16" t="s">
+    </row>
+    <row r="88" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A88" s="16" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>1414</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="14" customFormat="1" ht="29">
-      <c r="A88" s="16" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B88" s="44" t="s">
+    </row>
+    <row r="89" spans="1:3" s="14" customFormat="1" ht="29">
+      <c r="A89" s="16" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>1426</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="14" customFormat="1" ht="72.5">
-      <c r="A89" s="16" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B89" s="44" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A90" s="16" t="s">
-        <v>1463</v>
+        <v>1430</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>1462</v>
+        <v>1431</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1464</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="14" customFormat="1" ht="72.5">
       <c r="A91" s="16" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="14" customFormat="1" ht="72.5">
+      <c r="A92" s="16" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A93" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C91" s="16" t="s">
+      <c r="B93" s="44" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A92" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="B92" s="44" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="14" customFormat="1" ht="87">
-      <c r="A93" s="16" t="s">
+    </row>
+    <row r="94" spans="1:3" s="14" customFormat="1" ht="87">
+      <c r="A94" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="14" customFormat="1" ht="58">
+      <c r="A95" s="16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B95" s="44" t="s">
         <v>1501</v>
       </c>
-      <c r="B93" s="44" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="14" customFormat="1" ht="58">
-      <c r="A94" s="16" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B94" s="44" t="s">
+      <c r="C95" s="16" t="s">
         <v>1503</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="14" customFormat="1" ht="43.5">
-      <c r="A95" s="16" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="14" customFormat="1" ht="43.5">
       <c r="A96" s="16" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="B96" s="44" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="14" customFormat="1" ht="43.5">
+      <c r="A97" s="16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C97" s="16" t="s">
         <v>1521</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A97" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="B97" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="C97" s="62" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="32" customFormat="1" ht="58">
       <c r="A98" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="C98" s="62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A99" s="62" t="s">
         <v>388</v>
       </c>
-      <c r="B98" s="62" t="s">
+      <c r="B99" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="C98" s="62" t="s">
+      <c r="C99" s="62" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="32" customFormat="1" ht="87">
-      <c r="A99" s="62" t="s">
+    <row r="100" spans="1:3" s="32" customFormat="1" ht="87">
+      <c r="A100" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="62" t="s">
+      <c r="B100" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C100" s="62" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A100" s="62" t="s">
+    <row r="101" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A101" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="B100" s="62" t="s">
+      <c r="B101" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="C100" s="62" t="s">
+      <c r="C101" s="62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A101" s="62" t="s">
+    <row r="102" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A102" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B102" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C102" s="62" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="32" customFormat="1" ht="101.5">
-      <c r="A102" s="62" t="s">
+    <row r="103" spans="1:3" s="32" customFormat="1" ht="101.5">
+      <c r="A103" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="B102" s="62" t="s">
+      <c r="B103" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C103" s="62" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="32" customFormat="1" ht="72.5">
-      <c r="A103" s="62" t="s">
+    <row r="104" spans="1:3" s="32" customFormat="1" ht="72.5">
+      <c r="A104" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B104" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C104" s="62" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="32" customFormat="1" ht="43.5">
-      <c r="A104" s="62" t="s">
+    <row r="105" spans="1:3" s="32" customFormat="1" ht="43.5">
+      <c r="A105" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="B104" s="62" t="s">
+      <c r="B105" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C105" s="62" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="32" customFormat="1" ht="58">
-      <c r="A105" s="62" t="s">
+    <row r="106" spans="1:3" s="32" customFormat="1" ht="58">
+      <c r="A106" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B106" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C106" s="62" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="29">
-      <c r="A106" s="62" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B106" s="62" t="s">
+    <row r="107" spans="1:3" ht="29">
+      <c r="A107" s="62" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B107" s="62" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C107" s="62" t="s">
         <v>1435</v>
-      </c>
-      <c r="C106" s="62" t="s">
-        <v>1437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B63" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
+    <hyperlink ref="B64" r:id="rId1" xr:uid="{35689720-2D95-405C-B041-F9688B7C89FF}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{DC0AF6C5-A442-4EA6-9C55-1B8C2096CBBB}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{950E9D4A-E4B8-4B8F-A9FF-86A5398E786A}"/>
-    <hyperlink ref="B80" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
-    <hyperlink ref="B62" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
-    <hyperlink ref="B81" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
-    <hyperlink ref="B82" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
+    <hyperlink ref="B81" r:id="rId4" xr:uid="{12B7DCA2-5B0D-44F4-B929-07606D844695}"/>
+    <hyperlink ref="B63" r:id="rId5" xr:uid="{A3A60510-8CCB-483C-939C-6616BD3CC149}"/>
+    <hyperlink ref="B82" r:id="rId6" xr:uid="{96C17A36-D42C-4E3D-86B5-9692BA856975}"/>
+    <hyperlink ref="B83" r:id="rId7" xr:uid="{98ED5995-FF8B-4E37-B5F2-4B879CF73903}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{6F894F29-FF4C-4B75-9247-CCA7716DBC53}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{1A0E4539-93DA-47A0-99F3-A80D09CBCAEA}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{2FF5FFD2-8D2C-4A37-A196-6EBEF4BB75CF}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{4CA977F3-652C-49E7-AE78-844AEE72C8B8}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{AB832705-665C-4D38-BA53-403EC60A2210}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{B3883924-3B55-48AA-A71E-CDBAB78DE25D}"/>
-    <hyperlink ref="B83" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
+    <hyperlink ref="B84" r:id="rId14" xr:uid="{F843626C-643B-44B9-B523-706AECEE6F32}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{30A0374B-8FEE-4D31-8C9D-F5B543B4460B}"/>
     <hyperlink ref="B27" r:id="rId16" xr:uid="{14FE485B-D498-40A6-9EA7-101C7F1E9526}"/>
-    <hyperlink ref="B84" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
-    <hyperlink ref="B85" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
-    <hyperlink ref="B86" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
+    <hyperlink ref="B85" r:id="rId17" xr:uid="{658BCFA5-C3BA-4306-ACD0-0489C9F37CCB}"/>
+    <hyperlink ref="B86" r:id="rId18" xr:uid="{965EAE2A-251A-42F2-8322-4182448AF35A}"/>
+    <hyperlink ref="B87" r:id="rId19" xr:uid="{BF96E7F9-C4B9-4373-8549-8B96C4734F44}"/>
     <hyperlink ref="B28" r:id="rId20" xr:uid="{AEA37FBF-7488-4CD3-8E95-8C882B7F6F25}"/>
-    <hyperlink ref="B87" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
-    <hyperlink ref="B88" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
-    <hyperlink ref="B89" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
-    <hyperlink ref="B106" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
+    <hyperlink ref="B88" r:id="rId21" xr:uid="{7201E024-D59E-4063-9FCA-9A3860C7A51E}"/>
+    <hyperlink ref="B89" r:id="rId22" xr:uid="{8DB86C6E-755D-436E-904A-F7C461D8F1BB}"/>
+    <hyperlink ref="B90" r:id="rId23" xr:uid="{8B825541-9938-4B8A-9E2D-15C6366530DD}"/>
+    <hyperlink ref="B107" r:id="rId24" xr:uid="{F0769311-0F45-46A5-93CE-00FA00B915CC}"/>
     <hyperlink ref="B29" r:id="rId25" xr:uid="{E777C25B-7AC3-4E33-95E1-DFC7177C6BDD}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
-    <hyperlink ref="B90" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
+    <hyperlink ref="B38" r:id="rId26" xr:uid="{ABD9FCE0-1FEE-47BC-AF52-ED7117D562B8}"/>
+    <hyperlink ref="B91" r:id="rId27" xr:uid="{25ED8555-5D62-4906-9143-8E1CCD7DB12E}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{6C6725D1-8ECF-4B3D-9662-6A4903AEFCBD}"/>
     <hyperlink ref="B31" r:id="rId29" xr:uid="{1A609023-8E92-4143-A344-929BE5D3948E}"/>
-    <hyperlink ref="B91" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
-    <hyperlink ref="B92" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
+    <hyperlink ref="B92" r:id="rId30" xr:uid="{89C41081-A9C4-48FB-84A2-A222B24695AC}"/>
+    <hyperlink ref="B93" r:id="rId31" xr:uid="{3D0B1569-AD6D-4BED-9C82-1888C3BB7A5C}"/>
     <hyperlink ref="B32" r:id="rId32" xr:uid="{697F886D-50A4-4395-AFAD-CF5ED0A0887A}"/>
     <hyperlink ref="B33" r:id="rId33" xr:uid="{E4E07A02-6ACB-41E4-982E-15990C925CB9}"/>
     <hyperlink ref="B34" r:id="rId34" xr:uid="{A87906E5-875B-4ADA-9E15-BFF9C8EF5967}"/>
     <hyperlink ref="B35" r:id="rId35" xr:uid="{1A54FD12-2740-4F03-B1E0-576C55472E81}"/>
-    <hyperlink ref="B93" r:id="rId36" xr:uid="{CEFEA3AB-E198-4F09-B87A-8B013D7918F8}"/>
-    <hyperlink ref="B94" r:id="rId37" xr:uid="{44202A57-D2FF-44CD-B225-B257D7C8AD06}"/>
-    <hyperlink ref="B36" r:id="rId38" xr:uid="{3D661743-D98C-4B14-A97A-341E35534F2B}"/>
-    <hyperlink ref="B95" r:id="rId39" xr:uid="{5B154C37-1A66-42D1-875C-74587BB3E56D}"/>
-    <hyperlink ref="B96" r:id="rId40" xr:uid="{FE17E7FC-82F4-4418-9799-B3F09D6D07EE}"/>
+    <hyperlink ref="B94" r:id="rId36" xr:uid="{CEFEA3AB-E198-4F09-B87A-8B013D7918F8}"/>
+    <hyperlink ref="B95" r:id="rId37" xr:uid="{44202A57-D2FF-44CD-B225-B257D7C8AD06}"/>
+    <hyperlink ref="B37" r:id="rId38" xr:uid="{3D661743-D98C-4B14-A97A-341E35534F2B}"/>
+    <hyperlink ref="B96" r:id="rId39" xr:uid="{5B154C37-1A66-42D1-875C-74587BB3E56D}"/>
+    <hyperlink ref="B97" r:id="rId40" xr:uid="{FE17E7FC-82F4-4418-9799-B3F09D6D07EE}"/>
+    <hyperlink ref="B36" r:id="rId41" xr:uid="{8FF7E3EF-8FD2-45BF-B159-8AD57DD6C140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8033,13 +8055,13 @@
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="29">
       <c r="A8" s="37" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>1506</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="43.5">
@@ -8055,46 +8077,46 @@
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A10" s="37" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B10" s="64" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>1402</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A11" s="37" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>1429</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A12" s="37" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>1405</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A13" s="37" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B13" s="64" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>1423</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="72.5">
@@ -8300,112 +8322,112 @@
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="87">
       <c r="A32" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>1339</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A33" s="16" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>1354</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="116">
       <c r="A34" s="16" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B34" s="44" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>1357</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A35" s="16" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>1360</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A36" s="16" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>1450</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A37" s="16" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>1453</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="72.5">
       <c r="A38" s="16" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B38" s="44" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>1468</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A39" s="16" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>1483</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="43.5">
       <c r="A40" s="16" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>1512</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="58">
       <c r="A41" s="16" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B41" s="44" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>1515</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="58">
@@ -8443,24 +8465,24 @@
     </row>
     <row r="45" spans="1:3" ht="43.5">
       <c r="A45" s="18" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>1387</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="18" customFormat="1" ht="72.5">
       <c r="A46" s="18" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>1420</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>1422</v>
       </c>
     </row>
   </sheetData>
@@ -8906,25 +8928,25 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="66">
       <c r="A34" s="24" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B34" s="44" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1441</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1443</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="82.5">
       <c r="A35" s="24" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1447</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1449</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -9274,13 +9296,13 @@
     </row>
     <row r="16" spans="1:21" ht="58">
       <c r="A16" s="41" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B16" s="41" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>1372</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="87">
@@ -10249,24 +10271,24 @@
     </row>
     <row r="103" spans="1:3" ht="101.5">
       <c r="A103" s="16" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="87">
       <c r="A104" s="16" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>1474</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="116">
@@ -10293,79 +10315,79 @@
     </row>
     <row r="107" spans="1:3" ht="72.5">
       <c r="A107" s="39" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B107" s="39" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C107" s="39" t="s">
         <v>1363</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="116">
       <c r="A108" s="39" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C108" s="39" t="s">
         <v>1366</v>
-      </c>
-      <c r="B108" s="39" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="72.5">
       <c r="A109" s="39" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B109" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C109" s="39" t="s">
         <v>1378</v>
-      </c>
-      <c r="B109" s="39" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C109" s="39" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="116">
       <c r="A110" s="39" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B110" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C110" s="39" t="s">
         <v>1384</v>
-      </c>
-      <c r="C110" s="39" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="58">
       <c r="A111" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="58">
       <c r="A112" s="39" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="43.5">
       <c r="A113" s="39" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
@@ -12152,35 +12174,35 @@
     </row>
     <row r="114" spans="1:3" ht="57.5" customHeight="1">
       <c r="A114" s="50" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C114" s="50" t="s">
         <v>1369</v>
-      </c>
-      <c r="B114" s="50" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C114" s="50" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="58">
       <c r="A115" s="49" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B115" s="49" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C115" s="49" t="s">
         <v>1375</v>
-      </c>
-      <c r="C115" s="49" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="72.5">
       <c r="A116" s="49" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C116" s="49" t="s">
         <v>1408</v>
-      </c>
-      <c r="B116" s="49" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C116" s="49" t="s">
-        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -12306,8 +12328,8 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12392,13 +12414,13 @@
     </row>
     <row r="7" spans="1:4" s="57" customFormat="1" ht="43.5">
       <c r="A7" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>1279</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="57" customFormat="1" ht="72.5">
@@ -12436,13 +12458,13 @@
     </row>
     <row r="11" spans="1:4" s="61" customFormat="1" ht="43.5">
       <c r="A11" s="61" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>1250</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="49.5">
@@ -12495,38 +12517,38 @@
     </row>
     <row r="16" spans="1:4" ht="130.5">
       <c r="A16" s="55" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>1192</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5">
       <c r="A17" s="55" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1194</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="101.5">
       <c r="A18" s="55" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="58">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72.5">
       <c r="A19" s="55" t="s">
         <v>1185</v>
       </c>
@@ -12534,227 +12556,227 @@
         <v>1184</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>1186</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29">
       <c r="A20" s="55" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29">
       <c r="A21" s="55" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C21" s="55" t="s">
         <v>1197</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29">
       <c r="A22" s="61" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B22" s="61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C22" s="61" t="s">
         <v>1202</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="87">
       <c r="A23" s="55" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B23" s="55" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C23" s="55" t="s">
         <v>1205</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58">
       <c r="A24" s="55" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B24" s="55" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>1208</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29">
       <c r="A25" s="55" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B25" s="55" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C25" s="55" t="s">
         <v>1223</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="61" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>1217</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="145">
       <c r="A27" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>1220</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72.5">
       <c r="A28" s="55" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C28" s="55" t="s">
         <v>1211</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.5">
       <c r="A29" s="55" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C29" s="55" t="s">
         <v>1214</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.5">
       <c r="A30" s="55" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>1226</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29">
       <c r="A31" s="55" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B31" s="55" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C31" s="55" t="s">
         <v>1229</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5">
       <c r="A32" s="55" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B32" s="55" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>1232</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.5">
       <c r="A33" s="55" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B33" s="55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>1247</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="58">
       <c r="A34" s="55" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="202" customHeight="1">
       <c r="A35" s="55" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B35" s="56" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C35" s="55" t="s">
         <v>1255</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="159.5">
       <c r="A36" s="55" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B36" s="55" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>1238</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="130.5">
       <c r="A37" s="55" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58">
       <c r="A38" s="55" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B38" s="55" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C38" s="55" t="s">
         <v>1244</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="145">
       <c r="A39" s="55" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="58">
@@ -12762,318 +12784,318 @@
         <v>1160</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="104.5" customHeight="1">
       <c r="A41" s="55" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="130.5">
       <c r="A42" s="55" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B42" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C42" s="55" t="s">
         <v>1263</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="120.5" customHeight="1">
       <c r="A43" s="55" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="87">
       <c r="A44" s="61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C44" s="61" t="s">
         <v>1270</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="159.5">
       <c r="A45" s="55" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B45" s="55" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C45" s="55" t="s">
         <v>1273</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="174">
       <c r="A46" s="55" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="179.5" customHeight="1">
       <c r="A47" s="55" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="261">
       <c r="A48" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C48" s="61" t="s">
         <v>1285</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="101.5">
       <c r="A50" s="54" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="29">
       <c r="A51" s="54" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B51" s="54" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>1291</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="29">
       <c r="A52" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C52" s="55" t="s">
         <v>1294</v>
-      </c>
-      <c r="B52" s="55" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="72.5">
       <c r="A53" s="55" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C53" s="55" t="s">
         <v>1297</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.5">
       <c r="A54" s="55" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="58">
       <c r="A55" s="55" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C55" s="55" t="s">
         <v>1303</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="44" customHeight="1">
       <c r="A56" s="55" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C56" s="55" t="s">
         <v>1306</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="72.5">
       <c r="A57" s="55" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="130.5">
       <c r="A58" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C58" s="55" t="s">
         <v>1312</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="58">
       <c r="A59" s="55" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B59" s="55" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C59" s="55" t="s">
         <v>1315</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="46.5" customHeight="1">
       <c r="A60" s="55" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="88.5" customHeight="1">
       <c r="A61" s="55" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B61" s="55" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C61" s="55" t="s">
         <v>1321</v>
-      </c>
-      <c r="C61" s="55" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="43.5">
       <c r="A62" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C62" s="55" t="s">
         <v>1324</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72.5">
       <c r="A63" s="55" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B63" s="55" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C63" s="55" t="s">
         <v>1327</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="101.5">
       <c r="A64" s="55" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B64" s="55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C64" s="55" t="s">
         <v>1330</v>
-      </c>
-      <c r="C64" s="55" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.5">
       <c r="A65" s="55" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>1345</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="29">
       <c r="A66" s="55" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B66" s="55" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C66" s="55" t="s">
         <v>1348</v>
-      </c>
-      <c r="C66" s="55" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="133" customHeight="1">
       <c r="A67" s="55" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B67" s="55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C67" s="55" t="s">
         <v>1351</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="72.5">
       <c r="A68" s="55" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C68" s="55" t="s">
         <v>1417</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="58">
       <c r="A69" s="55" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B69" s="55" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C69" s="55" t="s">
         <v>1444</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>1446</v>
       </c>
     </row>
   </sheetData>
